--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
     <t>PN</t>
   </si>
   <si>
@@ -50,6 +53,18 @@
   </si>
   <si>
     <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:33:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:31:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:41:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:59:55+00:00</t>
   </si>
   <si>
     <t>898930-10</t>
@@ -470,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,109 +516,124 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+  <si>
+    <t>VQ#</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -41,6 +44,18 @@
   </si>
   <si>
     <t>Detected Qty</t>
+  </si>
+  <si>
+    <t>VQ0001</t>
+  </si>
+  <si>
+    <t>VQ0002</t>
+  </si>
+  <si>
+    <t>VQ0003</t>
+  </si>
+  <si>
+    <t>VQ0004</t>
   </si>
   <si>
     <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
@@ -485,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,121 +534,136 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="355">
   <si>
     <t>VQ#</t>
   </si>
@@ -58,6 +58,231 @@
     <t>VQ0004</t>
   </si>
   <si>
+    <t>VQ0005</t>
+  </si>
+  <si>
+    <t>VQ0006</t>
+  </si>
+  <si>
+    <t>VQ0007</t>
+  </si>
+  <si>
+    <t>VQ0008</t>
+  </si>
+  <si>
+    <t>VQ0009</t>
+  </si>
+  <si>
+    <t>VQ0010</t>
+  </si>
+  <si>
+    <t>VQ0011</t>
+  </si>
+  <si>
+    <t>VQ0012</t>
+  </si>
+  <si>
+    <t>VQ0013</t>
+  </si>
+  <si>
+    <t>VQ0014</t>
+  </si>
+  <si>
+    <t>VQ0015</t>
+  </si>
+  <si>
+    <t>VQ0016</t>
+  </si>
+  <si>
+    <t>VQ0017</t>
+  </si>
+  <si>
+    <t>VQ0018</t>
+  </si>
+  <si>
+    <t>VQ0019</t>
+  </si>
+  <si>
+    <t>VQ0020</t>
+  </si>
+  <si>
+    <t>VQ0021</t>
+  </si>
+  <si>
+    <t>VQ0022</t>
+  </si>
+  <si>
+    <t>VQ0023</t>
+  </si>
+  <si>
+    <t>VQ0024</t>
+  </si>
+  <si>
+    <t>VQ0025</t>
+  </si>
+  <si>
+    <t>VQ0026</t>
+  </si>
+  <si>
+    <t>VQ0027</t>
+  </si>
+  <si>
+    <t>VQ0028</t>
+  </si>
+  <si>
+    <t>VQ0029</t>
+  </si>
+  <si>
+    <t>VQ0030</t>
+  </si>
+  <si>
+    <t>VQ0031</t>
+  </si>
+  <si>
+    <t>VQ0032</t>
+  </si>
+  <si>
+    <t>VQ0033</t>
+  </si>
+  <si>
+    <t>VQ0034</t>
+  </si>
+  <si>
+    <t>VQ0035</t>
+  </si>
+  <si>
+    <t>VQ0036</t>
+  </si>
+  <si>
+    <t>VQ0037</t>
+  </si>
+  <si>
+    <t>VQ0038</t>
+  </si>
+  <si>
+    <t>VQ0039</t>
+  </si>
+  <si>
+    <t>VQ0040</t>
+  </si>
+  <si>
+    <t>VQ0041</t>
+  </si>
+  <si>
+    <t>VQ0042</t>
+  </si>
+  <si>
+    <t>VQ0043</t>
+  </si>
+  <si>
+    <t>VQ0044</t>
+  </si>
+  <si>
+    <t>VQ0045</t>
+  </si>
+  <si>
+    <t>VQ0046</t>
+  </si>
+  <si>
+    <t>VQ0047</t>
+  </si>
+  <si>
+    <t>VQ0048</t>
+  </si>
+  <si>
+    <t>VQ0049</t>
+  </si>
+  <si>
+    <t>VQ0050</t>
+  </si>
+  <si>
+    <t>VQ0051</t>
+  </si>
+  <si>
+    <t>VQ0052</t>
+  </si>
+  <si>
+    <t>VQ0053</t>
+  </si>
+  <si>
+    <t>VQ0054</t>
+  </si>
+  <si>
+    <t>VQ0055</t>
+  </si>
+  <si>
+    <t>Example Function</t>
+  </si>
+  <si>
+    <t>Another example</t>
+  </si>
+  <si>
+    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
+  </si>
+  <si>
+    <t>Here is another example</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
+  </si>
+  <si>
+    <t>ILS offer request</t>
+  </si>
+  <si>
+    <t>Quote Order S7036629</t>
+  </si>
+  <si>
+    <t>Another example to test the desktop vs online version</t>
+  </si>
+  <si>
+    <t>RE: C17001DA01</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
+  </si>
+  <si>
+    <t>Quote: BMA4028224    P/N: 715331</t>
+  </si>
+  <si>
+    <t>Aero-Zone has YOUR Inventory</t>
+  </si>
+  <si>
+    <t>New Part</t>
+  </si>
+  <si>
+    <t>DASI Quote – 11058529 - 20250204.pdf</t>
+  </si>
+  <si>
+    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
+  </si>
+  <si>
+    <t>Quote Order C7062792</t>
+  </si>
+  <si>
+    <t>Quote Order C7062849</t>
+  </si>
+  <si>
+    <t>QU-623641 from RIM Enterprises LLC</t>
+  </si>
+  <si>
+    <t>Quote Order C7062911</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204124550</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
+  </si>
+  <si>
     <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
   </si>
   <si>
@@ -70,6 +295,159 @@
     <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
   </si>
   <si>
+    <t>Quote Order C7059616</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation - 01400543 </t>
+  </si>
+  <si>
+    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
+  </si>
+  <si>
+    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
+  </si>
+  <si>
+    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t>RE: 3290694-5</t>
+  </si>
+  <si>
+    <t>QU-1747442 from Setna iO</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+  </si>
+  <si>
+    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
+  </si>
+  <si>
+    <t>Aermotive - 9032-4-2</t>
+  </si>
+  <si>
+    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
+  </si>
+  <si>
+    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:36:05+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:42:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:49:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T11:41:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T12:05:15+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T13:23:38+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T18:47:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-28T09:05:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-29T13:19:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T06:15:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T06:13:01+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-03T13:30:17+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T07:50:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T10:13:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T11:13:52+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:10:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:10:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:37:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:21:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:25:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:53:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:48:33+00:00</t>
+  </si>
+  <si>
     <t>2025-02-04T18:33:36+00:00</t>
   </si>
   <si>
@@ -82,6 +460,150 @@
     <t>2025-02-04T16:59:55+00:00</t>
   </si>
   <si>
+    <t>2025-02-04T16:36:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:16+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:45:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:36:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:06+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T20:58:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T14:06:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T15:30:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T16:54:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T17:28:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T01:32:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T23:03:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:24:09+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T11:10:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T10:50:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:42:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:24:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:16:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T15:50:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T20:42:18+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:50:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:48:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:43:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:26:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:07:04+00:00</t>
+  </si>
+  <si>
+    <t>762185H; 762185J</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00</t>
+  </si>
+  <si>
+    <t>C17001DA01</t>
+  </si>
+  <si>
+    <t>762185H</t>
+  </si>
+  <si>
+    <t>1151952-19</t>
+  </si>
+  <si>
+    <t>S5397132100802</t>
+  </si>
+  <si>
+    <t>263BA101-2; 263BA101-2</t>
+  </si>
+  <si>
+    <t>100-5383Y-00</t>
+  </si>
+  <si>
+    <t>C17001BA01</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
+  </si>
+  <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331</t>
+  </si>
+  <si>
+    <t>DK120; 2100-4043-00</t>
+  </si>
+  <si>
+    <t>855D100-11</t>
+  </si>
+  <si>
+    <t>S800-3000-00</t>
+  </si>
+  <si>
+    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
+  </si>
+  <si>
+    <t>300013000-003</t>
+  </si>
+  <si>
+    <t>22020; 26020</t>
+  </si>
+  <si>
+    <t>865D100-7</t>
+  </si>
+  <si>
+    <t>2100-4043-00; S800-3000-00</t>
+  </si>
+  <si>
     <t>898930-10</t>
   </si>
   <si>
@@ -91,7 +613,130 @@
     <t>01 600; 104101</t>
   </si>
   <si>
-    <t>715331</t>
+    <t>190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>16520-101</t>
+  </si>
+  <si>
+    <t>2100-4043-00</t>
+  </si>
+  <si>
+    <t>S67-2002-18</t>
+  </si>
+  <si>
+    <t>5001319</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>NP165312-14</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC</t>
+  </si>
+  <si>
+    <t>80-057-01</t>
+  </si>
+  <si>
+    <t>766088B</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>727810C</t>
+  </si>
+  <si>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+  </si>
+  <si>
+    <t>gcu; gcu</t>
+  </si>
+  <si>
+    <t>fan-recirculation; fan-recirculation</t>
+  </si>
+  <si>
+    <t>air data</t>
+  </si>
+  <si>
+    <t>gcu</t>
+  </si>
+  <si>
+    <t>standby power con.</t>
+  </si>
+  <si>
+    <t>fitting fwd lh</t>
+  </si>
+  <si>
+    <t>battery; battery</t>
+  </si>
+  <si>
+    <t>landing gear selector valve</t>
+  </si>
+  <si>
+    <t>air data mdl</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
+  </si>
+  <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>under water locator beacon; beacon</t>
+  </si>
+  <si>
+    <t>bpsu</t>
+  </si>
+  <si>
+    <t>ssfdr</t>
+  </si>
+  <si>
+    <t>antenna; tcas antenna; multipurpose control and display unit</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice</t>
+  </si>
+  <si>
+    <t>voltage regulator; tri flow lubricant</t>
+  </si>
+  <si>
+    <t>pdu</t>
+  </si>
+  <si>
+    <t>dfdr; ssfdr</t>
   </si>
   <si>
     <t>valve</t>
@@ -103,19 +748,178 @@
     <t>ground spoiler; walltable</t>
   </si>
   <si>
-    <t>seal</t>
+    <t>bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>actuator,retraction (nlg)</t>
+  </si>
+  <si>
+    <t>dfdr</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>balance kit</t>
+  </si>
+  <si>
+    <t>window-sliding</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>RP; TE</t>
+  </si>
+  <si>
+    <t>OH; SV</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>RE</t>
   </si>
   <si>
     <t>SV</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>OH; OH</t>
+  </si>
+  <si>
+    <t>AR; IN; NE</t>
+  </si>
+  <si>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>OH; OH; OH; OH; AR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SV; AR</t>
+  </si>
+  <si>
+    <t>SV; AR; NS</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
     <t>AR; OH; AR; SV</t>
   </si>
   <si>
     <t>AR; NS</t>
   </si>
   <si>
-    <t>AR</t>
+    <t>NS; NS; IN</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; NS</t>
+  </si>
+  <si>
+    <t>NE; NE; NE</t>
+  </si>
+  <si>
+    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
+  </si>
+  <si>
+    <t>SV; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH</t>
+  </si>
+  <si>
+    <t>3500; Call for Price</t>
+  </si>
+  <si>
+    <t>13000; 11300</t>
+  </si>
+  <si>
+    <t>14580</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>UNK/Process Error</t>
+  </si>
+  <si>
+    <t>3495</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>4106.87; 5967.19</t>
+  </si>
+  <si>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>15000</t>
   </si>
   <si>
     <t>15990</t>
@@ -124,25 +928,157 @@
     <t>225226.32; 27926.08; 229240.68; 24283.42</t>
   </si>
   <si>
-    <t>UNK/Process Error</t>
+    <t>5042.08; 847</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>10439.55</t>
+  </si>
+  <si>
+    <t>38430</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>2453.61</t>
+  </si>
+  <si>
+    <t>68950</t>
+  </si>
+  <si>
+    <t>3541.76; 3541.76; 3541.76</t>
+  </si>
+  <si>
+    <t>5280; 79200</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
   </si>
   <si>
     <t>UNK</t>
   </si>
   <si>
+    <t>EASA Form 1</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>UNK; UNK</t>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Manufacturers C of C</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>2024-09-26; 2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-08-08; 2024-05-08</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2023-06-29; 2023-09-25</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2025-01-20; 2023-09-13</t>
+  </si>
+  <si>
+    <t>2009-02-12</t>
+  </si>
+  <si>
+    <t>2024-07-10; 2023-10-13</t>
+  </si>
+  <si>
+    <t>U; N; K</t>
+  </si>
+  <si>
+    <t>1; 1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1</t>
   </si>
   <si>
-    <t>1; 1</t>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
   </si>
 </sst>
 </file>
@@ -500,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,31 +1479,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -575,31 +1511,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -607,31 +1543,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -639,31 +1575,1660 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H15" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" t="s">
+        <v>322</v>
+      </c>
+      <c r="I17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" t="s">
+        <v>341</v>
+      </c>
+      <c r="J18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" t="s">
+        <v>343</v>
+      </c>
+      <c r="J22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I23" t="s">
+        <v>343</v>
+      </c>
+      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" t="s">
+        <v>320</v>
+      </c>
+      <c r="J24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" t="s">
+        <v>317</v>
+      </c>
+      <c r="I25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I26" t="s">
+        <v>320</v>
+      </c>
+      <c r="J26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" t="s">
+        <v>320</v>
+      </c>
+      <c r="J27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" t="s">
+        <v>320</v>
+      </c>
+      <c r="J28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" t="s">
+        <v>320</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30" t="s">
+        <v>320</v>
+      </c>
+      <c r="I30" t="s">
+        <v>320</v>
+      </c>
+      <c r="J30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" t="s">
+        <v>320</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" t="s">
+        <v>320</v>
+      </c>
+      <c r="J36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" t="s">
+        <v>320</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" t="s">
+        <v>311</v>
+      </c>
+      <c r="H46" t="s">
+        <v>320</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" t="s">
+        <v>292</v>
+      </c>
+      <c r="H47" t="s">
+        <v>329</v>
+      </c>
+      <c r="I47" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" t="s">
+        <v>320</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" t="s">
+        <v>320</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" t="s">
+        <v>313</v>
+      </c>
+      <c r="H51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" t="s">
+        <v>323</v>
+      </c>
+      <c r="I52" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H53" t="s">
+        <v>332</v>
+      </c>
+      <c r="I53" t="s">
+        <v>320</v>
+      </c>
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" t="s">
+        <v>317</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55" t="s">
+        <v>320</v>
+      </c>
+      <c r="J55" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" t="s">
+        <v>292</v>
+      </c>
+      <c r="H56" t="s">
+        <v>323</v>
+      </c>
+      <c r="I56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -688,7 +688,7 @@
     <t>gcu</t>
   </si>
   <si>
-    <t>standby power con.</t>
+    <t>standby power control</t>
   </si>
   <si>
     <t>fitting fwd lh</t>
@@ -715,7 +715,7 @@
     <t>seal</t>
   </si>
   <si>
-    <t>under water locator beacon; beacon</t>
+    <t>beacon; under water locator beacon</t>
   </si>
   <si>
     <t>bpsu</t>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -715,7 +715,7 @@
     <t>seal</t>
   </si>
   <si>
-    <t>beacon; under water locator beacon</t>
+    <t>under water locator beacon; beacon</t>
   </si>
   <si>
     <t>bpsu</t>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="356">
   <si>
     <t>VQ#</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>VQ0055</t>
+  </si>
+  <si>
+    <t>VQ0056</t>
   </si>
   <si>
     <t>Example Function</t>
@@ -1436,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,31 +1482,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1511,31 +1514,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1543,31 +1546,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1575,31 +1578,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1607,31 +1610,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1639,31 +1642,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1671,31 +1674,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1703,31 +1706,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1735,31 +1738,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1767,31 +1770,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1799,31 +1802,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1831,31 +1834,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1863,31 +1866,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1895,31 +1898,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1927,31 +1930,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1959,31 +1962,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1991,31 +1994,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2023,31 +2026,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2055,31 +2058,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2087,31 +2090,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2119,31 +2122,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2151,31 +2154,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2183,31 +2186,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2215,31 +2218,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2247,31 +2250,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2279,31 +2282,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2311,31 +2314,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2343,31 +2346,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2375,31 +2378,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2407,31 +2410,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2439,31 +2442,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2471,31 +2474,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2503,31 +2506,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2535,31 +2538,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2567,31 +2570,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2599,31 +2602,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2631,31 +2634,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2663,31 +2666,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2695,31 +2698,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2727,31 +2730,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2759,31 +2762,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2791,31 +2794,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2823,28 +2826,28 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2852,31 +2855,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2884,31 +2887,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2916,31 +2919,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2948,31 +2951,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2980,31 +2983,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3012,31 +3015,31 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3044,31 +3047,31 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3076,31 +3079,31 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3108,31 +3111,31 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3140,31 +3143,31 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3172,31 +3175,31 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3204,31 +3207,63 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J56" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" t="s">
+        <v>288</v>
+      </c>
+      <c r="H57" t="s">
+        <v>318</v>
+      </c>
+      <c r="I57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J57" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="424">
   <si>
     <t>VQ#</t>
   </si>
@@ -220,10 +220,106 @@
     <t>VQ0056</t>
   </si>
   <si>
+    <t>VQ0057</t>
+  </si>
+  <si>
+    <t>QU-623641 from RIM Enterprises LLC</t>
+  </si>
+  <si>
+    <t>Another example</t>
+  </si>
+  <si>
+    <t>RE: 3290694-5</t>
+  </si>
+  <si>
+    <t>Another example to test the desktop vs online version</t>
+  </si>
+  <si>
+    <t>New Part</t>
+  </si>
+  <si>
+    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
+  </si>
+  <si>
+    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
+  </si>
+  <si>
+    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
+  </si>
+  <si>
     <t>Example Function</t>
   </si>
   <si>
-    <t>Another example</t>
+    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation - 01400543 </t>
+  </si>
+  <si>
+    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
+  </si>
+  <si>
+    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
+  </si>
+  <si>
+    <t>QU-1747442 from Setna iO</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+  </si>
+  <si>
+    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
+  </si>
+  <si>
+    <t>Aermotive - 9032-4-2</t>
+  </si>
+  <si>
+    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
+  </si>
+  <si>
+    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
+  </si>
+  <si>
+    <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote Order C7059616</t>
   </si>
   <si>
     <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
@@ -241,9 +337,6 @@
     <t>Quote Order S7036629</t>
   </si>
   <si>
-    <t>Another example to test the desktop vs online version</t>
-  </si>
-  <si>
     <t>RE: C17001DA01</t>
   </si>
   <si>
@@ -256,9 +349,6 @@
     <t>Aero-Zone has YOUR Inventory</t>
   </si>
   <si>
-    <t>New Part</t>
-  </si>
-  <si>
     <t>DASI Quote – 11058529 - 20250204.pdf</t>
   </si>
   <si>
@@ -271,9 +361,6 @@
     <t>Quote Order C7062849</t>
   </si>
   <si>
-    <t>QU-623641 from RIM Enterprises LLC</t>
-  </si>
-  <si>
     <t>Quote Order C7062911</t>
   </si>
   <si>
@@ -301,99 +388,81 @@
     <t>Quote Order C7061042</t>
   </si>
   <si>
-    <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
-  </si>
-  <si>
-    <t>Quote Order C7059616</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
-  </si>
-  <si>
-    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
-  </si>
-  <si>
-    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
-  </si>
-  <si>
-    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
-  </si>
-  <si>
-    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation - 01400543 </t>
-  </si>
-  <si>
-    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
-  </si>
-  <si>
-    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
-  </si>
-  <si>
-    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
-  </si>
-  <si>
-    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
-  </si>
-  <si>
-    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
-  </si>
-  <si>
-    <t>RE: 3290694-5</t>
-  </si>
-  <si>
-    <t>QU-1747442 from Setna iO</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
-  </si>
-  <si>
-    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
-  </si>
-  <si>
-    <t>Aermotive - 9032-4-2</t>
-  </si>
-  <si>
-    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
-  </si>
-  <si>
-    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
-  </si>
-  <si>
-    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
-  </si>
-  <si>
-    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
+    <t>jfagan@riment.com</t>
   </si>
   <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
+    <t>Aivaras.Staknys@setnaio.com</t>
+  </si>
+  <si>
+    <t>sales@tecnicaaerospace.com</t>
+  </si>
+  <si>
+    <t>sergey@sentry.aero</t>
+  </si>
+  <si>
+    <t>sales@mtraviation.com</t>
+  </si>
+  <si>
+    <t>sales@brownhelicopter.com</t>
+  </si>
+  <si>
+    <t>DoNotReply@ilsmart.com</t>
+  </si>
+  <si>
+    <t>Mariana.Blanco@incora.com</t>
+  </si>
+  <si>
+    <t>janelle@cavuaerospace.com</t>
+  </si>
+  <si>
+    <t>textquote3@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>quote@app.rotabull.com</t>
+  </si>
+  <si>
+    <t>Quote@aerospareparts.com</t>
+  </si>
+  <si>
+    <t>Guillermo.Arce@dasi.com</t>
+  </si>
+  <si>
+    <t>aivaras.staknys@setnaio.com</t>
+  </si>
+  <si>
+    <t>linda.vargas@vas.aero</t>
+  </si>
+  <si>
+    <t>cjacobs@jacaero.com</t>
+  </si>
+  <si>
+    <t>david@aermotive.com</t>
+  </si>
+  <si>
+    <t>jessica@ljwalch.com</t>
+  </si>
+  <si>
+    <t>sales@dasi.com</t>
+  </si>
+  <si>
+    <t>sales@aviodirect.com</t>
+  </si>
+  <si>
+    <t>JKimm@midamaero.com</t>
+  </si>
+  <si>
+    <t>luciana@southseas.aero</t>
+  </si>
+  <si>
+    <t>JenniferSchreck@TurboResources.com</t>
+  </si>
+  <si>
     <t>NickLiberio@TurboResources.com</t>
   </si>
   <si>
-    <t>sales@dasi.com</t>
-  </si>
-  <si>
     <t>textquote2@brooks-maldini.net</t>
   </si>
   <si>
@@ -403,24 +472,12 @@
     <t>ted@ajsupport.com</t>
   </si>
   <si>
-    <t>quote@app.rotabull.com</t>
-  </si>
-  <si>
-    <t>JenniferSchreck@TurboResources.com</t>
-  </si>
-  <si>
-    <t>jfagan@riment.com</t>
-  </si>
-  <si>
     <t>CQ@oceanair.aero</t>
   </si>
   <si>
     <t>partsales@voyav.com</t>
   </si>
   <si>
-    <t>DoNotReply@ilsmart.com</t>
-  </si>
-  <si>
     <t>jb@austinaerotech.com</t>
   </si>
   <si>
@@ -430,93 +487,84 @@
     <t>ben@aircraftparts.net</t>
   </si>
   <si>
-    <t>luciana@southseas.aero</t>
-  </si>
-  <si>
-    <t>textquote3@brooks-maldini.net</t>
-  </si>
-  <si>
-    <t>Quote@aerospareparts.com</t>
-  </si>
-  <si>
-    <t>janelle@cavuaerospace.com</t>
-  </si>
-  <si>
-    <t>Guillermo.Arce@dasi.com</t>
-  </si>
-  <si>
-    <t>sales@tecnicaaerospace.com</t>
-  </si>
-  <si>
-    <t>sales@brownhelicopter.com</t>
-  </si>
-  <si>
-    <t>sales@mtraviation.com</t>
-  </si>
-  <si>
-    <t>sergey@sentry.aero</t>
-  </si>
-  <si>
-    <t>Mariana.Blanco@incora.com</t>
-  </si>
-  <si>
-    <t>Aivaras.Staknys@setnaio.com</t>
-  </si>
-  <si>
-    <t>aivaras.staknys@setnaio.com</t>
-  </si>
-  <si>
-    <t>linda.vargas@vas.aero</t>
-  </si>
-  <si>
-    <t>cjacobs@jacaero.com</t>
-  </si>
-  <si>
-    <t>david@aermotive.com</t>
-  </si>
-  <si>
-    <t>jessica@ljwalch.com</t>
-  </si>
-  <si>
-    <t>sales@aviodirect.com</t>
-  </si>
-  <si>
-    <t>JKimm@midamaero.com</t>
+    <t>crimptools.com</t>
   </si>
   <si>
     <t>gabriel co</t>
   </si>
   <si>
+    <t>setna io</t>
+  </si>
+  <si>
+    <t>aeromni aerospace inc</t>
+  </si>
+  <si>
+    <t>seres aero</t>
+  </si>
+  <si>
+    <t>action aviation</t>
+  </si>
+  <si>
+    <t>brown helicopter</t>
+  </si>
+  <si>
+    <t>cmi sarl</t>
+  </si>
+  <si>
+    <t>atco, inc.</t>
+  </si>
+  <si>
+    <t>cm aerospace</t>
+  </si>
+  <si>
+    <t>brooks &amp; maldini corporation</t>
+  </si>
+  <si>
+    <t>av rotables llc</t>
+  </si>
+  <si>
+    <t>aerospares, llc</t>
+  </si>
+  <si>
+    <t>dasi</t>
+  </si>
+  <si>
+    <t>tcas aero</t>
+  </si>
+  <si>
+    <t>action aero</t>
+  </si>
+  <si>
+    <t>aermotive</t>
+  </si>
+  <si>
+    <t>lj walch</t>
+  </si>
+  <si>
+    <t>aviodirect</t>
+  </si>
+  <si>
+    <t>windaero llc</t>
+  </si>
+  <si>
+    <t>southeast aerospace</t>
+  </si>
+  <si>
     <t>aviation resources</t>
   </si>
   <si>
-    <t>dasi</t>
-  </si>
-  <si>
-    <t>brooks &amp; maldini corporation</t>
-  </si>
-  <si>
     <t>aero-zone</t>
   </si>
   <si>
     <t>ijsupport</t>
   </si>
   <si>
-    <t>av rotables llc</t>
-  </si>
-  <si>
-    <t>crimptools.com</t>
-  </si>
-  <si>
     <t>aero renix</t>
   </si>
   <si>
     <t>cargo royal</t>
   </si>
   <si>
-    <t>cmi sarl</t>
-  </si>
-  <si>
     <t>aerotech ops</t>
   </si>
   <si>
@@ -526,55 +574,103 @@
     <t>aircraftpartsz</t>
   </si>
   <si>
-    <t>southeast aerospace</t>
-  </si>
-  <si>
-    <t>aerospares, llc</t>
-  </si>
-  <si>
-    <t>cm aerospace</t>
-  </si>
-  <si>
-    <t>aeromni aerospace inc</t>
-  </si>
-  <si>
-    <t>brown helicopter</t>
-  </si>
-  <si>
-    <t>action aviation</t>
-  </si>
-  <si>
-    <t>seres aero</t>
-  </si>
-  <si>
-    <t>atco, inc.</t>
-  </si>
-  <si>
-    <t>setna io</t>
-  </si>
-  <si>
-    <t>tcas aero</t>
-  </si>
-  <si>
-    <t>action aero</t>
-  </si>
-  <si>
-    <t>aermotive</t>
-  </si>
-  <si>
-    <t>lj walch</t>
-  </si>
-  <si>
-    <t>aviodirect</t>
-  </si>
-  <si>
-    <t>windaero llc</t>
+    <t>2025-02-04T19:10:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:42:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T11:10:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-28T09:05:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T07:50:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T16:54:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T23:03:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T01:32:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T17:28:45+00:00</t>
   </si>
   <si>
     <t>2025-01-27T07:36:05+00:00</t>
   </si>
   <si>
-    <t>2025-01-27T07:42:56+00:00</t>
+    <t>2025-02-05T15:30:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:24:09+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T20:58:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:06+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:36:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T14:06:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:16+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T10:50:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:42:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:24:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:16:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T15:50:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T20:42:18+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:50:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:48:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:43:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:26:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:07:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:45:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:59:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:36:29+00:00</t>
   </si>
   <si>
     <t>2025-01-27T07:49:49+00:00</t>
@@ -592,9 +688,6 @@
     <t>2025-01-27T18:47:13+00:00</t>
   </si>
   <si>
-    <t>2025-01-28T09:05:14+00:00</t>
-  </si>
-  <si>
     <t>2025-01-29T13:19:51+00:00</t>
   </si>
   <si>
@@ -607,9 +700,6 @@
     <t>2025-02-03T13:30:17+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T07:50:37+00:00</t>
-  </si>
-  <si>
     <t>2025-02-04T10:13:12+00:00</t>
   </si>
   <si>
@@ -622,9 +712,6 @@
     <t>2025-02-04T19:06:55+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T19:10:11+00:00</t>
-  </si>
-  <si>
     <t>2025-02-04T19:10:47+00:00</t>
   </si>
   <si>
@@ -652,94 +739,88 @@
     <t>2025-02-04T16:41:30+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T16:59:55+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:36:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:39:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:39:16+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:45:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:36:50+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:33:07+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:33:06+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T20:58:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T14:06:10+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T15:30:57+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T16:54:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T17:28:45+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T01:32:27+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T23:03:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T16:24:09+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T11:10:49+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T10:50:32+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:42:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:24:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:16:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T15:50:48+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T20:42:18+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:50:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:48:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:43:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:26:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:07:04+00:00</t>
+    <t>S800-3000-00</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00</t>
+  </si>
+  <si>
+    <t>3290694-5</t>
+  </si>
+  <si>
+    <t>100-5383Y-00</t>
+  </si>
+  <si>
+    <t>S67-2002-18</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>5001319</t>
   </si>
   <si>
     <t>762185H; 762185J</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00</t>
+    <t>898930-10</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>16520-101</t>
+  </si>
+  <si>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>2100-4043-00</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>NP165312-14</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC</t>
+  </si>
+  <si>
+    <t>80-057-01</t>
+  </si>
+  <si>
+    <t>766088B</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>727810C</t>
+  </si>
+  <si>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>715331</t>
   </si>
   <si>
     <t>C17001DA01</t>
@@ -757,9 +838,6 @@
     <t>263BA101-2; 263BA101-2</t>
   </si>
   <si>
-    <t>100-5383Y-00</t>
-  </si>
-  <si>
     <t>C17001BA01</t>
   </si>
   <si>
@@ -772,18 +850,12 @@
     <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
   </si>
   <si>
-    <t>715331</t>
-  </si>
-  <si>
     <t>DK120; 2100-4043-00</t>
   </si>
   <si>
     <t>855D100-11</t>
   </si>
   <si>
-    <t>S800-3000-00</t>
-  </si>
-  <si>
     <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
   </si>
   <si>
@@ -799,82 +871,88 @@
     <t>2100-4043-00; S800-3000-00</t>
   </si>
   <si>
-    <t>898930-10</t>
-  </si>
-  <si>
     <t>898930-10; 898930-10; 898930-10; 898930-10</t>
   </si>
   <si>
     <t>01 600; 104101</t>
   </si>
   <si>
-    <t>190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>03-825-05ACP</t>
-  </si>
-  <si>
-    <t>16520-101</t>
-  </si>
-  <si>
-    <t>2100-4043-00</t>
-  </si>
-  <si>
-    <t>S67-2002-18</t>
-  </si>
-  <si>
-    <t>5001319</t>
-  </si>
-  <si>
-    <t>NO MATCH</t>
-  </si>
-  <si>
-    <t>MS14101-5ACP</t>
-  </si>
-  <si>
-    <t>NP165312-14</t>
-  </si>
-  <si>
-    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
-  </si>
-  <si>
-    <t>EVT3454HC</t>
-  </si>
-  <si>
-    <t>80-057-01</t>
-  </si>
-  <si>
-    <t>766088B</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>727810C</t>
-  </si>
-  <si>
-    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+    <t>ssfdr</t>
+  </si>
+  <si>
+    <t>fan-recirculation; fan-recirculation</t>
+  </si>
+  <si>
+    <t>valve-starter</t>
+  </si>
+  <si>
+    <t>landing gear selector valve</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>balance kit</t>
   </si>
   <si>
     <t>gcu; gcu</t>
   </si>
   <si>
-    <t>fan-recirculation; fan-recirculation</t>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>actuator,retraction (nlg)</t>
+  </si>
+  <si>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>dfdr</t>
+  </si>
+  <si>
+    <t>bushing; bushing</t>
+  </si>
+  <si>
+    <t>window-sliding</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>air data</t>
@@ -892,9 +970,6 @@
     <t>battery; battery</t>
   </si>
   <si>
-    <t>landing gear selector valve</t>
-  </si>
-  <si>
     <t>air data mdl</t>
   </si>
   <si>
@@ -907,18 +982,12 @@
     <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
   </si>
   <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>beacon; under water locator beacon</t>
   </si>
   <si>
     <t>bpsu</t>
   </si>
   <si>
-    <t>ssfdr</t>
-  </si>
-  <si>
     <t>antenna; tcas antenna; multipurpose control and display unit</t>
   </si>
   <si>
@@ -934,87 +1003,60 @@
     <t>dfdr; ssfdr</t>
   </si>
   <si>
-    <t>valve</t>
-  </si>
-  <si>
     <t>valve; valve; valve; valve</t>
   </si>
   <si>
     <t>ground spoiler; walltable</t>
   </si>
   <si>
-    <t>bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>bearing, plain</t>
-  </si>
-  <si>
-    <t>actuator,retraction (nlg)</t>
-  </si>
-  <si>
-    <t>dfdr</t>
-  </si>
-  <si>
-    <t>antenna</t>
-  </si>
-  <si>
-    <t>balance kit</t>
-  </si>
-  <si>
-    <t>window-sliding</t>
-  </si>
-  <si>
-    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
-  </si>
-  <si>
-    <t>cooling fan</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>idg</t>
-  </si>
-  <si>
-    <t>switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OH; SV</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>RP; TE</t>
   </si>
   <si>
-    <t>OH; SV</t>
-  </si>
-  <si>
-    <t>IN</t>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
+  </si>
+  <si>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; NS</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>NE; NE; NE</t>
+  </si>
+  <si>
+    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
+  </si>
+  <si>
+    <t>SV; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH</t>
+  </si>
+  <si>
+    <t>NS; NS; IN</t>
   </si>
   <si>
     <t>RE</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
@@ -1024,58 +1066,76 @@
     <t>AR; IN; NE</t>
   </si>
   <si>
-    <t>NE; NE</t>
-  </si>
-  <si>
     <t>OH; OH; OH; OH; AR</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>SV; AR</t>
   </si>
   <si>
     <t>SV; AR; NS</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>AR; OH; AR; SV</t>
   </si>
   <si>
     <t>AR; NS</t>
   </si>
   <si>
-    <t>NS; NS; IN</t>
-  </si>
-  <si>
-    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
-  </si>
-  <si>
-    <t>RE; RE; NE; NS</t>
-  </si>
-  <si>
-    <t>NE; NE; NE</t>
-  </si>
-  <si>
-    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
-  </si>
-  <si>
-    <t>SV; REPAIR</t>
-  </si>
-  <si>
-    <t>OH; OH; OH</t>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>13000; 11300</t>
+  </si>
+  <si>
+    <t>33950</t>
+  </si>
+  <si>
+    <t>3495</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>UNK/Process Error</t>
+  </si>
+  <si>
+    <t>960</t>
   </si>
   <si>
     <t>3500; Call for Price</t>
   </si>
   <si>
-    <t>13000; 11300</t>
+    <t>38430</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>10439.55</t>
+  </si>
+  <si>
+    <t>5042.08; 847</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>2453.61</t>
+  </si>
+  <si>
+    <t>68950</t>
+  </si>
+  <si>
+    <t>3541.76; 3541.76; 3541.76</t>
+  </si>
+  <si>
+    <t>5280; 79200</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>14580</t>
@@ -1087,12 +1147,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>UNK/Process Error</t>
-  </si>
-  <si>
-    <t>3495</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
@@ -1108,9 +1162,6 @@
     <t>2000</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>10500</t>
   </si>
   <si>
@@ -1123,99 +1174,66 @@
     <t>225226.32; 27926.08; 229240.68; 24283.42</t>
   </si>
   <si>
-    <t>5042.08; 847</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>10439.55</t>
-  </si>
-  <si>
-    <t>38430</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>7995</t>
-  </si>
-  <si>
-    <t>2453.61</t>
-  </si>
-  <si>
-    <t>68950</t>
-  </si>
-  <si>
-    <t>3541.76; 3541.76; 3541.76</t>
-  </si>
-  <si>
-    <t>5280; 79200</t>
-  </si>
-  <si>
-    <t>1000</t>
+    <t>UNK</t>
   </si>
   <si>
     <t>UNK; UNK</t>
   </si>
   <si>
+    <t>Manufacturers C of C</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA Form 1</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
     <t>FAA 8130</t>
   </si>
   <si>
     <t>EASA/FAA Dual Release</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>EASA Form 1</t>
-  </si>
-  <si>
     <t>Dual Release; Dual Release</t>
   </si>
   <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
     <t>Mfg Certs; Mfg Certs</t>
   </si>
   <si>
     <t>UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
     <t>Dual Release; Dual Release; Dual Release</t>
   </si>
   <si>
     <t>Dual Release 8130</t>
   </si>
   <si>
-    <t>UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>Manufacturers C of C</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+    <t>2024-08-08; 2024-05-08</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>U; N; K</t>
   </si>
   <si>
     <t>2024-09-26; 2024-09-26</t>
   </si>
   <si>
-    <t>2024-08-08; 2024-05-08</t>
-  </si>
-  <si>
     <t>2023-12</t>
   </si>
   <si>
@@ -1225,9 +1243,6 @@
     <t>2023-06-29; 2023-09-25</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>2023-09-07</t>
   </si>
   <si>
@@ -1240,40 +1255,37 @@
     <t>2024-07-10; 2023-10-13</t>
   </si>
   <si>
-    <t>U; N; K</t>
+    <t>1</t>
   </si>
   <si>
     <t>1; 1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1</t>
   </si>
   <si>
     <t>1; 1; 1</t>
   </si>
   <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1680,37 +1692,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="L2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1718,37 +1730,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1756,37 +1768,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1794,37 +1806,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1832,37 +1844,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K6" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="L6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1870,37 +1882,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
         <v>386</v>
       </c>
       <c r="K7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1908,37 +1920,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
         <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1946,37 +1958,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1984,37 +1996,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
         <v>331</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K10" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="L10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2022,7 +2034,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -2031,28 +2043,28 @@
         <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
         <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K11" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="L11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2060,37 +2072,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2098,37 +2110,34 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2136,37 +2145,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K14" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="L14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2174,37 +2183,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>252</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L15" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2212,37 +2221,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G16" t="s">
         <v>297</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L16" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2250,37 +2259,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
         <v>298</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K17" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L17" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2288,19 +2297,19 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
         <v>299</v>
@@ -2309,16 +2318,16 @@
         <v>333</v>
       </c>
       <c r="I18" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="J18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K18" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="L18" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2326,37 +2335,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G19" t="s">
         <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L19" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2364,37 +2373,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2405,10 +2414,10 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
         <v>204</v>
@@ -2417,22 +2426,22 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L21" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2443,10 +2452,10 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
         <v>205</v>
@@ -2455,22 +2464,22 @@
         <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H22" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="I22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J22" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K22" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L22" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2481,34 +2490,34 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
         <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="I23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K23" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L23" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2519,34 +2528,34 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
         <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J24" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K24" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L24" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2560,7 +2569,7 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
         <v>208</v>
@@ -2569,19 +2578,19 @@
         <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I25" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="J25" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L25" t="s">
         <v>413</v>
@@ -2595,10 +2604,10 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
         <v>209</v>
@@ -2607,22 +2616,22 @@
         <v>261</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L26" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2633,10 +2642,10 @@
         <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
         <v>210</v>
@@ -2645,22 +2654,22 @@
         <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I27" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L27" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2671,10 +2680,10 @@
         <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
         <v>211</v>
@@ -2683,22 +2692,22 @@
         <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I28" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J28" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L28" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2709,34 +2718,34 @@
         <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="J29" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L29" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2747,34 +2756,34 @@
         <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
         <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
         <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="J30" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2785,34 +2794,34 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
         <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H31" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J31" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L31" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2823,34 +2832,34 @@
         <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="I32" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J32" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L32" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2861,34 +2870,34 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
         <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L33" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2899,34 +2908,34 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
         <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H34" t="s">
         <v>346</v>
       </c>
       <c r="I34" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J34" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2937,34 +2946,34 @@
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
         <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I35" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2975,34 +2984,34 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
         <v>219</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
         <v>313</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="J36" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K36" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="L36" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3013,34 +3022,34 @@
         <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
         <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
         <v>314</v>
       </c>
       <c r="H37" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I37" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J37" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K37" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="L37" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3051,7 +3060,7 @@
         <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -3060,25 +3069,25 @@
         <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
         <v>315</v>
       </c>
       <c r="H38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J38" t="s">
         <v>386</v>
       </c>
       <c r="K38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3089,34 +3098,34 @@
         <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
         <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3127,34 +3136,34 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
         <v>223</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3165,34 +3174,34 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H41" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3203,34 +3212,34 @@
         <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
         <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="H42" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3241,34 +3250,34 @@
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
         <v>226</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="H43" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3279,31 +3288,34 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
         <v>227</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="G44" t="s">
+        <v>321</v>
       </c>
       <c r="H44" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3314,34 +3326,34 @@
         <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
         <v>228</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="J45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3352,34 +3364,34 @@
         <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
         <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H46" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3390,31 +3402,31 @@
         <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
         <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G47" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J47" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
         <v>414</v>
@@ -3428,34 +3440,34 @@
         <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
         <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I48" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3466,34 +3478,34 @@
         <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
         <v>232</v>
       </c>
       <c r="F49" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="H49" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="I49" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3504,34 +3516,34 @@
         <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
         <v>233</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G50" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I50" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3551,25 +3563,25 @@
         <v>234</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H51" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3580,34 +3592,34 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
         <v>235</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G52" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="I52" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="J52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L52" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3618,34 +3630,34 @@
         <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
         <v>236</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H53" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I53" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="J53" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3665,25 +3677,25 @@
         <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I54" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="J54" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K54" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3694,34 +3706,34 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
         <v>238</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I55" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J55" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3732,34 +3744,34 @@
         <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
         <v>239</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H56" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I56" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3767,37 +3779,75 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" t="s">
+        <v>330</v>
+      </c>
+      <c r="H57" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="C57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57" t="s">
-        <v>240</v>
-      </c>
-      <c r="G57" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" t="s">
-        <v>328</v>
-      </c>
-      <c r="I57" t="s">
-        <v>352</v>
-      </c>
-      <c r="J57" t="s">
-        <v>382</v>
-      </c>
-      <c r="K57" t="s">
-        <v>398</v>
-      </c>
-      <c r="L57" t="s">
-        <v>409</v>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" t="s">
+        <v>293</v>
+      </c>
+      <c r="H58" t="s">
+        <v>335</v>
+      </c>
+      <c r="I58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J58" t="s">
+        <v>387</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -961,7 +961,7 @@
     <t>gcu</t>
   </si>
   <si>
-    <t>standby power con.</t>
+    <t>standby power control</t>
   </si>
   <si>
     <t>fitting fwd lh</t>
@@ -982,7 +982,7 @@
     <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
   </si>
   <si>
-    <t>beacon; under water locator beacon</t>
+    <t>under water locator beacon; beacon</t>
   </si>
   <si>
     <t>bpsu</t>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -961,7 +961,7 @@
     <t>gcu</t>
   </si>
   <si>
-    <t>standby power control</t>
+    <t>standby power con.</t>
   </si>
   <si>
     <t>fitting fwd lh</t>
@@ -982,7 +982,7 @@
     <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
   </si>
   <si>
-    <t>under water locator beacon; beacon</t>
+    <t>beacon; under water locator beacon</t>
   </si>
   <si>
     <t>bpsu</t>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="527">
   <si>
     <t>VQ#</t>
   </si>
@@ -223,45 +223,228 @@
     <t>VQ0057</t>
   </si>
   <si>
+    <t>VQ0058</t>
+  </si>
+  <si>
+    <t>VQ0059</t>
+  </si>
+  <si>
+    <t>VQ0060</t>
+  </si>
+  <si>
+    <t>VQ0061</t>
+  </si>
+  <si>
+    <t>VQ0062</t>
+  </si>
+  <si>
+    <t>VQ0063</t>
+  </si>
+  <si>
+    <t>VQ0064</t>
+  </si>
+  <si>
+    <t>VQ0065</t>
+  </si>
+  <si>
+    <t>VQ0066</t>
+  </si>
+  <si>
+    <t>VQ0067</t>
+  </si>
+  <si>
+    <t>VQ0068</t>
+  </si>
+  <si>
+    <t>VQ0069</t>
+  </si>
+  <si>
+    <t>VQ0070</t>
+  </si>
+  <si>
+    <t>VQ0071</t>
+  </si>
+  <si>
+    <t>VQ0072</t>
+  </si>
+  <si>
+    <t>VQ0073</t>
+  </si>
+  <si>
+    <t>VQ0074</t>
+  </si>
+  <si>
+    <t>Another example</t>
+  </si>
+  <si>
+    <t>RE: 45731-1382</t>
+  </si>
+  <si>
+    <t>Another example to test the desktop vs online version</t>
+  </si>
+  <si>
     <t>QU-623641 from RIM Enterprises LLC</t>
   </si>
   <si>
-    <t>Another example</t>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:TA7M-ISD2-FPHT</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:EM41-TGVO-LRIH</t>
+  </si>
+  <si>
+    <t>New Part</t>
+  </si>
+  <si>
+    <t>QU-1263646 from Aviation Concepts</t>
   </si>
   <si>
     <t>RE: 3290694-5</t>
   </si>
   <si>
-    <t>Another example to test the desktop vs online version</t>
-  </si>
-  <si>
-    <t>New Part</t>
+    <t>Example Function</t>
+  </si>
+  <si>
+    <t>QU-1747442 from Setna iO</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
+  </si>
+  <si>
+    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
+  </si>
+  <si>
+    <t>Aermotive - 9032-4-2</t>
+  </si>
+  <si>
+    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
+  </si>
+  <si>
+    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:FJ5V-09U0-TOQ5</t>
+  </si>
+  <si>
+    <t>Gulfstream | Landing Gear SALE</t>
+  </si>
+  <si>
+    <t>Fwd: RFQ - From Atlantic Jet Support,LLC Entry Code:OMU7-KPPZ-MEKM</t>
+  </si>
+  <si>
+    <t>Quotation for Part Number: 6137-5</t>
+  </si>
+  <si>
+    <t>Quote from ReGEN Aviation Limited for RFQ #ILSBL4L250205033047</t>
+  </si>
+  <si>
+    <t>Quotation #345989 2-5-2025 1-48-01 PM.pdf</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250205125105</t>
+  </si>
+  <si>
+    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
+  </si>
+  <si>
+    <t>Quote from Seattle Aviation Solutions Ref#  SQT792209</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4L250206090529</t>
+  </si>
+  <si>
+    <t>Quote for RCF6708////////////////////////RFQ ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
   </si>
   <si>
     <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
   </si>
   <si>
-    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
-  </si>
-  <si>
-    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
-  </si>
-  <si>
-    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
-  </si>
-  <si>
-    <t>Example Function</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quotation - 01400543 </t>
   </si>
   <si>
+    <t>Quote: BMA4028224    P/N: 715331</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
+  </si>
+  <si>
+    <t>Quote Order C7062911</t>
+  </si>
+  <si>
+    <t>Quote Order C7062849</t>
+  </si>
+  <si>
+    <t>Quote Order C7062792</t>
+  </si>
+  <si>
+    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
+  </si>
+  <si>
+    <t>DASI Quote – 11058529 - 20250204.pdf</t>
+  </si>
+  <si>
+    <t>Aero-Zone has YOUR Inventory</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
+  </si>
+  <si>
+    <t>RE: C17001DA01</t>
+  </si>
+  <si>
+    <t>Quote Order S7036629</t>
+  </si>
+  <si>
+    <t>ILS offer request</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
+  </si>
+  <si>
+    <t>Here is another example</t>
+  </si>
+  <si>
+    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
+  </si>
+  <si>
     <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
   </si>
   <si>
@@ -271,348 +454,450 @@
     <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
   </si>
   <si>
-    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
   </si>
   <si>
     <t>Quote: BMA4030388    P/N: 190-32826-021</t>
   </si>
   <si>
-    <t>QU-1747442 from Setna iO</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
-  </si>
-  <si>
-    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
-  </si>
-  <si>
-    <t>Aermotive - 9032-4-2</t>
-  </si>
-  <si>
-    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
-  </si>
-  <si>
-    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
-  </si>
-  <si>
-    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
-  </si>
-  <si>
-    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
+    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote Order C7059616</t>
   </si>
   <si>
     <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
   </si>
   <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
-  </si>
-  <si>
-    <t>Quote Order C7059616</t>
-  </si>
-  <si>
-    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
-  </si>
-  <si>
-    <t>Here is another example</t>
-  </si>
-  <si>
-    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
-  </si>
-  <si>
-    <t>ILS offer request</t>
-  </si>
-  <si>
-    <t>Quote Order S7036629</t>
-  </si>
-  <si>
-    <t>RE: C17001DA01</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
-  </si>
-  <si>
-    <t>Quote: BMA4028224    P/N: 715331</t>
-  </si>
-  <si>
-    <t>Aero-Zone has YOUR Inventory</t>
-  </si>
-  <si>
-    <t>DASI Quote – 11058529 - 20250204.pdf</t>
-  </si>
-  <si>
-    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
-  </si>
-  <si>
-    <t>Quote Order C7062792</t>
-  </si>
-  <si>
-    <t>Quote Order C7062849</t>
-  </si>
-  <si>
-    <t>Quote Order C7062911</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
-  </si>
-  <si>
-    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
-  </si>
-  <si>
-    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
+    <t>Quote Order C7061042</t>
+  </si>
+  <si>
+    <t>Quote SQT-9438 by Aircraft Parts Distribution</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
   </si>
   <si>
     <t>Quote Received - RFQ No:ILSBL4E250204124550</t>
   </si>
   <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
-  </si>
-  <si>
-    <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
-  </si>
-  <si>
-    <t>Quote SQT-9438 by Aircraft Parts Distribution</t>
-  </si>
-  <si>
-    <t>Quote Order C7061042</t>
+    <t>tadas0900@gmail.com</t>
+  </si>
+  <si>
+    <t>Aivaras.Staknys@setnaio.com</t>
   </si>
   <si>
     <t>jfagan@riment.com</t>
   </si>
   <si>
-    <t>tadas0900@gmail.com</t>
-  </si>
-  <si>
-    <t>Aivaras.Staknys@setnaio.com</t>
+    <t>salesamericas@aerotron.co.uk</t>
+  </si>
+  <si>
+    <t>rfq@avstock.aero</t>
+  </si>
+  <si>
+    <t>mkoya@aviationconcepts.com</t>
+  </si>
+  <si>
+    <t>aivaras.staknys@setnaio.com</t>
+  </si>
+  <si>
+    <t>jessica@ljwalch.com</t>
+  </si>
+  <si>
+    <t>quote@app.rotabull.com</t>
+  </si>
+  <si>
+    <t>david@aermotive.com</t>
+  </si>
+  <si>
+    <t>cjacobs@jacaero.com</t>
+  </si>
+  <si>
+    <t>linda.vargas@vas.aero</t>
+  </si>
+  <si>
+    <t>Quote@aerospareparts.com</t>
+  </si>
+  <si>
+    <t>Guillermo.Arce@dasi.com</t>
+  </si>
+  <si>
+    <t>Mariana.Blanco@incora.com</t>
+  </si>
+  <si>
+    <t>sergey@sentry.aero</t>
+  </si>
+  <si>
+    <t>sales@mtraviation.com</t>
+  </si>
+  <si>
+    <t>sales@brownhelicopter.com</t>
+  </si>
+  <si>
+    <t>sales@dasi.com</t>
+  </si>
+  <si>
+    <t>JKimm@midamaero.com</t>
+  </si>
+  <si>
+    <t>sales@aviodirect.com</t>
+  </si>
+  <si>
+    <t>sales@globaltradeaviation.com</t>
+  </si>
+  <si>
+    <t>offer@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>admin@aeropartners.co.uk</t>
+  </si>
+  <si>
+    <t>inventory@eas-aviation-group.com</t>
+  </si>
+  <si>
+    <t>marty@genairsupport.com</t>
+  </si>
+  <si>
+    <t>DoNotReply@ilsmart.com</t>
+  </si>
+  <si>
+    <t>m.altork@seattleav.com</t>
+  </si>
+  <si>
+    <t>sales@siam-aero.com</t>
   </si>
   <si>
     <t>sales@tecnicaaerospace.com</t>
   </si>
   <si>
-    <t>sergey@sentry.aero</t>
-  </si>
-  <si>
-    <t>sales@mtraviation.com</t>
-  </si>
-  <si>
-    <t>sales@brownhelicopter.com</t>
-  </si>
-  <si>
-    <t>DoNotReply@ilsmart.com</t>
-  </si>
-  <si>
-    <t>Mariana.Blanco@incora.com</t>
-  </si>
-  <si>
     <t>janelle@cavuaerospace.com</t>
   </si>
   <si>
+    <t>textquote2@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>CQ@oceanair.aero</t>
+  </si>
+  <si>
+    <t>JenniferSchreck@TurboResources.com</t>
+  </si>
+  <si>
+    <t>ted@ajsupport.com</t>
+  </si>
+  <si>
+    <t>randy.hill@aero-zone.com</t>
+  </si>
+  <si>
+    <t>NickLiberio@TurboResources.com</t>
+  </si>
+  <si>
+    <t>partsales@voyav.com</t>
+  </si>
+  <si>
     <t>textquote3@brooks-maldini.net</t>
   </si>
   <si>
-    <t>quote@app.rotabull.com</t>
-  </si>
-  <si>
-    <t>Quote@aerospareparts.com</t>
-  </si>
-  <si>
-    <t>Guillermo.Arce@dasi.com</t>
-  </si>
-  <si>
-    <t>aivaras.staknys@setnaio.com</t>
-  </si>
-  <si>
-    <t>linda.vargas@vas.aero</t>
-  </si>
-  <si>
-    <t>cjacobs@jacaero.com</t>
-  </si>
-  <si>
-    <t>david@aermotive.com</t>
-  </si>
-  <si>
-    <t>jessica@ljwalch.com</t>
-  </si>
-  <si>
-    <t>sales@dasi.com</t>
-  </si>
-  <si>
-    <t>sales@aviodirect.com</t>
-  </si>
-  <si>
-    <t>JKimm@midamaero.com</t>
-  </si>
-  <si>
     <t>luciana@southseas.aero</t>
   </si>
   <si>
-    <t>JenniferSchreck@TurboResources.com</t>
-  </si>
-  <si>
-    <t>NickLiberio@TurboResources.com</t>
-  </si>
-  <si>
-    <t>textquote2@brooks-maldini.net</t>
-  </si>
-  <si>
-    <t>randy.hill@aero-zone.com</t>
-  </si>
-  <si>
-    <t>ted@ajsupport.com</t>
-  </si>
-  <si>
-    <t>CQ@oceanair.aero</t>
-  </si>
-  <si>
-    <t>partsales@voyav.com</t>
+    <t>ben@aircraftparts.net</t>
+  </si>
+  <si>
+    <t>katie.botthof@avair.aero</t>
   </si>
   <si>
     <t>jb@austinaerotech.com</t>
   </si>
   <si>
-    <t>katie.botthof@avair.aero</t>
-  </si>
-  <si>
-    <t>ben@aircraftparts.net</t>
+    <t>gabriel co</t>
+  </si>
+  <si>
+    <t>setna io</t>
   </si>
   <si>
     <t>crimptools.com</t>
   </si>
   <si>
-    <t>gabriel co</t>
-  </si>
-  <si>
-    <t>setna io</t>
+    <t>fokker aerotron</t>
+  </si>
+  <si>
+    <t>aerostock</t>
+  </si>
+  <si>
+    <t>aviation concepts</t>
+  </si>
+  <si>
+    <t>lj walch</t>
+  </si>
+  <si>
+    <t>av rotables llc</t>
+  </si>
+  <si>
+    <t>aermotive</t>
+  </si>
+  <si>
+    <t>action aero</t>
+  </si>
+  <si>
+    <t>tcas aero</t>
+  </si>
+  <si>
+    <t>aerospares, llc</t>
+  </si>
+  <si>
+    <t>dasi</t>
+  </si>
+  <si>
+    <t>atco, inc.</t>
+  </si>
+  <si>
+    <t>seres aero</t>
+  </si>
+  <si>
+    <t>action aviation</t>
+  </si>
+  <si>
+    <t>brown helicopter</t>
+  </si>
+  <si>
+    <t>windaero llc</t>
+  </si>
+  <si>
+    <t>aviodirect</t>
+  </si>
+  <si>
+    <t>alternate aviation</t>
+  </si>
+  <si>
+    <t>brooks &amp; maldini corporation</t>
+  </si>
+  <si>
+    <t>sky-aeroparts (cmt7)</t>
+  </si>
+  <si>
+    <t>eas aviation group</t>
+  </si>
+  <si>
+    <t>air support</t>
+  </si>
+  <si>
+    <t>cmi sarl</t>
+  </si>
+  <si>
+    <t>boeing - seattle</t>
+  </si>
+  <si>
+    <t>cost aero</t>
   </si>
   <si>
     <t>aeromni aerospace inc</t>
   </si>
   <si>
-    <t>seres aero</t>
-  </si>
-  <si>
-    <t>action aviation</t>
-  </si>
-  <si>
-    <t>brown helicopter</t>
-  </si>
-  <si>
-    <t>cmi sarl</t>
-  </si>
-  <si>
-    <t>atco, inc.</t>
-  </si>
-  <si>
     <t>cm aerospace</t>
   </si>
   <si>
-    <t>brooks &amp; maldini corporation</t>
-  </si>
-  <si>
-    <t>av rotables llc</t>
-  </si>
-  <si>
-    <t>aerospares, llc</t>
-  </si>
-  <si>
-    <t>dasi</t>
-  </si>
-  <si>
-    <t>tcas aero</t>
-  </si>
-  <si>
-    <t>action aero</t>
-  </si>
-  <si>
-    <t>aermotive</t>
-  </si>
-  <si>
-    <t>lj walch</t>
-  </si>
-  <si>
-    <t>aviodirect</t>
-  </si>
-  <si>
-    <t>windaero llc</t>
+    <t>aero renix</t>
+  </si>
+  <si>
+    <t>aviation resources</t>
+  </si>
+  <si>
+    <t>ijsupport</t>
+  </si>
+  <si>
+    <t>aero-zone</t>
+  </si>
+  <si>
+    <t>cargo royal</t>
   </si>
   <si>
     <t>southeast aerospace</t>
   </si>
   <si>
-    <t>aviation resources</t>
-  </si>
-  <si>
-    <t>aero-zone</t>
-  </si>
-  <si>
-    <t>ijsupport</t>
-  </si>
-  <si>
-    <t>aero renix</t>
-  </si>
-  <si>
-    <t>cargo royal</t>
+    <t>aircraftpartsz</t>
+  </si>
+  <si>
+    <t>lamar aero</t>
   </si>
   <si>
     <t>aerotech ops</t>
   </si>
   <si>
-    <t>lamar aero</t>
-  </si>
-  <si>
-    <t>aircraftpartsz</t>
+    <t>2025-01-27T07:42:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T18:52:43+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-28T09:05:14+00:00</t>
   </si>
   <si>
     <t>2025-02-04T19:10:11+00:00</t>
   </si>
   <si>
-    <t>2025-01-27T07:42:56+00:00</t>
+    <t>2025-02-05T19:34:22+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:41:23+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T07:50:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T20:28:35+00:00</t>
   </si>
   <si>
     <t>2025-02-10T11:10:49+00:00</t>
   </si>
   <si>
-    <t>2025-01-28T09:05:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T07:50:37+00:00</t>
+    <t>2025-01-27T07:36:05+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T10:50:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T20:42:18+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T15:50:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:16:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:24:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:42:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:48:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T14:06:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:24:09+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T23:03:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T01:32:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T17:28:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:50:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:07:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:43:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T13:33:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T06:02:33+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T11:54:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T09:35:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T10:20:28+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T20:48:39+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T19:14:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:26:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T15:20:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T15:08:34+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T17:34:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T17:32:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T15:30:57+00:00</t>
   </si>
   <si>
     <t>2025-02-05T16:54:12+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T23:03:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T01:32:27+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T17:28:45+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T07:36:05+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T15:30:57+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T16:24:09+00:00</t>
-  </si>
-  <si>
     <t>2025-02-04T20:58:13+00:00</t>
   </si>
   <si>
+    <t>2025-02-04T06:13:01+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:37:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:10:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T11:13:52+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T10:13:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-03T13:30:17+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T06:15:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-29T13:19:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T18:47:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T13:23:38+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T12:05:15+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T11:41:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:49:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:21:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:25:36+00:00</t>
+  </si>
+  <si>
     <t>2025-02-04T14:33:06+00:00</t>
   </si>
   <si>
@@ -622,156 +907,177 @@
     <t>2025-02-04T14:36:50+00:00</t>
   </si>
   <si>
-    <t>2025-02-05T14:06:10+00:00</t>
+    <t>2025-02-04T14:45:13+00:00</t>
   </si>
   <si>
     <t>2025-02-04T14:39:16+00:00</t>
   </si>
   <si>
-    <t>2025-02-11T10:50:32+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:42:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:24:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:16:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T15:50:48+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T20:42:18+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:50:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:48:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:43:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:26:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:07:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:45:13+00:00</t>
+    <t>2025-02-04T14:39:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:36:29+00:00</t>
   </si>
   <si>
     <t>2025-02-04T16:59:55+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T14:39:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:36:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T07:49:49+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T11:41:51+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T12:05:15+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T13:23:38+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T18:47:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-29T13:19:51+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T06:15:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T06:13:01+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-03T13:30:17+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T10:13:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T11:13:52+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:06:36+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:06:55+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:10:47+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:37:24+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:21:07+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:25:36+00:00</t>
+    <t>2025-02-04T16:41:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:31:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:33:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:48:33+00:00</t>
   </si>
   <si>
     <t>2025-02-04T18:53:11+00:00</t>
   </si>
   <si>
-    <t>2025-02-04T18:48:33+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:33:36+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:31:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:41:30+00:00</t>
+    <t>2025-02-05T10:06:18+00:00</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00</t>
+  </si>
+  <si>
+    <t>45731-1382</t>
+  </si>
+  <si>
+    <t>100-5383Y-00</t>
   </si>
   <si>
     <t>S800-3000-00</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00</t>
+    <t>MXP410-1</t>
   </si>
   <si>
     <t>3290694-5</t>
   </si>
   <si>
-    <t>100-5383Y-00</t>
+    <t>762185H; 762185J</t>
+  </si>
+  <si>
+    <t>NP165312-14</t>
+  </si>
+  <si>
+    <t>766088B</t>
+  </si>
+  <si>
+    <t>80-057-01</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>2100-4043-00</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>5001319</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>8260-123</t>
+  </si>
+  <si>
+    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
+  </si>
+  <si>
+    <t>6137-5</t>
+  </si>
+  <si>
+    <t>D9251504800000; D9251504800000</t>
+  </si>
+  <si>
+    <t>32114</t>
+  </si>
+  <si>
+    <t>727810C</t>
+  </si>
+  <si>
+    <t>RCF6708; RCF6708</t>
+  </si>
+  <si>
+    <t>MXP410-1; MXP410-1</t>
+  </si>
+  <si>
+    <t>RCF6708</t>
+  </si>
+  <si>
+    <t>898930-10</t>
+  </si>
+  <si>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
   </si>
   <si>
     <t>S67-2002-18</t>
   </si>
   <si>
-    <t>NO MATCH</t>
-  </si>
-  <si>
-    <t>5001319</t>
-  </si>
-  <si>
-    <t>762185H; 762185J</t>
-  </si>
-  <si>
-    <t>898930-10</t>
-  </si>
-  <si>
-    <t>MS14101-5ACP</t>
-  </si>
-  <si>
     <t>16520-101</t>
   </si>
   <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>300013000-003</t>
+  </si>
+  <si>
+    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
+  </si>
+  <si>
+    <t>855D100-11</t>
+  </si>
+  <si>
+    <t>DK120; 2100-4043-00</t>
+  </si>
+  <si>
+    <t>715331</t>
+  </si>
+  <si>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
+  </si>
+  <si>
+    <t>263BA101-2; 263BA101-2</t>
+  </si>
+  <si>
+    <t>S5397132100802</t>
+  </si>
+  <si>
+    <t>1151952-19</t>
+  </si>
+  <si>
+    <t>762185H</t>
+  </si>
+  <si>
+    <t>C17001DA01</t>
+  </si>
+  <si>
+    <t>22020; 26020</t>
+  </si>
+  <si>
     <t>03-825-05ACP</t>
   </si>
   <si>
@@ -781,129 +1087,156 @@
     <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>2100-4043-00</t>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
     <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>NP165312-14</t>
-  </si>
-  <si>
-    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
-  </si>
-  <si>
-    <t>EVT3454HC</t>
-  </si>
-  <si>
-    <t>80-057-01</t>
-  </si>
-  <si>
-    <t>766088B</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>727810C</t>
-  </si>
-  <si>
-    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>715331</t>
-  </si>
-  <si>
-    <t>C17001DA01</t>
-  </si>
-  <si>
-    <t>762185H</t>
-  </si>
-  <si>
-    <t>1151952-19</t>
-  </si>
-  <si>
-    <t>S5397132100802</t>
-  </si>
-  <si>
-    <t>263BA101-2; 263BA101-2</t>
-  </si>
-  <si>
-    <t>C17001BA01</t>
-  </si>
-  <si>
-    <t>715331; 715331; 715331</t>
-  </si>
-  <si>
-    <t>715331; 715331</t>
-  </si>
-  <si>
-    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
-  </si>
-  <si>
-    <t>DK120; 2100-4043-00</t>
-  </si>
-  <si>
-    <t>855D100-11</t>
-  </si>
-  <si>
-    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
-  </si>
-  <si>
-    <t>300013000-003</t>
-  </si>
-  <si>
-    <t>22020; 26020</t>
+    <t>01 600; 104101</t>
+  </si>
+  <si>
+    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
+  </si>
+  <si>
+    <t>2100-4043-00; S800-3000-00</t>
   </si>
   <si>
     <t>865D100-7</t>
   </si>
   <si>
-    <t>2100-4043-00; S800-3000-00</t>
-  </si>
-  <si>
-    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
-  </si>
-  <si>
-    <t>01 600; 104101</t>
+    <t>fan-recirculation; fan-recirculation</t>
+  </si>
+  <si>
+    <t>heater, servo fuel</t>
+  </si>
+  <si>
+    <t>landing gear selector valve</t>
   </si>
   <si>
     <t>ssfdr</t>
   </si>
   <si>
-    <t>fan-recirculation; fan-recirculation</t>
+    <t>stowage box</t>
   </si>
   <si>
     <t>valve-starter</t>
   </si>
   <si>
-    <t>landing gear selector valve</t>
+    <t>gcu; gcu</t>
+  </si>
+  <si>
+    <t>window-sliding</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+  </si>
+  <si>
+    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
+  </si>
+  <si>
+    <t>dfdr</t>
+  </si>
+  <si>
+    <t>balance kit</t>
+  </si>
+  <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>starter gen</t>
+  </si>
+  <si>
+    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
+  </si>
+  <si>
+    <t>rudder trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; </t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>stowage box; stowage box</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
   </si>
   <si>
     <t>antenna</t>
   </si>
   <si>
-    <t>balance kit</t>
-  </si>
-  <si>
-    <t>gcu; gcu</t>
-  </si>
-  <si>
-    <t>valve</t>
-  </si>
-  <si>
     <t>actuator,retraction (nlg)</t>
   </si>
   <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice</t>
+  </si>
+  <si>
+    <t>antenna; tcas antenna; multipurpose control and display unit</t>
+  </si>
+  <si>
+    <t>bpsu</t>
+  </si>
+  <si>
+    <t>under water locator beacon; beacon</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
+  </si>
+  <si>
+    <t>battery; battery</t>
+  </si>
+  <si>
+    <t>fitting fwd lh</t>
+  </si>
+  <si>
+    <t>standby power control</t>
+  </si>
+  <si>
+    <t>gcu</t>
+  </si>
+  <si>
+    <t>air data</t>
+  </si>
+  <si>
+    <t>voltage regulator; tri flow lubricant</t>
+  </si>
+  <si>
     <t>bearing, plain</t>
   </si>
   <si>
@@ -913,376 +1246,352 @@
     <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
   </si>
   <si>
-    <t>dfdr</t>
+    <t>bushing; bushing; bushing</t>
   </si>
   <si>
     <t>bushing; bushing</t>
   </si>
   <si>
-    <t>window-sliding</t>
-  </si>
-  <si>
-    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
-  </si>
-  <si>
-    <t>cooling fan</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>idg</t>
-  </si>
-  <si>
-    <t>switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>air data</t>
-  </si>
-  <si>
-    <t>gcu</t>
-  </si>
-  <si>
-    <t>standby power con.</t>
-  </si>
-  <si>
-    <t>fitting fwd lh</t>
-  </si>
-  <si>
-    <t>battery; battery</t>
-  </si>
-  <si>
-    <t>air data mdl</t>
-  </si>
-  <si>
-    <t>seal; seal; seal</t>
-  </si>
-  <si>
-    <t>seal; seal</t>
-  </si>
-  <si>
-    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
-  </si>
-  <si>
-    <t>beacon; under water locator beacon</t>
-  </si>
-  <si>
-    <t>bpsu</t>
-  </si>
-  <si>
-    <t>antenna; tcas antenna; multipurpose control and display unit</t>
-  </si>
-  <si>
-    <t>valve,cowl anti ice</t>
-  </si>
-  <si>
-    <t>voltage regulator; tri flow lubricant</t>
+    <t>ground spoiler; walltable</t>
+  </si>
+  <si>
+    <t>valve; valve; valve; valve</t>
+  </si>
+  <si>
+    <t>dfdr; ssfdr</t>
   </si>
   <si>
     <t>pdu</t>
   </si>
   <si>
-    <t>dfdr; ssfdr</t>
-  </si>
-  <si>
-    <t>valve; valve; valve; valve</t>
-  </si>
-  <si>
-    <t>ground spoiler; walltable</t>
+    <t>OH; SV</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>SV</t>
   </si>
   <si>
     <t>IN</t>
   </si>
   <si>
-    <t>OH; SV</t>
-  </si>
-  <si>
-    <t>SV</t>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RP; TE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; NS</t>
+  </si>
+  <si>
+    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
+  </si>
+  <si>
+    <t>NE; NE; NE</t>
+  </si>
+  <si>
+    <t>SV; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; SV; OH; OH; OH; SV</t>
+  </si>
+  <si>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>NS; NS</t>
+  </si>
+  <si>
+    <t>OH; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>RP; TE</t>
-  </si>
-  <si>
-    <t>NE</t>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>SV; AR; NS</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>SV; AR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH; OH; AR</t>
+  </si>
+  <si>
+    <t>AR; IN; NE</t>
+  </si>
+  <si>
+    <t>OH; OH</t>
   </si>
   <si>
     <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
   </si>
   <si>
-    <t>NE; NE</t>
-  </si>
-  <si>
-    <t>RE; RE; NE; NS</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>NE; NE; NE</t>
-  </si>
-  <si>
-    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
-  </si>
-  <si>
-    <t>SV; REPAIR</t>
-  </si>
-  <si>
-    <t>OH; OH; OH</t>
-  </si>
-  <si>
     <t>NS; NS; IN</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>OH; OH</t>
-  </si>
-  <si>
-    <t>AR; IN; NE</t>
-  </si>
-  <si>
-    <t>OH; OH; OH; OH; AR</t>
-  </si>
-  <si>
-    <t>SV; AR</t>
-  </si>
-  <si>
-    <t>SV; AR; NS</t>
+    <t>AR; NS</t>
   </si>
   <si>
     <t>AR; OH; AR; SV</t>
   </si>
   <si>
-    <t>AR; NS</t>
+    <t>13000; 11300</t>
+  </si>
+  <si>
+    <t>10995</t>
+  </si>
+  <si>
+    <t>3495</t>
   </si>
   <si>
     <t>4000</t>
   </si>
   <si>
-    <t>13000; 11300</t>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>11500</t>
   </si>
   <si>
     <t>33950</t>
   </si>
   <si>
-    <t>3495</t>
+    <t>3500; Call for Price</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>68950</t>
+  </si>
+  <si>
+    <t>2453.61</t>
+  </si>
+  <si>
+    <t>UNK/Process Error</t>
+  </si>
+  <si>
+    <t>10439.55</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>3541.76; 3541.76; 3541.76</t>
+  </si>
+  <si>
+    <t>5280; 79200</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
+  </si>
+  <si>
+    <t>37500</t>
+  </si>
+  <si>
+    <t>15600</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500; 500</t>
+  </si>
+  <si>
+    <t>13812.50; 500</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
+    <t>38430</t>
   </si>
   <si>
     <t>1500</t>
   </si>
   <si>
-    <t>UNK/Process Error</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>3500; Call for Price</t>
-  </si>
-  <si>
-    <t>38430</t>
-  </si>
-  <si>
     <t>3500</t>
   </si>
   <si>
+    <t>4106.87; 5967.19</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>14580</t>
+  </si>
+  <si>
     <t>630</t>
   </si>
   <si>
-    <t>10439.55</t>
-  </si>
-  <si>
     <t>5042.08; 847</t>
   </si>
   <si>
-    <t>7995</t>
-  </si>
-  <si>
-    <t>2453.61</t>
-  </si>
-  <si>
-    <t>68950</t>
-  </si>
-  <si>
-    <t>3541.76; 3541.76; 3541.76</t>
-  </si>
-  <si>
-    <t>5280; 79200</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>14580</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>4106.87; 5967.19</t>
-  </si>
-  <si>
-    <t>7600; 9400; 108000; 9500; 9000</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>10500</t>
+    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
+  </si>
+  <si>
+    <t>15990</t>
   </si>
   <si>
     <t>15000</t>
   </si>
   <si>
-    <t>15990</t>
-  </si>
-  <si>
-    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
+    <t>UNK; UNK</t>
   </si>
   <si>
     <t>UNK</t>
   </si>
   <si>
-    <t>UNK; UNK</t>
+    <t>UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA Form 1</t>
   </si>
   <si>
     <t>Manufacturers C of C</t>
   </si>
   <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
+  </si>
+  <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
     <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
-    <t>EASA Form 1</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
-    <t>FAA 8130</t>
-  </si>
-  <si>
-    <t>EASA/FAA Dual Release</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Mfg Certs; Mfg Certs</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Dual Release 8130</t>
-  </si>
-  <si>
     <t>2024-08-08; 2024-05-08</t>
   </si>
   <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
     <t>2024-10-28</t>
   </si>
   <si>
+    <t>2024-09-26; 2024-09-26</t>
+  </si>
+  <si>
     <t>U; N; K</t>
   </si>
   <si>
-    <t>2024-09-26; 2024-09-26</t>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-07-10; 2023-10-13</t>
+  </si>
+  <si>
+    <t>2009-02-12</t>
+  </si>
+  <si>
+    <t>2025-01-20; 2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-06-29; 2023-09-25</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
   </si>
   <si>
     <t>2023-12</t>
   </si>
   <si>
-    <t>2022-11-22</t>
-  </si>
-  <si>
-    <t>2023-06-29; 2023-09-25</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2025-01-20; 2023-09-13</t>
-  </si>
-  <si>
-    <t>2009-02-12</t>
-  </si>
-  <si>
-    <t>2024-07-10; 2023-10-13</t>
+    <t>1; 1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1; 1</t>
+    <t>1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>02</t>
@@ -1643,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,37 +2001,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="K2" t="s">
-        <v>386</v>
+        <v>503</v>
       </c>
       <c r="L2" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1730,37 +2039,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="K3" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="L3" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1768,37 +2077,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="I4" t="s">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K4" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="L4" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1806,37 +2115,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K5" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="L5" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1844,37 +2153,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="I6" t="s">
-        <v>358</v>
+        <v>448</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K6" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="L6" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1882,37 +2191,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K7" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L7" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1920,37 +2229,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K8" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="L8" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1958,37 +2267,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="I9" t="s">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K9" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="L9" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1996,37 +2305,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="H10" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K10" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L10" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2034,37 +2343,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="K11" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
       <c r="L11" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2072,37 +2381,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K12" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L12" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2110,34 +2419,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>316</v>
+      </c>
+      <c r="G13" t="s">
+        <v>371</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="I13" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
       <c r="K13" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L13" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2145,37 +2457,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="I14" t="s">
-        <v>364</v>
+        <v>455</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K14" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L14" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2183,37 +2495,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="I15" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K15" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L15" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2221,37 +2533,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>456</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K16" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L16" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2259,37 +2571,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="I17" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J17" t="s">
-        <v>389</v>
+        <v>487</v>
       </c>
       <c r="K17" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2297,37 +2609,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H18" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="J18" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="K18" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L18" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2335,37 +2647,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="I19" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="J19" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
       <c r="K19" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L19" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2373,37 +2685,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="I20" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="J20" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="K20" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="L20" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2411,37 +2723,34 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="H21" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="I21" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="K21" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L21" t="s">
-        <v>413</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2449,37 +2758,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="I22" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J22" t="s">
-        <v>391</v>
+        <v>486</v>
       </c>
       <c r="K22" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L22" t="s">
-        <v>419</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2487,37 +2796,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="I23" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J23" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K23" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L23" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2525,37 +2834,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="I24" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="J24" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K24" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="L24" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2563,37 +2872,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="I25" t="s">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>491</v>
       </c>
       <c r="K25" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L25" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2601,37 +2910,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="I26" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="J26" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="K26" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="L26" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2639,37 +2948,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="G27" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="H27" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="I27" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="J27" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="K27" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L27" t="s">
-        <v>420</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2677,37 +2986,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J28" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="K28" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L28" t="s">
-        <v>421</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2715,37 +3024,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="I29" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
       <c r="J29" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="K29" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L29" t="s">
-        <v>414</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2753,37 +3062,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="I30" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="J30" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="K30" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L30" t="s">
-        <v>413</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2791,37 +3100,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="H31" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="J31" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="K31" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="L31" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2829,37 +3138,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="H32" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="J32" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="K32" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L32" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2867,37 +3176,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="I33" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J33" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K33" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L33" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2905,37 +3214,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J34" t="s">
-        <v>386</v>
+        <v>493</v>
       </c>
       <c r="K34" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L34" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2943,37 +3252,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>448</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K35" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L35" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2981,37 +3290,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="I36" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="J36" t="s">
-        <v>395</v>
+        <v>494</v>
       </c>
       <c r="K36" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="L36" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3019,37 +3328,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="H37" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
       <c r="I37" t="s">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="J37" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="K37" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="L37" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3057,37 +3366,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="H38" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="I38" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L38" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3095,37 +3404,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="J39" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="K39" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L39" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3133,37 +3442,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J40" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="K40" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="L40" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3171,37 +3480,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="H41" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="I41" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="J41" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="K41" t="s">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="L41" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3209,37 +3518,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="H42" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J42" t="s">
-        <v>392</v>
+        <v>491</v>
       </c>
       <c r="K42" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L42" t="s">
-        <v>420</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3247,37 +3556,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="H43" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="I43" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L43" t="s">
-        <v>414</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3285,37 +3594,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="H44" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L44" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3323,37 +3632,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="I45" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L45" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3361,37 +3670,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="G46" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>496</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3399,37 +3708,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="H47" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>497</v>
       </c>
       <c r="K47" t="s">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="L47" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3437,37 +3746,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="G48" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="I48" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3475,37 +3784,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G49" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="H49" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3513,37 +3822,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E50" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="H50" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>486</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3551,37 +3860,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="H51" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="I51" t="s">
-        <v>360</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3589,37 +3898,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3627,37 +3936,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="G53" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="H53" t="s">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="K53" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3665,37 +3974,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="G54" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H54" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="L54" t="s">
-        <v>423</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3703,37 +4012,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="H55" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="I55" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="J55" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="L55" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3741,37 +4050,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="G56" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>419</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3779,37 +4088,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="G57" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="H57" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="I57" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
       <c r="J57" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="K57" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3817,37 +4126,683 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>420</v>
+      </c>
+      <c r="I58" t="s">
+        <v>478</v>
+      </c>
+      <c r="J58" t="s">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s">
+        <v>405</v>
+      </c>
+      <c r="H59" t="s">
+        <v>419</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>501</v>
+      </c>
+      <c r="K59" t="s">
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" t="s">
+        <v>406</v>
+      </c>
+      <c r="H60" t="s">
+        <v>318</v>
+      </c>
+      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>486</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>406</v>
+      </c>
+      <c r="H61" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>486</v>
+      </c>
+      <c r="K61" t="s">
+        <v>507</v>
+      </c>
+      <c r="L61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>355</v>
+      </c>
+      <c r="G63" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" t="s">
+        <v>422</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>486</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" t="s">
+        <v>440</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>486</v>
+      </c>
+      <c r="L64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" t="s">
+        <v>441</v>
+      </c>
+      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
+        <v>491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>486</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>411</v>
+      </c>
+      <c r="H66" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" t="s">
+        <v>481</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" t="s">
+        <v>408</v>
+      </c>
+      <c r="H67" t="s">
+        <v>420</v>
+      </c>
+      <c r="I67" t="s">
+        <v>456</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>486</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" t="s">
-        <v>248</v>
-      </c>
-      <c r="G58" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" t="s">
-        <v>335</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" t="s">
+        <v>398</v>
+      </c>
+      <c r="H68" t="s">
+        <v>435</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>486</v>
+      </c>
+      <c r="K68" t="s">
+        <v>486</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" t="s">
+        <v>398</v>
+      </c>
+      <c r="H69" t="s">
+        <v>432</v>
+      </c>
+      <c r="I69" t="s">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>486</v>
+      </c>
+      <c r="L69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" t="s">
+        <v>359</v>
+      </c>
+      <c r="G70" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" t="s">
+        <v>442</v>
+      </c>
+      <c r="I70" t="s">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>485</v>
+      </c>
+      <c r="K70" t="s">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G71" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" t="s">
+        <v>443</v>
+      </c>
+      <c r="I71" t="s">
+        <v>482</v>
+      </c>
+      <c r="J71" t="s">
+        <v>487</v>
+      </c>
+      <c r="K71" t="s">
+        <v>486</v>
+      </c>
+      <c r="L71" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" t="s">
+        <v>389</v>
+      </c>
+      <c r="H72" t="s">
+        <v>418</v>
+      </c>
+      <c r="I72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J72" t="s">
+        <v>486</v>
+      </c>
+      <c r="K72" t="s">
+        <v>486</v>
+      </c>
+      <c r="L72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" t="s">
+        <v>439</v>
+      </c>
+      <c r="I73" t="s">
+        <v>456</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" t="s">
         <v>362</v>
       </c>
-      <c r="J58" t="s">
-        <v>387</v>
-      </c>
-      <c r="K58" t="s">
-        <v>405</v>
-      </c>
-      <c r="L58" t="s">
-        <v>414</v>
+      <c r="G74" t="s">
+        <v>415</v>
+      </c>
+      <c r="H74" t="s">
+        <v>417</v>
+      </c>
+      <c r="I74" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" t="s">
+        <v>494</v>
+      </c>
+      <c r="K74" t="s">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75" t="s">
+        <v>380</v>
+      </c>
+      <c r="H75" t="s">
+        <v>417</v>
+      </c>
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
+        <v>486</v>
+      </c>
+      <c r="K75" t="s">
+        <v>508</v>
+      </c>
+      <c r="L75" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -1207,7 +1207,7 @@
     <t>bpsu</t>
   </si>
   <si>
-    <t>under water locator beacon; beacon</t>
+    <t>beacon; under water locator beacon</t>
   </si>
   <si>
     <t>seal</t>
@@ -1225,7 +1225,7 @@
     <t>fitting fwd lh</t>
   </si>
   <si>
-    <t>standby power control</t>
+    <t>standby power con.</t>
   </si>
   <si>
     <t>gcu</t>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="527">
   <si>
     <t>VQ#</t>
   </si>
@@ -50,6 +50,1551 @@
   </si>
   <si>
     <t>Detected Qty</t>
+  </si>
+  <si>
+    <t>VQ0001</t>
+  </si>
+  <si>
+    <t>VQ0002</t>
+  </si>
+  <si>
+    <t>VQ0003</t>
+  </si>
+  <si>
+    <t>VQ0004</t>
+  </si>
+  <si>
+    <t>VQ0005</t>
+  </si>
+  <si>
+    <t>VQ0006</t>
+  </si>
+  <si>
+    <t>VQ0007</t>
+  </si>
+  <si>
+    <t>VQ0008</t>
+  </si>
+  <si>
+    <t>VQ0009</t>
+  </si>
+  <si>
+    <t>VQ0010</t>
+  </si>
+  <si>
+    <t>VQ0011</t>
+  </si>
+  <si>
+    <t>VQ0012</t>
+  </si>
+  <si>
+    <t>VQ0013</t>
+  </si>
+  <si>
+    <t>VQ0014</t>
+  </si>
+  <si>
+    <t>VQ0015</t>
+  </si>
+  <si>
+    <t>VQ0016</t>
+  </si>
+  <si>
+    <t>VQ0017</t>
+  </si>
+  <si>
+    <t>VQ0018</t>
+  </si>
+  <si>
+    <t>VQ0019</t>
+  </si>
+  <si>
+    <t>VQ0020</t>
+  </si>
+  <si>
+    <t>VQ0021</t>
+  </si>
+  <si>
+    <t>VQ0022</t>
+  </si>
+  <si>
+    <t>VQ0023</t>
+  </si>
+  <si>
+    <t>VQ0024</t>
+  </si>
+  <si>
+    <t>VQ0025</t>
+  </si>
+  <si>
+    <t>VQ0026</t>
+  </si>
+  <si>
+    <t>VQ0027</t>
+  </si>
+  <si>
+    <t>VQ0028</t>
+  </si>
+  <si>
+    <t>VQ0029</t>
+  </si>
+  <si>
+    <t>VQ0030</t>
+  </si>
+  <si>
+    <t>VQ0031</t>
+  </si>
+  <si>
+    <t>VQ0032</t>
+  </si>
+  <si>
+    <t>VQ0033</t>
+  </si>
+  <si>
+    <t>VQ0034</t>
+  </si>
+  <si>
+    <t>VQ0035</t>
+  </si>
+  <si>
+    <t>VQ0036</t>
+  </si>
+  <si>
+    <t>VQ0037</t>
+  </si>
+  <si>
+    <t>VQ0038</t>
+  </si>
+  <si>
+    <t>VQ0039</t>
+  </si>
+  <si>
+    <t>VQ0040</t>
+  </si>
+  <si>
+    <t>VQ0041</t>
+  </si>
+  <si>
+    <t>VQ0042</t>
+  </si>
+  <si>
+    <t>VQ0043</t>
+  </si>
+  <si>
+    <t>VQ0044</t>
+  </si>
+  <si>
+    <t>VQ0045</t>
+  </si>
+  <si>
+    <t>VQ0046</t>
+  </si>
+  <si>
+    <t>VQ0047</t>
+  </si>
+  <si>
+    <t>VQ0048</t>
+  </si>
+  <si>
+    <t>VQ0049</t>
+  </si>
+  <si>
+    <t>VQ0050</t>
+  </si>
+  <si>
+    <t>VQ0051</t>
+  </si>
+  <si>
+    <t>VQ0052</t>
+  </si>
+  <si>
+    <t>VQ0053</t>
+  </si>
+  <si>
+    <t>VQ0054</t>
+  </si>
+  <si>
+    <t>VQ0055</t>
+  </si>
+  <si>
+    <t>VQ0056</t>
+  </si>
+  <si>
+    <t>VQ0057</t>
+  </si>
+  <si>
+    <t>VQ0058</t>
+  </si>
+  <si>
+    <t>VQ0059</t>
+  </si>
+  <si>
+    <t>VQ0060</t>
+  </si>
+  <si>
+    <t>VQ0061</t>
+  </si>
+  <si>
+    <t>VQ0062</t>
+  </si>
+  <si>
+    <t>VQ0063</t>
+  </si>
+  <si>
+    <t>VQ0064</t>
+  </si>
+  <si>
+    <t>VQ0065</t>
+  </si>
+  <si>
+    <t>VQ0066</t>
+  </si>
+  <si>
+    <t>VQ0067</t>
+  </si>
+  <si>
+    <t>VQ0068</t>
+  </si>
+  <si>
+    <t>VQ0069</t>
+  </si>
+  <si>
+    <t>VQ0070</t>
+  </si>
+  <si>
+    <t>VQ0071</t>
+  </si>
+  <si>
+    <t>VQ0072</t>
+  </si>
+  <si>
+    <t>VQ0073</t>
+  </si>
+  <si>
+    <t>VQ0074</t>
+  </si>
+  <si>
+    <t>Another example</t>
+  </si>
+  <si>
+    <t>RE: 45731-1382</t>
+  </si>
+  <si>
+    <t>Another example to test the desktop vs online version</t>
+  </si>
+  <si>
+    <t>QU-623641 from RIM Enterprises LLC</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:TA7M-ISD2-FPHT</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:EM41-TGVO-LRIH</t>
+  </si>
+  <si>
+    <t>New Part</t>
+  </si>
+  <si>
+    <t>QU-1263646 from Aviation Concepts</t>
+  </si>
+  <si>
+    <t>RE: 3290694-5</t>
+  </si>
+  <si>
+    <t>Example Function</t>
+  </si>
+  <si>
+    <t>QU-1747442 from Setna iO</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
+  </si>
+  <si>
+    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
+  </si>
+  <si>
+    <t>Aermotive - 9032-4-2</t>
+  </si>
+  <si>
+    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
+  </si>
+  <si>
+    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:FJ5V-09U0-TOQ5</t>
+  </si>
+  <si>
+    <t>Gulfstream | Landing Gear SALE</t>
+  </si>
+  <si>
+    <t>Fwd: RFQ - From Atlantic Jet Support,LLC Entry Code:OMU7-KPPZ-MEKM</t>
+  </si>
+  <si>
+    <t>Quotation for Part Number: 6137-5</t>
+  </si>
+  <si>
+    <t>Quote from ReGEN Aviation Limited for RFQ #ILSBL4L250205033047</t>
+  </si>
+  <si>
+    <t>Quotation #345989 2-5-2025 1-48-01 PM.pdf</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250205125105</t>
+  </si>
+  <si>
+    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
+  </si>
+  <si>
+    <t>Quote from Seattle Aviation Solutions Ref#  SQT792209</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4L250206090529</t>
+  </si>
+  <si>
+    <t>Quote for RCF6708////////////////////////RFQ ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
+  </si>
+  <si>
+    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation - 01400543 </t>
+  </si>
+  <si>
+    <t>Quote: BMA4028224    P/N: 715331</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
+  </si>
+  <si>
+    <t>Quote Order C7062911</t>
+  </si>
+  <si>
+    <t>Quote Order C7062849</t>
+  </si>
+  <si>
+    <t>Quote Order C7062792</t>
+  </si>
+  <si>
+    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
+  </si>
+  <si>
+    <t>DASI Quote – 11058529 - 20250204.pdf</t>
+  </si>
+  <si>
+    <t>Aero-Zone has YOUR Inventory</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
+  </si>
+  <si>
+    <t>RE: C17001DA01</t>
+  </si>
+  <si>
+    <t>Quote Order S7036629</t>
+  </si>
+  <si>
+    <t>ILS offer request</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
+  </si>
+  <si>
+    <t>Here is another example</t>
+  </si>
+  <si>
+    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
+  </si>
+  <si>
+    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote Order C7059616</t>
+  </si>
+  <si>
+    <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
+  </si>
+  <si>
+    <t>Quote Order C7061042</t>
+  </si>
+  <si>
+    <t>Quote SQT-9438 by Aircraft Parts Distribution</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204124550</t>
+  </si>
+  <si>
+    <t>tadas0900@gmail.com</t>
+  </si>
+  <si>
+    <t>Aivaras.Staknys@setnaio.com</t>
+  </si>
+  <si>
+    <t>jfagan@riment.com</t>
+  </si>
+  <si>
+    <t>salesamericas@aerotron.co.uk</t>
+  </si>
+  <si>
+    <t>rfq@avstock.aero</t>
+  </si>
+  <si>
+    <t>mkoya@aviationconcepts.com</t>
+  </si>
+  <si>
+    <t>aivaras.staknys@setnaio.com</t>
+  </si>
+  <si>
+    <t>jessica@ljwalch.com</t>
+  </si>
+  <si>
+    <t>quote@app.rotabull.com</t>
+  </si>
+  <si>
+    <t>david@aermotive.com</t>
+  </si>
+  <si>
+    <t>cjacobs@jacaero.com</t>
+  </si>
+  <si>
+    <t>linda.vargas@vas.aero</t>
+  </si>
+  <si>
+    <t>Quote@aerospareparts.com</t>
+  </si>
+  <si>
+    <t>Guillermo.Arce@dasi.com</t>
+  </si>
+  <si>
+    <t>Mariana.Blanco@incora.com</t>
+  </si>
+  <si>
+    <t>sergey@sentry.aero</t>
+  </si>
+  <si>
+    <t>sales@mtraviation.com</t>
+  </si>
+  <si>
+    <t>sales@brownhelicopter.com</t>
+  </si>
+  <si>
+    <t>sales@dasi.com</t>
+  </si>
+  <si>
+    <t>JKimm@midamaero.com</t>
+  </si>
+  <si>
+    <t>sales@aviodirect.com</t>
+  </si>
+  <si>
+    <t>sales@globaltradeaviation.com</t>
+  </si>
+  <si>
+    <t>offer@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>admin@aeropartners.co.uk</t>
+  </si>
+  <si>
+    <t>inventory@eas-aviation-group.com</t>
+  </si>
+  <si>
+    <t>marty@genairsupport.com</t>
+  </si>
+  <si>
+    <t>DoNotReply@ilsmart.com</t>
+  </si>
+  <si>
+    <t>m.altork@seattleav.com</t>
+  </si>
+  <si>
+    <t>sales@siam-aero.com</t>
+  </si>
+  <si>
+    <t>sales@tecnicaaerospace.com</t>
+  </si>
+  <si>
+    <t>janelle@cavuaerospace.com</t>
+  </si>
+  <si>
+    <t>textquote2@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>CQ@oceanair.aero</t>
+  </si>
+  <si>
+    <t>JenniferSchreck@TurboResources.com</t>
+  </si>
+  <si>
+    <t>ted@ajsupport.com</t>
+  </si>
+  <si>
+    <t>randy.hill@aero-zone.com</t>
+  </si>
+  <si>
+    <t>NickLiberio@TurboResources.com</t>
+  </si>
+  <si>
+    <t>partsales@voyav.com</t>
+  </si>
+  <si>
+    <t>textquote3@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>luciana@southseas.aero</t>
+  </si>
+  <si>
+    <t>ben@aircraftparts.net</t>
+  </si>
+  <si>
+    <t>katie.botthof@avair.aero</t>
+  </si>
+  <si>
+    <t>jb@austinaerotech.com</t>
+  </si>
+  <si>
+    <t>gabriel co</t>
+  </si>
+  <si>
+    <t>setna io</t>
+  </si>
+  <si>
+    <t>crimptools.com</t>
+  </si>
+  <si>
+    <t>fokker aerotron</t>
+  </si>
+  <si>
+    <t>aerostock</t>
+  </si>
+  <si>
+    <t>aviation concepts</t>
+  </si>
+  <si>
+    <t>lj walch</t>
+  </si>
+  <si>
+    <t>av rotables llc</t>
+  </si>
+  <si>
+    <t>aermotive</t>
+  </si>
+  <si>
+    <t>action aero</t>
+  </si>
+  <si>
+    <t>tcas aero</t>
+  </si>
+  <si>
+    <t>aerospares, llc</t>
+  </si>
+  <si>
+    <t>dasi</t>
+  </si>
+  <si>
+    <t>atco, inc.</t>
+  </si>
+  <si>
+    <t>seres aero</t>
+  </si>
+  <si>
+    <t>action aviation</t>
+  </si>
+  <si>
+    <t>brown helicopter</t>
+  </si>
+  <si>
+    <t>windaero llc</t>
+  </si>
+  <si>
+    <t>aviodirect</t>
+  </si>
+  <si>
+    <t>alternate aviation</t>
+  </si>
+  <si>
+    <t>brooks &amp; maldini corporation</t>
+  </si>
+  <si>
+    <t>sky-aeroparts (cmt7)</t>
+  </si>
+  <si>
+    <t>eas aviation group</t>
+  </si>
+  <si>
+    <t>air support</t>
+  </si>
+  <si>
+    <t>cmi sarl</t>
+  </si>
+  <si>
+    <t>boeing - seattle</t>
+  </si>
+  <si>
+    <t>cost aero</t>
+  </si>
+  <si>
+    <t>aeromni aerospace inc</t>
+  </si>
+  <si>
+    <t>cm aerospace</t>
+  </si>
+  <si>
+    <t>aero renix</t>
+  </si>
+  <si>
+    <t>aviation resources</t>
+  </si>
+  <si>
+    <t>ijsupport</t>
+  </si>
+  <si>
+    <t>aero-zone</t>
+  </si>
+  <si>
+    <t>cargo royal</t>
+  </si>
+  <si>
+    <t>southeast aerospace</t>
+  </si>
+  <si>
+    <t>aircraftpartsz</t>
+  </si>
+  <si>
+    <t>lamar aero</t>
+  </si>
+  <si>
+    <t>aerotech ops</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:42:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T18:52:43+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-28T09:05:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:10:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T19:34:22+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:41:23+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T07:50:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T20:28:35+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T11:10:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:36:05+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T10:50:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T20:42:18+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T15:50:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:16:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:24:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10T20:42:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:48:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T14:06:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T16:24:09+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T23:03:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T01:32:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T17:28:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:50:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:07:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12T05:43:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T13:33:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T06:02:33+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T11:54:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T09:35:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T10:20:28+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T20:48:39+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T19:14:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-11T21:26:58+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T15:20:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T15:08:34+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T17:34:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06T17:32:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T15:30:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T16:54:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T20:58:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T06:13:01+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:37:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:10:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:06:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T11:13:52+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T10:13:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-03T13:30:17+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T06:15:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-29T13:19:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T18:47:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T13:23:38+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T12:05:15+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T11:41:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-01-27T07:49:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:21:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T19:25:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:06+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:33:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:36:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:45:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:16+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:39:14+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:36:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:59:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:41:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:31:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:33:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:48:33+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:53:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-02-05T10:06:18+00:00</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00</t>
+  </si>
+  <si>
+    <t>45731-1382</t>
+  </si>
+  <si>
+    <t>100-5383Y-00</t>
+  </si>
+  <si>
+    <t>S800-3000-00</t>
+  </si>
+  <si>
+    <t>MXP410-1</t>
+  </si>
+  <si>
+    <t>3290694-5</t>
+  </si>
+  <si>
+    <t>762185H; 762185J</t>
+  </si>
+  <si>
+    <t>NP165312-14</t>
+  </si>
+  <si>
+    <t>766088B</t>
+  </si>
+  <si>
+    <t>80-057-01</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>2100-4043-00</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>5001319</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>8260-123</t>
+  </si>
+  <si>
+    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
+  </si>
+  <si>
+    <t>6137-5</t>
+  </si>
+  <si>
+    <t>D9251504800000; D9251504800000</t>
+  </si>
+  <si>
+    <t>32114</t>
+  </si>
+  <si>
+    <t>727810C</t>
+  </si>
+  <si>
+    <t>RCF6708; RCF6708</t>
+  </si>
+  <si>
+    <t>MXP410-1; MXP410-1</t>
+  </si>
+  <si>
+    <t>RCF6708</t>
+  </si>
+  <si>
+    <t>898930-10</t>
+  </si>
+  <si>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+  </si>
+  <si>
+    <t>S67-2002-18</t>
+  </si>
+  <si>
+    <t>16520-101</t>
+  </si>
+  <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>300013000-003</t>
+  </si>
+  <si>
+    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
+  </si>
+  <si>
+    <t>855D100-11</t>
+  </si>
+  <si>
+    <t>DK120; 2100-4043-00</t>
+  </si>
+  <si>
+    <t>715331</t>
+  </si>
+  <si>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
+  </si>
+  <si>
+    <t>263BA101-2; 263BA101-2</t>
+  </si>
+  <si>
+    <t>S5397132100802</t>
+  </si>
+  <si>
+    <t>1151952-19</t>
+  </si>
+  <si>
+    <t>762185H</t>
+  </si>
+  <si>
+    <t>C17001DA01</t>
+  </si>
+  <si>
+    <t>22020; 26020</t>
+  </si>
+  <si>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>01 600; 104101</t>
+  </si>
+  <si>
+    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
+  </si>
+  <si>
+    <t>2100-4043-00; S800-3000-00</t>
+  </si>
+  <si>
+    <t>865D100-7</t>
+  </si>
+  <si>
+    <t>fan-recirculation; fan-recirculation</t>
+  </si>
+  <si>
+    <t>heater, servo fuel</t>
+  </si>
+  <si>
+    <t>landing gear selector valve</t>
+  </si>
+  <si>
+    <t>ssfdr</t>
+  </si>
+  <si>
+    <t>stowage box</t>
+  </si>
+  <si>
+    <t>valve-starter</t>
+  </si>
+  <si>
+    <t>gcu; gcu</t>
+  </si>
+  <si>
+    <t>window-sliding</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+  </si>
+  <si>
+    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
+  </si>
+  <si>
+    <t>dfdr</t>
+  </si>
+  <si>
+    <t>balance kit</t>
+  </si>
+  <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>starter gen</t>
+  </si>
+  <si>
+    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
+  </si>
+  <si>
+    <t>rudder trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; </t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>stowage box; stowage box</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>actuator,retraction (nlg)</t>
+  </si>
+  <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice</t>
+  </si>
+  <si>
+    <t>antenna; tcas antenna; multipurpose control and display unit</t>
+  </si>
+  <si>
+    <t>bpsu</t>
+  </si>
+  <si>
+    <t>under water locator beacon; beacon</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
+  </si>
+  <si>
+    <t>battery; battery</t>
+  </si>
+  <si>
+    <t>fitting fwd lh</t>
+  </si>
+  <si>
+    <t>standby power con.</t>
+  </si>
+  <si>
+    <t>gcu</t>
+  </si>
+  <si>
+    <t>air data</t>
+  </si>
+  <si>
+    <t>voltage regulator; tri flow lubricant</t>
+  </si>
+  <si>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing</t>
+  </si>
+  <si>
+    <t>ground spoiler; walltable</t>
+  </si>
+  <si>
+    <t>valve; valve; valve; valve</t>
+  </si>
+  <si>
+    <t>dfdr; ssfdr</t>
+  </si>
+  <si>
+    <t>pdu</t>
+  </si>
+  <si>
+    <t>OH; SV</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RP; TE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; NS</t>
+  </si>
+  <si>
+    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
+  </si>
+  <si>
+    <t>NE; NE; NE</t>
+  </si>
+  <si>
+    <t>SV; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; SV; OH; OH; OH; SV</t>
+  </si>
+  <si>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>NS; NS</t>
+  </si>
+  <si>
+    <t>OH; REPAIR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>SV; AR; NS</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>SV; AR</t>
+  </si>
+  <si>
+    <t>OH; OH; OH; OH; AR</t>
+  </si>
+  <si>
+    <t>AR; IN; NE</t>
+  </si>
+  <si>
+    <t>OH; OH</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
+  </si>
+  <si>
+    <t>NS; NS; IN</t>
+  </si>
+  <si>
+    <t>AR; NS</t>
+  </si>
+  <si>
+    <t>AR; OH; AR; SV</t>
+  </si>
+  <si>
+    <t>13000; 11300</t>
+  </si>
+  <si>
+    <t>10995</t>
+  </si>
+  <si>
+    <t>3495</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>33950</t>
+  </si>
+  <si>
+    <t>3500; Call for Price</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>68950</t>
+  </si>
+  <si>
+    <t>2453.61</t>
+  </si>
+  <si>
+    <t>UNK/Process Error</t>
+  </si>
+  <si>
+    <t>10439.55</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>3541.76; 3541.76; 3541.76</t>
+  </si>
+  <si>
+    <t>5280; 79200</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
+  </si>
+  <si>
+    <t>37500</t>
+  </si>
+  <si>
+    <t>15600</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500; 500</t>
+  </si>
+  <si>
+    <t>13812.50; 500</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
+    <t>38430</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>4106.87; 5967.19</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>14580</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>5042.08; 847</t>
+  </si>
+  <si>
+    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
+  </si>
+  <si>
+    <t>15990</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA Form 1</t>
+  </si>
+  <si>
+    <t>Manufacturers C of C</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
+  </si>
+  <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>2024-08-08; 2024-05-08</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-09-26; 2024-09-26</t>
+  </si>
+  <si>
+    <t>U; N; K</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-07-10; 2023-10-13</t>
+  </si>
+  <si>
+    <t>2009-02-12</t>
+  </si>
+  <si>
+    <t>2025-01-20; 2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-06-29; 2023-09-25</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>1; 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -407,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +1996,2815 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K3" t="s">
+        <v>504</v>
+      </c>
+      <c r="L3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K4" t="s">
+        <v>505</v>
+      </c>
+      <c r="L4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" t="s">
+        <v>447</v>
+      </c>
+      <c r="J5" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" t="s">
+        <v>486</v>
+      </c>
+      <c r="K6" t="s">
+        <v>486</v>
+      </c>
+      <c r="L6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" t="s">
+        <v>486</v>
+      </c>
+      <c r="K8" t="s">
+        <v>505</v>
+      </c>
+      <c r="L8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H9" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" t="s">
+        <v>450</v>
+      </c>
+      <c r="J9" t="s">
+        <v>486</v>
+      </c>
+      <c r="K9" t="s">
+        <v>486</v>
+      </c>
+      <c r="L9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I10" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10" t="s">
+        <v>486</v>
+      </c>
+      <c r="K10" t="s">
+        <v>486</v>
+      </c>
+      <c r="L10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I11" t="s">
+        <v>452</v>
+      </c>
+      <c r="J11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K11" t="s">
+        <v>506</v>
+      </c>
+      <c r="L11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I12" t="s">
+        <v>453</v>
+      </c>
+      <c r="J12" t="s">
+        <v>486</v>
+      </c>
+      <c r="K12" t="s">
+        <v>486</v>
+      </c>
+      <c r="L12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I13" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" t="s">
+        <v>486</v>
+      </c>
+      <c r="K13" t="s">
+        <v>486</v>
+      </c>
+      <c r="L13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I14" t="s">
+        <v>455</v>
+      </c>
+      <c r="J14" t="s">
+        <v>486</v>
+      </c>
+      <c r="K14" t="s">
+        <v>486</v>
+      </c>
+      <c r="L14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" t="s">
+        <v>486</v>
+      </c>
+      <c r="K15" t="s">
+        <v>507</v>
+      </c>
+      <c r="L15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I16" t="s">
+        <v>456</v>
+      </c>
+      <c r="J16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K16" t="s">
+        <v>486</v>
+      </c>
+      <c r="L16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" t="s">
+        <v>423</v>
+      </c>
+      <c r="I17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" t="s">
+        <v>487</v>
+      </c>
+      <c r="K17" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" t="s">
+        <v>486</v>
+      </c>
+      <c r="K18" t="s">
+        <v>507</v>
+      </c>
+      <c r="L18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I19" t="s">
+        <v>456</v>
+      </c>
+      <c r="J19" t="s">
+        <v>488</v>
+      </c>
+      <c r="K19" t="s">
+        <v>486</v>
+      </c>
+      <c r="L19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I20" t="s">
+        <v>457</v>
+      </c>
+      <c r="J20" t="s">
+        <v>489</v>
+      </c>
+      <c r="K20" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" t="s">
+        <v>422</v>
+      </c>
+      <c r="I21" t="s">
+        <v>456</v>
+      </c>
+      <c r="J21" t="s">
+        <v>490</v>
+      </c>
+      <c r="K21" t="s">
+        <v>486</v>
+      </c>
+      <c r="L21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" t="s">
+        <v>456</v>
+      </c>
+      <c r="J22" t="s">
+        <v>486</v>
+      </c>
+      <c r="K22" t="s">
+        <v>507</v>
+      </c>
+      <c r="L22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I23" t="s">
+        <v>456</v>
+      </c>
+      <c r="J23" t="s">
+        <v>486</v>
+      </c>
+      <c r="K23" t="s">
+        <v>507</v>
+      </c>
+      <c r="L23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" t="s">
+        <v>486</v>
+      </c>
+      <c r="K24" t="s">
+        <v>486</v>
+      </c>
+      <c r="L24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" t="s">
+        <v>459</v>
+      </c>
+      <c r="J25" t="s">
+        <v>491</v>
+      </c>
+      <c r="K25" t="s">
+        <v>486</v>
+      </c>
+      <c r="L25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I26" t="s">
+        <v>452</v>
+      </c>
+      <c r="J26" t="s">
+        <v>485</v>
+      </c>
+      <c r="K26" t="s">
+        <v>506</v>
+      </c>
+      <c r="L26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G27" t="s">
+        <v>379</v>
+      </c>
+      <c r="H27" t="s">
+        <v>426</v>
+      </c>
+      <c r="I27" t="s">
+        <v>460</v>
+      </c>
+      <c r="J27" t="s">
+        <v>485</v>
+      </c>
+      <c r="K27" t="s">
+        <v>486</v>
+      </c>
+      <c r="L27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I28" t="s">
+        <v>456</v>
+      </c>
+      <c r="J28" t="s">
+        <v>486</v>
+      </c>
+      <c r="K28" t="s">
+        <v>507</v>
+      </c>
+      <c r="L28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" t="s">
+        <v>380</v>
+      </c>
+      <c r="H29" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" t="s">
+        <v>461</v>
+      </c>
+      <c r="J29" t="s">
+        <v>486</v>
+      </c>
+      <c r="K29" t="s">
+        <v>486</v>
+      </c>
+      <c r="L29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" t="s">
+        <v>427</v>
+      </c>
+      <c r="I30" t="s">
+        <v>462</v>
+      </c>
+      <c r="J30" t="s">
+        <v>492</v>
+      </c>
+      <c r="K30" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I31" t="s">
+        <v>463</v>
+      </c>
+      <c r="J31" t="s">
+        <v>486</v>
+      </c>
+      <c r="K31" t="s">
+        <v>508</v>
+      </c>
+      <c r="L31" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" t="s">
+        <v>382</v>
+      </c>
+      <c r="H32" t="s">
+        <v>418</v>
+      </c>
+      <c r="I32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J32" t="s">
+        <v>486</v>
+      </c>
+      <c r="K32" t="s">
+        <v>486</v>
+      </c>
+      <c r="L32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" t="s">
+        <v>418</v>
+      </c>
+      <c r="I33" t="s">
+        <v>456</v>
+      </c>
+      <c r="J33" t="s">
+        <v>486</v>
+      </c>
+      <c r="K33" t="s">
+        <v>486</v>
+      </c>
+      <c r="L33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>383</v>
+      </c>
+      <c r="H34" t="s">
+        <v>428</v>
+      </c>
+      <c r="I34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J34" t="s">
+        <v>493</v>
+      </c>
+      <c r="K34" t="s">
+        <v>486</v>
+      </c>
+      <c r="L34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
+        <v>384</v>
+      </c>
+      <c r="H35" t="s">
+        <v>417</v>
+      </c>
+      <c r="I35" t="s">
+        <v>448</v>
+      </c>
+      <c r="J35" t="s">
+        <v>486</v>
+      </c>
+      <c r="K35" t="s">
+        <v>486</v>
+      </c>
+      <c r="L35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" t="s">
+        <v>418</v>
+      </c>
+      <c r="I36" t="s">
+        <v>465</v>
+      </c>
+      <c r="J36" t="s">
+        <v>494</v>
+      </c>
+      <c r="K36" t="s">
+        <v>486</v>
+      </c>
+      <c r="L36" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37" t="s">
+        <v>429</v>
+      </c>
+      <c r="I37" t="s">
+        <v>466</v>
+      </c>
+      <c r="J37" t="s">
+        <v>485</v>
+      </c>
+      <c r="K37" t="s">
+        <v>486</v>
+      </c>
+      <c r="L37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>387</v>
+      </c>
+      <c r="H38" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" t="s">
+        <v>467</v>
+      </c>
+      <c r="J38" t="s">
+        <v>485</v>
+      </c>
+      <c r="K38" t="s">
+        <v>486</v>
+      </c>
+      <c r="L38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" t="s">
+        <v>419</v>
+      </c>
+      <c r="I39" t="s">
+        <v>468</v>
+      </c>
+      <c r="J39" t="s">
+        <v>486</v>
+      </c>
+      <c r="K39" t="s">
+        <v>486</v>
+      </c>
+      <c r="L39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" t="s">
+        <v>420</v>
+      </c>
+      <c r="I40" t="s">
+        <v>456</v>
+      </c>
+      <c r="J40" t="s">
+        <v>486</v>
+      </c>
+      <c r="K40" t="s">
+        <v>486</v>
+      </c>
+      <c r="L40" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H41" t="s">
+        <v>418</v>
+      </c>
+      <c r="I41" t="s">
+        <v>469</v>
+      </c>
+      <c r="J41" t="s">
+        <v>486</v>
+      </c>
+      <c r="K41" t="s">
+        <v>486</v>
+      </c>
+      <c r="L41" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>390</v>
+      </c>
+      <c r="H42" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" t="s">
+        <v>456</v>
+      </c>
+      <c r="J42" t="s">
+        <v>491</v>
+      </c>
+      <c r="K42" t="s">
+        <v>486</v>
+      </c>
+      <c r="L42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H43" t="s">
+        <v>432</v>
+      </c>
+      <c r="I43" t="s">
+        <v>470</v>
+      </c>
+      <c r="J43" t="s">
+        <v>486</v>
+      </c>
+      <c r="K43" t="s">
+        <v>486</v>
+      </c>
+      <c r="L43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" t="s">
+        <v>418</v>
+      </c>
+      <c r="I44" t="s">
+        <v>471</v>
+      </c>
+      <c r="J44" t="s">
+        <v>486</v>
+      </c>
+      <c r="K44" t="s">
+        <v>486</v>
+      </c>
+      <c r="L44" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>393</v>
+      </c>
+      <c r="H45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" t="s">
+        <v>472</v>
+      </c>
+      <c r="J45" t="s">
+        <v>495</v>
+      </c>
+      <c r="K45" t="s">
+        <v>486</v>
+      </c>
+      <c r="L45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" t="s">
+        <v>417</v>
+      </c>
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>496</v>
+      </c>
+      <c r="K46" t="s">
+        <v>486</v>
+      </c>
+      <c r="L46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>395</v>
+      </c>
+      <c r="H47" t="s">
+        <v>434</v>
+      </c>
+      <c r="I47" t="s">
+        <v>456</v>
+      </c>
+      <c r="J47" t="s">
+        <v>497</v>
+      </c>
+      <c r="K47" t="s">
+        <v>509</v>
+      </c>
+      <c r="L47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" t="s">
+        <v>435</v>
+      </c>
+      <c r="I48" t="s">
+        <v>456</v>
+      </c>
+      <c r="J48" t="s">
+        <v>494</v>
+      </c>
+      <c r="K48" t="s">
+        <v>510</v>
+      </c>
+      <c r="L48" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>397</v>
+      </c>
+      <c r="H49" t="s">
+        <v>436</v>
+      </c>
+      <c r="I49" t="s">
+        <v>456</v>
+      </c>
+      <c r="J49" t="s">
+        <v>498</v>
+      </c>
+      <c r="K49" t="s">
+        <v>511</v>
+      </c>
+      <c r="L49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>398</v>
+      </c>
+      <c r="H50" t="s">
+        <v>422</v>
+      </c>
+      <c r="I50" t="s">
+        <v>474</v>
+      </c>
+      <c r="J50" t="s">
+        <v>486</v>
+      </c>
+      <c r="K50" t="s">
+        <v>486</v>
+      </c>
+      <c r="L50" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" t="s">
+        <v>432</v>
+      </c>
+      <c r="I51" t="s">
+        <v>475</v>
+      </c>
+      <c r="J51" t="s">
+        <v>486</v>
+      </c>
+      <c r="K51" t="s">
+        <v>486</v>
+      </c>
+      <c r="L51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" t="s">
+        <v>399</v>
+      </c>
+      <c r="H52" t="s">
+        <v>437</v>
+      </c>
+      <c r="I52" t="s">
+        <v>476</v>
+      </c>
+      <c r="J52" t="s">
+        <v>499</v>
+      </c>
+      <c r="K52" t="s">
+        <v>486</v>
+      </c>
+      <c r="L52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" t="s">
+        <v>400</v>
+      </c>
+      <c r="H53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>491</v>
+      </c>
+      <c r="K53" t="s">
+        <v>486</v>
+      </c>
+      <c r="L53" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" t="s">
+        <v>318</v>
+      </c>
+      <c r="H54" t="s">
+        <v>318</v>
+      </c>
+      <c r="I54" t="s">
+        <v>456</v>
+      </c>
+      <c r="J54" t="s">
+        <v>486</v>
+      </c>
+      <c r="K54" t="s">
+        <v>507</v>
+      </c>
+      <c r="L54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>401</v>
+      </c>
+      <c r="H55" t="s">
+        <v>439</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>498</v>
+      </c>
+      <c r="K55" t="s">
+        <v>512</v>
+      </c>
+      <c r="L55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" t="s">
+        <v>288</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>402</v>
+      </c>
+      <c r="H56" t="s">
+        <v>435</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G57" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>486</v>
+      </c>
+      <c r="K57" t="s">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>420</v>
+      </c>
+      <c r="I58" t="s">
+        <v>478</v>
+      </c>
+      <c r="J58" t="s">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s">
+        <v>405</v>
+      </c>
+      <c r="H59" t="s">
+        <v>419</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>501</v>
+      </c>
+      <c r="K59" t="s">
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" t="s">
+        <v>406</v>
+      </c>
+      <c r="H60" t="s">
+        <v>318</v>
+      </c>
+      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>486</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>406</v>
+      </c>
+      <c r="H61" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>486</v>
+      </c>
+      <c r="K61" t="s">
+        <v>507</v>
+      </c>
+      <c r="L61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>355</v>
+      </c>
+      <c r="G63" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" t="s">
+        <v>422</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>486</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" t="s">
+        <v>440</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>486</v>
+      </c>
+      <c r="L64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" t="s">
+        <v>441</v>
+      </c>
+      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
+        <v>491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>486</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>411</v>
+      </c>
+      <c r="H66" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" t="s">
+        <v>481</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" t="s">
+        <v>408</v>
+      </c>
+      <c r="H67" t="s">
+        <v>420</v>
+      </c>
+      <c r="I67" t="s">
+        <v>456</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>486</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" t="s">
+        <v>398</v>
+      </c>
+      <c r="H68" t="s">
+        <v>435</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>486</v>
+      </c>
+      <c r="K68" t="s">
+        <v>486</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" t="s">
+        <v>398</v>
+      </c>
+      <c r="H69" t="s">
+        <v>432</v>
+      </c>
+      <c r="I69" t="s">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>486</v>
+      </c>
+      <c r="L69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" t="s">
+        <v>359</v>
+      </c>
+      <c r="G70" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" t="s">
+        <v>442</v>
+      </c>
+      <c r="I70" t="s">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>485</v>
+      </c>
+      <c r="K70" t="s">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G71" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" t="s">
+        <v>443</v>
+      </c>
+      <c r="I71" t="s">
+        <v>482</v>
+      </c>
+      <c r="J71" t="s">
+        <v>487</v>
+      </c>
+      <c r="K71" t="s">
+        <v>486</v>
+      </c>
+      <c r="L71" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" t="s">
+        <v>389</v>
+      </c>
+      <c r="H72" t="s">
+        <v>418</v>
+      </c>
+      <c r="I72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J72" t="s">
+        <v>486</v>
+      </c>
+      <c r="K72" t="s">
+        <v>486</v>
+      </c>
+      <c r="L72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" t="s">
+        <v>439</v>
+      </c>
+      <c r="I73" t="s">
+        <v>456</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" t="s">
+        <v>415</v>
+      </c>
+      <c r="H74" t="s">
+        <v>417</v>
+      </c>
+      <c r="I74" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" t="s">
+        <v>494</v>
+      </c>
+      <c r="K74" t="s">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75" t="s">
+        <v>380</v>
+      </c>
+      <c r="H75" t="s">
+        <v>417</v>
+      </c>
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
+        <v>486</v>
+      </c>
+      <c r="K75" t="s">
+        <v>508</v>
+      </c>
+      <c r="L75" t="s">
+        <v>516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="459">
   <si>
     <t>VQ#</t>
   </si>
@@ -271,235 +271,334 @@
     <t>VQ0073</t>
   </si>
   <si>
-    <t>VQ0074</t>
-  </si>
-  <si>
     <t>Another example</t>
   </si>
   <si>
+    <t>Another example to test the desktop vs online version</t>
+  </si>
+  <si>
+    <t>New Part</t>
+  </si>
+  <si>
+    <t>QU-623641 from RIM Enterprises LLC</t>
+  </si>
+  <si>
     <t>RE: 45731-1382</t>
   </si>
   <si>
-    <t>Another example to test the desktop vs online version</t>
-  </si>
-  <si>
-    <t>QU-623641 from RIM Enterprises LLC</t>
-  </si>
-  <si>
     <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:TA7M-ISD2-FPHT</t>
   </si>
   <si>
+    <t>QU-1263646 from Aviation Concepts</t>
+  </si>
+  <si>
     <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:EM41-TGVO-LRIH</t>
   </si>
   <si>
-    <t>New Part</t>
-  </si>
-  <si>
-    <t>QU-1263646 from Aviation Concepts</t>
-  </si>
-  <si>
     <t>RE: 3290694-5</t>
   </si>
   <si>
     <t>Example Function</t>
   </si>
   <si>
+    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
+  </si>
+  <si>
+    <t>Here is another example</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
+  </si>
+  <si>
+    <t>ILS offer request</t>
+  </si>
+  <si>
+    <t>Quote Order S7036629</t>
+  </si>
+  <si>
+    <t>RE: C17001DA01</t>
+  </si>
+  <si>
+    <t>Aero-Zone has YOUR Inventory</t>
+  </si>
+  <si>
+    <t>Quote: BMA4028224    P/N: 715331</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
+  </si>
+  <si>
+    <t>DASI Quote – 11058529 - 20250204.pdf</t>
+  </si>
+  <si>
+    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
+  </si>
+  <si>
+    <t>Fwd: RFQ - From Atlantic Jet Support,LLC Entry Code:OMU7-KPPZ-MEKM</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:FJ5V-09U0-TOQ5</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
+  </si>
+  <si>
+    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
+  </si>
+  <si>
+    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
+  </si>
+  <si>
+    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
+  </si>
+  <si>
+    <t>Quote Order C7059616</t>
+  </si>
+  <si>
+    <t>Quote Order C7061042</t>
+  </si>
+  <si>
+    <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
+  </si>
+  <si>
+    <t>Quote SQT-9438 by Aircraft Parts Distribution</t>
+  </si>
+  <si>
+    <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204124550</t>
+  </si>
+  <si>
+    <t>Quote Order C7062792</t>
+  </si>
+  <si>
+    <t>Quote Order C7062849</t>
+  </si>
+  <si>
+    <t>Quote Order C7062911</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
+  </si>
+  <si>
+    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation - 01400543 </t>
+  </si>
+  <si>
+    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
+  </si>
+  <si>
+    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
+  </si>
+  <si>
+    <t>Gulfstream | Landing Gear SALE</t>
+  </si>
+  <si>
+    <t>Quotation for Part Number: 6137-5</t>
+  </si>
+  <si>
+    <t>Quote from ReGEN Aviation Limited for RFQ #ILSBL4L250205033047</t>
+  </si>
+  <si>
+    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
+  </si>
+  <si>
+    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
+  </si>
+  <si>
+    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250205125105</t>
+  </si>
+  <si>
+    <t>Quotation #345989 2-5-2025 1-48-01 PM.pdf</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4L250206090529</t>
+  </si>
+  <si>
+    <t>Quote from Seattle Aviation Solutions Ref#  SQT792209</t>
+  </si>
+  <si>
+    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Quote for RCF6708////////////////////////RFQ ILSBL4L250206091154</t>
+  </si>
+  <si>
+    <t>Aermotive - 9032-4-2</t>
+  </si>
+  <si>
+    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
+  </si>
+  <si>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+  </si>
+  <si>
     <t>QU-1747442 from Setna iO</t>
   </si>
   <si>
+    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
+  </si>
+  <si>
     <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:9XQ1-2S1O-3DBL</t>
   </si>
   <si>
-    <t>Quote from Global Aviation Co. for RFQ #ILSBL4E250204130547</t>
-  </si>
-  <si>
-    <t>Aermotive - 9032-4-2</t>
-  </si>
-  <si>
-    <t>No Quote from Jacaero Industries, LLC for RFQ # ILSBL4L250210110650</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:LORQ-K1XF-LPJP</t>
+    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
+  </si>
+  <si>
+    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
+  </si>
+  <si>
+    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
   </si>
   <si>
     <t>RFQ number: ILSBL4G250211234013 / Mail Offer: MO-MIA806008, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
   </si>
   <si>
-    <t>DASI Quote – 2100-4043-00 - 2/5/2025</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
-  </si>
-  <si>
-    <t>RE: Sentry Aerospares VistaQuote Has Assigned You RFQs To Work</t>
-  </si>
-  <si>
-    <t>Re: RFQ - From Atlantic Jet Support,LLC Entry Code:W7K6-DEIJ-4V6T</t>
-  </si>
-  <si>
-    <t>Quote 2884218 Ref ILSBL4E250131094613</t>
-  </si>
-  <si>
     <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
   </si>
   <si>
-    <t>Quote from AvioDirect for RFQ #ILSBL4G250211234013</t>
-  </si>
-  <si>
-    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:FJ5V-09U0-TOQ5</t>
-  </si>
-  <si>
-    <t>Gulfstream | Landing Gear SALE</t>
-  </si>
-  <si>
-    <t>Fwd: RFQ - From Atlantic Jet Support,LLC Entry Code:OMU7-KPPZ-MEKM</t>
-  </si>
-  <si>
-    <t>Quotation for Part Number: 6137-5</t>
-  </si>
-  <si>
-    <t>Quote from ReGEN Aviation Limited for RFQ #ILSBL4L250205033047</t>
-  </si>
-  <si>
-    <t>Quotation #345989 2-5-2025 1-48-01 PM.pdf</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4L250205125105</t>
-  </si>
-  <si>
-    <t>Quote from SILVER WINGS AEROSPACE, INC for RFQ #ILSBL4G250211041548</t>
-  </si>
-  <si>
-    <t>Quote from Seattle Aviation Solutions Ref#  SQT792209</t>
-  </si>
-  <si>
-    <t>Quote from AvioDirect for RFQ #ILSBL4L250206090529</t>
-  </si>
-  <si>
-    <t>Quote for RCF6708////////////////////////RFQ ILSBL4L250206091154</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4L250206091154</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204122853</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:H3GJ-GQF8-8SU4</t>
-  </si>
-  <si>
-    <t>Re: RFQ PN S67-2002-18 ANTENNA - RADIO ALTIMETER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation - 01400543 </t>
-  </si>
-  <si>
-    <t>Quote: BMA4028224    P/N: 715331</t>
-  </si>
-  <si>
-    <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:YKKB-J2Y2-LBFR</t>
-  </si>
-  <si>
-    <t>Quote Order C7062911</t>
-  </si>
-  <si>
-    <t>Quote Order C7062849</t>
-  </si>
-  <si>
-    <t>Quote Order C7062792</t>
-  </si>
-  <si>
-    <t>Quote from XS Aviation Ltd for RFQ #ILSBL4E250204000720</t>
-  </si>
-  <si>
-    <t>DASI Quote – 11058529 - 20250204.pdf</t>
-  </si>
-  <si>
-    <t>Aero-Zone has YOUR Inventory</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4E250204000720 - DASI Quote # CQ001657023</t>
-  </si>
-  <si>
-    <t>RE: C17001DA01</t>
-  </si>
-  <si>
-    <t>Quote Order S7036629</t>
-  </si>
-  <si>
-    <t>ILS offer request</t>
-  </si>
-  <si>
-    <t>Quote from AvAir for RFQ #ILSBL4E250123071251</t>
-  </si>
-  <si>
-    <t>Here is another example</t>
-  </si>
-  <si>
-    <t>PN C17001DA01 /////////////////////////RFQ ILSBL4E250123070856</t>
-  </si>
-  <si>
-    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:4H6X-IX95-PA53</t>
-  </si>
-  <si>
-    <t>Re: RFQ -  From Atlantic Jet Support,LLC Entry Code:177D-EC5H-AUS6</t>
-  </si>
-  <si>
-    <t>Quote: BMA4030325    P/N: 03-825-05ACP</t>
-  </si>
-  <si>
-    <t>Quote from Aeroengineers International s.r.o. for RFQ # ILSBL4E250204083103</t>
-  </si>
-  <si>
-    <t>RFQ number: ILSBL4E250204083103 / Mail Offer: MO-MIA802070, ATLANTIC JET SUPPORT LLC (ATJSU), United States</t>
-  </si>
-  <si>
-    <t>RE: RFQ# ILSBL4E250204083103 - DASI Quote # CQ001657720</t>
-  </si>
-  <si>
-    <t>Quote: BMA4030388    P/N: 190-32826-021</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204083103</t>
-  </si>
-  <si>
-    <t>Quote Order C7059616</t>
-  </si>
-  <si>
-    <t>RFQ - From Atlantic Jet Support,LLC Entry Code:R760-FYR1-EUP8</t>
-  </si>
-  <si>
-    <t>Quote Order C7061042</t>
-  </si>
-  <si>
-    <t>Quote SQT-9438 by Aircraft Parts Distribution</t>
-  </si>
-  <si>
-    <t>Quote from AvAir for RFQ #ILSBL4E250204122853</t>
-  </si>
-  <si>
-    <t>FW: RFQ -  From Atlantic Jet Support,LLC Entry Code:OMK5-RYI0-51RI</t>
-  </si>
-  <si>
-    <t>Quote Received - RFQ No:ILSBL4E250204124550</t>
-  </si>
-  <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
+    <t>jfagan@riment.com</t>
+  </si>
+  <si>
     <t>Aivaras.Staknys@setnaio.com</t>
   </si>
   <si>
-    <t>jfagan@riment.com</t>
-  </si>
-  <si>
     <t>salesamericas@aerotron.co.uk</t>
   </si>
   <si>
+    <t>mkoya@aviationconcepts.com</t>
+  </si>
+  <si>
     <t>rfq@avstock.aero</t>
   </si>
   <si>
-    <t>mkoya@aviationconcepts.com</t>
+    <t>NickLiberio@TurboResources.com</t>
+  </si>
+  <si>
+    <t>randy.hill@aero-zone.com</t>
+  </si>
+  <si>
+    <t>textquote2@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>sales@dasi.com</t>
+  </si>
+  <si>
+    <t>ted@ajsupport.com</t>
+  </si>
+  <si>
+    <t>quote@app.rotabull.com</t>
+  </si>
+  <si>
+    <t>admin@aeropartners.co.uk</t>
+  </si>
+  <si>
+    <t>sales@globaltradeaviation.com</t>
+  </si>
+  <si>
+    <t>textquote3@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>Quote@aerospareparts.com</t>
+  </si>
+  <si>
+    <t>DoNotReply@ilsmart.com</t>
+  </si>
+  <si>
+    <t>JenniferSchreck@TurboResources.com</t>
+  </si>
+  <si>
+    <t>luciana@southseas.aero</t>
+  </si>
+  <si>
+    <t>ben@aircraftparts.net</t>
+  </si>
+  <si>
+    <t>katie.botthof@avair.aero</t>
+  </si>
+  <si>
+    <t>jb@austinaerotech.com</t>
+  </si>
+  <si>
+    <t>partsales@voyav.com</t>
+  </si>
+  <si>
+    <t>CQ@oceanair.aero</t>
+  </si>
+  <si>
+    <t>janelle@cavuaerospace.com</t>
+  </si>
+  <si>
+    <t>sergey@sentry.aero</t>
+  </si>
+  <si>
+    <t>sales@mtraviation.com</t>
+  </si>
+  <si>
+    <t>offer@brooks-maldini.net</t>
+  </si>
+  <si>
+    <t>inventory@eas-aviation-group.com</t>
+  </si>
+  <si>
+    <t>Guillermo.Arce@dasi.com</t>
+  </si>
+  <si>
+    <t>sales@tecnicaaerospace.com</t>
+  </si>
+  <si>
+    <t>sales@brownhelicopter.com</t>
+  </si>
+  <si>
+    <t>marty@genairsupport.com</t>
+  </si>
+  <si>
+    <t>sales@aviodirect.com</t>
+  </si>
+  <si>
+    <t>m.altork@seattleav.com</t>
+  </si>
+  <si>
+    <t>Mariana.Blanco@incora.com</t>
+  </si>
+  <si>
+    <t>sales@siam-aero.com</t>
+  </si>
+  <si>
+    <t>david@aermotive.com</t>
+  </si>
+  <si>
+    <t>cjacobs@jacaero.com</t>
+  </si>
+  <si>
+    <t>linda.vargas@vas.aero</t>
   </si>
   <si>
     <t>aivaras.staknys@setnaio.com</t>
@@ -508,450 +607,135 @@
     <t>jessica@ljwalch.com</t>
   </si>
   <si>
-    <t>quote@app.rotabull.com</t>
-  </si>
-  <si>
-    <t>david@aermotive.com</t>
-  </si>
-  <si>
-    <t>cjacobs@jacaero.com</t>
-  </si>
-  <si>
-    <t>linda.vargas@vas.aero</t>
-  </si>
-  <si>
-    <t>Quote@aerospareparts.com</t>
-  </si>
-  <si>
-    <t>Guillermo.Arce@dasi.com</t>
-  </si>
-  <si>
-    <t>Mariana.Blanco@incora.com</t>
-  </si>
-  <si>
-    <t>sergey@sentry.aero</t>
-  </si>
-  <si>
-    <t>sales@mtraviation.com</t>
-  </si>
-  <si>
-    <t>sales@brownhelicopter.com</t>
-  </si>
-  <si>
-    <t>sales@dasi.com</t>
-  </si>
-  <si>
     <t>JKimm@midamaero.com</t>
   </si>
   <si>
-    <t>sales@aviodirect.com</t>
-  </si>
-  <si>
-    <t>sales@globaltradeaviation.com</t>
-  </si>
-  <si>
-    <t>offer@brooks-maldini.net</t>
-  </si>
-  <si>
-    <t>admin@aeropartners.co.uk</t>
-  </si>
-  <si>
-    <t>inventory@eas-aviation-group.com</t>
-  </si>
-  <si>
-    <t>marty@genairsupport.com</t>
-  </si>
-  <si>
-    <t>DoNotReply@ilsmart.com</t>
-  </si>
-  <si>
-    <t>m.altork@seattleav.com</t>
-  </si>
-  <si>
-    <t>sales@siam-aero.com</t>
-  </si>
-  <si>
-    <t>sales@tecnicaaerospace.com</t>
-  </si>
-  <si>
-    <t>janelle@cavuaerospace.com</t>
-  </si>
-  <si>
-    <t>textquote2@brooks-maldini.net</t>
-  </si>
-  <si>
-    <t>CQ@oceanair.aero</t>
-  </si>
-  <si>
-    <t>JenniferSchreck@TurboResources.com</t>
-  </si>
-  <si>
-    <t>ted@ajsupport.com</t>
-  </si>
-  <si>
-    <t>randy.hill@aero-zone.com</t>
-  </si>
-  <si>
-    <t>NickLiberio@TurboResources.com</t>
-  </si>
-  <si>
-    <t>partsales@voyav.com</t>
-  </si>
-  <si>
-    <t>textquote3@brooks-maldini.net</t>
-  </si>
-  <si>
-    <t>luciana@southseas.aero</t>
-  </si>
-  <si>
-    <t>ben@aircraftparts.net</t>
-  </si>
-  <si>
-    <t>katie.botthof@avair.aero</t>
-  </si>
-  <si>
-    <t>jb@austinaerotech.com</t>
-  </si>
-  <si>
     <t>gabriel co</t>
   </si>
   <si>
+    <t>crimptools.com</t>
+  </si>
+  <si>
     <t>setna io</t>
   </si>
   <si>
-    <t>crimptools.com</t>
-  </si>
-  <si>
     <t>fokker aerotron</t>
   </si>
   <si>
+    <t>aviation concepts</t>
+  </si>
+  <si>
     <t>aerostock</t>
   </si>
   <si>
-    <t>aviation concepts</t>
+    <t>aviation resources</t>
+  </si>
+  <si>
+    <t>aero-zone</t>
+  </si>
+  <si>
+    <t>brooks &amp; maldini corporation</t>
+  </si>
+  <si>
+    <t>dasi</t>
+  </si>
+  <si>
+    <t>ijsupport</t>
+  </si>
+  <si>
+    <t>av rotables llc</t>
+  </si>
+  <si>
+    <t>sky-aeroparts (cmt7)</t>
+  </si>
+  <si>
+    <t>alternate aviation</t>
+  </si>
+  <si>
+    <t>aerospares, llc</t>
+  </si>
+  <si>
+    <t>cmi sarl</t>
+  </si>
+  <si>
+    <t>southeast aerospace</t>
+  </si>
+  <si>
+    <t>aircraftpartsz</t>
+  </si>
+  <si>
+    <t>lamar aero</t>
+  </si>
+  <si>
+    <t>aerotech ops</t>
+  </si>
+  <si>
+    <t>cargo royal</t>
+  </si>
+  <si>
+    <t>aero renix</t>
+  </si>
+  <si>
+    <t>cm aerospace</t>
+  </si>
+  <si>
+    <t>seres aero</t>
+  </si>
+  <si>
+    <t>action aviation</t>
+  </si>
+  <si>
+    <t>eas aviation group</t>
+  </si>
+  <si>
+    <t>aeromni aerospace inc</t>
+  </si>
+  <si>
+    <t>brown helicopter</t>
+  </si>
+  <si>
+    <t>air support</t>
+  </si>
+  <si>
+    <t>aviodirect</t>
+  </si>
+  <si>
+    <t>boeing - seattle</t>
+  </si>
+  <si>
+    <t>atco, inc.</t>
+  </si>
+  <si>
+    <t>cost aero</t>
+  </si>
+  <si>
+    <t>aermotive</t>
+  </si>
+  <si>
+    <t>action aero</t>
+  </si>
+  <si>
+    <t>tcas aero</t>
   </si>
   <si>
     <t>lj walch</t>
   </si>
   <si>
-    <t>av rotables llc</t>
-  </si>
-  <si>
-    <t>aermotive</t>
-  </si>
-  <si>
-    <t>action aero</t>
-  </si>
-  <si>
-    <t>tcas aero</t>
-  </si>
-  <si>
-    <t>aerospares, llc</t>
-  </si>
-  <si>
-    <t>dasi</t>
-  </si>
-  <si>
-    <t>atco, inc.</t>
-  </si>
-  <si>
-    <t>seres aero</t>
-  </si>
-  <si>
-    <t>action aviation</t>
-  </si>
-  <si>
-    <t>brown helicopter</t>
-  </si>
-  <si>
     <t>windaero llc</t>
   </si>
   <si>
-    <t>aviodirect</t>
-  </si>
-  <si>
-    <t>alternate aviation</t>
-  </si>
-  <si>
-    <t>brooks &amp; maldini corporation</t>
-  </si>
-  <si>
-    <t>sky-aeroparts (cmt7)</t>
-  </si>
-  <si>
-    <t>eas aviation group</t>
-  </si>
-  <si>
-    <t>air support</t>
-  </si>
-  <si>
-    <t>cmi sarl</t>
-  </si>
-  <si>
-    <t>boeing - seattle</t>
-  </si>
-  <si>
-    <t>cost aero</t>
-  </si>
-  <si>
-    <t>aeromni aerospace inc</t>
-  </si>
-  <si>
-    <t>cm aerospace</t>
-  </si>
-  <si>
-    <t>aero renix</t>
-  </si>
-  <si>
-    <t>aviation resources</t>
-  </si>
-  <si>
-    <t>ijsupport</t>
-  </si>
-  <si>
-    <t>aero-zone</t>
-  </si>
-  <si>
-    <t>cargo royal</t>
-  </si>
-  <si>
-    <t>southeast aerospace</t>
-  </si>
-  <si>
-    <t>aircraftpartsz</t>
-  </si>
-  <si>
-    <t>lamar aero</t>
-  </si>
-  <si>
-    <t>aerotech ops</t>
-  </si>
-  <si>
-    <t>2025-01-27T07:42:56+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T18:52:43+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-28T09:05:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:10:11+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T19:34:22+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T16:41:23+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T07:50:37+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T20:28:35+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T11:10:49+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T07:36:05+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T10:50:32+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T20:42:18+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T15:50:48+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:16:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:24:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-10T20:42:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:48:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T14:06:10+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T16:24:09+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T23:03:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T01:32:27+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T17:28:45+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:50:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:07:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-12T05:43:25+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T13:33:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T06:02:33+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T11:54:04+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T09:35:27+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T10:20:28+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T20:48:39+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T19:14:47+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-11T21:26:58+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T15:20:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T15:08:34+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T17:34:47+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-06T17:32:51+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T15:30:57+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T16:54:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T20:58:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T06:13:01+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:37:24+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:10:47+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:06:55+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:06:36+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T11:13:52+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T10:13:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-03T13:30:17+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T06:15:12+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-29T13:19:51+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T18:47:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T13:23:38+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T12:05:15+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T11:41:51+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-27T07:49:49+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:21:07+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T19:25:36+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:33:06+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:33:07+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:36:50+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:45:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:39:16+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T14:39:14+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:36:29+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:59:55+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T16:41:30+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:31:13+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:33:36+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:48:33+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-04T18:53:11+00:00</t>
-  </si>
-  <si>
-    <t>2025-02-05T10:06:18+00:00</t>
-  </si>
-  <si>
     <t>AE1012B00; AE1012B00</t>
   </si>
   <si>
+    <t>100-5383Y-00</t>
+  </si>
+  <si>
+    <t>S800-3000-00</t>
+  </si>
+  <si>
     <t>45731-1382</t>
   </si>
   <si>
-    <t>100-5383Y-00</t>
-  </si>
-  <si>
-    <t>S800-3000-00</t>
-  </si>
-  <si>
     <t>MXP410-1</t>
   </si>
   <si>
@@ -961,162 +745,165 @@
     <t>762185H; 762185J</t>
   </si>
   <si>
+    <t>C17001DA01</t>
+  </si>
+  <si>
+    <t>762185H</t>
+  </si>
+  <si>
+    <t>1151952-19</t>
+  </si>
+  <si>
+    <t>S5397132100802</t>
+  </si>
+  <si>
+    <t>263BA101-2; 263BA101-2</t>
+  </si>
+  <si>
+    <t>C17001BA01</t>
+  </si>
+  <si>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
+  </si>
+  <si>
+    <t>715331</t>
+  </si>
+  <si>
+    <t>8260-123</t>
+  </si>
+  <si>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>01 600; 104101</t>
+  </si>
+  <si>
+    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
+  </si>
+  <si>
+    <t>898930-10</t>
+  </si>
+  <si>
+    <t>2100-4043-00; S800-3000-00</t>
+  </si>
+  <si>
+    <t>865D100-7</t>
+  </si>
+  <si>
+    <t>DK120; 2100-4043-00</t>
+  </si>
+  <si>
+    <t>855D100-11</t>
+  </si>
+  <si>
+    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
+  </si>
+  <si>
+    <t>22020; 26020</t>
+  </si>
+  <si>
+    <t>300013000-003</t>
+  </si>
+  <si>
+    <t>16520-101</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
+  </si>
+  <si>
+    <t>6137-5</t>
+  </si>
+  <si>
+    <t>2100-4043-00</t>
+  </si>
+  <si>
+    <t>S67-2002-18</t>
+  </si>
+  <si>
+    <t>5001319</t>
+  </si>
+  <si>
+    <t>32114</t>
+  </si>
+  <si>
+    <t>D9251504800000; D9251504800000</t>
+  </si>
+  <si>
+    <t>MXP410-1; MXP410-1</t>
+  </si>
+  <si>
+    <t>RCF6708; RCF6708</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>RCF6708</t>
+  </si>
+  <si>
+    <t>EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
     <t>NP165312-14</t>
   </si>
   <si>
+    <t>80-057-01</t>
+  </si>
+  <si>
     <t>766088B</t>
   </si>
   <si>
-    <t>80-057-01</t>
-  </si>
-  <si>
-    <t>NO MATCH</t>
-  </si>
-  <si>
-    <t>EVT3454HC</t>
-  </si>
-  <si>
-    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+  </si>
+  <si>
+    <t>727810C</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1</t>
   </si>
   <si>
     <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
   </si>
   <si>
-    <t>2100-4043-00</t>
-  </si>
-  <si>
-    <t>MS14101-5ACP</t>
-  </si>
-  <si>
-    <t>5001319</t>
-  </si>
-  <si>
     <t>NP196013-1; NP196013-1; NP196013-1</t>
   </si>
   <si>
-    <t>NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>8260-123</t>
-  </si>
-  <si>
-    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
-  </si>
-  <si>
-    <t>6137-5</t>
-  </si>
-  <si>
-    <t>D9251504800000; D9251504800000</t>
-  </si>
-  <si>
-    <t>32114</t>
-  </si>
-  <si>
-    <t>727810C</t>
-  </si>
-  <si>
-    <t>RCF6708; RCF6708</t>
-  </si>
-  <si>
-    <t>MXP410-1; MXP410-1</t>
-  </si>
-  <si>
-    <t>RCF6708</t>
-  </si>
-  <si>
-    <t>898930-10</t>
-  </si>
-  <si>
-    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
-  </si>
-  <si>
-    <t>S67-2002-18</t>
-  </si>
-  <si>
-    <t>16520-101</t>
-  </si>
-  <si>
-    <t>715331; 715331</t>
-  </si>
-  <si>
-    <t>300013000-003</t>
-  </si>
-  <si>
-    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
-  </si>
-  <si>
-    <t>855D100-11</t>
-  </si>
-  <si>
-    <t>DK120; 2100-4043-00</t>
-  </si>
-  <si>
-    <t>715331</t>
-  </si>
-  <si>
-    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
-  </si>
-  <si>
-    <t>715331; 715331; 715331</t>
-  </si>
-  <si>
-    <t>263BA101-2; 263BA101-2</t>
-  </si>
-  <si>
-    <t>S5397132100802</t>
-  </si>
-  <si>
-    <t>1151952-19</t>
-  </si>
-  <si>
-    <t>762185H</t>
-  </si>
-  <si>
-    <t>C17001DA01</t>
-  </si>
-  <si>
-    <t>22020; 26020</t>
-  </si>
-  <si>
-    <t>03-825-05ACP</t>
-  </si>
-  <si>
-    <t>190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>01 600; 104101</t>
-  </si>
-  <si>
-    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
-  </si>
-  <si>
-    <t>2100-4043-00; S800-3000-00</t>
-  </si>
-  <si>
-    <t>865D100-7</t>
-  </si>
-  <si>
     <t>fan-recirculation; fan-recirculation</t>
   </si>
   <si>
+    <t>landing gear selector valve</t>
+  </si>
+  <si>
+    <t>ssfdr</t>
+  </si>
+  <si>
     <t>heater, servo fuel</t>
   </si>
   <si>
-    <t>landing gear selector valve</t>
-  </si>
-  <si>
-    <t>ssfdr</t>
-  </si>
-  <si>
     <t>stowage box</t>
   </si>
   <si>
@@ -1126,481 +913,493 @@
     <t>gcu; gcu</t>
   </si>
   <si>
+    <t>air data</t>
+  </si>
+  <si>
+    <t>gcu</t>
+  </si>
+  <si>
+    <t>standby power con.</t>
+  </si>
+  <si>
+    <t>fitting fwd lh</t>
+  </si>
+  <si>
+    <t>battery; battery</t>
+  </si>
+  <si>
+    <t>air data mdl</t>
+  </si>
+  <si>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>starter gen</t>
+  </si>
+  <si>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing</t>
+  </si>
+  <si>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>ground spoiler; walltable</t>
+  </si>
+  <si>
+    <t>valve; valve; valve; valve</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>dfdr; ssfdr</t>
+  </si>
+  <si>
+    <t>pdu</t>
+  </si>
+  <si>
+    <t>under water locator beacon; beacon</t>
+  </si>
+  <si>
+    <t>bpsu</t>
+  </si>
+  <si>
+    <t>antenna; tcas antenna; multipurpose control and display unit</t>
+  </si>
+  <si>
+    <t>voltage regulator; tri flow lubricant</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice</t>
+  </si>
+  <si>
+    <t>actuator,retraction (nlg)</t>
+  </si>
+  <si>
+    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
+  </si>
+  <si>
+    <t>rudder trim</t>
+  </si>
+  <si>
+    <t>dfdr</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>balance kit</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; </t>
+  </si>
+  <si>
+    <t>stowage box; stowage box</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+  </si>
+  <si>
     <t>window-sliding</t>
   </si>
   <si>
+    <t>switch</t>
+  </si>
+  <si>
     <t>idg</t>
   </si>
   <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>cooling fan</t>
-  </si>
-  <si>
-    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>switch; switch</t>
   </si>
   <si>
     <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
   </si>
   <si>
-    <t>dfdr</t>
-  </si>
-  <si>
-    <t>balance kit</t>
-  </si>
-  <si>
     <t>switch; switch; switch</t>
   </si>
   <si>
-    <t>switch; switch</t>
-  </si>
-  <si>
-    <t>starter gen</t>
-  </si>
-  <si>
-    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
-  </si>
-  <si>
-    <t>rudder trim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; </t>
-  </si>
-  <si>
-    <t>heater</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
-  </si>
-  <si>
-    <t>stowage box; stowage box</t>
-  </si>
-  <si>
-    <t>regulator xmt-press oxygen</t>
-  </si>
-  <si>
-    <t>valve</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
-  </si>
-  <si>
-    <t>antenna</t>
-  </si>
-  <si>
-    <t>actuator,retraction (nlg)</t>
-  </si>
-  <si>
-    <t>seal; seal</t>
-  </si>
-  <si>
-    <t>valve,cowl anti ice</t>
-  </si>
-  <si>
-    <t>antenna; tcas antenna; multipurpose control and display unit</t>
-  </si>
-  <si>
-    <t>bpsu</t>
-  </si>
-  <si>
-    <t>under water locator beacon; beacon</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
-  </si>
-  <si>
-    <t>seal; seal; seal</t>
-  </si>
-  <si>
-    <t>battery; battery</t>
-  </si>
-  <si>
-    <t>fitting fwd lh</t>
-  </si>
-  <si>
-    <t>standby power con.</t>
-  </si>
-  <si>
-    <t>gcu</t>
-  </si>
-  <si>
-    <t>air data</t>
-  </si>
-  <si>
-    <t>voltage regulator; tri flow lubricant</t>
-  </si>
-  <si>
-    <t>bearing, plain</t>
-  </si>
-  <si>
-    <t>bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing</t>
-  </si>
-  <si>
-    <t>ground spoiler; walltable</t>
-  </si>
-  <si>
-    <t>valve; valve; valve; valve</t>
-  </si>
-  <si>
-    <t>dfdr; ssfdr</t>
-  </si>
-  <si>
-    <t>pdu</t>
-  </si>
-  <si>
     <t>OH; SV</t>
   </si>
   <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
     <t>RP; TE</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>OH; OH</t>
+  </si>
+  <si>
+    <t>OH; OH; OH; OH; AR</t>
+  </si>
+  <si>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>AR; IN; NE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
+  </si>
+  <si>
+    <t>NS; NS; IN</t>
+  </si>
+  <si>
+    <t>AR; NS</t>
+  </si>
+  <si>
+    <t>AR; OH; AR; SV</t>
+  </si>
+  <si>
+    <t>SV; AR</t>
+  </si>
+  <si>
+    <t>SV; AR; NS</t>
+  </si>
+  <si>
+    <t>OH; OH; SV; OH; OH; OH; SV</t>
+  </si>
+  <si>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>OH; REPAIR</t>
+  </si>
+  <si>
+    <t>NS; NS</t>
+  </si>
+  <si>
     <t>RE; RE; NE; NS</t>
   </si>
   <si>
+    <t>OH; OH; OH</t>
+  </si>
+  <si>
+    <t>SV; REPAIR</t>
+  </si>
+  <si>
     <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
   </si>
   <si>
     <t>NE; NE; NE</t>
   </si>
   <si>
-    <t>SV; REPAIR</t>
-  </si>
-  <si>
-    <t>OH; OH; SV; OH; OH; OH; SV</t>
-  </si>
-  <si>
-    <t>SV; IN</t>
-  </si>
-  <si>
-    <t>NS; NS</t>
-  </si>
-  <si>
-    <t>OH; REPAIR</t>
-  </si>
-  <si>
-    <t>OH; OH; OH</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>NE; NE</t>
-  </si>
-  <si>
-    <t>SV; AR; NS</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>SV; AR</t>
-  </si>
-  <si>
-    <t>OH; OH; OH; OH; AR</t>
-  </si>
-  <si>
-    <t>AR; IN; NE</t>
-  </si>
-  <si>
-    <t>OH; OH</t>
-  </si>
-  <si>
-    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
-  </si>
-  <si>
-    <t>NS; NS; IN</t>
-  </si>
-  <si>
-    <t>AR; NS</t>
-  </si>
-  <si>
-    <t>AR; OH; AR; SV</t>
-  </si>
-  <si>
     <t>13000; 11300</t>
   </si>
   <si>
+    <t>3495</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
     <t>10995</t>
   </si>
   <si>
-    <t>3495</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>14500</t>
   </si>
   <si>
+    <t>11500</t>
+  </si>
+  <si>
     <t>5700</t>
   </si>
   <si>
-    <t>11500</t>
-  </si>
-  <si>
     <t>33950</t>
   </si>
   <si>
     <t>3500; Call for Price</t>
   </si>
   <si>
+    <t>14580</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>UNK/Process Error</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>4106.87; 5967.19</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>37500</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>5042.08; 847</t>
+  </si>
+  <si>
+    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
+  </si>
+  <si>
+    <t>15990</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
+  </si>
+  <si>
+    <t>15600</t>
+  </si>
+  <si>
+    <t>10439.55</t>
+  </si>
+  <si>
+    <t>38430</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>13812.50; 500</t>
+  </si>
+  <si>
+    <t>500; 500</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
     <t>7995</t>
   </si>
   <si>
+    <t>2453.61</t>
+  </si>
+  <si>
     <t>68950</t>
   </si>
   <si>
-    <t>2453.61</t>
-  </si>
-  <si>
-    <t>UNK/Process Error</t>
-  </si>
-  <si>
-    <t>10439.55</t>
-  </si>
-  <si>
-    <t>960</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>5280; 79200</t>
   </si>
   <si>
     <t>3541.76; 3541.76; 3541.76</t>
   </si>
   <si>
-    <t>5280; 79200</t>
-  </si>
-  <si>
-    <t>49000</t>
-  </si>
-  <si>
-    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
-  </si>
-  <si>
-    <t>37500</t>
-  </si>
-  <si>
-    <t>15600</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500; 500</t>
-  </si>
-  <si>
-    <t>13812.50; 500</t>
-  </si>
-  <si>
-    <t>7480</t>
-  </si>
-  <si>
-    <t>38430</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>4106.87; 5967.19</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>7600; 9400; 108000; 9500; 9000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>14580</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>5042.08; 847</t>
-  </si>
-  <si>
-    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
-  </si>
-  <si>
-    <t>15990</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
     <t>UNK; UNK</t>
   </si>
   <si>
     <t>UNK</t>
   </si>
   <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
+  </si>
+  <si>
+    <t>EASA Form 1</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK</t>
   </si>
   <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Manufacturers C of C</t>
+  </si>
+  <si>
     <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
-    <t>EASA Form 1</t>
-  </si>
-  <si>
-    <t>Manufacturers C of C</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>Dual Release 8130; Dual Release 8130</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
-    <t>Mfg Certs; Mfg Certs</t>
-  </si>
-  <si>
-    <t>Dual Release 8130</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>EASA/FAA Dual Release</t>
-  </si>
-  <si>
-    <t>FAA 8130</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
     <t>2024-08-08; 2024-05-08</t>
   </si>
   <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
     <t>2024-12-26</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>2024-09-26; 2024-09-26</t>
   </si>
   <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2023-06-29; 2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2025-01-20; 2023-09-13</t>
+  </si>
+  <si>
+    <t>2009-02-12</t>
+  </si>
+  <si>
+    <t>2024-07-10; 2023-10-13</t>
+  </si>
+  <si>
     <t>U; N; K</t>
   </si>
   <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-07-10; 2023-10-13</t>
-  </si>
-  <si>
-    <t>2009-02-12</t>
-  </si>
-  <si>
-    <t>2025-01-20; 2023-09-13</t>
-  </si>
-  <si>
-    <t>2023-06-29; 2023-09-25</t>
-  </si>
-  <si>
-    <t>2022-11-22</t>
-  </si>
-  <si>
-    <t>2023-12</t>
-  </si>
-  <si>
     <t>1; 1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1; 1; 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1653,11 +1452,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,37 +1801,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45684.32148148148</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" t="s">
         <v>416</v>
       </c>
-      <c r="I2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J2" t="s">
-        <v>485</v>
-      </c>
       <c r="K2" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="L2" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2039,37 +1839,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>238</v>
+        <v>198</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45685.37863425926</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="I3" t="s">
-        <v>445</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K3" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="L3" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2077,37 +1877,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>239</v>
+        <v>198</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45692.32681712963</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="I4" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K4" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="L4" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2115,37 +1915,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" t="s">
-        <v>240</v>
+        <v>199</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45692.79873842592</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="I5" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="J5" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K5" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L5" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2153,37 +1953,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" t="s">
-        <v>241</v>
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45693.7866087963</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" t="s">
+        <v>436</v>
+      </c>
+      <c r="L6" t="s">
         <v>448</v>
-      </c>
-      <c r="J6" t="s">
-        <v>486</v>
-      </c>
-      <c r="K6" t="s">
-        <v>486</v>
-      </c>
-      <c r="L6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2191,37 +1991,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" t="s">
-        <v>242</v>
+        <v>201</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45693.81553240741</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="I7" t="s">
-        <v>449</v>
+        <v>378</v>
       </c>
       <c r="J7" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K7" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L7" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2229,37 +2029,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" t="s">
-        <v>243</v>
+        <v>202</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45693.85318287037</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="J8" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K8" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="L8" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2267,37 +2067,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
+        <v>203</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45694.69540509259</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="J9" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K9" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L9" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2305,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>157</v>
@@ -2313,29 +2113,29 @@
       <c r="D10" t="s">
         <v>200</v>
       </c>
-      <c r="E10" t="s">
-        <v>245</v>
+      <c r="E10" s="2">
+        <v>45698.4658449074</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K10" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L10" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2343,37 +2143,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" t="s">
-        <v>246</v>
+        <v>198</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45684.31672453704</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="J11" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="K11" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="L11" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2381,37 +2181,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>247</v>
+        <v>198</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45684.32626157408</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" t="s">
         <v>418</v>
       </c>
-      <c r="I12" t="s">
-        <v>453</v>
-      </c>
-      <c r="J12" t="s">
-        <v>486</v>
-      </c>
       <c r="K12" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="L12" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2419,37 +2219,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" t="s">
-        <v>248</v>
+        <v>198</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45684.48739583333</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="I13" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="K13" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="L13" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2457,37 +2257,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" t="s">
-        <v>249</v>
+        <v>198</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45684.50364583333</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="I14" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="J14" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K14" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L14" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2495,37 +2295,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" t="s">
-        <v>250</v>
+        <v>198</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45684.5580787037</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="I15" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J15" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="K15" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L15" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2533,37 +2333,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>251</v>
+        <v>204</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45684.78278935186</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="I16" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J16" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="K16" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="L16" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2571,37 +2371,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" t="s">
-        <v>252</v>
+        <v>198</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45686.55545138889</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="I17" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="J17" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="K17" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="L17" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2609,37 +2409,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" t="s">
-        <v>245</v>
+        <v>205</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45691.56269675926</v>
       </c>
       <c r="F18" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="I18" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="J18" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="K18" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L18" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2650,34 +2450,34 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" t="s">
-        <v>253</v>
+        <v>206</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45692.25903935185</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="G19" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="I19" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="J19" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="K19" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L19" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2688,34 +2488,34 @@
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" t="s">
-        <v>254</v>
+        <v>207</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45692.26055555556</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="H20" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="I20" t="s">
-        <v>457</v>
+        <v>386</v>
       </c>
       <c r="J20" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="K20" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L20" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2726,31 +2526,34 @@
         <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
+        <v>208</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>323</v>
+        <v>252</v>
+      </c>
+      <c r="G21" t="s">
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="J21" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="K21" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L21" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2761,34 +2564,34 @@
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" t="s">
-        <v>256</v>
+        <v>209</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="G22" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H22" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="I22" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="J22" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K22" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2799,34 +2602,34 @@
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" t="s">
-        <v>257</v>
+        <v>210</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="I23" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="J23" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K23" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="L23" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2837,34 +2640,34 @@
         <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" t="s">
-        <v>258</v>
+        <v>211</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="I24" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="J24" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K24" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L24" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2875,34 +2678,34 @@
         <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" t="s">
-        <v>259</v>
+        <v>206</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="J25" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="K25" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L25" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2910,37 +2713,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" t="s">
-        <v>260</v>
+        <v>209</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="I26" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="K26" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="L26" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2948,37 +2751,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>261</v>
+        <v>212</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="I27" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="K27" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L27" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2986,37 +2789,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" t="s">
-        <v>241</v>
+        <v>213</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H28" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="I28" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J28" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K28" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L28" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3024,37 +2827,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" t="s">
-        <v>262</v>
+        <v>206</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="I29" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="J29" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="K29" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L29" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3062,37 +2865,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" t="s">
-        <v>263</v>
+        <v>207</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="I30" t="s">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="J30" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="K30" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L30" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3100,37 +2903,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" t="s">
-        <v>264</v>
+        <v>204</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="H31" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="I31" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="J31" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K31" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="L31" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3138,37 +2941,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>265</v>
+        <v>204</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="H32" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="I32" t="s">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="J32" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="K32" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L32" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3176,37 +2979,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" t="s">
-        <v>266</v>
+        <v>214</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="H33" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="I33" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J33" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K33" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L33" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3214,37 +3017,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" t="s">
-        <v>267</v>
+        <v>215</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="H34" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="I34" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="J34" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="K34" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L34" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3252,37 +3055,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" t="s">
-        <v>268</v>
+        <v>216</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="H35" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="I35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J35" t="s">
+        <v>417</v>
+      </c>
+      <c r="K35" t="s">
+        <v>417</v>
+      </c>
+      <c r="L35" t="s">
         <v>448</v>
-      </c>
-      <c r="J35" t="s">
-        <v>486</v>
-      </c>
-      <c r="K35" t="s">
-        <v>486</v>
-      </c>
-      <c r="L35" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3290,37 +3093,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" t="s">
-        <v>269</v>
+        <v>217</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="H36" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="I36" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="J36" t="s">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="K36" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L36" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3328,37 +3131,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" t="s">
-        <v>270</v>
+        <v>213</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="H37" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="I37" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="J37" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="K37" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L37" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3366,37 +3169,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E38" t="s">
-        <v>271</v>
+        <v>204</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="H38" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="K38" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="L38" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3404,37 +3207,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" t="s">
-        <v>272</v>
+        <v>204</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="G39" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="H39" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="I39" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="K39" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="L39" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3442,37 +3245,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" t="s">
-        <v>273</v>
+        <v>204</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="I40" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J40" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="K40" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="L40" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3480,37 +3283,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" t="s">
-        <v>274</v>
+        <v>218</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="G41" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K41" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L41" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3518,37 +3321,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" t="s">
-        <v>260</v>
+        <v>218</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="G42" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="H42" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="I42" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L42" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3556,37 +3359,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" t="s">
-        <v>275</v>
+        <v>219</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="H43" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="I43" t="s">
-        <v>470</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3594,37 +3397,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" t="s">
-        <v>276</v>
+        <v>220</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="G44" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="H44" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="I44" t="s">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L44" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3632,37 +3435,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" t="s">
-        <v>277</v>
+        <v>221</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>472</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>495</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3670,37 +3473,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
-      </c>
-      <c r="E46" t="s">
-        <v>278</v>
+        <v>222</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="I46" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L46" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3708,37 +3511,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E47" t="s">
-        <v>279</v>
+        <v>206</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="G47" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="H47" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I47" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="L47" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3746,37 +3549,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" t="s">
-        <v>280</v>
+        <v>223</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="I48" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>494</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>510</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3784,37 +3587,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" t="s">
-        <v>281</v>
+        <v>209</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="H49" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="I49" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
-        <v>498</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3822,37 +3625,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" t="s">
-        <v>282</v>
+        <v>207</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="G50" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="H50" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="I50" t="s">
-        <v>474</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="K50" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3860,37 +3663,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" t="s">
-        <v>283</v>
+        <v>213</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="G51" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="H51" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="I51" t="s">
-        <v>475</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L51" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3898,37 +3701,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" t="s">
-        <v>284</v>
+        <v>224</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="H52" t="s">
-        <v>437</v>
+        <v>357</v>
       </c>
       <c r="I52" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="J52" t="s">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L52" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3936,37 +3739,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" t="s">
-        <v>285</v>
+        <v>225</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="H53" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="K53" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3974,37 +3777,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" t="s">
-        <v>286</v>
+        <v>213</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H54" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="I54" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="J54" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K54" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4012,37 +3815,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>287</v>
+        <v>201</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45693.81553240741</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="G55" t="s">
-        <v>401</v>
+        <v>270</v>
       </c>
       <c r="H55" t="s">
-        <v>439</v>
+        <v>270</v>
       </c>
       <c r="I55" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J55" t="s">
-        <v>498</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="L55" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4050,37 +3853,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56" t="s">
-        <v>288</v>
+        <v>226</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45693.86711805555</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="H56" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J56" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4088,37 +3891,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" t="s">
-        <v>289</v>
+        <v>227</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45694.63094907408</v>
       </c>
       <c r="F57" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="G57" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="H57" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="I57" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="J57" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="K57" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4126,37 +3929,37 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" t="s">
-        <v>290</v>
+        <v>228</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45694.63903935185</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="G58" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="H58" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I58" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="K58" t="s">
-        <v>513</v>
+        <v>417</v>
       </c>
       <c r="L58" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4164,37 +3967,34 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>291</v>
+        <v>229</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45694.6834375</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
-      </c>
-      <c r="G59" t="s">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="H59" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="I59" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="J59" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="K59" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4202,37 +4002,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" t="s">
-        <v>292</v>
+        <v>213</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45694.73114583334</v>
       </c>
       <c r="F60" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="G60" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="I60" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J60" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4240,37 +4040,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" t="s">
-        <v>293</v>
+        <v>230</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45694.73248842593</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="G61" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="H61" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="I61" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="J61" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K61" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4278,37 +4078,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" t="s">
-        <v>294</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45698.4658449074</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J62" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4319,34 +4119,34 @@
         <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" t="s">
-        <v>295</v>
+        <v>231</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45698.84449074074</v>
       </c>
       <c r="F63" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="G63" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
       <c r="J63" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K63" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4357,34 +4157,34 @@
         <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" t="s">
-        <v>296</v>
+        <v>232</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45698.85028935185</v>
       </c>
       <c r="F64" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="G64" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="H64" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>502</v>
+        <v>417</v>
       </c>
       <c r="K64" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L64" t="s">
-        <v>525</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4395,34 +4195,34 @@
         <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" t="s">
-        <v>297</v>
+        <v>233</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45698.86278935185</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="H65" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="I65" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J65" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4433,34 +4233,34 @@
         <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" t="s">
-        <v>298</v>
+        <v>200</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45699.45175925926</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="H66" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="I66" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="J66" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="K66" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4471,34 +4271,34 @@
         <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
-      </c>
-      <c r="E67" t="s">
-        <v>299</v>
+        <v>209</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45699.66027777778</v>
       </c>
       <c r="F67" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="H67" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K67" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L67" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4509,34 +4309,34 @@
         <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" t="s">
-        <v>300</v>
+        <v>234</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45699.86270833333</v>
       </c>
       <c r="F68" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="H68" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="I68" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="J68" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="K68" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L68" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4547,34 +4347,34 @@
         <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" t="s">
-        <v>301</v>
+        <v>235</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45699.8799074074</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="G69" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="H69" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="I69" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J69" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="K69" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L69" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4582,37 +4382,37 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
-      </c>
-      <c r="E70" t="s">
-        <v>302</v>
+        <v>235</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45699.8799074074</v>
       </c>
       <c r="F70" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="G70" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="H70" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="I70" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="J70" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="K70" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="L70" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4620,37 +4420,37 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" t="s">
-        <v>303</v>
+        <v>209</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45699.89372685185</v>
       </c>
       <c r="F71" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="G71" t="s">
+        <v>342</v>
+      </c>
+      <c r="H71" t="s">
+        <v>347</v>
+      </c>
+      <c r="I71" t="s">
         <v>413</v>
       </c>
-      <c r="H71" t="s">
-        <v>443</v>
-      </c>
-      <c r="I71" t="s">
-        <v>482</v>
-      </c>
       <c r="J71" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="K71" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L71" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4658,37 +4458,37 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" t="s">
-        <v>304</v>
+        <v>227</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45700.2384837963</v>
       </c>
       <c r="F72" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="G72" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="H72" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="J72" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="K72" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L72" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4696,37 +4496,37 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" t="s">
-        <v>305</v>
+        <v>212</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45700.24200231482</v>
       </c>
       <c r="F73" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="H73" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="I73" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J73" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="K73" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L73" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4734,75 +4534,37 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" t="s">
-        <v>306</v>
+        <v>207</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45700.24320601852</v>
       </c>
       <c r="F74" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="G74" t="s">
+        <v>345</v>
+      </c>
+      <c r="H74" t="s">
+        <v>373</v>
+      </c>
+      <c r="I74" t="s">
         <v>415</v>
       </c>
-      <c r="H74" t="s">
-        <v>417</v>
-      </c>
-      <c r="I74" t="s">
-        <v>484</v>
-      </c>
       <c r="J74" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="K74" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="L74" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" t="s">
-        <v>307</v>
-      </c>
-      <c r="F75" t="s">
-        <v>327</v>
-      </c>
-      <c r="G75" t="s">
-        <v>380</v>
-      </c>
-      <c r="H75" t="s">
-        <v>417</v>
-      </c>
-      <c r="I75" t="s">
-        <v>463</v>
-      </c>
-      <c r="J75" t="s">
-        <v>486</v>
-      </c>
-      <c r="K75" t="s">
-        <v>508</v>
-      </c>
-      <c r="L75" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="457">
   <si>
     <t>VQ#</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t>VQ0071</t>
-  </si>
-  <si>
-    <t>VQ0072</t>
-  </si>
-  <si>
-    <t>VQ0073</t>
   </si>
   <si>
     <t>Another example</t>
@@ -1752,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,37 +1795,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1839,37 +1833,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2">
         <v>45685.37863425926</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1877,37 +1871,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2">
         <v>45692.32681712963</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1915,37 +1909,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2">
         <v>45692.79873842592</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1953,37 +1947,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2">
         <v>45693.7866087963</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1991,37 +1985,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2029,37 +2023,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2">
         <v>45693.85318287037</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2067,37 +2061,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2105,37 +2099,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2">
         <v>45698.4658449074</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2143,37 +2137,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2181,37 +2175,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
         <v>45684.32626157408</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2219,37 +2213,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2">
         <v>45684.48739583333</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2257,37 +2251,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2">
         <v>45684.50364583333</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2295,37 +2289,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2">
         <v>45684.5580787037</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2333,37 +2327,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2371,37 +2365,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2">
         <v>45686.55545138889</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2409,37 +2403,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E18" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2447,37 +2441,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2485,37 +2479,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E20" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2523,37 +2517,37 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2">
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2561,37 +2555,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2">
         <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2599,37 +2593,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E23" s="2">
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2637,37 +2631,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E24" s="2">
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2675,37 +2669,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="2">
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2713,37 +2707,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26" s="2">
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2751,37 +2745,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E27" s="2">
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2789,37 +2783,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2">
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2827,37 +2821,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E29" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2865,37 +2859,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2">
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2903,37 +2897,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E31" s="2">
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2941,37 +2935,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E32" s="2">
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2979,37 +2973,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="2">
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3017,37 +3011,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3055,37 +3049,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E35" s="2">
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L35" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3093,37 +3087,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E36" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3131,37 +3125,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E37" s="2">
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3169,37 +3163,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E38" s="2">
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3207,37 +3201,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E39" s="2">
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J39" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3245,37 +3239,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E40" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3283,37 +3277,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="2">
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K41" t="s">
+        <v>444</v>
+      </c>
+      <c r="L41" t="s">
         <v>446</v>
-      </c>
-      <c r="L41" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3321,37 +3315,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E42" s="2">
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
+        <v>444</v>
+      </c>
+      <c r="L42" t="s">
         <v>446</v>
-      </c>
-      <c r="L42" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3359,37 +3353,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="2">
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3397,37 +3391,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" s="2">
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3435,37 +3429,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="2">
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
+        <v>444</v>
+      </c>
+      <c r="L45" t="s">
         <v>446</v>
-      </c>
-      <c r="L45" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3473,37 +3467,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="2">
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
+        <v>444</v>
+      </c>
+      <c r="L46" t="s">
         <v>446</v>
-      </c>
-      <c r="L46" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3511,37 +3505,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E47" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3549,37 +3543,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48" s="2">
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3587,37 +3581,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" s="2">
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3625,37 +3619,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E50" s="2">
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3663,37 +3657,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E51" s="2">
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K51" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3701,37 +3695,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2">
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3739,37 +3733,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E53" s="2">
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H53" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3777,37 +3771,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" s="2">
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3815,37 +3809,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
         <v>446</v>
-      </c>
-      <c r="L55" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3853,37 +3847,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E56" s="2">
         <v>45693.86711805555</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H56" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K56" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3891,37 +3885,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E57" s="2">
         <v>45694.63094907408</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3929,37 +3923,37 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E58" s="2">
         <v>45694.63903935185</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3967,34 +3961,34 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E59" s="2">
         <v>45694.6834375</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4002,37 +3996,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" s="2">
         <v>45694.73114583334</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4040,37 +4034,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E61" s="2">
         <v>45694.73248842593</v>
       </c>
       <c r="F61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4078,37 +4072,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="E62" s="2">
-        <v>45698.4658449074</v>
+        <v>45698.84449074074</v>
       </c>
       <c r="F62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K62" t="s">
+        <v>444</v>
+      </c>
+      <c r="L62" t="s">
         <v>446</v>
-      </c>
-      <c r="L62" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4116,37 +4110,37 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E63" s="2">
-        <v>45698.84449074074</v>
+        <v>45698.85028935185</v>
       </c>
       <c r="F63" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="H63" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="I63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J63" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K63" t="s">
+        <v>415</v>
+      </c>
+      <c r="L63" t="s">
         <v>446</v>
-      </c>
-      <c r="L63" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4154,37 +4148,37 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E64" s="2">
-        <v>45698.85028935185</v>
+        <v>45698.86278935185</v>
       </c>
       <c r="F64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="I64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J64" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4192,37 +4186,37 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E65" s="2">
-        <v>45698.86278935185</v>
+        <v>45699.45175925926</v>
       </c>
       <c r="F65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H65" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="I65" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="J65" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K65" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4230,37 +4224,37 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2">
-        <v>45699.45175925926</v>
+        <v>45699.66027777778</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4268,37 +4262,37 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2">
-        <v>45699.66027777778</v>
+        <v>45699.86270833333</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H67" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J67" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K67" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L67" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4306,37 +4300,37 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E68" s="2">
-        <v>45699.86270833333</v>
+        <v>45699.8799074074</v>
       </c>
       <c r="F68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="I68" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="J68" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4344,37 +4338,37 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E69" s="2">
-        <v>45699.8799074074</v>
+        <v>45699.89372685185</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H69" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="I69" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="J69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K69" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L69" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4382,37 +4376,37 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E70" s="2">
-        <v>45699.8799074074</v>
+        <v>45700.2384837963</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="G70" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="H70" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="I70" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="J70" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K70" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="L70" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4423,13 +4417,13 @@
         <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E71" s="2">
-        <v>45699.89372685185</v>
+        <v>45700.24200231482</v>
       </c>
       <c r="F71" t="s">
         <v>288</v>
@@ -4438,19 +4432,19 @@
         <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="I71" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K71" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L71" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4461,13 +4455,13 @@
         <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E72" s="2">
-        <v>45700.2384837963</v>
+        <v>45700.24320601852</v>
       </c>
       <c r="F72" t="s">
         <v>289</v>
@@ -4479,92 +4473,16 @@
         <v>371</v>
       </c>
       <c r="I72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J72" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K72" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L72" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45700.24200231482</v>
-      </c>
-      <c r="F73" t="s">
-        <v>290</v>
-      </c>
-      <c r="G73" t="s">
-        <v>344</v>
-      </c>
-      <c r="H73" t="s">
-        <v>372</v>
-      </c>
-      <c r="I73" t="s">
-        <v>386</v>
-      </c>
-      <c r="J73" t="s">
-        <v>433</v>
-      </c>
-      <c r="K73" t="s">
-        <v>417</v>
-      </c>
-      <c r="L73" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45700.24320601852</v>
-      </c>
-      <c r="F74" t="s">
-        <v>291</v>
-      </c>
-      <c r="G74" t="s">
-        <v>345</v>
-      </c>
-      <c r="H74" t="s">
-        <v>373</v>
-      </c>
-      <c r="I74" t="s">
-        <v>415</v>
-      </c>
-      <c r="J74" t="s">
-        <v>424</v>
-      </c>
-      <c r="K74" t="s">
-        <v>417</v>
-      </c>
-      <c r="L74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="453">
   <si>
     <t>VQ#</t>
   </si>
@@ -475,6 +475,9 @@
     <t>RE: RFQ# ILSBL4G250211234013 - DASI Quote # CQ001676537</t>
   </si>
   <si>
+    <t>Discounted Commercial Spares</t>
+  </si>
+  <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
@@ -604,6 +607,9 @@
     <t>JKimm@midamaero.com</t>
   </si>
   <si>
+    <t>MattBernard@m.TurboResources.com</t>
+  </si>
+  <si>
     <t>gabriel co</t>
   </si>
   <si>
@@ -718,7 +724,10 @@
     <t>windaero llc</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00</t>
+    <t>avio resources, inc</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00; AE1012B00; AE1012B00</t>
   </si>
   <si>
     <t>100-5383Y-00</t>
@@ -745,7 +754,7 @@
     <t>762185H</t>
   </si>
   <si>
-    <t>1151952-19</t>
+    <t>1151952-19; 1151952-11</t>
   </si>
   <si>
     <t>S5397132100802</t>
@@ -757,7 +766,7 @@
     <t>C17001BA01</t>
   </si>
   <si>
-    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+    <t>10065-1000-0505</t>
   </si>
   <si>
     <t>715331; 715331</t>
@@ -772,25 +781,19 @@
     <t>8260-123</t>
   </si>
   <si>
-    <t>03-825-05ACP</t>
-  </si>
-  <si>
-    <t>190-32826-021</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+    <t>03-825-05ACP; 03-825-05ACP</t>
   </si>
   <si>
     <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>01 600; 104101</t>
-  </si>
-  <si>
-    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>01 600</t>
+  </si>
+  <si>
+    <t>898930-10; 898930-10; 898930-10; 898930-10; 898930-10; 898930-10</t>
   </si>
   <si>
     <t>898930-10</t>
@@ -814,7 +817,7 @@
     <t>22020; 26020</t>
   </si>
   <si>
-    <t>300013000-003</t>
+    <t>300013000-003; 300013000-003</t>
   </si>
   <si>
     <t>16520-101</t>
@@ -823,7 +826,7 @@
     <t>NO MATCH</t>
   </si>
   <si>
-    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
+    <t>5934001-217; 119300-101</t>
   </si>
   <si>
     <t>6137-5</t>
@@ -847,31 +850,34 @@
     <t>MXP410-1; MXP410-1</t>
   </si>
   <si>
-    <t>RCF6708; RCF6708</t>
-  </si>
-  <si>
-    <t>MS14101-5ACP</t>
+    <t>RCF6708; RCF6708; RCF6708; RCF6708</t>
+  </si>
+  <si>
+    <t>MS14101-5ACP; MS14101-5ACP</t>
+  </si>
+  <si>
+    <t>RCF6708; RCF6708; RCF6708; RCF6708; RCF6708</t>
   </si>
   <si>
     <t>RCF6708</t>
   </si>
   <si>
-    <t>EVT3454HC</t>
-  </si>
-  <si>
-    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+    <t>EVT3454HC; EVT3454HC</t>
+  </si>
+  <si>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
   </si>
   <si>
     <t>NP165312-14</t>
   </si>
   <si>
-    <t>80-057-01</t>
+    <t>80-057-01; 80-057-01</t>
   </si>
   <si>
     <t>766088B</t>
   </si>
   <si>
-    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
+    <t>321-400-705-0; 321-400-705-0</t>
   </si>
   <si>
     <t>727810C</t>
@@ -880,13 +886,13 @@
     <t>NP196013-1; NP196013-1</t>
   </si>
   <si>
-    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>NP196013-1; NP196013-1; NP196013-1</t>
-  </si>
-  <si>
-    <t>fan-recirculation; fan-recirculation</t>
+    <t>NP196013-1</t>
+  </si>
+  <si>
+    <t>4323100-01-66-22; 4323100-00-66-22; 4323100-01-6622; 4323101-01-6622; 4323070-01-6626; 066-500008-0408; 4313100-01-6600</t>
+  </si>
+  <si>
+    <t>fan-recirculation; fan-recirculation; fan-recirculation; fan-recirculation</t>
   </si>
   <si>
     <t>landing gear selector valve</t>
@@ -913,7 +919,7 @@
     <t>gcu</t>
   </si>
   <si>
-    <t>standby power con.</t>
+    <t>standby power con.; standby power control</t>
   </si>
   <si>
     <t>fitting fwd lh</t>
@@ -925,7 +931,7 @@
     <t>air data mdl</t>
   </si>
   <si>
-    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+    <t>fuel control indicator</t>
   </si>
   <si>
     <t>seal; seal</t>
@@ -940,25 +946,19 @@
     <t>starter gen</t>
   </si>
   <si>
-    <t>bearing, plain</t>
-  </si>
-  <si>
-    <t>bushing</t>
-  </si>
-  <si>
-    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+    <t>bearing, plain; bearing, plain</t>
   </si>
   <si>
     <t>bushing; bushing</t>
   </si>
   <si>
-    <t>bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>ground spoiler; walltable</t>
-  </si>
-  <si>
-    <t>valve; valve; valve; valve</t>
+    <t>bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>ground spoiler</t>
+  </si>
+  <si>
+    <t>valve; valve; valve; valve; valve; valve</t>
   </si>
   <si>
     <t>valve</t>
@@ -982,13 +982,13 @@
     <t>voltage regulator; tri flow lubricant</t>
   </si>
   <si>
-    <t>valve,cowl anti ice</t>
+    <t>valve,cowl anti ice; valve,cowl anti ice</t>
   </si>
   <si>
     <t>actuator,retraction (nlg)</t>
   </si>
   <si>
-    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
+    <t>seal, rod; upper filter assy</t>
   </si>
   <si>
     <t>rudder trim</t>
@@ -1012,124 +1012,109 @@
     <t>stowage box; stowage box</t>
   </si>
   <si>
-    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+  </si>
+  <si>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
   </si>
   <si>
     <t>regulator xmt-press oxygen</t>
   </si>
   <si>
-    <t>cooling fan</t>
-  </si>
-  <si>
-    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
+    <t>cooling fan; cooling fan</t>
+  </si>
+  <si>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan; cooling fan; cooling fan</t>
   </si>
   <si>
     <t>window-sliding</t>
   </si>
   <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>idg</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch; switch; switch</t>
+    <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven</t>
+  </si>
+  <si>
+    <t>OH; SV; IN</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>TE; IN</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>SV; NS</t>
+  </si>
+  <si>
+    <t>NE; IN</t>
+  </si>
+  <si>
+    <t>NE; IN; AR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>RE; IN</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>NS; IN</t>
+  </si>
+  <si>
+    <t>IN; AR</t>
+  </si>
+  <si>
+    <t>OH; SV; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>OH; IN</t>
+  </si>
+  <si>
+    <t>OH; RE</t>
   </si>
   <si>
     <t>OH; SV</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>RP; TE</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>OH; OH</t>
-  </si>
-  <si>
-    <t>OH; OH; OH; OH; AR</t>
-  </si>
-  <si>
-    <t>NE; NE</t>
-  </si>
-  <si>
-    <t>AR; IN; NE</t>
-  </si>
-  <si>
-    <t>AR</t>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>RE; NE; NS; AR</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE; RP</t>
   </si>
   <si>
     <t>NE</t>
   </si>
   <si>
-    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
-  </si>
-  <si>
-    <t>NS; NS; IN</t>
-  </si>
-  <si>
-    <t>AR; NS</t>
-  </si>
-  <si>
-    <t>AR; OH; AR; SV</t>
-  </si>
-  <si>
-    <t>SV; AR</t>
-  </si>
-  <si>
-    <t>SV; AR; NS</t>
-  </si>
-  <si>
-    <t>OH; OH; SV; OH; OH; OH; SV</t>
-  </si>
-  <si>
-    <t>SV; IN</t>
-  </si>
-  <si>
-    <t>OH; REPAIR</t>
-  </si>
-  <si>
-    <t>NS; NS</t>
-  </si>
-  <si>
-    <t>RE; RE; NE; NS</t>
-  </si>
-  <si>
-    <t>OH; OH; OH</t>
-  </si>
-  <si>
-    <t>SV; REPAIR</t>
-  </si>
-  <si>
-    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
-  </si>
-  <si>
-    <t>NE; NE; NE</t>
+    <t>OH; SV; NS; RE; AR; NE; RP</t>
   </si>
   <si>
     <t>13000; 11300</t>
@@ -1165,7 +1150,7 @@
     <t>2450</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>10000; 75000</t>
   </si>
   <si>
     <t>UNK/Process Error</t>
@@ -1174,7 +1159,7 @@
     <t>3000</t>
   </si>
   <si>
-    <t>7600; 9400; 108000; 9500; 9000</t>
+    <t>7600</t>
   </si>
   <si>
     <t>4106.87; 5967.19</t>
@@ -1183,7 +1168,7 @@
     <t>1100</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>2000; 4000</t>
   </si>
   <si>
     <t>37500</t>
@@ -1192,13 +1177,13 @@
     <t>49000</t>
   </si>
   <si>
-    <t>630</t>
+    <t>630; 7560</t>
   </si>
   <si>
     <t>5042.08; 847</t>
   </si>
   <si>
-    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
+    <t>225226.32; 27926.08; 229240.68; 24283.42; 52209.50; 52209.50</t>
   </si>
   <si>
     <t>15990</t>
@@ -1207,13 +1192,13 @@
     <t>15000</t>
   </si>
   <si>
-    <t>10500</t>
+    <t>10500; 10500</t>
   </si>
   <si>
     <t>3500</t>
   </si>
   <si>
-    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
+    <t>5000; 5000</t>
   </si>
   <si>
     <t>15600</t>
@@ -1234,7 +1219,7 @@
     <t>13812.50; 500</t>
   </si>
   <si>
-    <t>500; 500</t>
+    <t>500; 500; 5250; 5750</t>
   </si>
   <si>
     <t>7480</t>
@@ -1243,7 +1228,7 @@
     <t>7995</t>
   </si>
   <si>
-    <t>2453.61</t>
+    <t>2453.61; 14721.66</t>
   </si>
   <si>
     <t>68950</t>
@@ -1255,15 +1240,24 @@
     <t>5280; 79200</t>
   </si>
   <si>
-    <t>3541.76; 3541.76; 3541.76</t>
+    <t>3541.76</t>
+  </si>
+  <si>
+    <t>375000; 55000; 52500; 40000; 31500; 29750; 25000</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
   </si>
   <si>
     <t>UNK; UNK</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>FAA 8130</t>
   </si>
   <si>
@@ -1276,40 +1270,37 @@
     <t>Dual Release; Dual Release</t>
   </si>
   <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Triple Release</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>Mfg Certs; Mfg Certs</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
     <t>Dual Release; Dual Release; Dual Release</t>
   </si>
   <si>
-    <t>Dual Release 8130</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
     <t>Dual Release 8130; Dual Release 8130</t>
   </si>
   <si>
-    <t>Manufacturers C of C</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+    <t>Manufacturers C of C; Manufacturers C of C</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
     <t>2024-08-08; 2024-05-08</t>
@@ -1351,40 +1342,37 @@
     <t>U; N; K</t>
   </si>
   <si>
+    <t>1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>1; 1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
-    <t>1; 1; 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1</t>
+    <t>1; 1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
   </si>
 </sst>
 </file>
@@ -1798,34 +1786,34 @@
         <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
         <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1836,34 +1824,34 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2">
         <v>45685.37863425926</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
         <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1874,34 +1862,34 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E4" s="2">
         <v>45692.32681712963</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
         <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1912,34 +1900,34 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2">
         <v>45692.79873842592</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
         <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1950,34 +1938,34 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2">
         <v>45693.7866087963</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
         <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1988,34 +1976,34 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2026,34 +2014,34 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2">
         <v>45693.85318287037</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
         <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2064,34 +2052,34 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E9" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
         <v>347</v>
       </c>
       <c r="I9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2102,34 +2090,34 @@
         <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2">
         <v>45698.4658449074</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
         <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2140,34 +2128,34 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2178,34 +2166,34 @@
         <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2">
         <v>45684.32626157408</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
         <v>346</v>
       </c>
       <c r="I12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2216,34 +2204,34 @@
         <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2">
         <v>45684.48739583333</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2254,34 +2242,34 @@
         <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2">
         <v>45684.50364583333</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2292,34 +2280,34 @@
         <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2">
         <v>45684.5580787037</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2330,34 +2318,34 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2368,34 +2356,34 @@
         <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E17" s="2">
         <v>45686.55545138889</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2406,34 +2394,34 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J18" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2444,34 +2432,34 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2482,34 +2470,34 @@
         <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2520,34 +2508,34 @@
         <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2">
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2558,34 +2546,34 @@
         <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2">
         <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G22" t="s">
         <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2596,34 +2584,34 @@
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2">
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
         <v>347</v>
       </c>
       <c r="I23" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J23" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2634,34 +2622,34 @@
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E24" s="2">
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
         <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2672,34 +2660,34 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E25" s="2">
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2710,34 +2698,34 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2">
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K26" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2748,34 +2736,34 @@
         <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E27" s="2">
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2786,34 +2774,34 @@
         <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E28" s="2">
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="I28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J28" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2824,34 +2812,34 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E29" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
         <v>311</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I29" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2862,10 +2850,10 @@
         <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E30" s="2">
         <v>45692.6147337963</v>
@@ -2874,22 +2862,22 @@
         <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J30" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K30" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2900,34 +2888,34 @@
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2">
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I31" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2938,34 +2926,34 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E32" s="2">
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2976,34 +2964,34 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E33" s="2">
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
         <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K33" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3014,34 +3002,34 @@
         <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
         <v>314</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I34" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3052,16 +3040,16 @@
         <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E35" s="2">
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
         <v>315</v>
@@ -3070,16 +3058,16 @@
         <v>345</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J35" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K35" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L35" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3090,34 +3078,34 @@
         <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I36" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K36" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3128,16 +3116,16 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E37" s="2">
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
         <v>317</v>
@@ -3146,16 +3134,16 @@
         <v>347</v>
       </c>
       <c r="I37" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J37" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3166,34 +3154,34 @@
         <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E38" s="2">
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
         <v>318</v>
       </c>
       <c r="H38" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3204,34 +3192,34 @@
         <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2">
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
         <v>319</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I39" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J39" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3242,34 +3230,34 @@
         <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E40" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G40" t="s">
         <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3280,34 +3268,34 @@
         <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2">
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
         <v>321</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K41" t="s">
+        <v>411</v>
+      </c>
+      <c r="L41" t="s">
         <v>444</v>
-      </c>
-      <c r="L41" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3318,34 +3306,34 @@
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E42" s="2">
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
         <v>321</v>
       </c>
       <c r="H42" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
+        <v>411</v>
+      </c>
+      <c r="L42" t="s">
         <v>444</v>
-      </c>
-      <c r="L42" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3356,34 +3344,34 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E43" s="2">
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
         <v>322</v>
       </c>
       <c r="H43" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3394,16 +3382,16 @@
         <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E44" s="2">
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
         <v>323</v>
@@ -3412,16 +3400,16 @@
         <v>345</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3432,34 +3420,34 @@
         <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E45" s="2">
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3470,34 +3458,34 @@
         <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2">
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3508,34 +3496,34 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E47" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G47" t="s">
         <v>324</v>
       </c>
       <c r="H47" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3546,16 +3534,16 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E48" s="2">
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G48" t="s">
         <v>325</v>
@@ -3564,16 +3552,16 @@
         <v>345</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3584,34 +3572,34 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E49" s="2">
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G49" t="s">
         <v>325</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3622,16 +3610,16 @@
         <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E50" s="2">
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G50" t="s">
         <v>326</v>
@@ -3640,16 +3628,16 @@
         <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K50" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3660,16 +3648,16 @@
         <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E51" s="2">
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
         <v>315</v>
@@ -3678,16 +3666,16 @@
         <v>345</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3698,34 +3686,34 @@
         <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E52" s="2">
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G52" t="s">
         <v>327</v>
       </c>
       <c r="H52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I52" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3736,34 +3724,34 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E53" s="2">
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G53" t="s">
         <v>328</v>
       </c>
       <c r="H53" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J53" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3774,16 +3762,16 @@
         <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E54" s="2">
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G54" t="s">
         <v>329</v>
@@ -3792,16 +3780,16 @@
         <v>347</v>
       </c>
       <c r="I54" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J54" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3809,37 +3797,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2">
-        <v>45693.81553240741</v>
+        <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G55" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="H55" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="I55" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
         <v>444</v>
-      </c>
-      <c r="L55" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3847,37 +3835,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E56" s="2">
-        <v>45693.86711805555</v>
+        <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H56" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I56" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="J56" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3885,37 +3873,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E57" s="2">
-        <v>45694.63094907408</v>
+        <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H57" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I57" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J57" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K57" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3923,37 +3911,37 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E58" s="2">
-        <v>45694.63903935185</v>
+        <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H58" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="I58" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="J58" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="K58" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3961,34 +3949,37 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E59" s="2">
-        <v>45694.6834375</v>
+        <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="G59" t="s">
+        <v>333</v>
       </c>
       <c r="H59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I59" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J59" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K59" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3996,37 +3987,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E60" s="2">
-        <v>45694.73114583334</v>
+        <v>45694.73248842593</v>
       </c>
       <c r="F60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="J60" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4034,37 +4025,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E61" s="2">
-        <v>45694.73248842593</v>
+        <v>45698.84449074074</v>
       </c>
       <c r="F61" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="J61" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K61" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="L61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4072,37 +4063,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E62" s="2">
-        <v>45698.84449074074</v>
+        <v>45698.85028935185</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G62" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="H62" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s">
         <v>444</v>
-      </c>
-      <c r="L62" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4110,37 +4101,37 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2">
-        <v>45698.85028935185</v>
+        <v>45698.86278935185</v>
       </c>
       <c r="F63" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H63" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="I63" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J63" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="K63" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L63" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4148,37 +4139,37 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E64" s="2">
-        <v>45698.86278935185</v>
+        <v>45699.45175925926</v>
       </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G64" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H64" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="I64" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="J64" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="K64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4186,37 +4177,37 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E65" s="2">
-        <v>45699.45175925926</v>
+        <v>45699.66027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G65" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I65" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4224,37 +4215,37 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2">
-        <v>45699.66027777778</v>
+        <v>45699.86270833333</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H66" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I66" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J66" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K66" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L66" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4262,34 +4253,34 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E67" s="2">
-        <v>45699.86270833333</v>
+        <v>45699.8799074074</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G67" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H67" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="I67" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="J67" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L67" t="s">
         <v>446</v>
@@ -4300,37 +4291,37 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E68" s="2">
-        <v>45699.8799074074</v>
+        <v>45699.89372685185</v>
       </c>
       <c r="F68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H68" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="I68" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="J68" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K68" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4338,37 +4329,37 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E69" s="2">
-        <v>45699.89372685185</v>
+        <v>45700.2384837963</v>
       </c>
       <c r="F69" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H69" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="I69" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J69" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="K69" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4376,37 +4367,37 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E70" s="2">
-        <v>45700.2384837963</v>
+        <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H70" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="I70" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="J70" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K70" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4414,37 +4405,37 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E71" s="2">
-        <v>45700.24200231482</v>
+        <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G71" t="s">
         <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I71" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="J71" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L71" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4452,37 +4443,37 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E72" s="2">
-        <v>45700.24320601852</v>
+        <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G72" t="s">
         <v>343</v>
       </c>
       <c r="H72" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I72" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J72" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K72" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L72" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="443">
   <si>
     <t>VQ#</t>
   </si>
@@ -727,7 +727,7 @@
     <t>avio resources, inc</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00; AE1012B00; AE1012B00</t>
+    <t>AE1012B00; AE1012B00</t>
   </si>
   <si>
     <t>100-5383Y-00</t>
@@ -757,7 +757,7 @@
     <t>1151952-19; 1151952-11</t>
   </si>
   <si>
-    <t>S5397132100802</t>
+    <t>S5397132100802; 0713070-28; 4913211080; 81207202; 5010207</t>
   </si>
   <si>
     <t>263BA101-2; 263BA101-2</t>
@@ -766,31 +766,31 @@
     <t>C17001BA01</t>
   </si>
   <si>
-    <t>10065-1000-0505</t>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331</t>
   </si>
   <si>
     <t>715331; 715331</t>
   </si>
   <si>
-    <t>715331; 715331; 715331</t>
-  </si>
-  <si>
-    <t>715331</t>
-  </si>
-  <si>
     <t>8260-123</t>
   </si>
   <si>
-    <t>03-825-05ACP; 03-825-05ACP</t>
-  </si>
-  <si>
-    <t>190-32826-021; 190-32826-021</t>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021</t>
   </si>
   <si>
     <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>01 600</t>
+    <t>715331; 01 600; 329272; 753312</t>
+  </si>
+  <si>
+    <t>01 600; 104101; 511000; B11000</t>
   </si>
   <si>
     <t>898930-10; 898930-10; 898930-10; 898930-10; 898930-10; 898930-10</t>
@@ -799,7 +799,7 @@
     <t>898930-10</t>
   </si>
   <si>
-    <t>2100-4043-00; S800-3000-00</t>
+    <t>2100-4043-00</t>
   </si>
   <si>
     <t>865D100-7</t>
@@ -814,7 +814,7 @@
     <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
   </si>
   <si>
-    <t>22020; 26020</t>
+    <t>22020</t>
   </si>
   <si>
     <t>300013000-003; 300013000-003</t>
@@ -832,9 +832,6 @@
     <t>6137-5</t>
   </si>
   <si>
-    <t>2100-4043-00</t>
-  </si>
-  <si>
     <t>S67-2002-18</t>
   </si>
   <si>
@@ -844,16 +841,13 @@
     <t>32114</t>
   </si>
   <si>
-    <t>D9251504800000; D9251504800000</t>
-  </si>
-  <si>
-    <t>MXP410-1; MXP410-1</t>
+    <t>D9251504800000</t>
   </si>
   <si>
     <t>RCF6708; RCF6708; RCF6708; RCF6708</t>
   </si>
   <si>
-    <t>MS14101-5ACP; MS14101-5ACP</t>
+    <t>MS14101-5ACP</t>
   </si>
   <si>
     <t>RCF6708; RCF6708; RCF6708; RCF6708; RCF6708</t>
@@ -862,7 +856,7 @@
     <t>RCF6708</t>
   </si>
   <si>
-    <t>EVT3454HC; EVT3454HC</t>
+    <t>EVT3454HC</t>
   </si>
   <si>
     <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
@@ -871,28 +865,25 @@
     <t>NP165312-14</t>
   </si>
   <si>
-    <t>80-057-01; 80-057-01</t>
+    <t>80-057-01</t>
   </si>
   <si>
     <t>766088B</t>
   </si>
   <si>
-    <t>321-400-705-0; 321-400-705-0</t>
+    <t>321-400-705-0</t>
   </si>
   <si>
     <t>727810C</t>
   </si>
   <si>
-    <t>NP196013-1; NP196013-1</t>
-  </si>
-  <si>
     <t>NP196013-1</t>
   </si>
   <si>
     <t>4323100-01-66-22; 4323100-00-66-22; 4323100-01-6622; 4323101-01-6622; 4323070-01-6626; 066-500008-0408; 4313100-01-6600</t>
   </si>
   <si>
-    <t>fan-recirculation; fan-recirculation; fan-recirculation; fan-recirculation</t>
+    <t>fan-recirculation; fan-recirculation</t>
   </si>
   <si>
     <t>landing gear selector valve</t>
@@ -922,7 +913,7 @@
     <t>standby power con.; standby power control</t>
   </si>
   <si>
-    <t>fitting fwd lh</t>
+    <t>fitting fwd lh; tube ay; speaker; terminal block; bearing d</t>
   </si>
   <si>
     <t>battery; battery</t>
@@ -931,31 +922,31 @@
     <t>air data mdl</t>
   </si>
   <si>
-    <t>fuel control indicator</t>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>seal; seal</t>
   </si>
   <si>
-    <t>seal; seal; seal</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>starter gen</t>
   </si>
   <si>
-    <t>bearing, plain; bearing, plain</t>
-  </si>
-  <si>
-    <t>bushing; bushing</t>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing</t>
   </si>
   <si>
     <t>bushing; bushing; bushing; bushing; bushing</t>
   </si>
   <si>
-    <t>ground spoiler</t>
+    <t>seal; ground spoiler; ring; glass-sight</t>
+  </si>
+  <si>
+    <t>ground spoiler; walltable; solenoid valve; valve-fuel isolation</t>
   </si>
   <si>
     <t>valve; valve; valve; valve; valve; valve</t>
@@ -964,7 +955,7 @@
     <t>valve</t>
   </si>
   <si>
-    <t>dfdr; ssfdr</t>
+    <t>dfdr</t>
   </si>
   <si>
     <t>pdu</t>
@@ -979,7 +970,7 @@
     <t>antenna; tcas antenna; multipurpose control and display unit</t>
   </si>
   <si>
-    <t>voltage regulator; tri flow lubricant</t>
+    <t>voltage regulator</t>
   </si>
   <si>
     <t>valve,cowl anti ice; valve,cowl anti ice</t>
@@ -994,9 +985,6 @@
     <t>rudder trim</t>
   </si>
   <si>
-    <t>dfdr</t>
-  </si>
-  <si>
     <t>antenna</t>
   </si>
   <si>
@@ -1006,12 +994,6 @@
     <t>heater</t>
   </si>
   <si>
-    <t xml:space="preserve">; </t>
-  </si>
-  <si>
-    <t>stowage box; stowage box</t>
-  </si>
-  <si>
     <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
   </si>
   <si>
@@ -1021,7 +1003,7 @@
     <t>regulator xmt-press oxygen</t>
   </si>
   <si>
-    <t>cooling fan; cooling fan</t>
+    <t>cooling fan</t>
   </si>
   <si>
     <t>cooling fan; cooling fan; cooling fan; cooling fan; cooling fan; cooling fan</t>
@@ -1030,37 +1012,31 @@
     <t>window-sliding</t>
   </si>
   <si>
-    <t>switch; switch</t>
+    <t>switch</t>
   </si>
   <si>
     <t>idg</t>
   </si>
   <si>
-    <t>actuator door open t/rev; actuator door open t/rev</t>
+    <t>actuator door open t/rev</t>
   </si>
   <si>
     <t>generator</t>
   </si>
   <si>
-    <t>switch</t>
-  </si>
-  <si>
     <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven</t>
   </si>
   <si>
-    <t>OH; SV; IN</t>
+    <t>OH; SV</t>
   </si>
   <si>
     <t>SV</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>OH</t>
   </si>
   <si>
-    <t>TE; IN</t>
+    <t>TE; RP</t>
   </si>
   <si>
     <t>RE</t>
@@ -1069,51 +1045,42 @@
     <t>SV; NS</t>
   </si>
   <si>
-    <t>NE; IN</t>
-  </si>
-  <si>
-    <t>NE; IN; AR</t>
+    <t>NS; RE; AR; NE; RP</t>
+  </si>
+  <si>
+    <t>OH; NS</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NE; AR</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>RE; IN</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE</t>
-  </si>
-  <si>
-    <t>NS; IN</t>
-  </si>
-  <si>
-    <t>IN; AR</t>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>RE; NE; NS; AR</t>
   </si>
   <si>
     <t>OH; SV; NS; RE; AR; NE</t>
   </si>
   <si>
-    <t>OH; IN</t>
+    <t>SV; NS; RE</t>
   </si>
   <si>
     <t>OH; RE</t>
   </si>
   <si>
-    <t>OH; SV</t>
-  </si>
-  <si>
-    <t>SV; IN</t>
-  </si>
-  <si>
-    <t>RE; NE; NS; AR</t>
-  </si>
-  <si>
     <t>OH; NS; RE; AR; NE; RP</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>OH; SV; NS; RE; AR; NE; RP</t>
   </si>
   <si>
@@ -1159,16 +1126,16 @@
     <t>3000</t>
   </si>
   <si>
-    <t>7600</t>
-  </si>
-  <si>
-    <t>4106.87; 5967.19</t>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>4106.87</t>
   </si>
   <si>
     <t>1100</t>
   </si>
   <si>
-    <t>2000; 4000</t>
+    <t>2000</t>
   </si>
   <si>
     <t>37500</t>
@@ -1177,10 +1144,10 @@
     <t>49000</t>
   </si>
   <si>
-    <t>630; 7560</t>
-  </si>
-  <si>
-    <t>5042.08; 847</t>
+    <t>630</t>
+  </si>
+  <si>
+    <t>5042.08</t>
   </si>
   <si>
     <t>225226.32; 27926.08; 229240.68; 24283.42; 52209.50; 52209.50</t>
@@ -1216,7 +1183,7 @@
     <t>960</t>
   </si>
   <si>
-    <t>13812.50; 500</t>
+    <t>13812.50</t>
   </si>
   <si>
     <t>500; 500; 5250; 5750</t>
@@ -1228,7 +1195,7 @@
     <t>7995</t>
   </si>
   <si>
-    <t>2453.61; 14721.66</t>
+    <t>2453.61</t>
   </si>
   <si>
     <t>68950</t>
@@ -1237,7 +1204,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>5280; 79200</t>
+    <t>5280</t>
   </si>
   <si>
     <t>3541.76</t>
@@ -1246,55 +1213,58 @@
     <t>375000; 55000; 52500; 40000; 31500; 29750; 25000</t>
   </si>
   <si>
+    <t>UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
+  </si>
+  <si>
+    <t>EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Mfg Certs</t>
+  </si>
+  <si>
+    <t>Triple Release</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
-    <t>UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130</t>
-  </si>
-  <si>
-    <t>EASA/FAA Dual Release</t>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130</t>
   </si>
   <si>
     <t>EASA Form 1</t>
   </si>
   <si>
-    <t>Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Mfg Certs; Mfg Certs</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Triple Release</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Dual Release 8130; Dual Release 8130</t>
-  </si>
-  <si>
-    <t>Manufacturers C of C; Manufacturers C of C</t>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Manufacturers C of C</t>
   </si>
   <si>
     <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
@@ -1342,28 +1312,28 @@
     <t>U; N; K</t>
   </si>
   <si>
+    <t>1; 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1; 1</t>
+    <t>1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>1; 1; 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>02</t>
   </si>
   <si>
     <t>22</t>
@@ -1798,22 +1768,22 @@
         <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1836,22 +1806,22 @@
         <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="L3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1874,22 +1844,22 @@
         <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="L4" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1912,22 +1882,22 @@
         <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1950,22 +1920,22 @@
         <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L6" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1988,22 +1958,22 @@
         <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2026,22 +1996,22 @@
         <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L8" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2064,22 +2034,22 @@
         <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L9" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2102,22 +2072,22 @@
         <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J10" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K10" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2140,22 +2110,22 @@
         <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J11" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" t="s">
         <v>432</v>
-      </c>
-      <c r="L11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2178,22 +2148,22 @@
         <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="J12" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K12" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="L12" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2216,22 +2186,22 @@
         <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H13" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I13" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J13" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K13" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L13" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2254,22 +2224,22 @@
         <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K14" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L14" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2292,22 +2262,22 @@
         <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J15" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K15" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L15" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2330,22 +2300,22 @@
         <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J16" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K16" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L16" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2368,22 +2338,22 @@
         <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I17" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="J17" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2406,22 +2376,22 @@
         <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J18" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K18" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L18" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2444,22 +2414,22 @@
         <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J19" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="K19" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L19" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2482,22 +2452,22 @@
         <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J20" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="K20" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L20" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2517,25 +2487,25 @@
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I21" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L21" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2558,22 +2528,22 @@
         <v>251</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="J22" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K22" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L22" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2593,25 +2563,25 @@
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I23" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="J23" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K23" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="L23" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2631,25 +2601,25 @@
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="J24" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K24" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L24" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2669,25 +2639,25 @@
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I25" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K25" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L25" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2707,25 +2677,25 @@
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J26" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K26" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L26" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2745,25 +2715,25 @@
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H27" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I27" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J27" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="K27" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L27" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2783,25 +2753,25 @@
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H28" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="I28" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J28" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="K28" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L28" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2821,25 +2791,25 @@
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H29" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I29" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J29" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K29" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L29" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2859,25 +2829,25 @@
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I30" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J30" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K30" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L30" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2897,25 +2867,25 @@
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I31" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K31" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L31" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2938,22 +2908,22 @@
         <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H32" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I32" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K32" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L32" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2976,22 +2946,22 @@
         <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H33" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J33" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K33" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L33" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3014,22 +2984,22 @@
         <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H34" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I34" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J34" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K34" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L34" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3052,22 +3022,22 @@
         <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I35" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J35" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K35" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L35" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3090,22 +3060,22 @@
         <v>261</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="I36" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J36" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K36" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L36" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3128,22 +3098,22 @@
         <v>262</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H37" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I37" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="J37" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K37" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L37" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3166,22 +3136,22 @@
         <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K38" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L38" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3204,22 +3174,22 @@
         <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K39" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L39" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3242,22 +3212,22 @@
         <v>265</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I40" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="K40" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L40" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3280,22 +3250,22 @@
         <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H41" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L41" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3318,22 +3288,22 @@
         <v>266</v>
       </c>
       <c r="G42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L42" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3356,22 +3326,22 @@
         <v>267</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I43" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K43" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3394,22 +3364,22 @@
         <v>268</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H44" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J44" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3438,16 +3408,16 @@
         <v>269</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K45" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3476,16 +3446,16 @@
         <v>269</v>
       </c>
       <c r="I46" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L46" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3508,22 +3478,22 @@
         <v>270</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H47" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="I47" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3546,22 +3516,22 @@
         <v>271</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H48" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3584,22 +3554,22 @@
         <v>271</v>
       </c>
       <c r="G49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I49" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K49" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3619,25 +3589,25 @@
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G50" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3660,22 +3630,22 @@
         <v>260</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H51" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3695,25 +3665,25 @@
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H52" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3733,25 +3703,25 @@
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G53" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I53" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K53" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3771,25 +3741,25 @@
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I54" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3809,25 +3779,22 @@
         <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
-      </c>
-      <c r="G55" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H55" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3847,25 +3814,25 @@
         <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="H56" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="I56" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K56" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3885,25 +3852,25 @@
         <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G57" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I57" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3923,25 +3890,22 @@
         <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="H58" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I58" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J58" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K58" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3961,25 +3925,25 @@
         <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G59" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H59" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="I59" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J59" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="K59" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3999,25 +3963,25 @@
         <v>45694.73248842593</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G60" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H60" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I60" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4046,16 +4010,16 @@
         <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J61" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K61" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4075,25 +4039,25 @@
         <v>45698.85028935185</v>
       </c>
       <c r="F62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G62" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4113,25 +4077,25 @@
         <v>45698.86278935185</v>
       </c>
       <c r="F63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H63" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I63" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J63" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="K63" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4151,25 +4115,25 @@
         <v>45699.45175925926</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H64" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I64" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K64" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4189,25 +4153,25 @@
         <v>45699.66027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H65" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I65" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J65" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K65" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L65" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4227,25 +4191,25 @@
         <v>45699.86270833333</v>
       </c>
       <c r="F66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" t="s">
         <v>339</v>
       </c>
-      <c r="H66" t="s">
-        <v>347</v>
-      </c>
       <c r="I66" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J66" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K66" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4265,25 +4229,25 @@
         <v>45699.8799074074</v>
       </c>
       <c r="F67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H67" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="I67" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J67" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K67" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4303,25 +4267,25 @@
         <v>45699.89372685185</v>
       </c>
       <c r="F68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I68" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="J68" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K68" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L68" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4341,25 +4305,25 @@
         <v>45700.2384837963</v>
       </c>
       <c r="F69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" t="s">
         <v>338</v>
       </c>
-      <c r="H69" t="s">
-        <v>362</v>
-      </c>
       <c r="I69" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J69" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K69" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L69" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4379,25 +4343,25 @@
         <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G70" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H70" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I70" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="K70" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L70" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4417,25 +4381,25 @@
         <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H71" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I71" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="J71" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K71" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4455,25 +4419,25 @@
         <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G72" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="I72" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J72" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K72" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L72" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="488">
   <si>
     <t>VQ#</t>
   </si>
@@ -265,6 +265,21 @@
     <t>VQ0071</t>
   </si>
   <si>
+    <t>VQ0072</t>
+  </si>
+  <si>
+    <t>VQ0073</t>
+  </si>
+  <si>
+    <t>VQ0074</t>
+  </si>
+  <si>
+    <t>VQ0075</t>
+  </si>
+  <si>
+    <t>VQ0076</t>
+  </si>
+  <si>
     <t>Another example</t>
   </si>
   <si>
@@ -478,6 +493,21 @@
     <t>Discounted Commercial Spares</t>
   </si>
   <si>
+    <t>Re: C20225510 qty 2</t>
+  </si>
+  <si>
+    <t>Hot picks of the week - Aircraft parts | GFA</t>
+  </si>
+  <si>
+    <t>Quotation #112994  2-13-2025 12-20-55 PM.pdf</t>
+  </si>
+  <si>
+    <t>Quote For ATLANTIC JET SUPPORT 401266 SQ</t>
+  </si>
+  <si>
+    <t>RE: C20225510 qty 2 for exch</t>
+  </si>
+  <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
@@ -610,6 +640,21 @@
     <t>MattBernard@m.TurboResources.com</t>
   </si>
   <si>
+    <t>pavel.chalapov@rd-aero.com</t>
+  </si>
+  <si>
+    <t>rfq@gfa.aero</t>
+  </si>
+  <si>
+    <t>eddy@d3aviation.us</t>
+  </si>
+  <si>
+    <t>BEAEROSPACEPD@beaerospace.com</t>
+  </si>
+  <si>
+    <t>prem@aerotrends-aviation.com</t>
+  </si>
+  <si>
     <t>gabriel co</t>
   </si>
   <si>
@@ -727,7 +772,19 @@
     <t>avio resources, inc</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00</t>
+    <t>world aero</t>
+  </si>
+  <si>
+    <t>mga aero</t>
+  </si>
+  <si>
+    <t>aviation plus</t>
+  </si>
+  <si>
+    <t>aerotrends aviation llc</t>
+  </si>
+  <si>
+    <t>AE1012B00; AE1012B00; AE1012B00; AE1012B00</t>
   </si>
   <si>
     <t>100-5383Y-00</t>
@@ -757,7 +814,7 @@
     <t>1151952-19; 1151952-11</t>
   </si>
   <si>
-    <t>S5397132100802; 0713070-28; 4913211080; 81207202; 5010207</t>
+    <t>S5397132100802</t>
   </si>
   <si>
     <t>263BA101-2; 263BA101-2</t>
@@ -766,31 +823,31 @@
     <t>C17001BA01</t>
   </si>
   <si>
-    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+    <t>10065-1000-0505</t>
+  </si>
+  <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
   </si>
   <si>
     <t>715331</t>
   </si>
   <si>
-    <t>715331; 715331</t>
-  </si>
-  <si>
     <t>8260-123</t>
   </si>
   <si>
-    <t>03-825-05ACP</t>
-  </si>
-  <si>
-    <t>190-32826-021</t>
+    <t>03-825-05ACP; 03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
     <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>715331; 01 600; 329272; 753312</t>
-  </si>
-  <si>
-    <t>01 600; 104101; 511000; B11000</t>
+    <t>01 600</t>
   </si>
   <si>
     <t>898930-10; 898930-10; 898930-10; 898930-10; 898930-10; 898930-10</t>
@@ -799,39 +856,42 @@
     <t>898930-10</t>
   </si>
   <si>
+    <t>2100-4043-00; S800-3000-00</t>
+  </si>
+  <si>
+    <t>865D100-7</t>
+  </si>
+  <si>
+    <t>DK120; 2100-4043-00</t>
+  </si>
+  <si>
+    <t>855D100-11</t>
+  </si>
+  <si>
+    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
+  </si>
+  <si>
+    <t>22020; 26020</t>
+  </si>
+  <si>
+    <t>300013000-003; 300013000-003</t>
+  </si>
+  <si>
+    <t>16520-101</t>
+  </si>
+  <si>
+    <t>NO MATCH</t>
+  </si>
+  <si>
+    <t>5934001-217; 119300-101</t>
+  </si>
+  <si>
+    <t>6137-5</t>
+  </si>
+  <si>
     <t>2100-4043-00</t>
   </si>
   <si>
-    <t>865D100-7</t>
-  </si>
-  <si>
-    <t>DK120; 2100-4043-00</t>
-  </si>
-  <si>
-    <t>855D100-11</t>
-  </si>
-  <si>
-    <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
-  </si>
-  <si>
-    <t>22020</t>
-  </si>
-  <si>
-    <t>300013000-003; 300013000-003</t>
-  </si>
-  <si>
-    <t>16520-101</t>
-  </si>
-  <si>
-    <t>NO MATCH</t>
-  </si>
-  <si>
-    <t>5934001-217; 119300-101</t>
-  </si>
-  <si>
-    <t>6137-5</t>
-  </si>
-  <si>
     <t>S67-2002-18</t>
   </si>
   <si>
@@ -841,13 +901,16 @@
     <t>32114</t>
   </si>
   <si>
-    <t>D9251504800000</t>
+    <t>D9251504800000; D9251504800000</t>
+  </si>
+  <si>
+    <t>MXP410-1; MXP410-1</t>
   </si>
   <si>
     <t>RCF6708; RCF6708; RCF6708; RCF6708</t>
   </si>
   <si>
-    <t>MS14101-5ACP</t>
+    <t>MS14101-5ACP; MS14101-5ACP</t>
   </si>
   <si>
     <t>RCF6708; RCF6708; RCF6708; RCF6708; RCF6708</t>
@@ -856,7 +919,7 @@
     <t>RCF6708</t>
   </si>
   <si>
-    <t>EVT3454HC</t>
+    <t>EVT3454HC; EVT3454HC</t>
   </si>
   <si>
     <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
@@ -865,25 +928,43 @@
     <t>NP165312-14</t>
   </si>
   <si>
-    <t>80-057-01</t>
+    <t>80-057-01; 80-057-01</t>
   </si>
   <si>
     <t>766088B</t>
   </si>
   <si>
-    <t>321-400-705-0</t>
+    <t>321-400-705-0; 321-400-705-0</t>
   </si>
   <si>
     <t>727810C</t>
   </si>
   <si>
+    <t>NP196013-1; NP196013-1</t>
+  </si>
+  <si>
     <t>NP196013-1</t>
   </si>
   <si>
     <t>4323100-01-66-22; 4323100-00-66-22; 4323100-01-6622; 4323101-01-6622; 4323070-01-6626; 066-500008-0408; 4313100-01-6600</t>
   </si>
   <si>
-    <t>fan-recirculation; fan-recirculation</t>
+    <t>C20225510; C20225510; C20225510</t>
+  </si>
+  <si>
+    <t>066-50007-0531; 176200-01-01</t>
+  </si>
+  <si>
+    <t>749198-2; 749198-2</t>
+  </si>
+  <si>
+    <t>1009501-053; 1009018-003</t>
+  </si>
+  <si>
+    <t>C20225510</t>
+  </si>
+  <si>
+    <t>fan-recirculation; fan-recirculation; fan-recirculation; fan-recirculation</t>
   </si>
   <si>
     <t>landing gear selector valve</t>
@@ -913,7 +994,7 @@
     <t>standby power con.; standby power control</t>
   </si>
   <si>
-    <t>fitting fwd lh; tube ay; speaker; terminal block; bearing d</t>
+    <t>fitting fwd lh</t>
   </si>
   <si>
     <t>battery; battery</t>
@@ -922,31 +1003,31 @@
     <t>air data mdl</t>
   </si>
   <si>
-    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+    <t>fuel control indicator</t>
+  </si>
+  <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
   </si>
   <si>
     <t>seal</t>
   </si>
   <si>
-    <t>seal; seal</t>
-  </si>
-  <si>
     <t>starter gen</t>
   </si>
   <si>
-    <t>bearing, plain</t>
-  </si>
-  <si>
-    <t>bushing</t>
+    <t>bearing, plain; bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing; bushing</t>
   </si>
   <si>
     <t>bushing; bushing; bushing; bushing; bushing</t>
   </si>
   <si>
-    <t>seal; ground spoiler; ring; glass-sight</t>
-  </si>
-  <si>
-    <t>ground spoiler; walltable; solenoid valve; valve-fuel isolation</t>
+    <t>ground spoiler</t>
   </si>
   <si>
     <t>valve; valve; valve; valve; valve; valve</t>
@@ -955,36 +1036,39 @@
     <t>valve</t>
   </si>
   <si>
+    <t>dfdr; ssfdr</t>
+  </si>
+  <si>
+    <t>pdu</t>
+  </si>
+  <si>
+    <t>under water locator beacon; beacon</t>
+  </si>
+  <si>
+    <t>bpsu</t>
+  </si>
+  <si>
+    <t>antenna; tcas antenna; multipurpose control and display unit</t>
+  </si>
+  <si>
+    <t>voltage regulator; tri flow lubricant</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice; valve,cowl anti ice</t>
+  </si>
+  <si>
+    <t>actuator,retraction (nlg)</t>
+  </si>
+  <si>
+    <t>seal, rod; upper filter assy</t>
+  </si>
+  <si>
+    <t>rudder trim</t>
+  </si>
+  <si>
     <t>dfdr</t>
   </si>
   <si>
-    <t>pdu</t>
-  </si>
-  <si>
-    <t>under water locator beacon; beacon</t>
-  </si>
-  <si>
-    <t>bpsu</t>
-  </si>
-  <si>
-    <t>antenna; tcas antenna; multipurpose control and display unit</t>
-  </si>
-  <si>
-    <t>voltage regulator</t>
-  </si>
-  <si>
-    <t>valve,cowl anti ice; valve,cowl anti ice</t>
-  </si>
-  <si>
-    <t>actuator,retraction (nlg)</t>
-  </si>
-  <si>
-    <t>seal, rod; upper filter assy</t>
-  </si>
-  <si>
-    <t>rudder trim</t>
-  </si>
-  <si>
     <t>antenna</t>
   </si>
   <si>
@@ -994,6 +1078,12 @@
     <t>heater</t>
   </si>
   <si>
+    <t xml:space="preserve">; </t>
+  </si>
+  <si>
+    <t>stowage box; stowage box</t>
+  </si>
+  <si>
     <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
   </si>
   <si>
@@ -1003,7 +1093,7 @@
     <t>regulator xmt-press oxygen</t>
   </si>
   <si>
-    <t>cooling fan</t>
+    <t>cooling fan; cooling fan</t>
   </si>
   <si>
     <t>cooling fan; cooling fan; cooling fan; cooling fan; cooling fan; cooling fan</t>
@@ -1012,78 +1102,114 @@
     <t>window-sliding</t>
   </si>
   <si>
+    <t>switch; switch</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev; actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>idg</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
     <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven</t>
   </si>
   <si>
+    <t>carbon brake; carbon brake; carbon brake</t>
+  </si>
+  <si>
+    <t>radio altimiter; fmc</t>
+  </si>
+  <si>
+    <t>reservoir hydraulic; reservoir hydraulic</t>
+  </si>
+  <si>
+    <t>life vest box assembly; spring lit pocket</t>
+  </si>
+  <si>
+    <t>carbon brake</t>
+  </si>
+  <si>
+    <t>OH; SV; IN</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>TE; IN</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>SV; NS</t>
+  </si>
+  <si>
+    <t>NE; IN</t>
+  </si>
+  <si>
+    <t>NE; IN; AR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>RE; IN</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>NS; IN</t>
+  </si>
+  <si>
+    <t>IN; AR</t>
+  </si>
+  <si>
+    <t>OH; SV; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>OH; IN</t>
+  </si>
+  <si>
+    <t>OH; RE</t>
+  </si>
+  <si>
     <t>OH; SV</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>TE; RP</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>SV; NS</t>
-  </si>
-  <si>
-    <t>NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
-    <t>OH; NS</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE</t>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>RE; NE; NS; AR</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE; RP</t>
   </si>
   <si>
     <t>NE</t>
   </si>
   <si>
-    <t>NE; AR</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>RE; NE; NS; AR</t>
-  </si>
-  <si>
-    <t>OH; SV; NS; RE; AR; NE</t>
-  </si>
-  <si>
-    <t>SV; NS; RE</t>
-  </si>
-  <si>
-    <t>OH; RE</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
     <t>OH; SV; NS; RE; AR; NE; RP</t>
   </si>
   <si>
+    <t>OH; RP; AR</t>
+  </si>
+  <si>
+    <t>OH; RP</t>
+  </si>
+  <si>
     <t>13000; 11300</t>
   </si>
   <si>
@@ -1126,16 +1252,16 @@
     <t>3000</t>
   </si>
   <si>
-    <t>7600; 9400; 108000; 9500; 9000</t>
-  </si>
-  <si>
-    <t>4106.87</t>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>4106.87; 5967.19</t>
   </si>
   <si>
     <t>1100</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>2000; 4000</t>
   </si>
   <si>
     <t>37500</t>
@@ -1144,10 +1270,10 @@
     <t>49000</t>
   </si>
   <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>5042.08</t>
+    <t>630; 7560</t>
+  </si>
+  <si>
+    <t>5042.08; 847</t>
   </si>
   <si>
     <t>225226.32; 27926.08; 229240.68; 24283.42; 52209.50; 52209.50</t>
@@ -1183,7 +1309,7 @@
     <t>960</t>
   </si>
   <si>
-    <t>13812.50</t>
+    <t>13812.50; 500</t>
   </si>
   <si>
     <t>500; 500; 5250; 5750</t>
@@ -1195,7 +1321,7 @@
     <t>7995</t>
   </si>
   <si>
-    <t>2453.61</t>
+    <t>2453.61; 14721.66</t>
   </si>
   <si>
     <t>68950</t>
@@ -1204,7 +1330,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>5280</t>
+    <t>5280; 79200</t>
   </si>
   <si>
     <t>3541.76</t>
@@ -1213,39 +1339,54 @@
     <t>375000; 55000; 52500; 40000; 31500; 29750; 25000</t>
   </si>
   <si>
+    <t>60500; 57500; 37800</t>
+  </si>
+  <si>
+    <t>3500; 3500</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
     <t>UNK; UNK</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
     <t>FAA 8130</t>
   </si>
   <si>
     <t>EASA/FAA Dual Release</t>
   </si>
   <si>
-    <t>EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1</t>
+    <t>EASA Form 1</t>
   </si>
   <si>
     <t>Dual Release; Dual Release</t>
   </si>
   <si>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Triple Release</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>Mfg Certs</t>
-  </si>
-  <si>
-    <t>Triple Release</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
     <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
@@ -1255,16 +1396,7 @@
     <t>Dual Release 8130; Dual Release 8130</t>
   </si>
   <si>
-    <t>FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>EASA Form 1</t>
-  </si>
-  <si>
-    <t>Dual Release 8130</t>
-  </si>
-  <si>
-    <t>Manufacturers C of C</t>
+    <t>Manufacturers C of C; Manufacturers C of C</t>
   </si>
   <si>
     <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
@@ -1273,6 +1405,9 @@
     <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
+    <t>FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
     <t>2024-08-08; 2024-05-08</t>
   </si>
   <si>
@@ -1312,28 +1447,28 @@
     <t>U; N; K</t>
   </si>
   <si>
+    <t>1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>1; 1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1</t>
-  </si>
-  <si>
     <t>1; 1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>1; 1; 1</t>
   </si>
   <si>
     <t>22</t>
@@ -1704,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,37 +1888,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="I2" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="L2" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1791,37 +1926,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2">
         <v>45685.37863425926</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="L3" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1829,37 +1964,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2">
         <v>45692.32681712963</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I4" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J4" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="L4" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1867,37 +2002,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E5" s="2">
         <v>45692.79873842592</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L5" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1905,37 +2040,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2">
         <v>45693.7866087963</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K6" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="L6" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1943,37 +2078,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1981,37 +2116,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E8" s="2">
         <v>45693.85318287037</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K8" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L8" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2019,37 +2154,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E9" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="J9" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K9" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L9" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2057,37 +2192,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E10" s="2">
         <v>45698.4658449074</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="J10" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K10" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L10" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2095,37 +2230,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J11" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="K11" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="L11" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2133,37 +2268,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2">
         <v>45684.32626157408</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I12" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J12" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K12" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="L12" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2171,37 +2306,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2">
         <v>45684.48739583333</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="I13" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="J13" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="L13" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2209,37 +2344,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E14" s="2">
         <v>45684.50364583333</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H14" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="J14" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="K14" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L14" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2247,37 +2382,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2">
         <v>45684.5580787037</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="I15" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J15" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K15" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L15" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2285,37 +2420,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J16" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K16" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L16" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2323,37 +2458,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E17" s="2">
         <v>45686.55545138889</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G17" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="I17" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="K17" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="L17" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2361,37 +2496,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E18" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="I18" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="K18" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L18" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2399,37 +2534,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I19" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="J19" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K19" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L19" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2437,37 +2572,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J20" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="K20" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L20" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2475,37 +2610,37 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E21" s="2">
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="H21" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="I21" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K21" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L21" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2513,37 +2648,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2">
         <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H22" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I22" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J22" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K22" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L22" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2551,37 +2686,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2">
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J23" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="K23" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="L23" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2589,37 +2724,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2">
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I24" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="J24" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K24" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L24" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2627,37 +2762,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E25" s="2">
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="H25" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J25" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K25" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L25" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2665,37 +2800,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E26" s="2">
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H26" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I26" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="J26" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K26" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2703,37 +2838,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E27" s="2">
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H27" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J27" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="K27" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2741,37 +2876,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E28" s="2">
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J28" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L28" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2779,37 +2914,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E29" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I29" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="J29" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K29" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2817,37 +2952,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E30" s="2">
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="I30" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J30" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K30" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L30" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2855,37 +2990,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E31" s="2">
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="H31" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I31" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J31" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="K31" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L31" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2893,37 +3028,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2">
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="H32" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I32" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J32" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="K32" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L32" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2931,37 +3066,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E33" s="2">
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H33" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="I33" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J33" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K33" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L33" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2969,37 +3104,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E34" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="I34" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="J34" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K34" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L34" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3007,37 +3142,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E35" s="2">
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I35" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J35" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K35" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L35" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3045,37 +3180,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E36" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="I36" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J36" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K36" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L36" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3083,37 +3218,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E37" s="2">
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I37" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="J37" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K37" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L37" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3121,37 +3256,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E38" s="2">
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J38" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K38" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="L38" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3159,37 +3294,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E39" s="2">
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="H39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I39" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J39" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K39" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="L39" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3197,37 +3332,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E40" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="H40" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J40" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K40" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="L40" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3235,37 +3370,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E41" s="2">
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="K41" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L41" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3273,37 +3408,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E42" s="2">
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J42" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="K42" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L42" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3311,37 +3446,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2">
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="H43" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="K43" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L43" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3349,37 +3484,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E44" s="2">
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="H44" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="J44" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3387,37 +3522,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2">
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H45" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="L45" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3425,37 +3560,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E46" s="2">
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G46" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H46" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K46" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="L46" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3463,37 +3598,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E47" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G47" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H47" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L47" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3501,37 +3636,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E48" s="2">
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G48" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3539,37 +3674,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E49" s="2">
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H49" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3577,37 +3712,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E50" s="2">
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I50" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3615,37 +3750,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E51" s="2">
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H51" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="J51" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3653,37 +3788,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E52" s="2">
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="G52" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="I52" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="J52" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3691,37 +3826,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E53" s="2">
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="G53" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H53" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J53" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L53" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3729,37 +3864,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E54" s="2">
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="H54" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K54" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3767,34 +3902,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E55" s="2">
         <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>275</v>
+        <v>295</v>
+      </c>
+      <c r="G55" t="s">
+        <v>354</v>
       </c>
       <c r="H55" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3802,37 +3940,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E56" s="2">
         <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="H56" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K56" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3840,37 +3978,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E57" s="2">
         <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="G57" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="H57" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="I57" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="J57" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3878,34 +4016,37 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E58" s="2">
         <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>277</v>
+        <v>298</v>
+      </c>
+      <c r="G58" t="s">
+        <v>354</v>
       </c>
       <c r="H58" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I58" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3913,37 +4054,37 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E59" s="2">
         <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G59" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H59" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="I59" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J59" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3951,37 +4092,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E60" s="2">
         <v>45694.73248842593</v>
       </c>
       <c r="F60" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G60" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="H60" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I60" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K60" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3989,37 +4130,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E61" s="2">
         <v>45698.84449074074</v>
       </c>
       <c r="F61" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H61" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="I61" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J61" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="L61" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4027,37 +4168,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E62" s="2">
         <v>45698.85028935185</v>
       </c>
       <c r="F62" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="G62" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="I62" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K62" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4065,37 +4206,37 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E63" s="2">
         <v>45698.86278935185</v>
       </c>
       <c r="F63" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G63" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H63" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="I63" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J63" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="K63" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4103,37 +4244,37 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E64" s="2">
         <v>45699.45175925926</v>
       </c>
       <c r="F64" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G64" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="I64" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="J64" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K64" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4141,37 +4282,37 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E65" s="2">
         <v>45699.66027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H65" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I65" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K65" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L65" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4179,37 +4320,37 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E66" s="2">
         <v>45699.86270833333</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G66" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="H66" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I66" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="J66" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K66" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4217,37 +4358,37 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E67" s="2">
         <v>45699.8799074074</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="H67" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="I67" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J67" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K67" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4255,37 +4396,37 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E68" s="2">
         <v>45699.89372685185</v>
       </c>
       <c r="F68" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="G68" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="H68" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="I68" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="J68" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4293,37 +4434,37 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E69" s="2">
         <v>45700.2384837963</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H69" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="I69" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="J69" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K69" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4331,37 +4472,37 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E70" s="2">
         <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="G70" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H70" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="I70" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J70" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4369,37 +4510,37 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E71" s="2">
         <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H71" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="I71" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="J71" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="K71" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L71" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4407,37 +4548,227 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E72" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="H72" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="I72" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="K72" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45701.55076388889</v>
+      </c>
+      <c r="F73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73" t="s">
+        <v>368</v>
+      </c>
+      <c r="H73" t="s">
+        <v>396</v>
+      </c>
+      <c r="I73" t="s">
+        <v>441</v>
+      </c>
+      <c r="J73" t="s">
+        <v>463</v>
+      </c>
+      <c r="K73" t="s">
+        <v>445</v>
+      </c>
+      <c r="L73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45701.56765046297</v>
+      </c>
+      <c r="F74" t="s">
+        <v>312</v>
+      </c>
+      <c r="G74" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74" t="s">
+        <v>397</v>
+      </c>
+      <c r="I74" t="s">
+        <v>410</v>
+      </c>
+      <c r="J74" t="s">
+        <v>447</v>
+      </c>
+      <c r="K74" t="s">
+        <v>445</v>
+      </c>
+      <c r="L74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45701.7231712963</v>
+      </c>
+      <c r="F75" t="s">
+        <v>313</v>
+      </c>
+      <c r="G75" t="s">
+        <v>370</v>
+      </c>
+      <c r="H75" t="s">
+        <v>391</v>
+      </c>
+      <c r="I75" t="s">
         <v>442</v>
+      </c>
+      <c r="J75" t="s">
+        <v>447</v>
+      </c>
+      <c r="K75" t="s">
+        <v>445</v>
+      </c>
+      <c r="L75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45701.75172453704</v>
+      </c>
+      <c r="F76" t="s">
+        <v>314</v>
+      </c>
+      <c r="G76" t="s">
+        <v>371</v>
+      </c>
+      <c r="H76" t="s">
+        <v>383</v>
+      </c>
+      <c r="I76" t="s">
+        <v>410</v>
+      </c>
+      <c r="J76" t="s">
+        <v>447</v>
+      </c>
+      <c r="K76" t="s">
+        <v>445</v>
+      </c>
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45702.16230324074</v>
+      </c>
+      <c r="F77" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" t="s">
+        <v>372</v>
+      </c>
+      <c r="H77" t="s">
+        <v>376</v>
+      </c>
+      <c r="I77" t="s">
+        <v>443</v>
+      </c>
+      <c r="J77" t="s">
+        <v>445</v>
+      </c>
+      <c r="K77" t="s">
+        <v>445</v>
+      </c>
+      <c r="L77" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="498">
   <si>
     <t>VQ#</t>
   </si>
@@ -844,6 +844,9 @@
     <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
     <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
@@ -856,7 +859,7 @@
     <t>898930-10</t>
   </si>
   <si>
-    <t>2100-4043-00; S800-3000-00</t>
+    <t>2100-4043-00; S800-3000-00; 2100-4043-00</t>
   </si>
   <si>
     <t>865D100-7</t>
@@ -871,10 +874,10 @@
     <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
   </si>
   <si>
-    <t>22020; 26020</t>
-  </si>
-  <si>
-    <t>300013000-003; 300013000-003</t>
+    <t>22020; 26020; 22020</t>
+  </si>
+  <si>
+    <t>300013000-003; 300013000-003; 300013000-003</t>
   </si>
   <si>
     <t>16520-101</t>
@@ -940,7 +943,7 @@
     <t>727810C</t>
   </si>
   <si>
-    <t>NP196013-1; NP196013-1</t>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
   </si>
   <si>
     <t>NP196013-1</t>
@@ -952,7 +955,7 @@
     <t>C20225510; C20225510; C20225510</t>
   </si>
   <si>
-    <t>066-50007-0531; 176200-01-01</t>
+    <t>066-50007-0531; 176200-01-01; 2313M-347-4</t>
   </si>
   <si>
     <t>749198-2; 749198-2</t>
@@ -1024,6 +1027,9 @@
     <t>bushing; bushing</t>
   </si>
   <si>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
     <t>bushing; bushing; bushing; bushing; bushing</t>
   </si>
   <si>
@@ -1036,7 +1042,7 @@
     <t>valve</t>
   </si>
   <si>
-    <t>dfdr; ssfdr</t>
+    <t>dfdr; ssfdr; dfdr</t>
   </si>
   <si>
     <t>pdu</t>
@@ -1051,10 +1057,10 @@
     <t>antenna; tcas antenna; multipurpose control and display unit</t>
   </si>
   <si>
-    <t>voltage regulator; tri flow lubricant</t>
-  </si>
-  <si>
-    <t>valve,cowl anti ice; valve,cowl anti ice</t>
+    <t>voltage regulator; tri flow lubricant; voltage regulator</t>
+  </si>
+  <si>
+    <t>valve,cowl anti ice; valve,cowl anti ice; valve,cowl anti ice</t>
   </si>
   <si>
     <t>actuator,retraction (nlg)</t>
@@ -1114,6 +1120,9 @@
     <t>generator</t>
   </si>
   <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
@@ -1123,7 +1132,7 @@
     <t>carbon brake; carbon brake; carbon brake</t>
   </si>
   <si>
-    <t>radio altimiter; fmc</t>
+    <t>radio altimiter; fmc; motor converter</t>
   </si>
   <si>
     <t>reservoir hydraulic; reservoir hydraulic</t>
@@ -1147,9 +1156,15 @@
     <t>OH</t>
   </si>
   <si>
+    <t>OVERHAULED</t>
+  </si>
+  <si>
     <t>TE; IN</t>
   </si>
   <si>
+    <t>REPAIRED</t>
+  </si>
+  <si>
     <t>RE</t>
   </si>
   <si>
@@ -1165,51 +1180,63 @@
     <t>AR</t>
   </si>
   <si>
+    <t>RE; REPAIR; IN</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>NS; IN</t>
+  </si>
+  <si>
+    <t>REPAIR; IN; AR</t>
+  </si>
+  <si>
+    <t>OH; SV; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>OH; REPAIR; IN</t>
+  </si>
+  <si>
+    <t>OH; REPAIRED; OVERHAULED</t>
+  </si>
+  <si>
+    <t>OH; SV</t>
+  </si>
+  <si>
+    <t>SV; IN</t>
+  </si>
+  <si>
+    <t>OH; REPAIR</t>
+  </si>
+  <si>
+    <t>RE; NE; NS; AR</t>
+  </si>
+  <si>
+    <t>OH; IN</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE; RP</t>
+  </si>
+  <si>
+    <t>SV; REPAIR; IN</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>OH; SV; NS; RE; AR; NE; RP</t>
+  </si>
+  <si>
+    <t>OH; RP; AR</t>
+  </si>
+  <si>
+    <t>OH; REPAIR; RP</t>
+  </si>
+  <si>
     <t>RE; IN</t>
   </si>
   <si>
-    <t>OH; NS; RE; AR; NE</t>
-  </si>
-  <si>
-    <t>NS; IN</t>
-  </si>
-  <si>
-    <t>IN; AR</t>
-  </si>
-  <si>
-    <t>OH; SV; NS; RE; AR; NE</t>
-  </si>
-  <si>
-    <t>OH; IN</t>
-  </si>
-  <si>
-    <t>OH; RE</t>
-  </si>
-  <si>
-    <t>OH; SV</t>
-  </si>
-  <si>
-    <t>SV; IN</t>
-  </si>
-  <si>
-    <t>RE; NE; NS; AR</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>OH; SV; NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
-    <t>OH; RP; AR</t>
-  </si>
-  <si>
-    <t>OH; RP</t>
-  </si>
-  <si>
     <t>13000; 11300</t>
   </si>
   <si>
@@ -1285,7 +1312,7 @@
     <t>15000</t>
   </si>
   <si>
-    <t>10500; 10500</t>
+    <t>10500; 10500; 10500</t>
   </si>
   <si>
     <t>3500</t>
@@ -1330,7 +1357,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>5280; 79200</t>
+    <t>5280; 79200; 500</t>
   </si>
   <si>
     <t>3541.76</t>
@@ -1381,18 +1408,24 @@
     <t>Triple Release</t>
   </si>
   <si>
+    <t>FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
     <t>FAA 8130; FAA 8130</t>
   </si>
   <si>
-    <t>UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
     <t>Dual Release 8130; Dual Release 8130</t>
   </si>
   <si>
@@ -1403,9 +1436,6 @@
   </si>
   <si>
     <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
     <t>2024-08-08; 2024-05-08</t>
@@ -1903,22 +1933,22 @@
         <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L2" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1941,22 +1971,22 @@
         <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="J3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L3" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1979,22 +2009,22 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K4" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L4" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2017,22 +2047,22 @@
         <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="J5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L5" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2055,22 +2085,22 @@
         <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K6" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L6" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2093,22 +2123,22 @@
         <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2131,22 +2161,22 @@
         <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="J8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L8" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2169,22 +2199,22 @@
         <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I9" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J9" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L9" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2207,22 +2237,22 @@
         <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I10" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J10" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K10" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L10" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2245,22 +2275,22 @@
         <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="J11" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K11" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L11" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2283,22 +2313,22 @@
         <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="J12" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K12" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L12" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2321,22 +2351,22 @@
         <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I13" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="J13" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K13" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L13" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2359,22 +2389,22 @@
         <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2397,22 +2427,22 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I15" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J15" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K15" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L15" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2435,22 +2465,22 @@
         <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I16" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J16" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K16" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="L16" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2473,22 +2503,22 @@
         <v>268</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I17" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="J17" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K17" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L17" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2511,22 +2541,22 @@
         <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="J18" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K18" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L18" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2549,22 +2579,22 @@
         <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I19" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J19" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K19" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L19" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2587,22 +2617,22 @@
         <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K20" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L20" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2625,22 +2655,22 @@
         <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H21" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L21" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2663,22 +2693,22 @@
         <v>270</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H22" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J22" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K22" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L22" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2701,22 +2731,22 @@
         <v>273</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I23" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J23" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="K23" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L23" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2739,22 +2769,22 @@
         <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H24" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I24" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="J24" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K24" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L24" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2777,22 +2807,22 @@
         <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H25" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I25" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J25" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K25" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L25" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2815,22 +2845,22 @@
         <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H26" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I26" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="J26" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K26" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L26" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2850,25 +2880,25 @@
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I27" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J27" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K27" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L27" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2888,25 +2918,25 @@
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H28" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I28" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J28" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="K28" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L28" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2929,22 +2959,22 @@
         <v>275</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H29" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I29" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J29" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K29" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L29" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2967,22 +2997,22 @@
         <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I30" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J30" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K30" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L30" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3005,22 +3035,22 @@
         <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I31" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K31" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L31" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3040,25 +3070,25 @@
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H32" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I32" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J32" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K32" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L32" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3078,25 +3108,25 @@
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H33" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I33" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K33" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L33" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3116,25 +3146,25 @@
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H34" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I34" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="J34" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K34" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L34" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3154,25 +3184,25 @@
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I35" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="J35" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K35" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L35" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3192,25 +3222,25 @@
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H36" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I36" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J36" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K36" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L36" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3230,25 +3260,25 @@
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I37" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="J37" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K37" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L37" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3268,25 +3298,25 @@
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H38" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I38" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J38" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K38" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L38" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3306,25 +3336,25 @@
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H39" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I39" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J39" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K39" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L39" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3344,25 +3374,25 @@
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I40" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J40" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K40" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L40" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3382,25 +3412,25 @@
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H41" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J41" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="K41" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L41" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3420,25 +3450,25 @@
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H42" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I42" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="K42" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L42" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3458,25 +3488,25 @@
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H43" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I43" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="J43" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="K43" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L43" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3496,25 +3526,25 @@
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I44" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K44" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L44" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3534,25 +3564,25 @@
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I45" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K45" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L45" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3572,25 +3602,25 @@
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K46" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L46" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3610,25 +3640,25 @@
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H47" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="I47" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="J47" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="K47" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L47" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3648,25 +3678,25 @@
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G48" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I48" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K48" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L48" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3686,25 +3716,25 @@
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G49" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J49" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K49" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L49" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3724,25 +3754,25 @@
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G50" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H50" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K50" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3762,25 +3792,25 @@
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H51" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3800,25 +3830,25 @@
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H52" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="I52" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K52" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3838,25 +3868,25 @@
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I53" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3876,25 +3906,25 @@
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H54" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I54" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L54" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3914,25 +3944,25 @@
         <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H55" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3952,25 +3982,25 @@
         <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H56" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3990,25 +4020,25 @@
         <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G57" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H57" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I57" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="J57" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4028,25 +4058,25 @@
         <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H58" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I58" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="K58" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4066,25 +4096,25 @@
         <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H59" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4104,25 +4134,25 @@
         <v>45694.73248842593</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G60" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H60" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I60" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="J60" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K60" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4142,25 +4172,25 @@
         <v>45698.84449074074</v>
       </c>
       <c r="F61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4180,25 +4210,25 @@
         <v>45698.85028935185</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H62" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I62" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4218,25 +4248,25 @@
         <v>45698.86278935185</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H63" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="I63" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K63" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4256,25 +4286,25 @@
         <v>45699.45175925926</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G64" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H64" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I64" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="J64" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4294,25 +4324,25 @@
         <v>45699.66027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G65" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H65" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K65" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4332,25 +4362,25 @@
         <v>45699.86270833333</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H66" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I66" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J66" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K66" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4370,25 +4400,25 @@
         <v>45699.8799074074</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H67" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I67" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J67" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4408,25 +4438,25 @@
         <v>45699.89372685185</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H68" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I68" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="J68" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K68" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4446,25 +4476,25 @@
         <v>45700.2384837963</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H69" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="I69" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="J69" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K69" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4484,25 +4514,25 @@
         <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G70" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H70" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I70" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J70" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K70" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4522,25 +4552,25 @@
         <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H71" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="I71" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="J71" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K71" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4560,25 +4590,25 @@
         <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H72" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="I72" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="J72" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K72" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L72" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4598,25 +4628,25 @@
         <v>45701.55076388889</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G73" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H73" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="I73" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="J73" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L73" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4636,25 +4666,25 @@
         <v>45701.56765046297</v>
       </c>
       <c r="F74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H74" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="I74" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J74" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K74" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4674,25 +4704,25 @@
         <v>45701.7231712963</v>
       </c>
       <c r="F75" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G75" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H75" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I75" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="J75" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L75" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4712,25 +4742,25 @@
         <v>45701.75172453704</v>
       </c>
       <c r="F76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G76" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H76" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="I76" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J76" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K76" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L76" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4750,25 +4780,25 @@
         <v>45702.16230324074</v>
       </c>
       <c r="F77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G77" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H77" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I77" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="J77" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="492">
   <si>
     <t>VQ#</t>
   </si>
@@ -784,7 +784,7 @@
     <t>aerotrends aviation llc</t>
   </si>
   <si>
-    <t>AE1012B00; AE1012B00; AE1012B00; AE1012B00</t>
+    <t>AE1012B00; AE1012B00</t>
   </si>
   <si>
     <t>100-5383Y-00</t>
@@ -814,7 +814,7 @@
     <t>1151952-19; 1151952-11</t>
   </si>
   <si>
-    <t>S5397132100802</t>
+    <t>S5397132100802; 0713070-28; 4913211080; 81207202; 5010207</t>
   </si>
   <si>
     <t>263BA101-2; 263BA101-2</t>
@@ -823,34 +823,34 @@
     <t>C17001BA01</t>
   </si>
   <si>
-    <t>10065-1000-0505</t>
+    <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
+  </si>
+  <si>
+    <t>715331</t>
   </si>
   <si>
     <t>715331; 715331</t>
   </si>
   <si>
-    <t>715331; 715331; 715331</t>
-  </si>
-  <si>
-    <t>715331</t>
-  </si>
-  <si>
     <t>8260-123</t>
   </si>
   <si>
-    <t>03-825-05ACP; 03-825-05ACP</t>
+    <t>03-825-05ACP</t>
+  </si>
+  <si>
+    <t>190-32826-021</t>
   </si>
   <si>
     <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
     <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>01 600</t>
+    <t>715331; 01 600; 329272; 753312</t>
+  </si>
+  <si>
+    <t>01 600; 104101; 511000; B11000</t>
   </si>
   <si>
     <t>898930-10; 898930-10; 898930-10; 898930-10; 898930-10; 898930-10</t>
@@ -859,7 +859,7 @@
     <t>898930-10</t>
   </si>
   <si>
-    <t>2100-4043-00; S800-3000-00; 2100-4043-00</t>
+    <t>2100-4043-00; S800-3000-00</t>
   </si>
   <si>
     <t>865D100-7</t>
@@ -874,7 +874,7 @@
     <t>071-50001-8102; 071-50001-8104; C19266AA01</t>
   </si>
   <si>
-    <t>22020; 26020; 22020</t>
+    <t>22020; 26020</t>
   </si>
   <si>
     <t>300013000-003; 300013000-003; 300013000-003</t>
@@ -904,7 +904,7 @@
     <t>32114</t>
   </si>
   <si>
-    <t>D9251504800000; D9251504800000</t>
+    <t>D9251504800000</t>
   </si>
   <si>
     <t>MXP410-1; MXP410-1</t>
@@ -913,7 +913,7 @@
     <t>RCF6708; RCF6708; RCF6708; RCF6708</t>
   </si>
   <si>
-    <t>MS14101-5ACP; MS14101-5ACP</t>
+    <t>MS14101-5ACP</t>
   </si>
   <si>
     <t>RCF6708; RCF6708; RCF6708; RCF6708; RCF6708</t>
@@ -922,7 +922,7 @@
     <t>RCF6708</t>
   </si>
   <si>
-    <t>EVT3454HC; EVT3454HC</t>
+    <t>EVT3454HC</t>
   </si>
   <si>
     <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
@@ -931,19 +931,19 @@
     <t>NP165312-14</t>
   </si>
   <si>
-    <t>80-057-01; 80-057-01</t>
+    <t>80-057-01</t>
   </si>
   <si>
     <t>766088B</t>
   </si>
   <si>
-    <t>321-400-705-0; 321-400-705-0</t>
+    <t>321-400-705-0</t>
   </si>
   <si>
     <t>727810C</t>
   </si>
   <si>
-    <t>NP196013-1; NP196013-1; NP196013-1</t>
+    <t>NP196013-1; NP196013-1</t>
   </si>
   <si>
     <t>NP196013-1</t>
@@ -958,16 +958,16 @@
     <t>066-50007-0531; 176200-01-01; 2313M-347-4</t>
   </si>
   <si>
-    <t>749198-2; 749198-2</t>
-  </si>
-  <si>
-    <t>1009501-053; 1009018-003</t>
+    <t>749198-2</t>
+  </si>
+  <si>
+    <t>1009501-053</t>
   </si>
   <si>
     <t>C20225510</t>
   </si>
   <si>
-    <t>fan-recirculation; fan-recirculation; fan-recirculation; fan-recirculation</t>
+    <t>fan-recirculation; fan-recirculation</t>
   </si>
   <si>
     <t>landing gear selector valve</t>
@@ -997,7 +997,7 @@
     <t>standby power con.; standby power control</t>
   </si>
   <si>
-    <t>fitting fwd lh</t>
+    <t>fitting fwd lh; tube ay; speaker; terminal block; bearing d</t>
   </si>
   <si>
     <t>battery; battery</t>
@@ -1006,34 +1006,34 @@
     <t>air data mdl</t>
   </si>
   <si>
-    <t>fuel control indicator</t>
+    <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>seal; seal</t>
   </si>
   <si>
-    <t>seal; seal; seal</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>starter gen</t>
   </si>
   <si>
-    <t>bearing, plain; bearing, plain</t>
+    <t>bearing, plain</t>
+  </si>
+  <si>
+    <t>bushing</t>
   </si>
   <si>
     <t>bushing; bushing</t>
   </si>
   <si>
-    <t>bushing; bushing; bushing</t>
-  </si>
-  <si>
     <t>bushing; bushing; bushing; bushing; bushing</t>
   </si>
   <si>
-    <t>ground spoiler</t>
+    <t>seal; ground spoiler; ring; glass-sight</t>
+  </si>
+  <si>
+    <t>ground spoiler; walltable; solenoid valve; valve-fuel isolation</t>
   </si>
   <si>
     <t>valve; valve; valve; valve; valve; valve</t>
@@ -1042,7 +1042,7 @@
     <t>valve</t>
   </si>
   <si>
-    <t>dfdr; ssfdr; dfdr</t>
+    <t>dfdr; ssfdr</t>
   </si>
   <si>
     <t>pdu</t>
@@ -1057,7 +1057,7 @@
     <t>antenna; tcas antenna; multipurpose control and display unit</t>
   </si>
   <si>
-    <t>voltage regulator; tri flow lubricant; voltage regulator</t>
+    <t>voltage regulator; tri flow lubricant</t>
   </si>
   <si>
     <t>valve,cowl anti ice; valve,cowl anti ice; valve,cowl anti ice</t>
@@ -1084,9 +1084,6 @@
     <t>heater</t>
   </si>
   <si>
-    <t xml:space="preserve">; </t>
-  </si>
-  <si>
     <t>stowage box; stowage box</t>
   </si>
   <si>
@@ -1099,7 +1096,7 @@
     <t>regulator xmt-press oxygen</t>
   </si>
   <si>
-    <t>cooling fan; cooling fan</t>
+    <t>cooling fan</t>
   </si>
   <si>
     <t>cooling fan; cooling fan; cooling fan; cooling fan; cooling fan; cooling fan</t>
@@ -1108,24 +1105,21 @@
     <t>window-sliding</t>
   </si>
   <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>idg</t>
+  </si>
+  <si>
+    <t>actuator door open t/rev</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
     <t>switch; switch</t>
   </si>
   <si>
-    <t>idg</t>
-  </si>
-  <si>
-    <t>actuator door open t/rev; actuator door open t/rev</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>switch; switch; switch</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
     <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven</t>
   </si>
   <si>
@@ -1135,31 +1129,28 @@
     <t>radio altimiter; fmc; motor converter</t>
   </si>
   <si>
-    <t>reservoir hydraulic; reservoir hydraulic</t>
-  </si>
-  <si>
-    <t>life vest box assembly; spring lit pocket</t>
+    <t>reservoir hydraulic</t>
+  </si>
+  <si>
+    <t>life vest box assembly</t>
   </si>
   <si>
     <t>carbon brake</t>
   </si>
   <si>
-    <t>OH; SV; IN</t>
+    <t>OH; SV</t>
   </si>
   <si>
     <t>SV</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>OH</t>
   </si>
   <si>
     <t>OVERHAULED</t>
   </si>
   <si>
-    <t>TE; IN</t>
+    <t>TE; RP</t>
   </si>
   <si>
     <t>REPAIRED</t>
@@ -1171,58 +1162,52 @@
     <t>SV; NS</t>
   </si>
   <si>
-    <t>NE; IN</t>
-  </si>
-  <si>
-    <t>NE; IN; AR</t>
+    <t>NS; RE; AR; NE; RP</t>
+  </si>
+  <si>
+    <t>OH; NS</t>
+  </si>
+  <si>
+    <t>OH; NS; RE; AR; NE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NE; AR</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>RE; REPAIR; IN</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE</t>
-  </si>
-  <si>
-    <t>NS; IN</t>
-  </si>
-  <si>
-    <t>REPAIR; IN; AR</t>
+    <t>RE; REPAIR</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>RE; NE; NS; AR</t>
+  </si>
+  <si>
+    <t>REPAIR; AR</t>
   </si>
   <si>
     <t>OH; SV; NS; RE; AR; NE</t>
   </si>
   <si>
-    <t>OH; REPAIR; IN</t>
+    <t>OH; REPAIR</t>
+  </si>
+  <si>
+    <t>SV; NS; RE</t>
   </si>
   <si>
     <t>OH; REPAIRED; OVERHAULED</t>
   </si>
   <si>
-    <t>OH; SV</t>
-  </si>
-  <si>
-    <t>SV; IN</t>
-  </si>
-  <si>
-    <t>OH; REPAIR</t>
-  </si>
-  <si>
-    <t>RE; NE; NS; AR</t>
-  </si>
-  <si>
-    <t>OH; IN</t>
-  </si>
-  <si>
     <t>OH; NS; RE; AR; NE; RP</t>
   </si>
   <si>
-    <t>SV; REPAIR; IN</t>
-  </si>
-  <si>
-    <t>NE</t>
+    <t>SV; REPAIR</t>
   </si>
   <si>
     <t>OH; SV; NS; RE; AR; NE; RP</t>
@@ -1234,9 +1219,6 @@
     <t>OH; REPAIR; RP</t>
   </si>
   <si>
-    <t>RE; IN</t>
-  </si>
-  <si>
     <t>13000; 11300</t>
   </si>
   <si>
@@ -1279,16 +1261,16 @@
     <t>3000</t>
   </si>
   <si>
-    <t>7600</t>
-  </si>
-  <si>
-    <t>4106.87; 5967.19</t>
+    <t>7600; 9400; 108000; 9500; 9000</t>
+  </si>
+  <si>
+    <t>4106.87</t>
   </si>
   <si>
     <t>1100</t>
   </si>
   <si>
-    <t>2000; 4000</t>
+    <t>2000</t>
   </si>
   <si>
     <t>37500</t>
@@ -1297,10 +1279,10 @@
     <t>49000</t>
   </si>
   <si>
-    <t>630; 7560</t>
-  </si>
-  <si>
-    <t>5042.08; 847</t>
+    <t>630</t>
+  </si>
+  <si>
+    <t>5042.08</t>
   </si>
   <si>
     <t>225226.32; 27926.08; 229240.68; 24283.42; 52209.50; 52209.50</t>
@@ -1348,7 +1330,7 @@
     <t>7995</t>
   </si>
   <si>
-    <t>2453.61; 14721.66</t>
+    <t>2453.61</t>
   </si>
   <si>
     <t>68950</t>
@@ -1357,7 +1339,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>5280; 79200; 500</t>
+    <t>5280; 79200</t>
   </si>
   <si>
     <t>3541.76</t>
@@ -1369,75 +1351,75 @@
     <t>60500; 57500; 37800</t>
   </si>
   <si>
-    <t>3500; 3500</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
+    <t>UNK; UNK</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Dual Release</t>
+  </si>
+  <si>
+    <t>FAA 8130</t>
+  </si>
+  <si>
+    <t>EASA/FAA Dual Release</t>
+  </si>
+  <si>
+    <t>EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Mfg Certs</t>
+  </si>
+  <si>
+    <t>Triple Release</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130</t>
+  </si>
+  <si>
     <t>UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>Dual Release</t>
-  </si>
-  <si>
-    <t>UNK; UNK</t>
-  </si>
-  <si>
-    <t>FAA 8130</t>
-  </si>
-  <si>
-    <t>EASA/FAA Dual Release</t>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130; Dual Release 8130</t>
   </si>
   <si>
     <t>EASA Form 1</t>
   </si>
   <si>
-    <t>Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Mfg Certs; Mfg Certs</t>
+    <t>Dual Release 8130</t>
+  </si>
+  <si>
+    <t>Manufacturers C of C</t>
+  </si>
+  <si>
+    <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
     <t>UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>Triple Release</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>Dual Release 8130; Dual Release 8130; Dual Release 8130</t>
-  </si>
-  <si>
-    <t>FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>Dual Release 8130; Dual Release 8130</t>
-  </si>
-  <si>
-    <t>Manufacturers C of C; Manufacturers C of C</t>
-  </si>
-  <si>
-    <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
     <t>2024-08-08; 2024-05-08</t>
   </si>
   <si>
@@ -1477,28 +1459,28 @@
     <t>U; N; K</t>
   </si>
   <si>
+    <t>1; 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1; 1</t>
+    <t>1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>1; 1; 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
-    <t>02</t>
   </si>
   <si>
     <t>22</t>
@@ -1936,19 +1918,19 @@
         <v>317</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1974,19 +1956,19 @@
         <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2012,19 +1994,19 @@
         <v>318</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2050,19 +2032,19 @@
         <v>319</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2088,19 +2070,19 @@
         <v>320</v>
       </c>
       <c r="H6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2126,19 +2108,19 @@
         <v>320</v>
       </c>
       <c r="H7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2164,19 +2146,19 @@
         <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2202,19 +2184,19 @@
         <v>321</v>
       </c>
       <c r="H9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2240,19 +2222,19 @@
         <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2278,19 +2260,19 @@
         <v>323</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J11" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K11" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L11" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2316,19 +2298,19 @@
         <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K12" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2354,19 +2336,19 @@
         <v>325</v>
       </c>
       <c r="H13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L13" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2392,19 +2374,19 @@
         <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L14" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2430,19 +2412,19 @@
         <v>327</v>
       </c>
       <c r="H15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I15" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J15" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="K15" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L15" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2468,19 +2450,19 @@
         <v>328</v>
       </c>
       <c r="H16" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J16" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K16" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L16" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2506,19 +2488,19 @@
         <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J17" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2544,19 +2526,19 @@
         <v>330</v>
       </c>
       <c r="H18" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="I18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2585,16 +2567,16 @@
         <v>385</v>
       </c>
       <c r="I19" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K19" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L19" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2623,16 +2605,16 @@
         <v>386</v>
       </c>
       <c r="I20" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J20" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="K20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L20" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2652,25 +2634,25 @@
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H21" t="s">
         <v>387</v>
       </c>
       <c r="I21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J21" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K21" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L21" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2699,16 +2681,16 @@
         <v>385</v>
       </c>
       <c r="I22" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K22" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L22" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2728,25 +2710,25 @@
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K23" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" t="s">
         <v>482</v>
-      </c>
-      <c r="L23" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2766,25 +2748,25 @@
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I24" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J24" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K24" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L24" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2804,25 +2786,25 @@
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H25" t="s">
         <v>385</v>
       </c>
       <c r="I25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J25" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K25" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L25" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2842,25 +2824,25 @@
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H26" t="s">
         <v>385</v>
       </c>
       <c r="I26" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J26" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K26" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L26" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2880,25 +2862,25 @@
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H27" t="s">
         <v>388</v>
       </c>
       <c r="I27" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J27" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L27" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2918,25 +2900,25 @@
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J28" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K28" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L28" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2956,25 +2938,25 @@
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H29" t="s">
         <v>385</v>
       </c>
       <c r="I29" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J29" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K29" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L29" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2994,25 +2976,25 @@
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J30" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K30" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L30" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3032,25 +3014,25 @@
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H31" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I31" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J31" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3076,19 +3058,19 @@
         <v>339</v>
       </c>
       <c r="H32" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I32" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J32" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K32" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L32" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3117,16 +3099,16 @@
         <v>391</v>
       </c>
       <c r="I33" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J33" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="K33" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L33" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3155,16 +3137,16 @@
         <v>392</v>
       </c>
       <c r="I34" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J34" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K34" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L34" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3190,19 +3172,19 @@
         <v>341</v>
       </c>
       <c r="H35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J35" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K35" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L35" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3231,16 +3213,16 @@
         <v>393</v>
       </c>
       <c r="I36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J36" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="K36" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L36" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3266,19 +3248,19 @@
         <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I37" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J37" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K37" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L37" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3304,19 +3286,19 @@
         <v>344</v>
       </c>
       <c r="H38" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I38" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J38" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K38" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L38" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3342,19 +3324,19 @@
         <v>345</v>
       </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I39" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K39" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L39" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3380,19 +3362,19 @@
         <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="I40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J40" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K40" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3421,16 +3403,16 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="K41" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L41" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3459,16 +3441,16 @@
         <v>388</v>
       </c>
       <c r="I42" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J42" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="K42" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L42" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3494,19 +3476,19 @@
         <v>348</v>
       </c>
       <c r="H43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I43" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J43" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K43" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3532,19 +3514,19 @@
         <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J44" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K44" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3573,16 +3555,16 @@
         <v>289</v>
       </c>
       <c r="I45" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J45" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K45" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L45" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3611,16 +3593,16 @@
         <v>289</v>
       </c>
       <c r="I46" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K46" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L46" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3646,19 +3628,19 @@
         <v>350</v>
       </c>
       <c r="H47" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="K47" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3684,19 +3666,19 @@
         <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I48" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L48" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3722,19 +3704,19 @@
         <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I49" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3760,19 +3742,19 @@
         <v>352</v>
       </c>
       <c r="H50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I50" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K50" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3798,19 +3780,19 @@
         <v>341</v>
       </c>
       <c r="H51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I51" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3839,16 +3821,16 @@
         <v>387</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3874,19 +3856,19 @@
         <v>354</v>
       </c>
       <c r="H53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K53" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3912,19 +3894,19 @@
         <v>355</v>
       </c>
       <c r="H54" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K54" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3946,23 +3928,20 @@
       <c r="F55" t="s">
         <v>296</v>
       </c>
-      <c r="G55" t="s">
-        <v>356</v>
-      </c>
       <c r="H55" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J55" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3985,22 +3964,22 @@
         <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H56" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K56" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4023,22 +4002,22 @@
         <v>298</v>
       </c>
       <c r="G57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I57" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4060,23 +4039,20 @@
       <c r="F58" t="s">
         <v>299</v>
       </c>
-      <c r="G58" t="s">
-        <v>356</v>
-      </c>
       <c r="H58" t="s">
         <v>385</v>
       </c>
       <c r="I58" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J58" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4099,22 +4075,22 @@
         <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H59" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I59" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J59" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4137,22 +4113,22 @@
         <v>301</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I60" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J60" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K60" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4181,16 +4157,16 @@
         <v>289</v>
       </c>
       <c r="I61" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J61" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4213,22 +4189,22 @@
         <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H62" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="I62" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K62" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4251,22 +4227,22 @@
         <v>303</v>
       </c>
       <c r="G63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H63" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J63" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K63" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4289,22 +4265,22 @@
         <v>304</v>
       </c>
       <c r="G64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H64" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J64" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K64" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4327,22 +4303,22 @@
         <v>305</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H65" t="s">
         <v>385</v>
       </c>
       <c r="I65" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K65" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4365,22 +4341,22 @@
         <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I66" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J66" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K66" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4403,22 +4379,22 @@
         <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H67" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="I67" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J67" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K67" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L67" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4441,22 +4417,22 @@
         <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H68" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I68" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K68" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4479,22 +4455,22 @@
         <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H69" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J69" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="K69" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4517,22 +4493,22 @@
         <v>309</v>
       </c>
       <c r="G70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H70" t="s">
         <v>388</v>
       </c>
       <c r="I70" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J70" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4555,22 +4531,22 @@
         <v>310</v>
       </c>
       <c r="G71" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H71" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="I71" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J71" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K71" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4593,22 +4569,22 @@
         <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H72" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I72" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J72" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K72" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4631,22 +4607,22 @@
         <v>312</v>
       </c>
       <c r="G73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I73" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J73" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K73" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L73" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4669,22 +4645,22 @@
         <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H74" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I74" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J74" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K74" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L74" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4707,22 +4683,22 @@
         <v>314</v>
       </c>
       <c r="G75" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H75" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="I75" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="J75" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K75" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4745,22 +4721,22 @@
         <v>315</v>
       </c>
       <c r="G76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H76" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="I76" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J76" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K76" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4783,22 +4759,22 @@
         <v>316</v>
       </c>
       <c r="G77" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H77" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I77" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J77" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K77" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="504">
   <si>
     <t>VQ#</t>
   </si>
@@ -811,10 +811,10 @@
     <t>762185H</t>
   </si>
   <si>
-    <t>1151952-19; 1151952-11</t>
-  </si>
-  <si>
-    <t>S5397132100802; 0713070-28; 4913211080; 81207202; 5010207</t>
+    <t>1151952-19</t>
+  </si>
+  <si>
+    <t>S5397132100802</t>
   </si>
   <si>
     <t>263BA101-2; 263BA101-2</t>
@@ -826,12 +826,15 @@
     <t>10065-1000-0505; 642-1000-505; 642-1000-501; 642-1004-503; 642-1025-505</t>
   </si>
   <si>
+    <t>715331; 715331</t>
+  </si>
+  <si>
+    <t>715331; 715331; 715331</t>
+  </si>
+  <si>
     <t>715331</t>
   </si>
   <si>
-    <t>715331; 715331</t>
-  </si>
-  <si>
     <t>8260-123</t>
   </si>
   <si>
@@ -841,19 +844,19 @@
     <t>190-32826-021</t>
   </si>
   <si>
+    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
     <t>190-32826-021; 190-32826-021</t>
   </si>
   <si>
-    <t>190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021; 190-32826-021</t>
-  </si>
-  <si>
-    <t>715331; 01 600; 329272; 753312</t>
-  </si>
-  <si>
-    <t>01 600; 104101; 511000; B11000</t>
-  </si>
-  <si>
-    <t>898930-10; 898930-10; 898930-10; 898930-10; 898930-10; 898930-10</t>
+    <t>190-32826-021; 190-32826-021; 190-32826-021</t>
+  </si>
+  <si>
+    <t>01 600; 104101</t>
+  </si>
+  <si>
+    <t>898930-10; 898930-10; 898930-10; 898930-10</t>
   </si>
   <si>
     <t>898930-10</t>
@@ -877,7 +880,7 @@
     <t>22020; 26020</t>
   </si>
   <si>
-    <t>300013000-003; 300013000-003; 300013000-003</t>
+    <t>300013000-003</t>
   </si>
   <si>
     <t>16520-101</t>
@@ -886,7 +889,7 @@
     <t>NO MATCH</t>
   </si>
   <si>
-    <t>5934001-217; 119300-101</t>
+    <t>5934001-217; 119300-101; 25300001-1; 52300010-1; 52300019-1; 9832001-13; 300041-1</t>
   </si>
   <si>
     <t>6137-5</t>
@@ -904,28 +907,25 @@
     <t>32114</t>
   </si>
   <si>
-    <t>D9251504800000</t>
+    <t>D9251504800000; D9251504800000</t>
   </si>
   <si>
     <t>MXP410-1; MXP410-1</t>
   </si>
   <si>
-    <t>RCF6708; RCF6708; RCF6708; RCF6708</t>
+    <t>RCF6708; RCF6708</t>
   </si>
   <si>
     <t>MS14101-5ACP</t>
   </si>
   <si>
-    <t>RCF6708; RCF6708; RCF6708; RCF6708; RCF6708</t>
-  </si>
-  <si>
     <t>RCF6708</t>
   </si>
   <si>
     <t>EVT3454HC</t>
   </si>
   <si>
-    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
+    <t>EVT3454HC; EVT3454HC; EVT3454HC; EVT3454HC</t>
   </si>
   <si>
     <t>NP165312-14</t>
@@ -937,7 +937,7 @@
     <t>766088B</t>
   </si>
   <si>
-    <t>321-400-705-0</t>
+    <t>321-400-705-0; 321-400-705-0; 321-400-705-0</t>
   </si>
   <si>
     <t>727810C</t>
@@ -946,22 +946,25 @@
     <t>NP196013-1; NP196013-1</t>
   </si>
   <si>
-    <t>NP196013-1</t>
-  </si>
-  <si>
-    <t>4323100-01-66-22; 4323100-00-66-22; 4323100-01-6622; 4323101-01-6622; 4323070-01-6626; 066-500008-0408; 4313100-01-6600</t>
+    <t>NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>NP196013-1; NP196013-1; NP196013-1</t>
+  </si>
+  <si>
+    <t>4323100-01-66-22; 4323100-00-66-22; 4323100-01-6622; 4323101-01-6622; 4323070-01-6626; 066-500008-0408; 4313100-01-6600; 4323071-01-6626; 4323500-01-6600; 4333100-01-6600; 4383100-01-6600; 065-50000-0404; 066-50013-0202; 066-50012-0202; 066-50014-0202; 065-50000-0509; 066-50008-0202; 066-50008-0404; 066-50012-0212; 066-50013-0101; 066-50013-0303; 066-50013-1222; 2100-4043-00-1; 22100-4043-00; 066-0403-0204; 10027-0000-01; 10065-5000-01; 10065-5000-02; 40006-0000-05; 2100-4043-00; 622-9852-208</t>
   </si>
   <si>
     <t>C20225510; C20225510; C20225510</t>
   </si>
   <si>
-    <t>066-50007-0531; 176200-01-01; 2313M-347-4</t>
+    <t>066-50007-0531; 176200-01-01; 2313M-347-4; 2606672-4; 4063-19972-01AA; 606802-2; 6355C0001-02</t>
   </si>
   <si>
     <t>749198-2</t>
   </si>
   <si>
-    <t>1009501-053</t>
+    <t>1009501-053; 1009018-003; 0001040957; 00-5013-05</t>
   </si>
   <si>
     <t>C20225510</t>
@@ -994,10 +997,10 @@
     <t>gcu</t>
   </si>
   <si>
-    <t>standby power con.; standby power control</t>
-  </si>
-  <si>
-    <t>fitting fwd lh; tube ay; speaker; terminal block; bearing d</t>
+    <t>standby power control</t>
+  </si>
+  <si>
+    <t>fitting fwd lh</t>
   </si>
   <si>
     <t>battery; battery</t>
@@ -1009,12 +1012,15 @@
     <t>fuel control indicator; cowl assy-air inlet; inlet cowl; tube assy anti ise supply; panel assy</t>
   </si>
   <si>
+    <t>seal; seal</t>
+  </si>
+  <si>
+    <t>seal; seal; seal</t>
+  </si>
+  <si>
     <t>seal</t>
   </si>
   <si>
-    <t>seal; seal</t>
-  </si>
-  <si>
     <t>starter gen</t>
   </si>
   <si>
@@ -1024,19 +1030,19 @@
     <t>bushing</t>
   </si>
   <si>
+    <t>bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing; bushing</t>
+  </si>
+  <si>
     <t>bushing; bushing</t>
   </si>
   <si>
-    <t>bushing; bushing; bushing; bushing; bushing</t>
-  </si>
-  <si>
-    <t>seal; ground spoiler; ring; glass-sight</t>
-  </si>
-  <si>
-    <t>ground spoiler; walltable; solenoid valve; valve-fuel isolation</t>
-  </si>
-  <si>
-    <t>valve; valve; valve; valve; valve; valve</t>
+    <t>bushing; bushing; bushing</t>
+  </si>
+  <si>
+    <t>ground spoiler; walltable</t>
+  </si>
+  <si>
+    <t>valve; valve; valve; valve</t>
   </si>
   <si>
     <t>valve</t>
@@ -1060,13 +1066,13 @@
     <t>voltage regulator; tri flow lubricant</t>
   </si>
   <si>
-    <t>valve,cowl anti ice; valve,cowl anti ice; valve,cowl anti ice</t>
+    <t>valve,cowl anti ice</t>
   </si>
   <si>
     <t>actuator,retraction (nlg)</t>
   </si>
   <si>
-    <t>seal, rod; upper filter assy</t>
+    <t>seal, rod; upper filter assy; cover plate; fill fitting; disc rupture; foam; hose</t>
   </si>
   <si>
     <t>rudder trim</t>
@@ -1084,13 +1090,13 @@
     <t>heater</t>
   </si>
   <si>
+    <t xml:space="preserve">; </t>
+  </si>
+  <si>
     <t>stowage box; stowage box</t>
   </si>
   <si>
-    <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
-  </si>
-  <si>
-    <t>regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen; regulator xmt-press oxygen</t>
+    <t>regulator xmt-press oxygen; regulator xmt-press oxygen</t>
   </si>
   <si>
     <t>regulator xmt-press oxygen</t>
@@ -1099,7 +1105,7 @@
     <t>cooling fan</t>
   </si>
   <si>
-    <t>cooling fan; cooling fan; cooling fan; cooling fan; cooling fan; cooling fan</t>
+    <t>cooling fan; cooling fan; cooling fan; cooling fan</t>
   </si>
   <si>
     <t>window-sliding</t>
@@ -1111,7 +1117,7 @@
     <t>idg</t>
   </si>
   <si>
-    <t>actuator door open t/rev</t>
+    <t>actuator door open t/rev; actuator door open t/rev; actuator door open t/rev</t>
   </si>
   <si>
     <t>generator</t>
@@ -1120,19 +1126,25 @@
     <t>switch; switch</t>
   </si>
   <si>
-    <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven</t>
+    <t>switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch; switch</t>
+  </si>
+  <si>
+    <t>switch; switch; switch</t>
+  </si>
+  <si>
+    <t>steam oven; oven; oven-steam; steam oven; oven; receiver; oven; steamer; tbd; oven; oven control module; sfcc-slat flap control computer; interrogator-dme; receirver-vor,mkr; adf receiver; computer; transceiver; receiver; vor/marker receiver; interrogator dme dma37-b; intrrgtr; dme interrogator; emer torch power supply battery pack; dfdr; gps unit; indicator; densitometer boein; densitometer boeing; n1 speed transduser; dfdr; unit,radio tuning</t>
   </si>
   <si>
     <t>carbon brake; carbon brake; carbon brake</t>
   </si>
   <si>
-    <t>radio altimiter; fmc; motor converter</t>
+    <t>radio altimiter; fmc; motor converter; brake assy; control outflow valve; outflow valve; waste sys. vacuum blower</t>
   </si>
   <si>
     <t>reservoir hydraulic</t>
   </si>
   <si>
-    <t>life vest box assembly</t>
+    <t>life vest box assembly; spring lit pocket; block battery; system control unit</t>
   </si>
   <si>
     <t>carbon brake</t>
@@ -1144,79 +1156,94 @@
     <t>SV</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
-    <t>OVERHAULED</t>
-  </si>
-  <si>
-    <t>TE; RP</t>
-  </si>
-  <si>
-    <t>REPAIRED</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
-    <t>SV; NS</t>
-  </si>
-  <si>
-    <t>NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
-    <t>OH; NS</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE</t>
+    <t>RP; TE</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>OH; OH</t>
+  </si>
+  <si>
+    <t>OH; OH; OH; OH; AR</t>
+  </si>
+  <si>
+    <t>NE; NE</t>
+  </si>
+  <si>
+    <t>AR; IN; NE</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>NE</t>
   </si>
   <si>
-    <t>NE; AR</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>RE; REPAIR</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>RE; NE; NS; AR</t>
-  </si>
-  <si>
-    <t>REPAIR; AR</t>
-  </si>
-  <si>
-    <t>OH; SV; NS; RE; AR; NE</t>
+    <t>RE; RE; NE; RE; NE; OH; SV; AR; NS; RP; NS; NE</t>
+  </si>
+  <si>
+    <t>NS; NS; IN</t>
+  </si>
+  <si>
+    <t>AR; NS</t>
+  </si>
+  <si>
+    <t>AR; OH; AR; SV</t>
+  </si>
+  <si>
+    <t>SV; AR</t>
+  </si>
+  <si>
+    <t>SV; AR; NS</t>
+  </si>
+  <si>
+    <t>OH; OH; SV; OH; OH; OH; SV</t>
+  </si>
+  <si>
+    <t>SV; IN</t>
   </si>
   <si>
     <t>OH; REPAIR</t>
   </si>
   <si>
-    <t>SV; NS; RE</t>
-  </si>
-  <si>
-    <t>OH; REPAIRED; OVERHAULED</t>
-  </si>
-  <si>
-    <t>OH; NS; RE; AR; NE; RP</t>
+    <t>NS; NS</t>
+  </si>
+  <si>
+    <t>RE; RE; NE; NS</t>
+  </si>
+  <si>
+    <t>OH; OH; OH</t>
   </si>
   <si>
     <t>SV; REPAIR</t>
   </si>
   <si>
-    <t>OH; SV; NS; RE; AR; NE; RP</t>
-  </si>
-  <si>
-    <t>OH; RP; AR</t>
-  </si>
-  <si>
-    <t>OH; REPAIR; RP</t>
+    <t>RE; NE; NE; RE; NE; OH; SV; AR; NS; RP; NS; RE; AR</t>
+  </si>
+  <si>
+    <t>NE; NE; NE</t>
+  </si>
+  <si>
+    <t>RE; OH; NS; RE; NS; NS; OH; NS; RE; SV; NS; RE; OH; NS; RE; AR; OH; NS; RE; NE; OH; NS; RE; RE; NS; OH; NS; RE; OH; NS; RE</t>
+  </si>
+  <si>
+    <t>OH; RP; OH</t>
+  </si>
+  <si>
+    <t>OH; RP; RP; OH; OH; RP; REPAIR</t>
+  </si>
+  <si>
+    <t>AR; NS; NE; NE</t>
   </si>
   <si>
     <t>13000; 11300</t>
@@ -1252,7 +1279,7 @@
     <t>2450</t>
   </si>
   <si>
-    <t>10000; 75000</t>
+    <t>10000</t>
   </si>
   <si>
     <t>UNK/Process Error</t>
@@ -1264,7 +1291,7 @@
     <t>7600; 9400; 108000; 9500; 9000</t>
   </si>
   <si>
-    <t>4106.87</t>
+    <t>4106.87; 5967.19</t>
   </si>
   <si>
     <t>1100</t>
@@ -1282,10 +1309,10 @@
     <t>630</t>
   </si>
   <si>
-    <t>5042.08</t>
-  </si>
-  <si>
-    <t>225226.32; 27926.08; 229240.68; 24283.42; 52209.50; 52209.50</t>
+    <t>5042.08; 847</t>
+  </si>
+  <si>
+    <t>225226.32; 27926.08; 229240.68; 24283.42</t>
   </si>
   <si>
     <t>15990</t>
@@ -1294,13 +1321,13 @@
     <t>15000</t>
   </si>
   <si>
-    <t>10500; 10500; 10500</t>
+    <t>10500</t>
   </si>
   <si>
     <t>3500</t>
   </si>
   <si>
-    <t>5000; 5000</t>
+    <t>5000; 5000; 3000; 5000; 5000; 5000; 3000</t>
   </si>
   <si>
     <t>15600</t>
@@ -1321,7 +1348,7 @@
     <t>13812.50; 500</t>
   </si>
   <si>
-    <t>500; 500; 5250; 5750</t>
+    <t>500; 500</t>
   </si>
   <si>
     <t>7480</t>
@@ -1342,10 +1369,10 @@
     <t>5280; 79200</t>
   </si>
   <si>
-    <t>3541.76</t>
-  </si>
-  <si>
-    <t>375000; 55000; 52500; 40000; 31500; 29750; 25000</t>
+    <t>3541.76; 3541.76; 3541.76</t>
+  </si>
+  <si>
+    <t>375000; 55000; 52500; 40000; 31500; 29750; 25000; 25000; 24500; 22500; 17500; 17500; 16500; 15750; 14500; 14000; 11750; 10500; 9500; 9500; 8000; 7500; 6500; 6000; 5500; 5000; 5000; 4950; 4500; 2850; 2500</t>
   </si>
   <si>
     <t>60500; 57500; 37800</t>
@@ -1369,7 +1396,7 @@
     <t>EASA/FAA Dual Release</t>
   </si>
   <si>
-    <t>EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1; EASA Form 1</t>
+    <t>EASA Form 1</t>
   </si>
   <si>
     <t>Dual Release; Dual Release</t>
@@ -1378,48 +1405,51 @@
     <t>UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>Mfg Certs</t>
+    <t>Mfg Certs; Mfg Certs</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK</t>
   </si>
   <si>
     <t>Triple Release</t>
   </si>
   <si>
-    <t>FAA 8130; FAA 8130</t>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
     <t>UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>UNK; UNK; UNK; UNK; UNK; UNK</t>
-  </si>
-  <si>
     <t>Dual Release; Dual Release; Dual Release</t>
   </si>
   <si>
-    <t>Dual Release 8130; Dual Release 8130; Dual Release 8130</t>
-  </si>
-  <si>
-    <t>EASA Form 1</t>
-  </si>
-  <si>
     <t>Dual Release 8130</t>
   </si>
   <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>Dual Release 8130; Dual Release 8130</t>
+  </si>
+  <si>
     <t>Manufacturers C of C</t>
   </si>
   <si>
-    <t>Dual Release; Dual Release; Dual Release; Dual Release; Dual Release; Dual Release</t>
+    <t>Dual Release; Dual Release; Dual Release; Dual Release</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130; FAA 8130</t>
+  </si>
+  <si>
+    <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
+  </si>
+  <si>
+    <t>FAA 8130; FAA 8130; FAA 8130</t>
   </si>
   <si>
     <t>UNK; UNK; UNK; UNK; UNK; UNK; UNK</t>
   </si>
   <si>
-    <t>FAA 8130; FAA 8130; FAA 8130</t>
-  </si>
-  <si>
-    <t>UNK; UNK; UNK</t>
-  </si>
-  <si>
     <t>2024-08-08; 2024-05-08</t>
   </si>
   <si>
@@ -1468,19 +1498,22 @@
     <t>1; 1; 1; 1; 1</t>
   </si>
   <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
     <t>1; 1; 1; 1</t>
   </si>
   <si>
-    <t>1; 1; 1; 1; 1; 1</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>1; 1; 1</t>
+    <t>1; 1; 1; 1; 1; 1; 1</t>
   </si>
   <si>
     <t>22</t>
@@ -1489,7 +1522,10 @@
     <t>01</t>
   </si>
   <si>
-    <t>1; 1; 1; 1; 1; 1; 1</t>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
   </si>
 </sst>
 </file>
@@ -1915,22 +1951,22 @@
         <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1953,22 +1989,22 @@
         <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K3" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L3" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1991,22 +2027,22 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K4" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L4" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2029,22 +2065,22 @@
         <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="J5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2067,22 +2103,22 @@
         <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J6" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K6" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="L6" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2105,22 +2141,22 @@
         <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2143,22 +2179,22 @@
         <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="J8" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K8" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L8" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2181,22 +2217,22 @@
         <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="J9" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K9" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L9" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2219,22 +2255,22 @@
         <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I10" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="J10" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K10" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L10" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2257,22 +2293,22 @@
         <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H11" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I11" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="J11" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K11" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2295,22 +2331,22 @@
         <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J12" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K12" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L12" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2333,22 +2369,22 @@
         <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I13" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="J13" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K13" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L13" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2371,22 +2407,22 @@
         <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I14" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="J14" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L14" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2409,22 +2445,22 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I15" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J15" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K15" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2447,22 +2483,22 @@
         <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I16" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J16" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K16" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L16" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2485,22 +2521,22 @@
         <v>268</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J17" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K17" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2523,22 +2559,22 @@
         <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I18" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J18" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K18" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L18" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2561,22 +2597,22 @@
         <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I19" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J19" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="K19" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L19" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2599,22 +2635,22 @@
         <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I20" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J20" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="K20" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L20" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2634,25 +2670,25 @@
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I21" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="J21" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K21" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L21" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2672,25 +2708,25 @@
         <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H22" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I22" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="J22" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K22" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L22" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2710,25 +2746,25 @@
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J23" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L23" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2748,25 +2784,25 @@
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H24" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I24" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="J24" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K24" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L24" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2786,25 +2822,25 @@
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H25" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I25" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J25" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K25" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L25" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2824,25 +2860,25 @@
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H26" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I26" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="J26" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K26" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L26" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2862,25 +2898,25 @@
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H27" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I27" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J27" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K27" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L27" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2900,25 +2936,25 @@
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
         <v>337</v>
       </c>
       <c r="H28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I28" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L28" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2938,25 +2974,25 @@
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I29" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="J29" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K29" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L29" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2976,25 +3012,25 @@
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I30" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J30" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="K30" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L30" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3014,25 +3050,25 @@
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H31" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I31" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K31" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L31" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3052,25 +3088,25 @@
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H32" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I32" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K32" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L32" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3090,25 +3126,25 @@
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I33" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J33" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K33" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L33" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3128,25 +3164,25 @@
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I34" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="J34" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K34" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L34" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3166,25 +3202,25 @@
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H35" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I35" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="J35" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K35" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L35" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3204,25 +3240,25 @@
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H36" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I36" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J36" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K36" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L36" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3242,25 +3278,25 @@
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H37" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I37" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="J37" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K37" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L37" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3280,25 +3316,25 @@
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="I38" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J38" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K38" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="L38" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3318,25 +3354,25 @@
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H39" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I39" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J39" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K39" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L39" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3356,25 +3392,25 @@
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H40" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I40" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J40" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="K40" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="L40" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3394,25 +3430,25 @@
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H41" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="I41" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J41" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K41" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="L41" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3432,25 +3468,25 @@
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H42" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="I42" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K42" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="L42" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3470,25 +3506,25 @@
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="I43" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J43" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K43" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L43" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3508,25 +3544,25 @@
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H44" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I44" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K44" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L44" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3546,25 +3582,25 @@
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I45" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K45" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L45" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3584,25 +3620,25 @@
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L46" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3622,25 +3658,25 @@
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G47" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H47" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="I47" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="K47" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L47" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3660,25 +3696,25 @@
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H48" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="J48" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K48" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3698,25 +3734,25 @@
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H49" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3736,25 +3772,25 @@
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G50" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H50" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L50" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3774,25 +3810,25 @@
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H51" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I51" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3812,25 +3848,25 @@
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H52" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I52" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="J52" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3850,25 +3886,25 @@
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H53" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I53" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="J53" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3888,25 +3924,25 @@
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H54" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J54" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3926,22 +3962,25 @@
         <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="G55" t="s">
+        <v>358</v>
       </c>
       <c r="H55" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="I55" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J55" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3961,25 +4000,25 @@
         <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G56" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H56" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="J56" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K56" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3999,25 +4038,25 @@
         <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G57" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I57" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="J57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K57" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4037,22 +4076,22 @@
         <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H58" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I58" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J58" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4072,25 +4111,25 @@
         <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H59" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I59" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J59" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4113,22 +4152,22 @@
         <v>301</v>
       </c>
       <c r="G60" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I60" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J60" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4148,25 +4187,25 @@
         <v>45698.84449074074</v>
       </c>
       <c r="F61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I61" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J61" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K61" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L61" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4189,22 +4228,22 @@
         <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H62" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J62" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4227,22 +4266,22 @@
         <v>303</v>
       </c>
       <c r="G63" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="I63" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J63" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K63" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4265,22 +4304,22 @@
         <v>304</v>
       </c>
       <c r="G64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H64" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I64" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4303,22 +4342,22 @@
         <v>305</v>
       </c>
       <c r="G65" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H65" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I65" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K65" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4341,22 +4380,22 @@
         <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H66" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I66" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="J66" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K66" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4379,22 +4418,22 @@
         <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H67" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="I67" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J67" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4417,22 +4456,22 @@
         <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H68" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I68" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="J68" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K68" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4455,22 +4494,22 @@
         <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H69" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="J69" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K69" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4490,25 +4529,25 @@
         <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H70" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="I70" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J70" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="K70" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4528,25 +4567,25 @@
         <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G71" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H71" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I71" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="J71" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L71" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4566,25 +4605,25 @@
         <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G72" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H72" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I72" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="J72" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L72" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4604,25 +4643,25 @@
         <v>45701.55076388889</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H73" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I73" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="J73" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K73" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4642,25 +4681,25 @@
         <v>45701.56765046297</v>
       </c>
       <c r="F74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G74" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H74" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="I74" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J74" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K74" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4680,25 +4719,25 @@
         <v>45701.7231712963</v>
       </c>
       <c r="F75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H75" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I75" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J75" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L75" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4718,25 +4757,25 @@
         <v>45701.75172453704</v>
       </c>
       <c r="F76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G76" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H76" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="I76" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J76" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L76" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4756,25 +4795,25 @@
         <v>45702.16230324074</v>
       </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G77" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H77" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I77" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="J77" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K77" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="511">
   <si>
     <t>VQ#</t>
   </si>
@@ -280,6 +280,12 @@
     <t>VQ0076</t>
   </si>
   <si>
+    <t>VQ0077</t>
+  </si>
+  <si>
+    <t>VQ0078</t>
+  </si>
+  <si>
     <t>Another example</t>
   </si>
   <si>
@@ -508,6 +514,9 @@
     <t>RE: C20225510 qty 2 for exch</t>
   </si>
   <si>
+    <t>We Love Regional</t>
+  </si>
+  <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
@@ -655,6 +664,9 @@
     <t>prem@aerotrends-aviation.com</t>
   </si>
   <si>
+    <t>SteveDonaldson@m.TurboResources.com</t>
+  </si>
+  <si>
     <t>gabriel co</t>
   </si>
   <si>
@@ -970,6 +982,9 @@
     <t>C20225510</t>
   </si>
   <si>
+    <t>NP139322-12</t>
+  </si>
+  <si>
     <t>fan-recirculation; fan-recirculation</t>
   </si>
   <si>
@@ -1150,6 +1165,9 @@
     <t>carbon brake</t>
   </si>
   <si>
+    <t>window</t>
+  </si>
+  <si>
     <t>OH; SV</t>
   </si>
   <si>
@@ -1379,6 +1397,9 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>550000</t>
   </si>
   <si>
     <t>UNK; UNK</t>
@@ -1887,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,37 +1957,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1974,37 +1995,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2">
         <v>45685.37863425926</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K3" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L3" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2012,37 +2033,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2">
         <v>45692.32681712963</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L4" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2050,37 +2071,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2">
         <v>45692.79873842592</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I5" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L5" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2088,37 +2109,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2">
         <v>45693.7866087963</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I6" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J6" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K6" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L6" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2126,37 +2147,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2164,37 +2185,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2">
         <v>45693.85318287037</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L8" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2202,37 +2223,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J9" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K9" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L9" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2240,37 +2261,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E10" s="2">
         <v>45698.4658449074</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H10" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L10" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2278,37 +2299,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I11" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="J11" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K11" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L11" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2316,37 +2337,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2">
         <v>45684.32626157408</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H12" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I12" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="J12" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K12" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L12" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2354,37 +2375,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E13" s="2">
         <v>45684.48739583333</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I13" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J13" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K13" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="L13" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2392,37 +2413,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E14" s="2">
         <v>45684.50364583333</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I14" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L14" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2430,37 +2451,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2">
         <v>45684.5580787037</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I15" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J15" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L15" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2468,37 +2489,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I16" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J16" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K16" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L16" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2506,37 +2527,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2">
         <v>45686.55545138889</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H17" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K17" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L17" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2544,37 +2565,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H18" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I18" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="J18" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K18" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L18" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2582,37 +2603,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E19" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="F19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="J19" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="K19" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L19" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2620,37 +2641,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E20" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="I20" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J20" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K20" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L20" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2658,37 +2679,37 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2">
         <v>45692.42583333333</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="I21" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J21" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K21" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L21" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2696,37 +2717,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2">
         <v>45692.46796296296</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G22" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H22" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I22" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="J22" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K22" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L22" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2734,37 +2755,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2">
         <v>45692.49587962963</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G23" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H23" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I23" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K23" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L23" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2772,37 +2793,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E24" s="2">
         <v>45692.56474537037</v>
       </c>
       <c r="F24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H24" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I24" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J24" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K24" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L24" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2810,37 +2831,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E25" s="2">
         <v>45692.60631944444</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H25" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I25" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J25" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K25" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L25" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2848,37 +2869,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E26" s="2">
         <v>45692.60633101852</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H26" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I26" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="J26" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K26" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L26" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2886,37 +2907,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2">
         <v>45692.60891203704</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H27" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J27" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K27" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L27" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2924,37 +2945,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E28" s="2">
         <v>45692.6105787037</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H28" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I28" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J28" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K28" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L28" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2962,37 +2983,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E29" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I29" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="J29" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K29" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L29" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3000,37 +3021,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E30" s="2">
         <v>45692.6147337963</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I30" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J30" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K30" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L30" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3038,37 +3059,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E31" s="2">
         <v>45692.69200231481</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I31" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J31" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K31" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L31" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3076,37 +3097,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E32" s="2">
         <v>45692.69548611111</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H32" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I32" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J32" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K32" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L32" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3114,37 +3135,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2">
         <v>45692.70827546297</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H33" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="I33" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J33" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K33" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L33" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3152,37 +3173,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H34" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I34" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J34" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K34" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L34" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3190,37 +3211,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E35" s="2">
         <v>45692.77333333333</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I35" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J35" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K35" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L35" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3228,37 +3249,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E36" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I36" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K36" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L36" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3266,37 +3287,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E37" s="2">
         <v>45692.78693287037</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H37" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I37" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K37" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L37" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3304,37 +3325,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E38" s="2">
         <v>45692.79625</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H38" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I38" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J38" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K38" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L38" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3342,37 +3363,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E39" s="2">
         <v>45692.79646990741</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H39" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I39" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J39" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K39" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L39" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3380,37 +3401,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E40" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H40" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="I40" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J40" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K40" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L40" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3418,37 +3439,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E41" s="2">
         <v>45692.80633101852</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H41" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I41" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J41" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K41" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L41" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3456,37 +3477,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E42" s="2">
         <v>45692.80944444444</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H42" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I42" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J42" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K42" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L42" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3494,37 +3515,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E43" s="2">
         <v>45692.81763888889</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H43" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I43" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J43" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K43" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L43" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3532,37 +3553,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E44" s="2">
         <v>45692.87376157408</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H44" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="J44" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K44" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L44" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3570,37 +3591,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E45" s="2">
         <v>45692.96108796296</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H45" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I45" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J45" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K45" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L45" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3608,37 +3629,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E46" s="2">
         <v>45693.06420138889</v>
       </c>
       <c r="F46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J46" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K46" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L46" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3646,37 +3667,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H47" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J47" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K47" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3684,37 +3705,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E48" s="2">
         <v>45693.39961805556</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H48" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J48" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K48" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L48" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3722,37 +3743,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E49" s="2">
         <v>45693.43087962963</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H49" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J49" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3760,37 +3781,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E50" s="2">
         <v>45693.58761574074</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H50" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L50" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3798,37 +3819,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E51" s="2">
         <v>45693.64649305555</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G51" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H51" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J51" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K51" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3836,37 +3857,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E52" s="2">
         <v>45693.70430555556</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G52" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H52" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="I52" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K52" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3874,37 +3895,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E53" s="2">
         <v>45693.72829861111</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H53" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I53" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J53" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3912,37 +3933,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2">
         <v>45693.80193287037</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H54" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I54" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3950,37 +3971,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E55" s="2">
         <v>45693.86711805555</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H55" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I55" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J55" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3988,37 +4009,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E56" s="2">
         <v>45694.63094907408</v>
       </c>
       <c r="F56" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H56" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I56" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4026,37 +4047,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E57" s="2">
         <v>45694.63903935185</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H57" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K57" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4064,34 +4085,34 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E58" s="2">
         <v>45694.6834375</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H58" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I58" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J58" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4099,37 +4120,37 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E59" s="2">
         <v>45694.73114583334</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H59" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I59" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4137,37 +4158,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E60" s="2">
         <v>45694.73248842593</v>
       </c>
       <c r="F60" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G60" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H60" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K60" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4175,37 +4196,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E61" s="2">
         <v>45698.84449074074</v>
       </c>
       <c r="F61" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G61" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H61" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J61" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4213,37 +4234,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2">
         <v>45698.85028935185</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G62" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I62" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K62" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4251,37 +4272,37 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E63" s="2">
         <v>45698.86278935185</v>
       </c>
       <c r="F63" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H63" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J63" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4289,37 +4310,37 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E64" s="2">
         <v>45699.45175925926</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H64" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I64" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J64" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L64" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4327,37 +4348,37 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E65" s="2">
         <v>45699.66027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G65" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H65" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4365,37 +4386,37 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E66" s="2">
         <v>45699.86270833333</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H66" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I66" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="J66" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K66" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L66" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4403,37 +4424,37 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E67" s="2">
         <v>45699.8799074074</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G67" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H67" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I67" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J67" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K67" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4441,37 +4462,37 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E68" s="2">
         <v>45699.89372685185</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G68" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I68" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J68" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4479,37 +4500,37 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E69" s="2">
         <v>45700.2384837963</v>
       </c>
       <c r="F69" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G69" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H69" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I69" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J69" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K69" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4517,37 +4538,37 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E70" s="2">
         <v>45700.24200231482</v>
       </c>
       <c r="F70" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G70" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H70" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="I70" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J70" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K70" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4555,37 +4576,37 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E71" s="2">
         <v>45700.24320601852</v>
       </c>
       <c r="F71" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H71" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I71" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J71" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K71" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4593,37 +4614,37 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E72" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="F72" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G72" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H72" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I72" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J72" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K72" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4631,37 +4652,37 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E73" s="2">
         <v>45701.55076388889</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G73" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H73" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I73" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J73" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K73" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L73" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4669,37 +4690,37 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E74" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G74" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="I74" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J74" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K74" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L74" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4707,37 +4728,37 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E75" s="2">
         <v>45701.7231712963</v>
       </c>
       <c r="F75" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G75" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H75" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I75" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="J75" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K75" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4745,37 +4766,37 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E76" s="2">
         <v>45701.75172453704</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G76" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H76" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="I76" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J76" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K76" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L76" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4783,37 +4804,113 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E77" s="2">
         <v>45702.16230324074</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G77" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H77" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I77" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J77" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K77" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s">
-        <v>492</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45702.40107638889</v>
+      </c>
+      <c r="F78" t="s">
+        <v>322</v>
+      </c>
+      <c r="G78" t="s">
+        <v>383</v>
+      </c>
+      <c r="H78" t="s">
+        <v>386</v>
+      </c>
+      <c r="I78" t="s">
+        <v>461</v>
+      </c>
+      <c r="J78" t="s">
+        <v>463</v>
+      </c>
+      <c r="K78" t="s">
+        <v>463</v>
+      </c>
+      <c r="L78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45702.71929398148</v>
+      </c>
+      <c r="F79" t="s">
+        <v>322</v>
+      </c>
+      <c r="G79" t="s">
+        <v>383</v>
+      </c>
+      <c r="H79" t="s">
+        <v>386</v>
+      </c>
+      <c r="I79" t="s">
+        <v>461</v>
+      </c>
+      <c r="J79" t="s">
+        <v>463</v>
+      </c>
+      <c r="K79" t="s">
+        <v>463</v>
+      </c>
+      <c r="L79" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="523">
   <si>
     <t>VQ#</t>
   </si>
@@ -1069,7 +1069,7 @@
     <t>pdu</t>
   </si>
   <si>
-    <t>under water locator beacon; beacon</t>
+    <t>beacon; under water locator beacon</t>
   </si>
   <si>
     <t>bpsu</t>
@@ -1153,7 +1153,7 @@
     <t>carbon brake; carbon brake; carbon brake</t>
   </si>
   <si>
-    <t>radio altimiter; fmc; motor converter; brake assy; control outflow valve; outflow valve; waste sys. vacuum blower</t>
+    <t>radio altimiter; fmc; motor converter; brake assy; outflow valve; control outflow valve; waste sys. vacuum blower</t>
   </si>
   <si>
     <t>reservoir hydraulic</t>
@@ -1477,37 +1477,73 @@
     <t>2024-10-28</t>
   </si>
   <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
     <t>2024-12-26</t>
   </si>
   <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
     <t>2024-09-26; 2024-09-26</t>
   </si>
   <si>
-    <t>2023-12</t>
-  </si>
-  <si>
-    <t>2022-11-22</t>
-  </si>
-  <si>
-    <t>2023-06-29; 2023-09-25</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2025-01-20; 2023-09-13</t>
-  </si>
-  <si>
-    <t>2009-02-12</t>
-  </si>
-  <si>
-    <t>2024-07-10; 2023-10-13</t>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-27; 2023-06-29</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-02-04; 2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-02-04; 2024-07-10; 2016-06-22</t>
   </si>
   <si>
     <t>U; N; K</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2025-02-05; 2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-10; 2025-02-10; 2023-08-08</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2024-07-26; 2024-07-31; 2024-04-30; 2024-12-26; 2023-08-31; 2024-01-24; 2020-10-30; 2024-10-08; 2014-08-28; 2019-03-01; 2024-01-08; 2024-10-14; 2024-10-24; 2021-10-11; 2022-11-02; 2024-03-25; 2024-10-31; 2024-06-06; 2024-01-05; 2025-01-20; 2024-07-02; 2024-09-09; 2024-07-15; 2024-11-07; 2024-06-28; 2024-08-15; 2023-12-06; 2025-01-28; 2024-07-24; 2023-12-13</t>
+  </si>
+  <si>
+    <t>6200-01-01; 6200-01-01; 6200-01-01</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-13; 2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
   </si>
   <si>
     <t>1; 1</t>
@@ -1987,7 +2023,7 @@
         <v>485</v>
       </c>
       <c r="L2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2025,7 +2061,7 @@
         <v>486</v>
       </c>
       <c r="L3" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2063,7 +2099,7 @@
         <v>486</v>
       </c>
       <c r="L4" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2098,10 +2134,10 @@
         <v>463</v>
       </c>
       <c r="K5" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="L5" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2136,10 +2172,10 @@
         <v>463</v>
       </c>
       <c r="K6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L6" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2174,10 +2210,10 @@
         <v>463</v>
       </c>
       <c r="K7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="L7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2212,10 +2248,10 @@
         <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="L8" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2253,7 +2289,7 @@
         <v>463</v>
       </c>
       <c r="L9" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2288,10 +2324,10 @@
         <v>463</v>
       </c>
       <c r="K10" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="L10" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2326,10 +2362,10 @@
         <v>462</v>
       </c>
       <c r="K11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L11" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2364,10 +2400,10 @@
         <v>465</v>
       </c>
       <c r="K12" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="L12" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2402,10 +2438,10 @@
         <v>466</v>
       </c>
       <c r="K13" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L13" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2443,7 +2479,7 @@
         <v>463</v>
       </c>
       <c r="L14" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2481,7 +2517,7 @@
         <v>463</v>
       </c>
       <c r="L15" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2516,10 +2552,10 @@
         <v>468</v>
       </c>
       <c r="K16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L16" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2554,10 +2590,10 @@
         <v>466</v>
       </c>
       <c r="K17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L17" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2595,7 +2631,7 @@
         <v>463</v>
       </c>
       <c r="L18" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2633,7 +2669,7 @@
         <v>463</v>
       </c>
       <c r="L19" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2671,7 +2707,7 @@
         <v>463</v>
       </c>
       <c r="L20" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2706,10 +2742,10 @@
         <v>463</v>
       </c>
       <c r="K21" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="L21" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2747,7 +2783,7 @@
         <v>463</v>
       </c>
       <c r="L22" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2782,10 +2818,10 @@
         <v>472</v>
       </c>
       <c r="K23" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L23" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2823,7 +2859,7 @@
         <v>463</v>
       </c>
       <c r="L24" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2861,7 +2897,7 @@
         <v>463</v>
       </c>
       <c r="L25" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2899,7 +2935,7 @@
         <v>463</v>
       </c>
       <c r="L26" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2937,7 +2973,7 @@
         <v>463</v>
       </c>
       <c r="L27" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2975,7 +3011,7 @@
         <v>463</v>
       </c>
       <c r="L28" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3013,7 +3049,7 @@
         <v>463</v>
       </c>
       <c r="L29" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3051,7 +3087,7 @@
         <v>463</v>
       </c>
       <c r="L30" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3086,10 +3122,10 @@
         <v>463</v>
       </c>
       <c r="K31" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="L31" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3124,10 +3160,10 @@
         <v>462</v>
       </c>
       <c r="K32" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="L32" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3165,7 +3201,7 @@
         <v>463</v>
       </c>
       <c r="L33" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3203,7 +3239,7 @@
         <v>463</v>
       </c>
       <c r="L34" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3241,7 +3277,7 @@
         <v>463</v>
       </c>
       <c r="L35" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3279,7 +3315,7 @@
         <v>463</v>
       </c>
       <c r="L36" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3317,7 +3353,7 @@
         <v>463</v>
       </c>
       <c r="L37" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3352,10 +3388,10 @@
         <v>468</v>
       </c>
       <c r="K38" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L38" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3393,7 +3429,7 @@
         <v>495</v>
       </c>
       <c r="L39" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3428,10 +3464,10 @@
         <v>475</v>
       </c>
       <c r="K40" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L40" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3466,10 +3502,10 @@
         <v>464</v>
       </c>
       <c r="K41" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L41" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3504,10 +3540,10 @@
         <v>464</v>
       </c>
       <c r="K42" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L42" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3542,10 +3578,10 @@
         <v>476</v>
       </c>
       <c r="K43" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="L43" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3583,7 +3619,7 @@
         <v>463</v>
       </c>
       <c r="L44" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3618,10 +3654,10 @@
         <v>463</v>
       </c>
       <c r="K45" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L45" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3656,10 +3692,10 @@
         <v>463</v>
       </c>
       <c r="K46" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L46" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3697,7 +3733,7 @@
         <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3735,7 +3771,7 @@
         <v>463</v>
       </c>
       <c r="L48" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3773,7 +3809,7 @@
         <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3808,10 +3844,10 @@
         <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="L50" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3849,7 +3885,7 @@
         <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3887,7 +3923,7 @@
         <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3925,7 +3961,7 @@
         <v>463</v>
       </c>
       <c r="L53" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3963,7 +3999,7 @@
         <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3998,10 +4034,10 @@
         <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="L55" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4039,7 +4075,7 @@
         <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4077,7 +4113,7 @@
         <v>463</v>
       </c>
       <c r="L57" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4112,7 +4148,7 @@
         <v>463</v>
       </c>
       <c r="L58" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4150,7 +4186,7 @@
         <v>463</v>
       </c>
       <c r="L59" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4188,7 +4224,7 @@
         <v>463</v>
       </c>
       <c r="L60" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4223,10 +4259,10 @@
         <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L61" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4264,7 +4300,7 @@
         <v>463</v>
       </c>
       <c r="L62" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4299,10 +4335,10 @@
         <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4337,10 +4373,10 @@
         <v>463</v>
       </c>
       <c r="K64" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="L64" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4378,7 +4414,7 @@
         <v>463</v>
       </c>
       <c r="L65" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4416,7 +4452,7 @@
         <v>463</v>
       </c>
       <c r="L66" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4454,7 +4490,7 @@
         <v>463</v>
       </c>
       <c r="L67" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4492,7 +4528,7 @@
         <v>463</v>
       </c>
       <c r="L68" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4530,7 +4566,7 @@
         <v>463</v>
       </c>
       <c r="L69" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4568,7 +4604,7 @@
         <v>463</v>
       </c>
       <c r="L70" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4606,7 +4642,7 @@
         <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4641,10 +4677,10 @@
         <v>482</v>
       </c>
       <c r="K72" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="L72" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4682,7 +4718,7 @@
         <v>463</v>
       </c>
       <c r="L73" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4717,10 +4753,10 @@
         <v>484</v>
       </c>
       <c r="K74" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4755,10 +4791,10 @@
         <v>463</v>
       </c>
       <c r="K75" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4793,10 +4829,10 @@
         <v>474</v>
       </c>
       <c r="K76" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="L76" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4831,10 +4867,10 @@
         <v>463</v>
       </c>
       <c r="K77" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4869,10 +4905,10 @@
         <v>463</v>
       </c>
       <c r="K78" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4907,10 +4943,10 @@
         <v>463</v>
       </c>
       <c r="K79" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="710">
   <si>
     <t>VQ#</t>
   </si>
@@ -25,12 +25,18 @@
     <t>PN</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Condition</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Cert</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>VQ0057</t>
   </si>
   <si>
+    <t>VQ0058</t>
+  </si>
+  <si>
     <t>VQ0059</t>
   </si>
   <si>
@@ -397,12 +406,12 @@
     <t>80-057-01</t>
   </si>
   <si>
+    <t>766088B</t>
+  </si>
+  <si>
     <t>766088C</t>
   </si>
   <si>
-    <t>766088B</t>
-  </si>
-  <si>
     <t>321-400-705-0</t>
   </si>
   <si>
@@ -559,12 +568,369 @@
     <t>52400-3</t>
   </si>
   <si>
+    <t>RECIRCULATION</t>
+  </si>
+  <si>
+    <t>VALVE, LDG CTRL</t>
+  </si>
+  <si>
+    <t>RECORDER, FLIGH</t>
+  </si>
+  <si>
+    <t>HEATER, FUEL SE</t>
+  </si>
+  <si>
+    <t>SERVO FUEL HEATER EM160357V</t>
+  </si>
+  <si>
+    <t>HEATER-SERVO</t>
+  </si>
+  <si>
+    <t>BOX ASSY-OXYG</t>
+  </si>
+  <si>
+    <t>HAZMAT FEE</t>
+  </si>
+  <si>
+    <t>VALVE-STARTER</t>
+  </si>
+  <si>
+    <t>GEN CNTRL UNIT</t>
+  </si>
+  <si>
+    <t>MODULE, AIR DATA</t>
+  </si>
+  <si>
+    <t>GCU-GENERATOR CONTROL UNIT</t>
+  </si>
+  <si>
+    <t>SPCU # STAND</t>
+  </si>
+  <si>
+    <t>HINGE FTG ASSY</t>
+  </si>
+  <si>
+    <t>BATTERY-MAIN</t>
+  </si>
+  <si>
+    <t>AIR DATA MODULE</t>
+  </si>
+  <si>
+    <t>SERVOCONTROL-EL</t>
+  </si>
+  <si>
+    <t>FUEL PUMP</t>
+  </si>
+  <si>
+    <t>COWL,INLET</t>
+  </si>
+  <si>
+    <t>MODULE ASSY CON</t>
+  </si>
+  <si>
+    <t>STRIKE ASSY-ELE</t>
+  </si>
+  <si>
+    <t>PLATE</t>
+  </si>
+  <si>
+    <t>SEAL PLATE</t>
+  </si>
+  <si>
+    <t>SEAL</t>
+  </si>
+  <si>
+    <t>STARTER</t>
+  </si>
+  <si>
+    <t>DC STARTER GENERATOR</t>
+  </si>
+  <si>
+    <t>BEARING, PLAIN</t>
+  </si>
+  <si>
+    <t>BUSHING</t>
+  </si>
+  <si>
+    <t>BUSHING SPOILER HINGE CRES</t>
+  </si>
+  <si>
+    <t>BUSHIN</t>
+  </si>
+  <si>
+    <t>BEARING</t>
+  </si>
+  <si>
+    <t>PLATE, EMBRAER</t>
+  </si>
+  <si>
+    <t>VALVE, AIR START</t>
+  </si>
+  <si>
+    <t>VALVE - AIR STA</t>
+  </si>
+  <si>
+    <t>SSFDR</t>
+  </si>
+  <si>
+    <t>FLIGHT DATA RECORDER</t>
+  </si>
+  <si>
+    <t>PDU, FLAP POWER DRIV</t>
+  </si>
+  <si>
+    <t>BRAKE POS SENSOR</t>
+  </si>
+  <si>
+    <t>ANTENNA</t>
+  </si>
+  <si>
+    <t>PROXIMITY SWITCH, ECAM, SINKING</t>
+  </si>
+  <si>
+    <t>MULTI PURPOSE CONTROL AND DISPLAY UNIT</t>
+  </si>
+  <si>
+    <t>Valve-Cowl Anti</t>
+  </si>
+  <si>
+    <t>ACTUATOR, RETRACTION</t>
+  </si>
+  <si>
+    <t>GEAR ASSY, MAIN LANDING (L/H)</t>
+  </si>
+  <si>
+    <t>GEAR ASSY, MAIN LANDING (R/H)</t>
+  </si>
+  <si>
+    <t>ACTUATOR-RUDDER TRIM</t>
+  </si>
+  <si>
+    <t>RECORDER: FLT DATA,SOLID STATE,SVC</t>
+  </si>
+  <si>
+    <t>ALTIMETER ANTENNA</t>
+  </si>
+  <si>
+    <t>INDICATOR</t>
+  </si>
+  <si>
+    <t>HEATER-SERVO FUEL</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>BOX ASSY-CABIN OXYGE</t>
+  </si>
+  <si>
+    <t>Pressure Trans</t>
+  </si>
+  <si>
+    <t>BEARING,SPHERICAL,SG</t>
+  </si>
+  <si>
+    <t>REGULATOR TRANSMITTER-PRESSURE</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>AVIONICS VENT FAN</t>
+  </si>
+  <si>
+    <t>PANEL ASSY RH</t>
+  </si>
+  <si>
+    <t>PROXIMITY SWITCH, EC</t>
+  </si>
+  <si>
+    <t>GENERATOR - INTEGRAT</t>
+  </si>
+  <si>
+    <t>I.D.G.</t>
+  </si>
+  <si>
+    <t>HYD DOOR ACTUAT</t>
+  </si>
+  <si>
+    <t>AUXILIARY GENERATOR</t>
+  </si>
+  <si>
+    <t>INTEGRATED DRIVE GEN</t>
+  </si>
+  <si>
+    <t>DIMMER MODULE*AB ETZ</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>EDW SWITCH / CONTROL</t>
+  </si>
+  <si>
+    <t>TRENT INLET</t>
+  </si>
+  <si>
+    <t>BRAKE UNIT</t>
+  </si>
+  <si>
+    <t>ACTUATOR</t>
+  </si>
+  <si>
+    <t>SLIDE, RAFT</t>
+  </si>
+  <si>
+    <t>VACUUM GENERATOR</t>
+  </si>
+  <si>
+    <t>VALVE, TRANSIENT BLEED</t>
+  </si>
+  <si>
+    <t>VALVE, SHUTOFF, NGS</t>
+  </si>
+  <si>
+    <t>CONTROL PANEL NAV</t>
+  </si>
+  <si>
+    <t>SDCU</t>
+  </si>
+  <si>
+    <t>EXTINGUISHER FIRE CARGO COMPARTMENT</t>
+  </si>
+  <si>
+    <t>VALVE OUTLINE, CHECK, 3.0 INCH DIA</t>
+  </si>
+  <si>
+    <t>PRIMARY DOOR LOCK</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>CABIN TEMP CONTROL</t>
+  </si>
+  <si>
+    <t>COOLING FAN</t>
+  </si>
+  <si>
+    <t>RADIO TUNING UNIT,GY,PL4 LTG,8.33K</t>
+  </si>
+  <si>
+    <t>OVEN - STEAM</t>
+  </si>
+  <si>
+    <t>FIREX, 1400 CUIN.SINGLE OUTLET</t>
+  </si>
+  <si>
+    <t>PUMP, FUEL BOOST</t>
+  </si>
+  <si>
+    <t>VALVE</t>
+  </si>
+  <si>
+    <t>BRAKE, WING TIP</t>
+  </si>
+  <si>
+    <t>VALVE, ANTI-ICE</t>
+  </si>
+  <si>
+    <t>APU STAND</t>
+  </si>
+  <si>
+    <t>DME INTERROGATOR</t>
+  </si>
+  <si>
+    <t>INDICATOR, FUEL LOAD</t>
+  </si>
+  <si>
+    <t>DETECTOR</t>
+  </si>
+  <si>
+    <t>PUMP, HYDR, AC DRIVEN</t>
+  </si>
+  <si>
+    <t>SFCC COMPUTER</t>
+  </si>
+  <si>
+    <t>EXCITER</t>
+  </si>
+  <si>
+    <t>CARBON BRAKE (NO SHIM)</t>
+  </si>
+  <si>
+    <t>CARBON BRAKE</t>
+  </si>
+  <si>
+    <t>VACUUM BLOWER</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>MOTOR/CONVERTER ASSY</t>
+  </si>
+  <si>
+    <t>BRAKE</t>
+  </si>
+  <si>
+    <t>VALVE, OUTFLOW</t>
+  </si>
+  <si>
+    <t>RADIO ALTIMETER</t>
+  </si>
+  <si>
+    <t>EFIS CONTROL PANEL</t>
+  </si>
+  <si>
+    <t>STABILIZER TRIM MOTOR</t>
+  </si>
+  <si>
+    <t>FLIGHT MANAGEMENT CO</t>
+  </si>
+  <si>
+    <t>RESERVOIR, HYDRAULIC BRAKE</t>
+  </si>
+  <si>
+    <t>LIFEVEST BOX ASSY</t>
+  </si>
+  <si>
+    <t>Brake Assy, A320</t>
+  </si>
+  <si>
+    <t>STRUT ASSY, MLG DRESSED SHOCK 34 IN TIRE</t>
+  </si>
+  <si>
+    <t>WINDOW COPILOT SIDE</t>
+  </si>
+  <si>
+    <t>BRAKE ASSY</t>
+  </si>
+  <si>
+    <t>AC GENERATOR</t>
+  </si>
+  <si>
+    <t>STARTER GENERATOR</t>
+  </si>
+  <si>
+    <t>WHEEL, NLG</t>
+  </si>
+  <si>
+    <t>WHEEL, MLG 34"</t>
+  </si>
+  <si>
+    <t>STARTER GENERATOR - APU DC</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
     <t>SV</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>XX</t>
   </si>
   <si>
@@ -715,6 +1081,9 @@
     <t>52492.00</t>
   </si>
   <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>3730.00</t>
   </si>
   <si>
@@ -730,6 +1099,9 @@
     <t>12950</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>15000.00</t>
   </si>
   <si>
@@ -751,9 +1123,6 @@
     <t>21500.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3500.00</t>
-  </si>
-  <si>
     <t>5000.00</t>
   </si>
   <si>
@@ -772,9 +1141,6 @@
     <t>21960.00</t>
   </si>
   <si>
-    <t>14500.0000</t>
-  </si>
-  <si>
     <t>18999</t>
   </si>
   <si>
@@ -943,6 +1309,69 @@
     <t>24000</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1 EA</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18,999</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>AIRCRAFT COMPONENT SERVICES</t>
   </si>
   <si>
@@ -967,9 +1396,6 @@
     <t>DUAL</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>Aero-mark MRO, LLC dba Fairhope Aerospace (Formerly CAS)</t>
   </si>
   <si>
@@ -994,12 +1420,6 @@
     <t>JJA Aviation, Inc</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>Foreign</t>
   </si>
   <si>
@@ -1018,7 +1438,7 @@
     <t>EASA</t>
   </si>
   <si>
-    <t>Embraer ANAC/SEGVOO</t>
+    <t>Embraer ANAC/SEGVOO form A</t>
   </si>
   <si>
     <t>COC Manuf.</t>
@@ -1027,9 +1447,18 @@
     <t>Embraer ANAC/SEGVOO form</t>
   </si>
   <si>
+    <t>OEM trace and certs</t>
+  </si>
+  <si>
     <t>8130/EASA</t>
   </si>
   <si>
+    <t>Trace, OEM Packaging, PN on Part</t>
+  </si>
+  <si>
+    <t>OEM Packaging</t>
+  </si>
+  <si>
     <t>OEM 8130-3</t>
   </si>
   <si>
@@ -1069,7 +1498,7 @@
     <t>8130-3 DUAL</t>
   </si>
   <si>
-    <t>ALASKA AIRLINES</t>
+    <t>FRESH DUAL RELEASE 8130-3</t>
   </si>
   <si>
     <t>Manufacturers C of C</t>
@@ -1084,9 +1513,6 @@
     <t>Aircraft Interiors Unlimited</t>
   </si>
   <si>
-    <t>L.J. Walch Co., Inc.</t>
-  </si>
-  <si>
     <t>AE&amp;C SERVICES</t>
   </si>
   <si>
@@ -1135,6 +1561,9 @@
     <t>Q400121</t>
   </si>
   <si>
+    <t>CRJ1200121</t>
+  </si>
+  <si>
     <t>Q400145</t>
   </si>
   <si>
@@ -1231,9 +1660,6 @@
     <t>2022-07</t>
   </si>
   <si>
-    <t>2022-01</t>
-  </si>
-  <si>
     <t>2024-02</t>
   </si>
   <si>
@@ -1276,10 +1702,10 @@
     <t>2024-10-08</t>
   </si>
   <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2019-03</t>
+    <t>2014-08-28</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
   </si>
   <si>
     <t>2024-01-08</t>
@@ -1342,6 +1768,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
     <t>2004-02-11</t>
   </si>
   <si>
@@ -1655,6 +2087,9 @@
   </si>
   <si>
     <t>RE: RFQ -  From Atlantic Jet Support,LLC Entry Code:8HLV-55WC-VL3C/ sq 13270690</t>
+  </si>
+  <si>
+    <t>Quote Received - RFQ No:ILSBL4L250206091154</t>
   </si>
   <si>
     <t>Quote for RCF6708////////////////////////RFQ ILSBL4L250206091154</t>
@@ -2070,13 +2505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,4313 +2539,5255 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>517</v>
+      </c>
+      <c r="J2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>45684.32148148148</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>518</v>
+      </c>
+      <c r="J3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>45685.37863425926</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="H4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>519</v>
+      </c>
+      <c r="J4" t="s">
+        <v>593</v>
+      </c>
+      <c r="K4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>45692.32681712963</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="H5" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="I5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>519</v>
+      </c>
+      <c r="J5" t="s">
+        <v>593</v>
+      </c>
+      <c r="K5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>45692.79873842592</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="H6" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="I6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>594</v>
+      </c>
+      <c r="K6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>45693.7866087963</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G7" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="H7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>521</v>
+      </c>
+      <c r="J7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>45693.81553240741</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="I8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>522</v>
+      </c>
+      <c r="J8" t="s">
+        <v>596</v>
+      </c>
+      <c r="K8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>45693.85318287037</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="H9" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>523</v>
+      </c>
+      <c r="J9" t="s">
+        <v>597</v>
+      </c>
+      <c r="K9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="H10" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>524</v>
+      </c>
+      <c r="J10" t="s">
+        <v>598</v>
+      </c>
+      <c r="K10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>45694.69540509259</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="I11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J11" t="s">
+        <v>598</v>
+      </c>
+      <c r="K11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>45698.4658449074</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="H12" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>595</v>
+      </c>
+      <c r="K12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="F13" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="H13" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="I13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>526</v>
+      </c>
+      <c r="J13" t="s">
+        <v>593</v>
+      </c>
+      <c r="K13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>45684.31672453704</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="H14" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="I14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>526</v>
+      </c>
+      <c r="J14" t="s">
+        <v>593</v>
+      </c>
+      <c r="K14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>45684.32626157408</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="H15" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="I15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>527</v>
+      </c>
+      <c r="J15" t="s">
+        <v>593</v>
+      </c>
+      <c r="K15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>45684.48739583333</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G16" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="H16" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="I16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>528</v>
+      </c>
+      <c r="J16" t="s">
+        <v>593</v>
+      </c>
+      <c r="K16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>45684.50364583333</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G17" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="I17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J17" t="s">
+        <v>593</v>
+      </c>
+      <c r="K17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>45684.5580787037</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H18" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="I18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J18" t="s">
+        <v>593</v>
+      </c>
+      <c r="K18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G19" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="H19" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="I19" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>529</v>
+      </c>
+      <c r="J19" t="s">
+        <v>599</v>
+      </c>
+      <c r="K19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>45684.78278935186</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="F20" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="H20" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="I20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>530</v>
+      </c>
+      <c r="J20" t="s">
+        <v>599</v>
+      </c>
+      <c r="K20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>45686.55545138889</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G21" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="H21" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="I21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>531</v>
+      </c>
+      <c r="J21" t="s">
+        <v>593</v>
+      </c>
+      <c r="K21" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="H22" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>532</v>
+      </c>
+      <c r="J22" t="s">
+        <v>600</v>
+      </c>
+      <c r="K22" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="H23" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>533</v>
+      </c>
+      <c r="J23" t="s">
+        <v>600</v>
+      </c>
+      <c r="K23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="F24" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="H24" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="I24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>532</v>
+      </c>
+      <c r="J24" t="s">
+        <v>600</v>
+      </c>
+      <c r="K24" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G25" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="I25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>534</v>
+      </c>
+      <c r="J25" t="s">
+        <v>600</v>
+      </c>
+      <c r="K25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>45691.56269675926</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G26" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="H26" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="I26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>535</v>
+      </c>
+      <c r="J26" t="s">
+        <v>600</v>
+      </c>
+      <c r="K26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G27" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H27" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="I27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J27" t="s">
+        <v>601</v>
+      </c>
+      <c r="K27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>45692.25903935185</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G28" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="H28" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="I28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J28" t="s">
+        <v>601</v>
+      </c>
+      <c r="K28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="G29" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H29" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="I29" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J29" t="s">
+        <v>602</v>
+      </c>
+      <c r="K29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>45692.26055555556</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="G30" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="I30" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J30" t="s">
+        <v>602</v>
+      </c>
+      <c r="K30" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>45692.42583333333</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G31" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H31" t="s">
-        <v>459</v>
+        <v>361</v>
       </c>
       <c r="I31" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J31" t="s">
+        <v>603</v>
+      </c>
+      <c r="K31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>45692.46796296296</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="G32" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="H32" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="I32" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J32" t="s">
+        <v>604</v>
+      </c>
+      <c r="K32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>45692.49587962963</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="H33" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="I33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>536</v>
+      </c>
+      <c r="J33" t="s">
+        <v>605</v>
+      </c>
+      <c r="K33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>45692.56474537037</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="H34" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I34" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J34" t="s">
+        <v>606</v>
+      </c>
+      <c r="K34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>45692.60631944444</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="H35" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="I35" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J35" t="s">
+        <v>607</v>
+      </c>
+      <c r="K35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>45692.60633101852</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>439</v>
       </c>
       <c r="H36" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J36" t="s">
+        <v>604</v>
+      </c>
+      <c r="K36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>45692.60891203704</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="H37" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I37" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J37" t="s">
+        <v>608</v>
+      </c>
+      <c r="K37" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="H38" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="I38" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J38" t="s">
+        <v>607</v>
+      </c>
+      <c r="K38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>45692.61060185185</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="H39" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="I39" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J39" t="s">
+        <v>607</v>
+      </c>
+      <c r="K39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>45692.6147337963</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="H40" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="I40" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>602</v>
+      </c>
+      <c r="K40" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>45692.6147337963</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="H41" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="I41" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J41" t="s">
+        <v>602</v>
+      </c>
+      <c r="K41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2">
         <v>45692.69200231481</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
-        <v>317</v>
+        <v>444</v>
       </c>
       <c r="H42" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="I42" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>609</v>
+      </c>
+      <c r="K42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>45692.69548611111</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="H43" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="I43" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>609</v>
+      </c>
+      <c r="K43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2">
         <v>45692.70827546297</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="H44" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I44" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>610</v>
+      </c>
+      <c r="K44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H45" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="I45" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>611</v>
+      </c>
+      <c r="K45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>45692.77167824074</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H46" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="I46" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>611</v>
+      </c>
+      <c r="K46" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>45692.77333333333</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H47" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="I47" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J47" t="s">
+        <v>612</v>
+      </c>
+      <c r="K47" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="G48" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="H48" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="I48" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>537</v>
+      </c>
+      <c r="J48" t="s">
+        <v>613</v>
+      </c>
+      <c r="K48" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>45692.78371527778</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>219</v>
+      </c>
+      <c r="E49" t="s">
+        <v>312</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="G49" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="H49" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="I49" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J49" t="s">
+        <v>613</v>
+      </c>
+      <c r="K49" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2">
         <v>45692.78693287037</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="I50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>538</v>
+      </c>
+      <c r="J50" t="s">
+        <v>614</v>
+      </c>
+      <c r="K50" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>45692.79625</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="H51" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="I51" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>539</v>
+      </c>
+      <c r="J51" t="s">
+        <v>609</v>
+      </c>
+      <c r="K51" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2">
         <v>45692.79625</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G52" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H52" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="I52" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>540</v>
+      </c>
+      <c r="J52" t="s">
+        <v>609</v>
+      </c>
+      <c r="K52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2">
         <v>45692.79646990741</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="G53" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="H53" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="I53" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>541</v>
+      </c>
+      <c r="J53" t="s">
+        <v>609</v>
+      </c>
+      <c r="K53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="G54" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="H54" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="I54" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>542</v>
+      </c>
+      <c r="J54" t="s">
+        <v>609</v>
+      </c>
+      <c r="K54" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H55" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="I55" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J55" t="s">
+        <v>609</v>
+      </c>
+      <c r="K55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="H56" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="I56" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>543</v>
+      </c>
+      <c r="J56" t="s">
+        <v>609</v>
+      </c>
+      <c r="K56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2">
         <v>45692.79915509259</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G57" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="H57" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="I57" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>544</v>
+      </c>
+      <c r="J57" t="s">
+        <v>609</v>
+      </c>
+      <c r="K57" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2">
         <v>45692.81763888889</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G58" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H58" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="I58" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J58" t="s">
+        <v>615</v>
+      </c>
+      <c r="K58" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
         <v>45692.87376157408</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G59" t="s">
-        <v>317</v>
+        <v>432</v>
       </c>
       <c r="H59" t="s">
-        <v>472</v>
+        <v>361</v>
       </c>
       <c r="I59" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J59" t="s">
+        <v>616</v>
+      </c>
+      <c r="K59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H60" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I60" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J60" t="s">
+        <v>617</v>
+      </c>
+      <c r="K60" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G61" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H61" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I61" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J61" t="s">
+        <v>617</v>
+      </c>
+      <c r="K61" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="F62" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G62" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="H62" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I62" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J62" t="s">
+        <v>617</v>
+      </c>
+      <c r="K62" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G63" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H63" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I63" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J63" t="s">
+        <v>617</v>
+      </c>
+      <c r="K63" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F64" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="H64" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I64" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J64" t="s">
+        <v>617</v>
+      </c>
+      <c r="K64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H65" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I65" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J65" t="s">
+        <v>617</v>
+      </c>
+      <c r="K65" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2">
         <v>45693.25177083333</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="F66" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="H66" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="I66" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J66" t="s">
+        <v>617</v>
+      </c>
+      <c r="K66" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2">
         <v>45693.39961805556</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="H67" t="s">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="I67" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J67" t="s">
+        <v>618</v>
+      </c>
+      <c r="K67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2">
         <v>45693.43087962963</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G68" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H68" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="I68" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J68" t="s">
+        <v>604</v>
+      </c>
+      <c r="K68" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2">
         <v>45693.58761574074</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="G69" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I69" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>545</v>
+      </c>
+      <c r="J69" t="s">
+        <v>619</v>
+      </c>
+      <c r="K69" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2">
         <v>45693.64649305555</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E70" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="G70" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I70" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>546</v>
+      </c>
+      <c r="J70" t="s">
+        <v>614</v>
+      </c>
+      <c r="K70" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" s="2">
         <v>45693.70430555556</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="G71" t="s">
-        <v>317</v>
+        <v>446</v>
       </c>
       <c r="H71" t="s">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J71" t="s">
+        <v>620</v>
+      </c>
+      <c r="K71" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B72" s="2">
         <v>45693.72829861111</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="E72" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="G72" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H72" t="s">
-        <v>477</v>
+        <v>361</v>
       </c>
       <c r="I72" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J72" t="s">
+        <v>621</v>
+      </c>
+      <c r="K72" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B73" s="2">
         <v>45693.80193287037</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="F73" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G73" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="H73" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="I73" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>547</v>
+      </c>
+      <c r="J73" t="s">
+        <v>614</v>
+      </c>
+      <c r="K73" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2">
         <v>45693.86711805555</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="G74" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="H74" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="I74" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J74" t="s">
+        <v>622</v>
+      </c>
+      <c r="K74" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B75" s="2">
         <v>45694.63094907408</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="E75" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="G75" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H75" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
       <c r="I75" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J75" t="s">
+        <v>623</v>
+      </c>
+      <c r="K75" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B76" s="2">
         <v>45694.63903935185</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="F76" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H76" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="I76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B77" s="2">
         <v>45694.63903935185</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="G77" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H77" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="I77" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J77" t="s">
+        <v>624</v>
+      </c>
+      <c r="K77" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B78" s="2">
         <v>45694.6834375</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="H78" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="I78" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K78" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2">
+        <v>45694.73114583334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" t="s">
+        <v>361</v>
+      </c>
+      <c r="I79" t="s">
+        <v>361</v>
+      </c>
+      <c r="J79" t="s">
+        <v>614</v>
+      </c>
+      <c r="K79" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="2">
         <v>45694.73248842593</v>
       </c>
-      <c r="C79" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" t="s">
-        <v>258</v>
-      </c>
-      <c r="F79" t="s">
-        <v>353</v>
-      </c>
-      <c r="G79" t="s">
-        <v>406</v>
-      </c>
-      <c r="H79" t="s">
-        <v>482</v>
-      </c>
-      <c r="I79" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="2">
-        <v>45698.85028935185</v>
-      </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="G80" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H80" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="I80" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B81" s="2">
+        <v>45698.85028935185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" t="s">
+        <v>312</v>
+      </c>
+      <c r="G81" t="s">
+        <v>431</v>
+      </c>
+      <c r="H81" t="s">
+        <v>361</v>
+      </c>
+      <c r="I81" t="s">
+        <v>361</v>
+      </c>
+      <c r="J81" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="2">
         <v>45698.86278935185</v>
       </c>
-      <c r="C81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" t="s">
-        <v>259</v>
-      </c>
-      <c r="F81" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" t="s">
-        <v>407</v>
-      </c>
-      <c r="H81" t="s">
-        <v>484</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" t="s">
+        <v>381</v>
+      </c>
+      <c r="G82" t="s">
+        <v>431</v>
+      </c>
+      <c r="H82" t="s">
+        <v>497</v>
+      </c>
+      <c r="I82" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="J82" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="2">
         <v>45699.45175925926</v>
       </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" t="s">
-        <v>260</v>
-      </c>
-      <c r="F82" t="s">
-        <v>355</v>
-      </c>
-      <c r="G82" t="s">
-        <v>408</v>
-      </c>
-      <c r="H82" t="s">
-        <v>485</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" t="s">
+        <v>431</v>
+      </c>
+      <c r="H83" t="s">
+        <v>498</v>
+      </c>
+      <c r="I83" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="J83" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="2">
         <v>45699.66027777778</v>
       </c>
-      <c r="C83" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" t="s">
-        <v>188</v>
-      </c>
-      <c r="E83" t="s">
-        <v>261</v>
-      </c>
-      <c r="F83" t="s">
-        <v>317</v>
-      </c>
-      <c r="G83" t="s">
-        <v>317</v>
-      </c>
-      <c r="H83" t="s">
-        <v>460</v>
-      </c>
-      <c r="I83" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="2">
-        <v>45699.86270833333</v>
-      </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="F84" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="H84" t="s">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="I84" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J84" t="s">
+        <v>604</v>
+      </c>
+      <c r="K84" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2">
         <v>45699.86270833333</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>243</v>
+      </c>
+      <c r="E85" t="s">
+        <v>302</v>
       </c>
       <c r="F85" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G85" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H85" t="s">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="I85" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2">
         <v>45699.86270833333</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>244</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H86" t="s">
-        <v>486</v>
+        <v>303</v>
       </c>
       <c r="I86" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
+      </c>
+      <c r="K86" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B87" s="2">
         <v>45699.8799074074</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="G87" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I87" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>551</v>
+      </c>
+      <c r="J87" t="s">
+        <v>631</v>
+      </c>
+      <c r="K87" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B88" s="2">
         <v>45699.8799074074</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="G88" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="H88" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I88" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>534</v>
+      </c>
+      <c r="J88" t="s">
+        <v>631</v>
+      </c>
+      <c r="K88" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B89" s="2">
         <v>45699.89372685185</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G89" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="H89" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="I89" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>552</v>
+      </c>
+      <c r="J89" t="s">
+        <v>604</v>
+      </c>
+      <c r="K89" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B90" s="2">
         <v>45699.89372685185</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F90" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="G90" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="H90" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="I90" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>553</v>
+      </c>
+      <c r="J90" t="s">
+        <v>604</v>
+      </c>
+      <c r="K90" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B91" s="2">
         <v>45699.89372685185</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F91" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="G91" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="H91" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="I91" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>604</v>
+      </c>
+      <c r="K91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B92" s="2">
         <v>45700.2384837963</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="G92" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="H92" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
       <c r="I92" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J92" t="s">
+        <v>623</v>
+      </c>
+      <c r="K92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B93" s="2">
         <v>45700.24200231482</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="G93" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="H93" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="I93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J93" t="s">
+        <v>608</v>
+      </c>
+      <c r="K93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B94" s="2">
         <v>45700.24320601852</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F94" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G94" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="H94" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="I94" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J94" t="s">
+        <v>602</v>
+      </c>
+      <c r="K94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B95" s="2">
         <v>45700.24320601852</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G95" t="s">
-        <v>317</v>
+        <v>449</v>
       </c>
       <c r="H95" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="I95" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J95" t="s">
+        <v>602</v>
+      </c>
+      <c r="K95" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B96" s="2">
         <v>45700.24320601852</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G96" t="s">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="H96" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="I96" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J96" t="s">
+        <v>602</v>
+      </c>
+      <c r="K96" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B97" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F97" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="G97" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="H97" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I97" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>555</v>
+      </c>
+      <c r="J97" t="s">
+        <v>632</v>
+      </c>
+      <c r="K97" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B98" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="G98" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="H98" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I98" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>556</v>
+      </c>
+      <c r="J98" t="s">
+        <v>632</v>
+      </c>
+      <c r="K98" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B99" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="F99" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="G99" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="H99" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I99" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>557</v>
+      </c>
+      <c r="J99" t="s">
+        <v>632</v>
+      </c>
+      <c r="K99" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B100" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="G100" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="H100" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I100" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>521</v>
+      </c>
+      <c r="J100" t="s">
+        <v>632</v>
+      </c>
+      <c r="K100" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="G101" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H101" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="I101" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="s">
+        <v>632</v>
+      </c>
+      <c r="K101" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="G102" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="H102" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I102" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>559</v>
+      </c>
+      <c r="J102" t="s">
+        <v>632</v>
+      </c>
+      <c r="K102" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B103" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F103" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="G103" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="H103" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I103" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>560</v>
+      </c>
+      <c r="J103" t="s">
+        <v>632</v>
+      </c>
+      <c r="K103" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B104" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="G104" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="H104" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I104" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>561</v>
+      </c>
+      <c r="J104" t="s">
+        <v>632</v>
+      </c>
+      <c r="K104" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B105" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="G105" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="H105" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I105" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>562</v>
+      </c>
+      <c r="J105" t="s">
+        <v>632</v>
+      </c>
+      <c r="K105" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B106" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="G106" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="H106" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I106" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>563</v>
+      </c>
+      <c r="J106" t="s">
+        <v>632</v>
+      </c>
+      <c r="K106" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B107" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="G107" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="H107" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I107" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>564</v>
+      </c>
+      <c r="J107" t="s">
+        <v>632</v>
+      </c>
+      <c r="K107" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B108" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="F108" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="G108" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="H108" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I108" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>565</v>
+      </c>
+      <c r="J108" t="s">
+        <v>632</v>
+      </c>
+      <c r="K108" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B109" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="G109" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="H109" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I109" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>566</v>
+      </c>
+      <c r="J109" t="s">
+        <v>632</v>
+      </c>
+      <c r="K109" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B110" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="G110" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="H110" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="I110" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>567</v>
+      </c>
+      <c r="J110" t="s">
+        <v>632</v>
+      </c>
+      <c r="K110" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B111" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="G111" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="H111" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I111" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>568</v>
+      </c>
+      <c r="J111" t="s">
+        <v>632</v>
+      </c>
+      <c r="K111" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B112" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="E112" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="F112" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="G112" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="H112" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I112" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>569</v>
+      </c>
+      <c r="J112" t="s">
+        <v>632</v>
+      </c>
+      <c r="K112" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B113" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F113" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="G113" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="H113" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I113" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>570</v>
+      </c>
+      <c r="J113" t="s">
+        <v>632</v>
+      </c>
+      <c r="K113" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B114" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D114" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="G114" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="H114" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I114" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>571</v>
+      </c>
+      <c r="J114" t="s">
+        <v>632</v>
+      </c>
+      <c r="K114" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B115" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="G115" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="H115" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I115" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>572</v>
+      </c>
+      <c r="J115" t="s">
+        <v>632</v>
+      </c>
+      <c r="K115" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B116" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D116" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E116" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="G116" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="H116" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I116" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>539</v>
+      </c>
+      <c r="J116" t="s">
+        <v>632</v>
+      </c>
+      <c r="K116" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B117" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C117" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="G117" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H117" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I117" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>573</v>
+      </c>
+      <c r="J117" t="s">
+        <v>632</v>
+      </c>
+      <c r="K117" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="G118" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H118" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I118" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>574</v>
+      </c>
+      <c r="J118" t="s">
+        <v>632</v>
+      </c>
+      <c r="K118" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B119" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="E119" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="G119" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="H119" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I119" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>575</v>
+      </c>
+      <c r="J119" t="s">
+        <v>632</v>
+      </c>
+      <c r="K119" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B120" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="E120" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F120" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="G120" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H120" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I120" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>576</v>
+      </c>
+      <c r="J120" t="s">
+        <v>632</v>
+      </c>
+      <c r="K120" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B121" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="E121" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="H121" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I121" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J121" t="s">
+        <v>632</v>
+      </c>
+      <c r="K121" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B122" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="E122" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F122" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="G122" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="H122" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I122" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>577</v>
+      </c>
+      <c r="J122" t="s">
+        <v>632</v>
+      </c>
+      <c r="K122" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B123" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="E123" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F123" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="G123" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H123" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I123" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>578</v>
+      </c>
+      <c r="J123" t="s">
+        <v>632</v>
+      </c>
+      <c r="K123" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B124" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="G124" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="H124" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I124" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>579</v>
+      </c>
+      <c r="J124" t="s">
+        <v>632</v>
+      </c>
+      <c r="K124" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B125" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="G125" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H125" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I125" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>580</v>
+      </c>
+      <c r="J125" t="s">
+        <v>632</v>
+      </c>
+      <c r="K125" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B126" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D126" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="E126" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="G126" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H126" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I126" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>581</v>
+      </c>
+      <c r="J126" t="s">
+        <v>632</v>
+      </c>
+      <c r="K126" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B127" s="2">
         <v>45700.96126157408</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="E127" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F127" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="G127" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H127" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="I127" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>582</v>
+      </c>
+      <c r="J127" t="s">
+        <v>632</v>
+      </c>
+      <c r="K127" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B128" s="2">
         <v>45701.55076388889</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D128" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F128" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="G128" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H128" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="I128" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>583</v>
+      </c>
+      <c r="J128" t="s">
+        <v>633</v>
+      </c>
+      <c r="K128" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B129" s="2">
         <v>45701.55076388889</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D129" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F129" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="G129" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H129" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="I129" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>583</v>
+      </c>
+      <c r="J129" t="s">
+        <v>633</v>
+      </c>
+      <c r="K129" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B130" s="2">
         <v>45701.55076388889</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="E130" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F130" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="G130" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H130" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="I130" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>583</v>
+      </c>
+      <c r="J130" t="s">
+        <v>633</v>
+      </c>
+      <c r="K130" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B131" s="2">
         <v>45701.55076388889</v>
       </c>
       <c r="C131" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="E131" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F131" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="G131" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H131" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="I131" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>583</v>
+      </c>
+      <c r="J131" t="s">
+        <v>633</v>
+      </c>
+      <c r="K131" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B132" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>282</v>
+      </c>
+      <c r="E132" t="s">
+        <v>302</v>
       </c>
       <c r="F132" t="s">
         <v>361</v>
       </c>
       <c r="G132" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H132" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="I132" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J132" t="s">
+        <v>634</v>
+      </c>
+      <c r="K132" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B133" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>283</v>
+      </c>
+      <c r="E133" t="s">
+        <v>306</v>
       </c>
       <c r="F133" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G133" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H133" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="I133" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>534</v>
+      </c>
+      <c r="J133" t="s">
+        <v>634</v>
+      </c>
+      <c r="K133" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B134" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>284</v>
+      </c>
+      <c r="E134" t="s">
+        <v>306</v>
       </c>
       <c r="F134" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G134" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H134" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="I134" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>534</v>
+      </c>
+      <c r="J134" t="s">
+        <v>634</v>
+      </c>
+      <c r="K134" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B135" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D135" t="s">
-        <v>181</v>
+        <v>285</v>
+      </c>
+      <c r="E135" t="s">
+        <v>302</v>
       </c>
       <c r="F135" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G135" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H135" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="I135" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>533</v>
+      </c>
+      <c r="J135" t="s">
+        <v>634</v>
+      </c>
+      <c r="K135" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B136" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>181</v>
+        <v>286</v>
+      </c>
+      <c r="E136" t="s">
+        <v>302</v>
       </c>
       <c r="F136" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G136" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H136" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="I136" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>584</v>
+      </c>
+      <c r="J136" t="s">
+        <v>634</v>
+      </c>
+      <c r="K136" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B137" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>287</v>
+      </c>
+      <c r="E137" t="s">
+        <v>316</v>
       </c>
       <c r="F137" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G137" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H137" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="I137" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>584</v>
+      </c>
+      <c r="J137" t="s">
+        <v>634</v>
+      </c>
+      <c r="K137" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B138" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D138" t="s">
-        <v>184</v>
+        <v>288</v>
+      </c>
+      <c r="E138" t="s">
+        <v>306</v>
       </c>
       <c r="F138" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G138" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H138" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="I138" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>584</v>
+      </c>
+      <c r="J138" t="s">
+        <v>634</v>
+      </c>
+      <c r="K138" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B139" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D139" t="s">
-        <v>194</v>
+        <v>289</v>
+      </c>
+      <c r="E139" t="s">
+        <v>316</v>
       </c>
       <c r="F139" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G139" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H139" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="I139" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>532</v>
+      </c>
+      <c r="J139" t="s">
+        <v>634</v>
+      </c>
+      <c r="K139" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B140" s="2">
         <v>45701.56765046297</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D140" t="s">
-        <v>195</v>
+        <v>290</v>
+      </c>
+      <c r="E140" t="s">
+        <v>317</v>
       </c>
       <c r="F140" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G140" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H140" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="I140" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>585</v>
+      </c>
+      <c r="J140" t="s">
+        <v>634</v>
+      </c>
+      <c r="K140" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B141" s="2">
         <v>45701.7231712963</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="E141" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="F141" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="G141" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H141" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="I141" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>586</v>
+      </c>
+      <c r="J141" t="s">
+        <v>635</v>
+      </c>
+      <c r="K141" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B142" s="2">
         <v>45701.75172453704</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
-      </c>
-      <c r="E142" t="s">
-        <v>300</v>
+        <v>175</v>
+      </c>
+      <c r="D142" t="s">
+        <v>292</v>
       </c>
       <c r="F142" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="G142" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="H142" t="s">
-        <v>492</v>
+        <v>361</v>
       </c>
       <c r="I142" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J142" t="s">
+        <v>636</v>
+      </c>
+      <c r="K142" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B143" s="2">
         <v>45702.16230324074</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D143" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="E143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="G143" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H143" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="I143" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>587</v>
+      </c>
+      <c r="J143" t="s">
+        <v>637</v>
+      </c>
+      <c r="K143" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B144" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C144" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="E144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F144" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="G144" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="H144" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="I144" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>588</v>
+      </c>
+      <c r="J144" t="s">
+        <v>638</v>
+      </c>
+      <c r="K144" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B145" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="E145" t="s">
         <v>303</v>
       </c>
       <c r="F145" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="G145" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H145" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="I145" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J145" t="s">
+        <v>638</v>
+      </c>
+      <c r="K145" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B146" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="E146" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F146" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="G146" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H146" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="I146" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>589</v>
+      </c>
+      <c r="J146" t="s">
+        <v>638</v>
+      </c>
+      <c r="K146" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B147" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D147" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="E147" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F147" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="G147" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="H147" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="I147" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>590</v>
+      </c>
+      <c r="J147" t="s">
+        <v>638</v>
+      </c>
+      <c r="K147" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B148" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D148" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="F148" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G148" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H148" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="I148" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>591</v>
+      </c>
+      <c r="J148" t="s">
+        <v>638</v>
+      </c>
+      <c r="K148" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B149" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="E149" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F149" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="G149" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="H149" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="I149" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J149" t="s">
+        <v>638</v>
+      </c>
+      <c r="K149" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B150" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D150" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="E150" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F150" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="G150" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="H150" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="I150" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>588</v>
+      </c>
+      <c r="J150" t="s">
+        <v>638</v>
+      </c>
+      <c r="K150" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B151" s="2">
         <v>45702.40107638889</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D151" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="E151" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F151" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="G151" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="H151" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="I151" t="s">
-        <v>564</v>
+        <v>592</v>
+      </c>
+      <c r="J151" t="s">
+        <v>638</v>
+      </c>
+      <c r="K151" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping Results.xlsx
+++ b/Scraping Results.xlsx
@@ -28,7 +28,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Condition</t>
+    <t>CD</t>
   </si>
   <si>
     <t>Price</t>
@@ -43,15 +43,15 @@
     <t>Cert Date</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>VQ0002</t>
   </si>
   <si>
@@ -3604,6 +3604,204 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>INTERNAL EMAIL</t>
+  </si>
+  <si>
+    <t>RIM ENTERPRISES</t>
+  </si>
+  <si>
+    <t>SETNA IO</t>
+  </si>
+  <si>
+    <t>AEROTRON AMERICAS LLC</t>
+  </si>
+  <si>
+    <t>AVIATION CONCEPTS</t>
+  </si>
+  <si>
+    <t>AVSTOCK AERO ASSETS TRADING DWC LLC</t>
+  </si>
+  <si>
+    <t>KP AVIATION</t>
+  </si>
+  <si>
+    <t>WYATT AEROSPACE</t>
+  </si>
+  <si>
+    <t>DAMEX INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>MEL AVIATION COMPONENTS LTD</t>
+  </si>
+  <si>
+    <t>ASIA AERO GROUP (AAG)</t>
+  </si>
+  <si>
+    <t>AVIATION RESOURCES</t>
+  </si>
+  <si>
+    <t>AERO-ZONE</t>
+  </si>
+  <si>
+    <t>BROOKS &amp; MALDINI CORPORATION</t>
+  </si>
+  <si>
+    <t>DASI</t>
+  </si>
+  <si>
+    <t>COMPANY WITHIN EMAIL</t>
+  </si>
+  <si>
+    <t>AERO PARTNERS LTD.</t>
+  </si>
+  <si>
+    <t>GLOBAL TRADE AVIATION</t>
+  </si>
+  <si>
+    <t>AEROTECHNIC USA INC ****</t>
+  </si>
+  <si>
+    <t>SOUTHEAST AEROSPACE</t>
+  </si>
+  <si>
+    <t>AIRCRAFTPARTSZ</t>
+  </si>
+  <si>
+    <t>AVAIR</t>
+  </si>
+  <si>
+    <t>AEROTECH OPS</t>
+  </si>
+  <si>
+    <t>ILS EMAIL</t>
+  </si>
+  <si>
+    <t>OCEAN AIR, INC.</t>
+  </si>
+  <si>
+    <t>CAVU AEROSPACE</t>
+  </si>
+  <si>
+    <t>EAS AVIATION GROUP</t>
+  </si>
+  <si>
+    <t>TECNICA AEROSPACE LLC</t>
+  </si>
+  <si>
+    <t>BROWN HELICOPTER</t>
+  </si>
+  <si>
+    <t>GENERAL AIRFRAME SUPPORT</t>
+  </si>
+  <si>
+    <t>AVIODIRECT</t>
+  </si>
+  <si>
+    <t>SEATTLE AVIATION SOLUTIONS</t>
+  </si>
+  <si>
+    <t>INCORA™, FORMERLY WESCO AIRCRAFT AND PATTONAIR</t>
+  </si>
+  <si>
+    <t>SIAM AERO REPAIR LIMITED CO</t>
+  </si>
+  <si>
+    <t>JACAERO INDUSTRIES</t>
+  </si>
+  <si>
+    <t>VAS AERO SERVICES</t>
+  </si>
+  <si>
+    <t>LJ WALCH</t>
+  </si>
+  <si>
+    <t>MIDAMERICAN AEROSPACE</t>
+  </si>
+  <si>
+    <t>TURBO RESOURCES INT'L</t>
+  </si>
+  <si>
+    <t>RIGHT DIRECTION AERO, MB</t>
+  </si>
+  <si>
+    <t>GFA PROCURE REPAIR</t>
+  </si>
+  <si>
+    <t>AVIATION PLUS</t>
+  </si>
+  <si>
+    <t>BE AERO HAVACILIK A.S</t>
+  </si>
+  <si>
+    <t>AEROTRENDS AVIATION LLC</t>
+  </si>
+  <si>
+    <t>AERO MARINE &amp; POWER</t>
+  </si>
+  <si>
+    <t>ALARIS AEROSPACE SYSTEMS</t>
+  </si>
+  <si>
+    <t>STRATTON AVIATION</t>
+  </si>
+  <si>
+    <t>INITIAL AVIATION INC</t>
+  </si>
+  <si>
+    <t>ANSETT AIRCRAFT SPARES &amp; SERVICES</t>
+  </si>
+  <si>
+    <t>TALLAMOND LLC</t>
+  </si>
+  <si>
+    <t>JA-SUPPLY, INC.</t>
+  </si>
+  <si>
+    <t>MTI AVIATION, INC.</t>
+  </si>
+  <si>
+    <t>LUFTHANSA TECHNIK PHILIPPINES</t>
+  </si>
+  <si>
+    <t>LUFTHANSA TECHNIK COMPONENT SERVICES</t>
+  </si>
+  <si>
+    <t>ATS AVIATION S.L.</t>
+  </si>
+  <si>
+    <t>SABENA TECHNICS BOD</t>
+  </si>
+  <si>
+    <t>SPECIALIST AVIATION LTD.</t>
+  </si>
+  <si>
+    <t>AERO HERO</t>
+  </si>
+  <si>
+    <t>SKYPARTS FZCO</t>
+  </si>
+  <si>
+    <t>ATCO INC</t>
+  </si>
+  <si>
+    <t>YES TECHNIK FZC</t>
+  </si>
+  <si>
+    <t>CCI AERO INC</t>
+  </si>
+  <si>
+    <t>RAM AIR SALES, INC.</t>
+  </si>
+  <si>
+    <t>SENTRY AEROSPARES LLC</t>
+  </si>
+  <si>
+    <t>JJA AVIATION</t>
+  </si>
+  <si>
+    <t>ORBITER AVIATION LIMITED</t>
+  </si>
+  <si>
     <t>tadas0900@gmail.com</t>
   </si>
   <si>
@@ -4208,204 +4406,6 @@
   </si>
   <si>
     <t>Quote from RELIANCE AIRCRAFT INTERNATIONAL LLC for RFQ #ILSBL4E250224072458</t>
-  </si>
-  <si>
-    <t>INTERNAL EMAIL</t>
-  </si>
-  <si>
-    <t>RIM ENTERPRISES</t>
-  </si>
-  <si>
-    <t>SETNA IO</t>
-  </si>
-  <si>
-    <t>AEROTRON AMERICAS LLC</t>
-  </si>
-  <si>
-    <t>AVIATION CONCEPTS</t>
-  </si>
-  <si>
-    <t>AVSTOCK AERO ASSETS TRADING DWC LLC</t>
-  </si>
-  <si>
-    <t>KP AVIATION</t>
-  </si>
-  <si>
-    <t>WYATT AEROSPACE</t>
-  </si>
-  <si>
-    <t>DAMEX INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>MEL AVIATION COMPONENTS LTD</t>
-  </si>
-  <si>
-    <t>ASIA AERO GROUP (AAG)</t>
-  </si>
-  <si>
-    <t>AVIATION RESOURCES</t>
-  </si>
-  <si>
-    <t>AERO-ZONE</t>
-  </si>
-  <si>
-    <t>BROOKS &amp; MALDINI CORPORATION</t>
-  </si>
-  <si>
-    <t>DASI</t>
-  </si>
-  <si>
-    <t>COMPANY WITHIN EMAIL</t>
-  </si>
-  <si>
-    <t>AERO PARTNERS LTD.</t>
-  </si>
-  <si>
-    <t>GLOBAL TRADE AVIATION</t>
-  </si>
-  <si>
-    <t>AEROTECHNIC USA INC ****</t>
-  </si>
-  <si>
-    <t>SOUTHEAST AEROSPACE</t>
-  </si>
-  <si>
-    <t>AIRCRAFTPARTSZ</t>
-  </si>
-  <si>
-    <t>AVAIR</t>
-  </si>
-  <si>
-    <t>AEROTECH OPS</t>
-  </si>
-  <si>
-    <t>ILS EMAIL</t>
-  </si>
-  <si>
-    <t>OCEAN AIR, INC.</t>
-  </si>
-  <si>
-    <t>CAVU AEROSPACE</t>
-  </si>
-  <si>
-    <t>EAS AVIATION GROUP</t>
-  </si>
-  <si>
-    <t>TECNICA AEROSPACE LLC</t>
-  </si>
-  <si>
-    <t>BROWN HELICOPTER</t>
-  </si>
-  <si>
-    <t>GENERAL AIRFRAME SUPPORT</t>
-  </si>
-  <si>
-    <t>AVIODIRECT</t>
-  </si>
-  <si>
-    <t>SEATTLE AVIATION SOLUTIONS</t>
-  </si>
-  <si>
-    <t>INCORA™, FORMERLY WESCO AIRCRAFT AND PATTONAIR</t>
-  </si>
-  <si>
-    <t>SIAM AERO REPAIR LIMITED CO</t>
-  </si>
-  <si>
-    <t>JACAERO INDUSTRIES</t>
-  </si>
-  <si>
-    <t>VAS AERO SERVICES</t>
-  </si>
-  <si>
-    <t>LJ WALCH</t>
-  </si>
-  <si>
-    <t>MIDAMERICAN AEROSPACE</t>
-  </si>
-  <si>
-    <t>TURBO RESOURCES INT'L</t>
-  </si>
-  <si>
-    <t>RIGHT DIRECTION AERO, MB</t>
-  </si>
-  <si>
-    <t>GFA PROCURE REPAIR</t>
-  </si>
-  <si>
-    <t>AVIATION PLUS</t>
-  </si>
-  <si>
-    <t>BE AERO HAVACILIK A.S</t>
-  </si>
-  <si>
-    <t>AEROTRENDS AVIATION LLC</t>
-  </si>
-  <si>
-    <t>AERO MARINE &amp; POWER</t>
-  </si>
-  <si>
-    <t>ALARIS AEROSPACE SYSTEMS</t>
-  </si>
-  <si>
-    <t>STRATTON AVIATION</t>
-  </si>
-  <si>
-    <t>INITIAL AVIATION INC</t>
-  </si>
-  <si>
-    <t>ANSETT AIRCRAFT SPARES &amp; SERVICES</t>
-  </si>
-  <si>
-    <t>TALLAMOND LLC</t>
-  </si>
-  <si>
-    <t>JA-SUPPLY, INC.</t>
-  </si>
-  <si>
-    <t>MTI AVIATION, INC.</t>
-  </si>
-  <si>
-    <t>LUFTHANSA TECHNIK PHILIPPINES</t>
-  </si>
-  <si>
-    <t>LUFTHANSA TECHNIK COMPONENT SERVICES</t>
-  </si>
-  <si>
-    <t>ATS AVIATION S.L.</t>
-  </si>
-  <si>
-    <t>SABENA TECHNICS BOD</t>
-  </si>
-  <si>
-    <t>SPECIALIST AVIATION LTD.</t>
-  </si>
-  <si>
-    <t>AERO HERO</t>
-  </si>
-  <si>
-    <t>SKYPARTS FZCO</t>
-  </si>
-  <si>
-    <t>ATCO INC</t>
-  </si>
-  <si>
-    <t>YES TECHNIK FZC</t>
-  </si>
-  <si>
-    <t>CCI AERO INC</t>
-  </si>
-  <si>
-    <t>RAM AIR SALES, INC.</t>
-  </si>
-  <si>
-    <t>SENTRY AEROSPARES LLC</t>
-  </si>
-  <si>
-    <t>JJA AVIATION</t>
-  </si>
-  <si>
-    <t>ORBITER AVIATION LIMITED</t>
   </si>
 </sst>
 </file>
@@ -4843,10 +4843,10 @@
         <v>1196</v>
       </c>
       <c r="K2" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="L2" t="s">
-        <v>1398</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4881,10 +4881,10 @@
         <v>1196</v>
       </c>
       <c r="K3" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="L3" t="s">
-        <v>1398</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4919,10 +4919,10 @@
         <v>1196</v>
       </c>
       <c r="K4" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="L4" t="s">
-        <v>1398</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4957,10 +4957,10 @@
         <v>1196</v>
       </c>
       <c r="K5" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="L5" t="s">
-        <v>1398</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4995,10 +4995,10 @@
         <v>1197</v>
       </c>
       <c r="K6" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="L6" t="s">
-        <v>1399</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5033,10 +5033,10 @@
         <v>1198</v>
       </c>
       <c r="K7" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="L7" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5071,10 +5071,10 @@
         <v>1199</v>
       </c>
       <c r="K8" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="L8" t="s">
-        <v>1401</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5109,10 +5109,10 @@
         <v>1200</v>
       </c>
       <c r="K9" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="L9" t="s">
-        <v>1402</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5147,10 +5147,10 @@
         <v>1201</v>
       </c>
       <c r="K10" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="L10" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5185,10 +5185,10 @@
         <v>1201</v>
       </c>
       <c r="K11" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="L11" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5223,10 +5223,10 @@
         <v>1198</v>
       </c>
       <c r="K12" t="s">
-        <v>1284</v>
+        <v>1264</v>
       </c>
       <c r="L12" t="s">
-        <v>1400</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5261,10 +5261,10 @@
         <v>1202</v>
       </c>
       <c r="K13" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="L13" t="s">
-        <v>1404</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5299,10 +5299,10 @@
         <v>1202</v>
       </c>
       <c r="K14" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="L14" t="s">
-        <v>1404</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5337,10 +5337,10 @@
         <v>1203</v>
       </c>
       <c r="K15" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="L15" t="s">
-        <v>1405</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5375,10 +5375,10 @@
         <v>1204</v>
       </c>
       <c r="K16" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="L16" t="s">
-        <v>1406</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5413,10 +5413,10 @@
         <v>1205</v>
       </c>
       <c r="K17" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="L17" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5451,10 +5451,10 @@
         <v>1205</v>
       </c>
       <c r="K18" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="L18" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5489,10 +5489,10 @@
         <v>1205</v>
       </c>
       <c r="K19" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="L19" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5527,10 +5527,10 @@
         <v>1205</v>
       </c>
       <c r="K20" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="L20" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5565,10 +5565,10 @@
         <v>1206</v>
       </c>
       <c r="K21" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="L21" t="s">
-        <v>1408</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5603,10 +5603,10 @@
         <v>1196</v>
       </c>
       <c r="K22" t="s">
-        <v>1290</v>
+        <v>1262</v>
       </c>
       <c r="L22" t="s">
-        <v>1398</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5641,10 +5641,10 @@
         <v>1196</v>
       </c>
       <c r="K23" t="s">
-        <v>1290</v>
+        <v>1262</v>
       </c>
       <c r="L23" t="s">
-        <v>1398</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5679,10 +5679,10 @@
         <v>1196</v>
       </c>
       <c r="K24" t="s">
-        <v>1291</v>
+        <v>1262</v>
       </c>
       <c r="L24" t="s">
-        <v>1398</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5717,10 +5717,10 @@
         <v>1196</v>
       </c>
       <c r="K25" t="s">
-        <v>1292</v>
+        <v>1262</v>
       </c>
       <c r="L25" t="s">
-        <v>1398</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5755,10 +5755,10 @@
         <v>1196</v>
       </c>
       <c r="K26" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="L26" t="s">
-        <v>1398</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5793,10 +5793,10 @@
         <v>1196</v>
       </c>
       <c r="K27" t="s">
-        <v>1294</v>
+        <v>1262</v>
       </c>
       <c r="L27" t="s">
-        <v>1398</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5831,10 +5831,10 @@
         <v>1207</v>
       </c>
       <c r="K28" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="L28" t="s">
-        <v>1409</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5869,10 +5869,10 @@
         <v>1207</v>
       </c>
       <c r="K29" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="L29" t="s">
-        <v>1409</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5907,10 +5907,10 @@
         <v>1196</v>
       </c>
       <c r="K30" t="s">
-        <v>1296</v>
+        <v>1262</v>
       </c>
       <c r="L30" t="s">
-        <v>1398</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5945,10 +5945,10 @@
         <v>1208</v>
       </c>
       <c r="K31" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="L31" t="s">
-        <v>1410</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5983,10 +5983,10 @@
         <v>1208</v>
       </c>
       <c r="K32" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="L32" t="s">
-        <v>1410</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -6021,10 +6021,10 @@
         <v>1208</v>
       </c>
       <c r="K33" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="L33" t="s">
-        <v>1410</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -6059,10 +6059,10 @@
         <v>1208</v>
       </c>
       <c r="K34" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="L34" t="s">
-        <v>1410</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6097,10 +6097,10 @@
         <v>1208</v>
       </c>
       <c r="K35" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="L35" t="s">
-        <v>1410</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6135,10 +6135,10 @@
         <v>1209</v>
       </c>
       <c r="K36" t="s">
-        <v>1298</v>
+        <v>1275</v>
       </c>
       <c r="L36" t="s">
-        <v>1411</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -6173,10 +6173,10 @@
         <v>1209</v>
       </c>
       <c r="K37" t="s">
-        <v>1298</v>
+        <v>1275</v>
       </c>
       <c r="L37" t="s">
-        <v>1411</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -6211,10 +6211,10 @@
         <v>1210</v>
       </c>
       <c r="K38" t="s">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="L38" t="s">
-        <v>1412</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6249,10 +6249,10 @@
         <v>1210</v>
       </c>
       <c r="K39" t="s">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="L39" t="s">
-        <v>1412</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -6284,13 +6284,13 @@
         <v>795</v>
       </c>
       <c r="J40" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="K40" t="s">
-        <v>1300</v>
+        <v>1277</v>
       </c>
       <c r="L40" t="s">
-        <v>1398</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -6322,13 +6322,13 @@
         <v>795</v>
       </c>
       <c r="J41" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K41" t="s">
-        <v>1301</v>
+        <v>1278</v>
       </c>
       <c r="L41" t="s">
-        <v>1413</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -6360,13 +6360,13 @@
         <v>1103</v>
       </c>
       <c r="J42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K42" t="s">
-        <v>1302</v>
+        <v>1279</v>
       </c>
       <c r="L42" t="s">
-        <v>1414</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -6398,13 +6398,13 @@
         <v>795</v>
       </c>
       <c r="J43" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K43" t="s">
-        <v>1303</v>
+        <v>1280</v>
       </c>
       <c r="L43" t="s">
-        <v>1415</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6436,13 +6436,13 @@
         <v>795</v>
       </c>
       <c r="J44" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K44" t="s">
-        <v>1304</v>
+        <v>1281</v>
       </c>
       <c r="L44" t="s">
-        <v>1411</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6474,13 +6474,13 @@
         <v>795</v>
       </c>
       <c r="J45" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K45" t="s">
-        <v>1305</v>
+        <v>1278</v>
       </c>
       <c r="L45" t="s">
-        <v>1413</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6512,13 +6512,13 @@
         <v>795</v>
       </c>
       <c r="J46" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="K46" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
       <c r="L46" t="s">
-        <v>1416</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6550,13 +6550,13 @@
         <v>795</v>
       </c>
       <c r="J47" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K47" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
       <c r="L47" t="s">
-        <v>1411</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -6588,13 +6588,13 @@
         <v>795</v>
       </c>
       <c r="J48" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K48" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
       <c r="L48" t="s">
-        <v>1411</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -6629,10 +6629,10 @@
         <v>1210</v>
       </c>
       <c r="K49" t="s">
-        <v>1308</v>
+        <v>1276</v>
       </c>
       <c r="L49" t="s">
-        <v>1412</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6667,10 +6667,10 @@
         <v>1210</v>
       </c>
       <c r="K50" t="s">
-        <v>1308</v>
+        <v>1276</v>
       </c>
       <c r="L50" t="s">
-        <v>1412</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -6702,13 +6702,13 @@
         <v>795</v>
       </c>
       <c r="J51" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K51" t="s">
-        <v>1309</v>
+        <v>1283</v>
       </c>
       <c r="L51" t="s">
-        <v>1409</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6740,13 +6740,13 @@
         <v>795</v>
       </c>
       <c r="J52" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K52" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="L52" t="s">
-        <v>1409</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6778,13 +6778,13 @@
         <v>795</v>
       </c>
       <c r="J53" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="K53" t="s">
-        <v>1311</v>
+        <v>1284</v>
       </c>
       <c r="L53" t="s">
-        <v>1417</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6816,13 +6816,13 @@
         <v>795</v>
       </c>
       <c r="J54" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K54" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="L54" t="s">
-        <v>1418</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -6854,13 +6854,13 @@
         <v>795</v>
       </c>
       <c r="J55" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K55" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="L55" t="s">
-        <v>1418</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6892,13 +6892,13 @@
         <v>795</v>
       </c>
       <c r="J56" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="K56" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="L56" t="s">
-        <v>1419</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6930,13 +6930,13 @@
         <v>1104</v>
       </c>
       <c r="J57" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="K57" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="L57" t="s">
-        <v>1420</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6968,13 +6968,13 @@
         <v>795</v>
       </c>
       <c r="J58" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="K58" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="L58" t="s">
-        <v>1420</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -7006,13 +7006,13 @@
         <v>1105</v>
       </c>
       <c r="J59" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K59" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="L59" t="s">
-        <v>1421</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -7044,13 +7044,13 @@
         <v>1106</v>
       </c>
       <c r="J60" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K60" t="s">
-        <v>1316</v>
+        <v>1283</v>
       </c>
       <c r="L60" t="s">
-        <v>1409</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -7082,13 +7082,13 @@
         <v>1107</v>
       </c>
       <c r="J61" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K61" t="s">
-        <v>1316</v>
+        <v>1283</v>
       </c>
       <c r="L61" t="s">
-        <v>1409</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -7120,13 +7120,13 @@
         <v>1108</v>
       </c>
       <c r="J62" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K62" t="s">
-        <v>1317</v>
+        <v>1283</v>
       </c>
       <c r="L62" t="s">
-        <v>1409</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -7158,13 +7158,13 @@
         <v>1109</v>
       </c>
       <c r="J63" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K63" t="s">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="L63" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -7196,13 +7196,13 @@
         <v>795</v>
       </c>
       <c r="J64" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K64" t="s">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="L64" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -7234,13 +7234,13 @@
         <v>1110</v>
       </c>
       <c r="J65" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K65" t="s">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="L65" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -7272,13 +7272,13 @@
         <v>1111</v>
       </c>
       <c r="J66" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K66" t="s">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="L66" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7310,13 +7310,13 @@
         <v>795</v>
       </c>
       <c r="J67" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="K67" t="s">
-        <v>1319</v>
+        <v>1289</v>
       </c>
       <c r="L67" t="s">
-        <v>1422</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -7348,13 +7348,13 @@
         <v>795</v>
       </c>
       <c r="J68" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="K68" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="L68" t="s">
-        <v>1423</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7386,13 +7386,13 @@
         <v>795</v>
       </c>
       <c r="J69" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K69" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L69" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -7424,13 +7424,13 @@
         <v>795</v>
       </c>
       <c r="J70" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K70" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L70" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -7462,13 +7462,13 @@
         <v>795</v>
       </c>
       <c r="J71" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K71" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L71" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -7500,13 +7500,13 @@
         <v>795</v>
       </c>
       <c r="J72" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K72" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L72" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -7538,13 +7538,13 @@
         <v>795</v>
       </c>
       <c r="J73" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K73" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L73" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -7576,13 +7576,13 @@
         <v>795</v>
       </c>
       <c r="J74" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K74" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L74" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7614,13 +7614,13 @@
         <v>795</v>
       </c>
       <c r="J75" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="K75" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="L75" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -7652,13 +7652,13 @@
         <v>795</v>
       </c>
       <c r="J76" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="K76" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
       <c r="L76" t="s">
-        <v>1424</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7690,13 +7690,13 @@
         <v>795</v>
       </c>
       <c r="J77" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K77" t="s">
-        <v>1323</v>
+        <v>1278</v>
       </c>
       <c r="L77" t="s">
-        <v>1413</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7728,13 +7728,13 @@
         <v>1112</v>
       </c>
       <c r="J78" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="K78" t="s">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="L78" t="s">
-        <v>1412</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7766,13 +7766,13 @@
         <v>1113</v>
       </c>
       <c r="J79" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K79" t="s">
-        <v>1325</v>
+        <v>1288</v>
       </c>
       <c r="L79" t="s">
-        <v>1421</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7801,13 +7801,13 @@
         <v>795</v>
       </c>
       <c r="J80" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="K80" t="s">
-        <v>1326</v>
+        <v>1294</v>
       </c>
       <c r="L80" t="s">
-        <v>1425</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -7830,13 +7830,13 @@
         <v>795</v>
       </c>
       <c r="J81" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="K81" t="s">
-        <v>1326</v>
+        <v>1294</v>
       </c>
       <c r="L81" t="s">
-        <v>1425</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7868,13 +7868,13 @@
         <v>795</v>
       </c>
       <c r="J82" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="K82" t="s">
-        <v>1327</v>
+        <v>1295</v>
       </c>
       <c r="L82" t="s">
-        <v>1426</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -7906,13 +7906,13 @@
         <v>1114</v>
       </c>
       <c r="J83" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K83" t="s">
-        <v>1328</v>
+        <v>1288</v>
       </c>
       <c r="L83" t="s">
-        <v>1421</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7944,13 +7944,13 @@
         <v>795</v>
       </c>
       <c r="J84" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="K84" t="s">
-        <v>1329</v>
+        <v>1296</v>
       </c>
       <c r="L84" t="s">
-        <v>1427</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7982,13 +7982,13 @@
         <v>795</v>
       </c>
       <c r="J85" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="K85" t="s">
-        <v>1330</v>
+        <v>1297</v>
       </c>
       <c r="L85" t="s">
-        <v>1428</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -8020,13 +8020,13 @@
         <v>795</v>
       </c>
       <c r="J86" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="K86" t="s">
-        <v>1331</v>
+        <v>1298</v>
       </c>
       <c r="L86" t="s">
-        <v>1429</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -8058,13 +8058,13 @@
         <v>795</v>
       </c>
       <c r="J87" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="K87" t="s">
-        <v>1331</v>
+        <v>1298</v>
       </c>
       <c r="L87" t="s">
-        <v>1429</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -8096,13 +8096,13 @@
         <v>795</v>
       </c>
       <c r="J88" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="K88" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="L88" t="s">
-        <v>1430</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -8131,13 +8131,13 @@
         <v>795</v>
       </c>
       <c r="J89" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K89" t="s">
-        <v>1333</v>
+        <v>1288</v>
       </c>
       <c r="L89" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -8169,13 +8169,13 @@
         <v>1115</v>
       </c>
       <c r="J90" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="K90" t="s">
-        <v>1334</v>
+        <v>1300</v>
       </c>
       <c r="L90" t="s">
-        <v>1431</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -8207,13 +8207,13 @@
         <v>795</v>
       </c>
       <c r="J91" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="K91" t="s">
-        <v>1335</v>
+        <v>1301</v>
       </c>
       <c r="L91" t="s">
-        <v>1432</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -8245,13 +8245,13 @@
         <v>1116</v>
       </c>
       <c r="J92" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="K92" t="s">
-        <v>1336</v>
+        <v>1302</v>
       </c>
       <c r="L92" t="s">
-        <v>1433</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8283,13 +8283,13 @@
         <v>1117</v>
       </c>
       <c r="J93" t="s">
-        <v>1237</v>
+        <v>1198</v>
       </c>
       <c r="K93" t="s">
-        <v>1337</v>
+        <v>1303</v>
       </c>
       <c r="L93" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -8321,13 +8321,13 @@
         <v>795</v>
       </c>
       <c r="J94" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K94" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="L94" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8359,13 +8359,13 @@
         <v>795</v>
       </c>
       <c r="J95" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K95" t="s">
-        <v>1339</v>
+        <v>1304</v>
       </c>
       <c r="L95" t="s">
-        <v>1434</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -8397,13 +8397,13 @@
         <v>795</v>
       </c>
       <c r="J96" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K96" t="s">
-        <v>1339</v>
+        <v>1304</v>
       </c>
       <c r="L96" t="s">
-        <v>1434</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -8435,13 +8435,13 @@
         <v>1118</v>
       </c>
       <c r="J97" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="K97" t="s">
-        <v>1340</v>
+        <v>1305</v>
       </c>
       <c r="L97" t="s">
-        <v>1435</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -8473,13 +8473,13 @@
         <v>1101</v>
       </c>
       <c r="J98" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="K98" t="s">
-        <v>1340</v>
+        <v>1305</v>
       </c>
       <c r="L98" t="s">
-        <v>1435</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -8511,13 +8511,13 @@
         <v>1119</v>
       </c>
       <c r="J99" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K99" t="s">
-        <v>1341</v>
+        <v>1278</v>
       </c>
       <c r="L99" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -8549,13 +8549,13 @@
         <v>1120</v>
       </c>
       <c r="J100" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K100" t="s">
-        <v>1341</v>
+        <v>1278</v>
       </c>
       <c r="L100" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -8587,13 +8587,13 @@
         <v>1121</v>
       </c>
       <c r="J101" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K101" t="s">
-        <v>1341</v>
+        <v>1278</v>
       </c>
       <c r="L101" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -8625,13 +8625,13 @@
         <v>795</v>
       </c>
       <c r="J102" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="K102" t="s">
-        <v>1342</v>
+        <v>1297</v>
       </c>
       <c r="L102" t="s">
-        <v>1428</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -8663,13 +8663,13 @@
         <v>795</v>
       </c>
       <c r="J103" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="K103" t="s">
-        <v>1343</v>
+        <v>1282</v>
       </c>
       <c r="L103" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -8704,10 +8704,10 @@
         <v>1210</v>
       </c>
       <c r="K104" t="s">
-        <v>1344</v>
+        <v>1276</v>
       </c>
       <c r="L104" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -8742,10 +8742,10 @@
         <v>1210</v>
       </c>
       <c r="K105" t="s">
-        <v>1344</v>
+        <v>1276</v>
       </c>
       <c r="L105" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -8780,10 +8780,10 @@
         <v>1210</v>
       </c>
       <c r="K106" t="s">
-        <v>1344</v>
+        <v>1276</v>
       </c>
       <c r="L106" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -8815,13 +8815,13 @@
         <v>1122</v>
       </c>
       <c r="J107" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K107" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L107" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -8853,13 +8853,13 @@
         <v>1123</v>
       </c>
       <c r="J108" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K108" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L108" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -8891,13 +8891,13 @@
         <v>1124</v>
       </c>
       <c r="J109" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K109" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L109" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -8929,13 +8929,13 @@
         <v>1082</v>
       </c>
       <c r="J110" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K110" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L110" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -8967,13 +8967,13 @@
         <v>1125</v>
       </c>
       <c r="J111" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K111" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L111" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -9005,13 +9005,13 @@
         <v>1126</v>
       </c>
       <c r="J112" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K112" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L112" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -9043,13 +9043,13 @@
         <v>1127</v>
       </c>
       <c r="J113" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K113" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L113" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -9081,13 +9081,13 @@
         <v>1128</v>
       </c>
       <c r="J114" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K114" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L114" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -9119,13 +9119,13 @@
         <v>1129</v>
       </c>
       <c r="J115" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K115" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L115" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -9157,13 +9157,13 @@
         <v>1130</v>
       </c>
       <c r="J116" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K116" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L116" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -9195,13 +9195,13 @@
         <v>1131</v>
       </c>
       <c r="J117" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K117" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L117" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -9233,13 +9233,13 @@
         <v>1132</v>
       </c>
       <c r="J118" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K118" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L118" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -9271,13 +9271,13 @@
         <v>1133</v>
       </c>
       <c r="J119" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K119" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L119" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -9309,13 +9309,13 @@
         <v>1134</v>
       </c>
       <c r="J120" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K120" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L120" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -9347,13 +9347,13 @@
         <v>1135</v>
       </c>
       <c r="J121" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K121" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L121" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -9385,13 +9385,13 @@
         <v>1136</v>
       </c>
       <c r="J122" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K122" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L122" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -9423,13 +9423,13 @@
         <v>1137</v>
       </c>
       <c r="J123" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K123" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L123" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -9461,13 +9461,13 @@
         <v>1138</v>
       </c>
       <c r="J124" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K124" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L124" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -9499,13 +9499,13 @@
         <v>1139</v>
       </c>
       <c r="J125" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K125" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L125" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -9537,13 +9537,13 @@
         <v>1106</v>
       </c>
       <c r="J126" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K126" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L126" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -9575,13 +9575,13 @@
         <v>1140</v>
       </c>
       <c r="J127" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K127" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L127" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -9613,13 +9613,13 @@
         <v>1141</v>
       </c>
       <c r="J128" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K128" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L128" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -9651,13 +9651,13 @@
         <v>1142</v>
       </c>
       <c r="J129" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K129" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L129" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -9689,13 +9689,13 @@
         <v>1143</v>
       </c>
       <c r="J130" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K130" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L130" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -9727,13 +9727,13 @@
         <v>795</v>
       </c>
       <c r="J131" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K131" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L131" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -9765,13 +9765,13 @@
         <v>1144</v>
       </c>
       <c r="J132" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K132" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L132" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -9803,13 +9803,13 @@
         <v>1145</v>
       </c>
       <c r="J133" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K133" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L133" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -9841,13 +9841,13 @@
         <v>1146</v>
       </c>
       <c r="J134" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K134" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L134" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -9879,13 +9879,13 @@
         <v>1147</v>
       </c>
       <c r="J135" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K135" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L135" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -9917,13 +9917,13 @@
         <v>1148</v>
       </c>
       <c r="J136" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K136" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L136" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -9955,13 +9955,13 @@
         <v>1149</v>
       </c>
       <c r="J137" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K137" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="L137" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -9993,13 +9993,13 @@
         <v>1150</v>
       </c>
       <c r="J138" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K138" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="L138" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -10031,13 +10031,13 @@
         <v>1150</v>
       </c>
       <c r="J139" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K139" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="L139" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -10069,13 +10069,13 @@
         <v>1150</v>
       </c>
       <c r="J140" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K140" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="L140" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -10107,13 +10107,13 @@
         <v>1150</v>
       </c>
       <c r="J141" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K141" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="L141" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -10145,13 +10145,13 @@
         <v>795</v>
       </c>
       <c r="J142" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K142" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L142" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -10183,13 +10183,13 @@
         <v>1101</v>
       </c>
       <c r="J143" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K143" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L143" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -10221,13 +10221,13 @@
         <v>1101</v>
       </c>
       <c r="J144" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K144" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L144" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -10259,13 +10259,13 @@
         <v>1100</v>
       </c>
       <c r="J145" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K145" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L145" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -10297,13 +10297,13 @@
         <v>1151</v>
       </c>
       <c r="J146" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K146" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L146" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -10335,13 +10335,13 @@
         <v>1151</v>
       </c>
       <c r="J147" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K147" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L147" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -10373,13 +10373,13 @@
         <v>1151</v>
       </c>
       <c r="J148" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K148" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L148" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -10411,13 +10411,13 @@
         <v>1099</v>
       </c>
       <c r="J149" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K149" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L149" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -10449,13 +10449,13 @@
         <v>1152</v>
       </c>
       <c r="J150" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K150" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="L150" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -10487,13 +10487,13 @@
         <v>1153</v>
       </c>
       <c r="J151" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="K151" t="s">
-        <v>1348</v>
+        <v>1309</v>
       </c>
       <c r="L151" t="s">
-        <v>1439</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -10522,13 +10522,13 @@
         <v>795</v>
       </c>
       <c r="J152" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="K152" t="s">
-        <v>1349</v>
+        <v>1310</v>
       </c>
       <c r="L152" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -10560,13 +10560,13 @@
         <v>1154</v>
       </c>
       <c r="J153" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="K153" t="s">
-        <v>1350</v>
+        <v>1311</v>
       </c>
       <c r="L153" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -10598,13 +10598,13 @@
         <v>1155</v>
       </c>
       <c r="J154" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K154" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L154" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -10636,13 +10636,13 @@
         <v>795</v>
       </c>
       <c r="J155" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K155" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L155" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -10674,13 +10674,13 @@
         <v>1156</v>
       </c>
       <c r="J156" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K156" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L156" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -10712,13 +10712,13 @@
         <v>1157</v>
       </c>
       <c r="J157" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K157" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L157" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -10750,13 +10750,13 @@
         <v>1158</v>
       </c>
       <c r="J158" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K158" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L158" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -10788,13 +10788,13 @@
         <v>795</v>
       </c>
       <c r="J159" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K159" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L159" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -10826,13 +10826,13 @@
         <v>1155</v>
       </c>
       <c r="J160" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K160" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L160" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -10864,13 +10864,13 @@
         <v>1159</v>
       </c>
       <c r="J161" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K161" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L161" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -10902,13 +10902,13 @@
         <v>1155</v>
       </c>
       <c r="J162" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K162" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L162" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -10940,13 +10940,13 @@
         <v>795</v>
       </c>
       <c r="J163" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K163" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L163" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -10978,13 +10978,13 @@
         <v>1156</v>
       </c>
       <c r="J164" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K164" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L164" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -11016,13 +11016,13 @@
         <v>1157</v>
       </c>
       <c r="J165" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K165" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L165" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -11054,13 +11054,13 @@
         <v>1158</v>
       </c>
       <c r="J166" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K166" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L166" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -11092,13 +11092,13 @@
         <v>795</v>
       </c>
       <c r="J167" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K167" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L167" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -11130,13 +11130,13 @@
         <v>1155</v>
       </c>
       <c r="J168" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K168" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L168" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -11168,13 +11168,13 @@
         <v>1159</v>
       </c>
       <c r="J169" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="K169" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="L169" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -11206,13 +11206,13 @@
         <v>1160</v>
       </c>
       <c r="J170" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K170" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L170" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -11244,13 +11244,13 @@
         <v>1161</v>
       </c>
       <c r="J171" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K171" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L171" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -11282,13 +11282,13 @@
         <v>1140</v>
       </c>
       <c r="J172" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K172" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L172" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -11320,13 +11320,13 @@
         <v>1162</v>
       </c>
       <c r="J173" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K173" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L173" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -11358,13 +11358,13 @@
         <v>1132</v>
       </c>
       <c r="J174" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K174" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L174" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -11396,13 +11396,13 @@
         <v>1163</v>
       </c>
       <c r="J175" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K175" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L175" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -11434,13 +11434,13 @@
         <v>1164</v>
       </c>
       <c r="J176" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K176" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L176" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -11472,13 +11472,13 @@
         <v>1165</v>
       </c>
       <c r="J177" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K177" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L177" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -11510,13 +11510,13 @@
         <v>795</v>
       </c>
       <c r="J178" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K178" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L178" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -11548,13 +11548,13 @@
         <v>1166</v>
       </c>
       <c r="J179" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K179" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L179" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -11586,13 +11586,13 @@
         <v>1106</v>
       </c>
       <c r="J180" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K180" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L180" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -11624,13 +11624,13 @@
         <v>1167</v>
       </c>
       <c r="J181" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K181" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L181" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -11662,13 +11662,13 @@
         <v>1109</v>
       </c>
       <c r="J182" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="K182" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="L182" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -11703,10 +11703,10 @@
         <v>1202</v>
       </c>
       <c r="K183" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="L183" t="s">
-        <v>1404</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -11738,13 +11738,13 @@
         <v>795</v>
       </c>
       <c r="J184" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="K184" t="s">
-        <v>1353</v>
+        <v>1297</v>
       </c>
       <c r="L184" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -11776,13 +11776,13 @@
         <v>795</v>
       </c>
       <c r="J185" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="K185" t="s">
-        <v>1354</v>
+        <v>1314</v>
       </c>
       <c r="L185" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -11814,13 +11814,13 @@
         <v>1169</v>
       </c>
       <c r="J186" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K186" t="s">
-        <v>1355</v>
+        <v>1315</v>
       </c>
       <c r="L186" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -11852,13 +11852,13 @@
         <v>1170</v>
       </c>
       <c r="J187" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K187" t="s">
-        <v>1355</v>
+        <v>1315</v>
       </c>
       <c r="L187" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -11890,13 +11890,13 @@
         <v>1105</v>
       </c>
       <c r="J188" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="K188" t="s">
-        <v>1356</v>
+        <v>1316</v>
       </c>
       <c r="L188" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -11928,13 +11928,13 @@
         <v>795</v>
       </c>
       <c r="J189" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="K189" t="s">
-        <v>1357</v>
+        <v>1317</v>
       </c>
       <c r="L189" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -11966,13 +11966,13 @@
         <v>1171</v>
       </c>
       <c r="J190" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="K190" t="s">
-        <v>1358</v>
+        <v>1318</v>
       </c>
       <c r="L190" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -12004,13 +12004,13 @@
         <v>1172</v>
       </c>
       <c r="J191" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="K191" t="s">
-        <v>1359</v>
+        <v>1318</v>
       </c>
       <c r="L191" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -12042,13 +12042,13 @@
         <v>795</v>
       </c>
       <c r="J192" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="K192" t="s">
-        <v>1360</v>
+        <v>1319</v>
       </c>
       <c r="L192" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -12077,13 +12077,13 @@
         <v>795</v>
       </c>
       <c r="J193" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="K193" t="s">
-        <v>1361</v>
+        <v>1320</v>
       </c>
       <c r="L193" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -12115,13 +12115,13 @@
         <v>1173</v>
       </c>
       <c r="J194" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="K194" t="s">
-        <v>1362</v>
+        <v>1321</v>
       </c>
       <c r="L194" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -12153,13 +12153,13 @@
         <v>1143</v>
       </c>
       <c r="J195" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="K195" t="s">
-        <v>1363</v>
+        <v>1322</v>
       </c>
       <c r="L195" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -12191,13 +12191,13 @@
         <v>1174</v>
       </c>
       <c r="J196" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="K196" t="s">
-        <v>1364</v>
+        <v>1323</v>
       </c>
       <c r="L196" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -12229,13 +12229,13 @@
         <v>1175</v>
       </c>
       <c r="J197" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K197" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L197" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -12267,13 +12267,13 @@
         <v>795</v>
       </c>
       <c r="J198" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K198" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L198" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -12305,13 +12305,13 @@
         <v>795</v>
       </c>
       <c r="J199" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K199" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L199" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -12343,13 +12343,13 @@
         <v>795</v>
       </c>
       <c r="J200" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K200" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L200" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -12381,13 +12381,13 @@
         <v>795</v>
       </c>
       <c r="J201" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K201" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L201" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -12419,13 +12419,13 @@
         <v>795</v>
       </c>
       <c r="J202" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K202" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L202" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -12457,13 +12457,13 @@
         <v>795</v>
       </c>
       <c r="J203" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K203" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L203" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -12495,13 +12495,13 @@
         <v>795</v>
       </c>
       <c r="J204" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K204" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L204" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -12533,13 +12533,13 @@
         <v>795</v>
       </c>
       <c r="J205" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K205" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L205" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -12571,13 +12571,13 @@
         <v>795</v>
       </c>
       <c r="J206" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K206" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L206" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -12609,13 +12609,13 @@
         <v>795</v>
       </c>
       <c r="J207" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K207" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L207" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -12647,13 +12647,13 @@
         <v>795</v>
       </c>
       <c r="J208" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K208" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L208" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -12685,13 +12685,13 @@
         <v>795</v>
       </c>
       <c r="J209" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K209" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L209" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -12723,13 +12723,13 @@
         <v>795</v>
       </c>
       <c r="J210" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K210" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L210" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -12761,13 +12761,13 @@
         <v>795</v>
       </c>
       <c r="J211" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K211" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L211" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -12799,13 +12799,13 @@
         <v>795</v>
       </c>
       <c r="J212" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K212" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L212" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -12837,13 +12837,13 @@
         <v>795</v>
       </c>
       <c r="J213" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K213" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L213" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -12875,13 +12875,13 @@
         <v>795</v>
       </c>
       <c r="J214" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K214" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L214" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -12913,13 +12913,13 @@
         <v>795</v>
       </c>
       <c r="J215" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K215" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L215" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -12951,13 +12951,13 @@
         <v>795</v>
       </c>
       <c r="J216" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K216" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L216" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -12989,13 +12989,13 @@
         <v>795</v>
       </c>
       <c r="J217" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K217" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L217" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -13027,13 +13027,13 @@
         <v>795</v>
       </c>
       <c r="J218" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K218" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L218" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -13065,13 +13065,13 @@
         <v>795</v>
       </c>
       <c r="J219" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K219" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L219" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -13103,13 +13103,13 @@
         <v>795</v>
       </c>
       <c r="J220" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K220" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L220" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -13141,13 +13141,13 @@
         <v>795</v>
       </c>
       <c r="J221" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K221" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L221" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -13179,13 +13179,13 @@
         <v>795</v>
       </c>
       <c r="J222" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K222" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L222" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -13217,13 +13217,13 @@
         <v>795</v>
       </c>
       <c r="J223" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K223" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L223" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -13255,13 +13255,13 @@
         <v>795</v>
       </c>
       <c r="J224" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K224" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L224" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -13293,13 +13293,13 @@
         <v>795</v>
       </c>
       <c r="J225" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K225" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L225" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -13331,13 +13331,13 @@
         <v>795</v>
       </c>
       <c r="J226" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K226" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L226" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -13369,13 +13369,13 @@
         <v>795</v>
       </c>
       <c r="J227" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K227" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L227" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -13407,13 +13407,13 @@
         <v>795</v>
       </c>
       <c r="J228" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K228" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L228" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -13445,13 +13445,13 @@
         <v>795</v>
       </c>
       <c r="J229" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K229" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L229" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -13483,13 +13483,13 @@
         <v>795</v>
       </c>
       <c r="J230" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K230" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L230" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -13521,13 +13521,13 @@
         <v>795</v>
       </c>
       <c r="J231" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K231" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L231" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -13559,13 +13559,13 @@
         <v>795</v>
       </c>
       <c r="J232" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K232" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L232" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -13597,13 +13597,13 @@
         <v>795</v>
       </c>
       <c r="J233" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K233" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L233" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -13635,13 +13635,13 @@
         <v>795</v>
       </c>
       <c r="J234" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K234" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L234" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -13673,13 +13673,13 @@
         <v>795</v>
       </c>
       <c r="J235" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K235" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L235" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -13711,13 +13711,13 @@
         <v>795</v>
       </c>
       <c r="J236" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K236" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L236" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -13749,13 +13749,13 @@
         <v>795</v>
       </c>
       <c r="J237" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K237" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L237" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -13787,13 +13787,13 @@
         <v>795</v>
       </c>
       <c r="J238" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K238" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L238" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -13825,13 +13825,13 @@
         <v>795</v>
       </c>
       <c r="J239" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K239" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L239" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -13863,13 +13863,13 @@
         <v>795</v>
       </c>
       <c r="J240" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K240" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L240" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -13901,13 +13901,13 @@
         <v>795</v>
       </c>
       <c r="J241" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K241" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L241" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -13939,13 +13939,13 @@
         <v>795</v>
       </c>
       <c r="J242" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K242" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L242" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -13977,13 +13977,13 @@
         <v>795</v>
       </c>
       <c r="J243" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K243" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L243" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -14015,13 +14015,13 @@
         <v>795</v>
       </c>
       <c r="J244" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K244" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L244" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -14053,13 +14053,13 @@
         <v>795</v>
       </c>
       <c r="J245" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K245" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L245" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -14091,13 +14091,13 @@
         <v>795</v>
       </c>
       <c r="J246" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K246" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L246" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -14129,13 +14129,13 @@
         <v>795</v>
       </c>
       <c r="J247" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K247" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L247" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -14167,13 +14167,13 @@
         <v>795</v>
       </c>
       <c r="J248" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K248" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L248" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -14205,13 +14205,13 @@
         <v>795</v>
       </c>
       <c r="J249" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K249" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L249" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -14243,13 +14243,13 @@
         <v>795</v>
       </c>
       <c r="J250" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K250" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L250" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -14281,13 +14281,13 @@
         <v>795</v>
       </c>
       <c r="J251" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K251" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L251" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -14319,13 +14319,13 @@
         <v>795</v>
       </c>
       <c r="J252" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K252" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L252" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -14357,13 +14357,13 @@
         <v>795</v>
       </c>
       <c r="J253" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K253" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L253" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -14395,13 +14395,13 @@
         <v>795</v>
       </c>
       <c r="J254" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K254" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L254" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -14433,13 +14433,13 @@
         <v>795</v>
       </c>
       <c r="J255" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K255" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L255" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -14471,13 +14471,13 @@
         <v>795</v>
       </c>
       <c r="J256" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K256" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L256" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -14509,13 +14509,13 @@
         <v>795</v>
       </c>
       <c r="J257" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K257" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L257" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -14547,13 +14547,13 @@
         <v>795</v>
       </c>
       <c r="J258" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K258" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L258" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -14585,13 +14585,13 @@
         <v>795</v>
       </c>
       <c r="J259" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K259" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L259" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -14623,13 +14623,13 @@
         <v>795</v>
       </c>
       <c r="J260" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K260" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L260" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -14661,13 +14661,13 @@
         <v>795</v>
       </c>
       <c r="J261" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K261" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L261" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -14699,13 +14699,13 @@
         <v>795</v>
       </c>
       <c r="J262" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K262" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L262" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -14737,13 +14737,13 @@
         <v>795</v>
       </c>
       <c r="J263" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K263" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L263" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -14775,13 +14775,13 @@
         <v>795</v>
       </c>
       <c r="J264" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K264" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L264" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -14813,13 +14813,13 @@
         <v>795</v>
       </c>
       <c r="J265" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K265" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L265" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -14851,13 +14851,13 @@
         <v>795</v>
       </c>
       <c r="J266" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K266" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L266" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -14889,13 +14889,13 @@
         <v>795</v>
       </c>
       <c r="J267" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K267" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L267" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -14927,13 +14927,13 @@
         <v>795</v>
       </c>
       <c r="J268" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K268" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L268" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -14965,13 +14965,13 @@
         <v>795</v>
       </c>
       <c r="J269" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K269" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L269" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -15003,13 +15003,13 @@
         <v>795</v>
       </c>
       <c r="J270" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K270" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L270" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -15041,13 +15041,13 @@
         <v>795</v>
       </c>
       <c r="J271" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K271" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L271" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -15079,13 +15079,13 @@
         <v>795</v>
       </c>
       <c r="J272" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K272" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L272" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -15117,13 +15117,13 @@
         <v>795</v>
       </c>
       <c r="J273" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K273" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L273" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -15155,13 +15155,13 @@
         <v>795</v>
       </c>
       <c r="J274" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K274" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L274" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -15193,13 +15193,13 @@
         <v>795</v>
       </c>
       <c r="J275" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K275" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L275" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -15231,13 +15231,13 @@
         <v>795</v>
       </c>
       <c r="J276" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K276" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L276" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -15269,13 +15269,13 @@
         <v>795</v>
       </c>
       <c r="J277" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K277" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L277" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -15307,13 +15307,13 @@
         <v>795</v>
       </c>
       <c r="J278" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K278" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L278" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -15345,13 +15345,13 @@
         <v>795</v>
       </c>
       <c r="J279" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K279" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L279" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -15383,13 +15383,13 @@
         <v>795</v>
       </c>
       <c r="J280" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K280" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L280" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -15421,13 +15421,13 @@
         <v>795</v>
       </c>
       <c r="J281" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K281" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L281" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -15459,13 +15459,13 @@
         <v>795</v>
       </c>
       <c r="J282" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K282" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L282" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -15497,13 +15497,13 @@
         <v>795</v>
       </c>
       <c r="J283" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K283" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L283" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -15535,13 +15535,13 @@
         <v>795</v>
       </c>
       <c r="J284" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K284" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L284" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -15573,13 +15573,13 @@
         <v>795</v>
       </c>
       <c r="J285" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K285" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L285" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -15611,13 +15611,13 @@
         <v>795</v>
       </c>
       <c r="J286" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K286" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L286" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -15649,13 +15649,13 @@
         <v>795</v>
       </c>
       <c r="J287" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K287" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L287" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -15687,13 +15687,13 @@
         <v>795</v>
       </c>
       <c r="J288" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K288" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L288" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -15725,13 +15725,13 @@
         <v>795</v>
       </c>
       <c r="J289" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K289" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L289" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -15763,13 +15763,13 @@
         <v>795</v>
       </c>
       <c r="J290" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K290" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L290" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -15798,13 +15798,13 @@
         <v>795</v>
       </c>
       <c r="J291" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K291" t="s">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="L291" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -15836,13 +15836,13 @@
         <v>1100</v>
       </c>
       <c r="J292" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="K292" t="s">
-        <v>1366</v>
+        <v>1325</v>
       </c>
       <c r="L292" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -15874,13 +15874,13 @@
         <v>795</v>
       </c>
       <c r="J293" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="K293" t="s">
-        <v>1367</v>
+        <v>1326</v>
       </c>
       <c r="L293" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -15912,13 +15912,13 @@
         <v>795</v>
       </c>
       <c r="J294" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K294" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L294" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -15950,13 +15950,13 @@
         <v>1176</v>
       </c>
       <c r="J295" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K295" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L295" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -15988,13 +15988,13 @@
         <v>795</v>
       </c>
       <c r="J296" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K296" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L296" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -16026,13 +16026,13 @@
         <v>795</v>
       </c>
       <c r="J297" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K297" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L297" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -16064,13 +16064,13 @@
         <v>795</v>
       </c>
       <c r="J298" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K298" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L298" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -16102,13 +16102,13 @@
         <v>795</v>
       </c>
       <c r="J299" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K299" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L299" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -16140,13 +16140,13 @@
         <v>795</v>
       </c>
       <c r="J300" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K300" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L300" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -16178,13 +16178,13 @@
         <v>795</v>
       </c>
       <c r="J301" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K301" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L301" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -16216,13 +16216,13 @@
         <v>795</v>
       </c>
       <c r="J302" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K302" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L302" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -16254,13 +16254,13 @@
         <v>795</v>
       </c>
       <c r="J303" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K303" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L303" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -16292,13 +16292,13 @@
         <v>795</v>
       </c>
       <c r="J304" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K304" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L304" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -16330,13 +16330,13 @@
         <v>795</v>
       </c>
       <c r="J305" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K305" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L305" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -16368,13 +16368,13 @@
         <v>795</v>
       </c>
       <c r="J306" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K306" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L306" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -16406,13 +16406,13 @@
         <v>795</v>
       </c>
       <c r="J307" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K307" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L307" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -16444,13 +16444,13 @@
         <v>795</v>
       </c>
       <c r="J308" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K308" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L308" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -16482,13 +16482,13 @@
         <v>795</v>
       </c>
       <c r="J309" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K309" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L309" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -16520,13 +16520,13 @@
         <v>795</v>
       </c>
       <c r="J310" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K310" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L310" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -16558,13 +16558,13 @@
         <v>795</v>
       </c>
       <c r="J311" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K311" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L311" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -16596,13 +16596,13 @@
         <v>795</v>
       </c>
       <c r="J312" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K312" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L312" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -16634,13 +16634,13 @@
         <v>795</v>
       </c>
       <c r="J313" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K313" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L313" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -16672,13 +16672,13 @@
         <v>795</v>
       </c>
       <c r="J314" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K314" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L314" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -16710,13 +16710,13 @@
         <v>795</v>
       </c>
       <c r="J315" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K315" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L315" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -16748,13 +16748,13 @@
         <v>795</v>
       </c>
       <c r="J316" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K316" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L316" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -16786,13 +16786,13 @@
         <v>795</v>
       </c>
       <c r="J317" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K317" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L317" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -16824,13 +16824,13 @@
         <v>795</v>
       </c>
       <c r="J318" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K318" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L318" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -16862,13 +16862,13 @@
         <v>795</v>
       </c>
       <c r="J319" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K319" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L319" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -16900,13 +16900,13 @@
         <v>795</v>
       </c>
       <c r="J320" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K320" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L320" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -16938,13 +16938,13 @@
         <v>795</v>
       </c>
       <c r="J321" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K321" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L321" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -16976,13 +16976,13 @@
         <v>795</v>
       </c>
       <c r="J322" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K322" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L322" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -17014,13 +17014,13 @@
         <v>795</v>
       </c>
       <c r="J323" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K323" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L323" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -17052,13 +17052,13 @@
         <v>795</v>
       </c>
       <c r="J324" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K324" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L324" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -17090,13 +17090,13 @@
         <v>795</v>
       </c>
       <c r="J325" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K325" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L325" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -17128,13 +17128,13 @@
         <v>795</v>
       </c>
       <c r="J326" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K326" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L326" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -17166,13 +17166,13 @@
         <v>795</v>
       </c>
       <c r="J327" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K327" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L327" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -17204,13 +17204,13 @@
         <v>795</v>
       </c>
       <c r="J328" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K328" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L328" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -17242,13 +17242,13 @@
         <v>795</v>
       </c>
       <c r="J329" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K329" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L329" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -17280,13 +17280,13 @@
         <v>795</v>
       </c>
       <c r="J330" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K330" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L330" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -17318,13 +17318,13 @@
         <v>795</v>
       </c>
       <c r="J331" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K331" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L331" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -17356,13 +17356,13 @@
         <v>795</v>
       </c>
       <c r="J332" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K332" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L332" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -17394,13 +17394,13 @@
         <v>795</v>
       </c>
       <c r="J333" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K333" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L333" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -17432,13 +17432,13 @@
         <v>795</v>
       </c>
       <c r="J334" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K334" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L334" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -17470,13 +17470,13 @@
         <v>795</v>
       </c>
       <c r="J335" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K335" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L335" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -17508,13 +17508,13 @@
         <v>795</v>
       </c>
       <c r="J336" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K336" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L336" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -17546,13 +17546,13 @@
         <v>795</v>
       </c>
       <c r="J337" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K337" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L337" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -17584,13 +17584,13 @@
         <v>795</v>
       </c>
       <c r="J338" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K338" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L338" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -17622,13 +17622,13 @@
         <v>795</v>
       </c>
       <c r="J339" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K339" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L339" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -17660,13 +17660,13 @@
         <v>795</v>
       </c>
       <c r="J340" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K340" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L340" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -17698,13 +17698,13 @@
         <v>795</v>
       </c>
       <c r="J341" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K341" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L341" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -17736,13 +17736,13 @@
         <v>795</v>
       </c>
       <c r="J342" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K342" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L342" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -17774,13 +17774,13 @@
         <v>795</v>
       </c>
       <c r="J343" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K343" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L343" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -17812,13 +17812,13 @@
         <v>795</v>
       </c>
       <c r="J344" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K344" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L344" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -17850,13 +17850,13 @@
         <v>795</v>
       </c>
       <c r="J345" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K345" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L345" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -17888,13 +17888,13 @@
         <v>795</v>
       </c>
       <c r="J346" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K346" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L346" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -17926,13 +17926,13 @@
         <v>795</v>
       </c>
       <c r="J347" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K347" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L347" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -17961,13 +17961,13 @@
         <v>795</v>
       </c>
       <c r="J348" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K348" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L348" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -17999,13 +17999,13 @@
         <v>795</v>
       </c>
       <c r="J349" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="K349" t="s">
-        <v>1360</v>
+        <v>1319</v>
       </c>
       <c r="L349" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -18034,13 +18034,13 @@
         <v>795</v>
       </c>
       <c r="J350" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="K350" t="s">
-        <v>1361</v>
+        <v>1320</v>
       </c>
       <c r="L350" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -18072,13 +18072,13 @@
         <v>1173</v>
       </c>
       <c r="J351" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="K351" t="s">
-        <v>1362</v>
+        <v>1321</v>
       </c>
       <c r="L351" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -18110,13 +18110,13 @@
         <v>795</v>
       </c>
       <c r="J352" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K352" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L352" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -18148,13 +18148,13 @@
         <v>1176</v>
       </c>
       <c r="J353" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K353" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L353" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -18186,13 +18186,13 @@
         <v>795</v>
       </c>
       <c r="J354" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K354" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L354" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -18224,13 +18224,13 @@
         <v>795</v>
       </c>
       <c r="J355" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K355" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L355" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -18262,13 +18262,13 @@
         <v>795</v>
       </c>
       <c r="J356" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K356" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L356" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -18300,13 +18300,13 @@
         <v>795</v>
       </c>
       <c r="J357" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K357" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L357" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -18338,13 +18338,13 @@
         <v>795</v>
       </c>
       <c r="J358" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K358" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L358" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -18376,13 +18376,13 @@
         <v>795</v>
       </c>
       <c r="J359" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K359" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L359" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -18414,13 +18414,13 @@
         <v>795</v>
       </c>
       <c r="J360" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K360" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L360" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -18452,13 +18452,13 @@
         <v>795</v>
       </c>
       <c r="J361" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K361" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L361" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -18490,13 +18490,13 @@
         <v>795</v>
       </c>
       <c r="J362" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K362" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L362" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -18528,13 +18528,13 @@
         <v>795</v>
       </c>
       <c r="J363" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K363" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L363" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -18566,13 +18566,13 @@
         <v>795</v>
       </c>
       <c r="J364" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K364" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L364" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -18604,13 +18604,13 @@
         <v>795</v>
       </c>
       <c r="J365" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K365" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L365" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -18642,13 +18642,13 @@
         <v>795</v>
       </c>
       <c r="J366" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K366" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L366" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -18680,13 +18680,13 @@
         <v>795</v>
       </c>
       <c r="J367" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K367" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L367" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -18718,13 +18718,13 @@
         <v>795</v>
       </c>
       <c r="J368" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K368" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L368" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -18756,13 +18756,13 @@
         <v>795</v>
       </c>
       <c r="J369" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K369" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L369" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -18794,13 +18794,13 @@
         <v>795</v>
       </c>
       <c r="J370" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K370" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L370" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -18832,13 +18832,13 @@
         <v>795</v>
       </c>
       <c r="J371" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K371" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L371" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -18870,13 +18870,13 @@
         <v>795</v>
       </c>
       <c r="J372" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K372" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L372" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -18908,13 +18908,13 @@
         <v>795</v>
       </c>
       <c r="J373" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K373" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L373" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -18946,13 +18946,13 @@
         <v>795</v>
       </c>
       <c r="J374" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K374" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L374" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -18984,13 +18984,13 @@
         <v>795</v>
       </c>
       <c r="J375" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K375" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L375" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -19022,13 +19022,13 @@
         <v>795</v>
       </c>
       <c r="J376" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K376" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L376" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -19060,13 +19060,13 @@
         <v>795</v>
       </c>
       <c r="J377" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K377" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L377" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -19098,13 +19098,13 @@
         <v>795</v>
       </c>
       <c r="J378" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K378" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L378" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -19136,13 +19136,13 @@
         <v>795</v>
       </c>
       <c r="J379" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K379" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L379" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -19174,13 +19174,13 @@
         <v>795</v>
       </c>
       <c r="J380" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K380" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L380" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -19212,13 +19212,13 @@
         <v>795</v>
       </c>
       <c r="J381" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K381" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L381" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -19250,13 +19250,13 @@
         <v>795</v>
       </c>
       <c r="J382" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K382" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L382" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -19288,13 +19288,13 @@
         <v>795</v>
       </c>
       <c r="J383" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K383" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L383" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -19326,13 +19326,13 @@
         <v>795</v>
       </c>
       <c r="J384" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K384" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L384" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -19364,13 +19364,13 @@
         <v>795</v>
       </c>
       <c r="J385" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K385" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L385" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -19402,13 +19402,13 @@
         <v>795</v>
       </c>
       <c r="J386" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K386" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L386" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -19440,13 +19440,13 @@
         <v>795</v>
       </c>
       <c r="J387" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K387" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L387" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -19478,13 +19478,13 @@
         <v>795</v>
       </c>
       <c r="J388" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K388" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L388" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -19516,13 +19516,13 @@
         <v>795</v>
       </c>
       <c r="J389" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K389" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L389" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -19554,13 +19554,13 @@
         <v>795</v>
       </c>
       <c r="J390" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K390" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L390" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -19592,13 +19592,13 @@
         <v>795</v>
       </c>
       <c r="J391" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K391" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L391" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -19630,13 +19630,13 @@
         <v>795</v>
       </c>
       <c r="J392" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K392" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L392" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -19668,13 +19668,13 @@
         <v>795</v>
       </c>
       <c r="J393" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K393" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L393" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -19706,13 +19706,13 @@
         <v>795</v>
       </c>
       <c r="J394" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K394" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L394" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -19744,13 +19744,13 @@
         <v>795</v>
       </c>
       <c r="J395" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K395" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L395" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -19782,13 +19782,13 @@
         <v>795</v>
       </c>
       <c r="J396" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K396" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L396" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -19820,13 +19820,13 @@
         <v>795</v>
       </c>
       <c r="J397" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K397" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L397" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -19858,13 +19858,13 @@
         <v>795</v>
       </c>
       <c r="J398" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K398" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L398" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -19896,13 +19896,13 @@
         <v>795</v>
       </c>
       <c r="J399" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K399" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L399" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -19934,13 +19934,13 @@
         <v>795</v>
       </c>
       <c r="J400" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K400" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L400" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -19972,13 +19972,13 @@
         <v>795</v>
       </c>
       <c r="J401" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K401" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L401" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -20010,13 +20010,13 @@
         <v>795</v>
       </c>
       <c r="J402" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K402" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L402" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -20048,13 +20048,13 @@
         <v>795</v>
       </c>
       <c r="J403" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K403" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L403" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -20086,13 +20086,13 @@
         <v>795</v>
       </c>
       <c r="J404" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K404" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L404" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -20124,13 +20124,13 @@
         <v>795</v>
       </c>
       <c r="J405" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K405" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L405" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -20162,13 +20162,13 @@
         <v>795</v>
       </c>
       <c r="J406" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K406" t="s">
-        <v>1368</v>
+        <v>1327</v>
       </c>
       <c r="L406" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -20200,13 +20200,13 @@
         <v>1177</v>
       </c>
       <c r="J407" t="s">
-        <v>1262</v>
+        <v>1217</v>
       </c>
       <c r="K407" t="s">
-        <v>1369</v>
+        <v>1328</v>
       </c>
       <c r="L407" t="s">
-        <v>1419</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -20235,13 +20235,13 @@
         <v>795</v>
       </c>
       <c r="J408" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="K408" t="s">
-        <v>1370</v>
+        <v>1329</v>
       </c>
       <c r="L408" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -20273,13 +20273,13 @@
         <v>1172</v>
       </c>
       <c r="J409" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K409" t="s">
-        <v>1371</v>
+        <v>1278</v>
       </c>
       <c r="L409" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -20311,13 +20311,13 @@
         <v>795</v>
       </c>
       <c r="J410" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="K410" t="s">
-        <v>1372</v>
+        <v>1330</v>
       </c>
       <c r="L410" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -20349,13 +20349,13 @@
         <v>795</v>
       </c>
       <c r="J411" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="K411" t="s">
-        <v>1373</v>
+        <v>1331</v>
       </c>
       <c r="L411" t="s">
-        <v>1458</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -20387,13 +20387,13 @@
         <v>795</v>
       </c>
       <c r="J412" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="K412" t="s">
-        <v>1374</v>
+        <v>1282</v>
       </c>
       <c r="L412" t="s">
-        <v>1416</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -20422,13 +20422,13 @@
         <v>795</v>
       </c>
       <c r="J413" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K413" t="s">
-        <v>1375</v>
+        <v>1288</v>
       </c>
       <c r="L413" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -20460,13 +20460,13 @@
         <v>795</v>
       </c>
       <c r="J414" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="K414" t="s">
-        <v>1376</v>
+        <v>1297</v>
       </c>
       <c r="L414" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -20498,13 +20498,13 @@
         <v>1178</v>
       </c>
       <c r="J415" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K415" t="s">
-        <v>1377</v>
+        <v>1278</v>
       </c>
       <c r="L415" t="s">
-        <v>1413</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -20536,13 +20536,13 @@
         <v>1179</v>
       </c>
       <c r="J416" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K416" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="L416" t="s">
-        <v>1413</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -20574,13 +20574,13 @@
         <v>1180</v>
       </c>
       <c r="J417" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K417" t="s">
-        <v>1379</v>
+        <v>1288</v>
       </c>
       <c r="L417" t="s">
-        <v>1421</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -20612,13 +20612,13 @@
         <v>1181</v>
       </c>
       <c r="J418" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K418" t="s">
-        <v>1375</v>
+        <v>1288</v>
       </c>
       <c r="L418" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -20650,13 +20650,13 @@
         <v>1124</v>
       </c>
       <c r="J419" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K419" t="s">
-        <v>1380</v>
+        <v>1278</v>
       </c>
       <c r="L419" t="s">
-        <v>1413</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -20688,13 +20688,13 @@
         <v>1182</v>
       </c>
       <c r="J420" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="K420" t="s">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="L420" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -20726,13 +20726,13 @@
         <v>1183</v>
       </c>
       <c r="J421" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="K421" t="s">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="L421" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -20764,13 +20764,13 @@
         <v>1184</v>
       </c>
       <c r="J422" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="K422" t="s">
-        <v>1382</v>
+        <v>1333</v>
       </c>
       <c r="L422" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -20802,13 +20802,13 @@
         <v>1185</v>
       </c>
       <c r="J423" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="K423" t="s">
-        <v>1382</v>
+        <v>1333</v>
       </c>
       <c r="L423" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -20840,13 +20840,13 @@
         <v>795</v>
       </c>
       <c r="J424" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K424" t="s">
-        <v>1383</v>
+        <v>1288</v>
       </c>
       <c r="L424" t="s">
-        <v>1421</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -20878,13 +20878,13 @@
         <v>795</v>
       </c>
       <c r="J425" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K425" t="s">
-        <v>1384</v>
+        <v>1288</v>
       </c>
       <c r="L425" t="s">
-        <v>1421</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -20916,13 +20916,13 @@
         <v>795</v>
       </c>
       <c r="J426" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="K426" t="s">
-        <v>1385</v>
+        <v>1334</v>
       </c>
       <c r="L426" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -20954,13 +20954,13 @@
         <v>795</v>
       </c>
       <c r="J427" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="K427" t="s">
-        <v>1385</v>
+        <v>1334</v>
       </c>
       <c r="L427" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -20989,13 +20989,13 @@
         <v>795</v>
       </c>
       <c r="J428" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K428" t="s">
-        <v>1384</v>
+        <v>1288</v>
       </c>
       <c r="L428" t="s">
-        <v>1421</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -21027,13 +21027,13 @@
         <v>795</v>
       </c>
       <c r="J429" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K429" t="s">
-        <v>1386</v>
+        <v>1278</v>
       </c>
       <c r="L429" t="s">
-        <v>1413</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -21065,13 +21065,13 @@
         <v>795</v>
       </c>
       <c r="J430" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="K430" t="s">
-        <v>1387</v>
+        <v>1335</v>
       </c>
       <c r="L430" t="s">
-        <v>1442</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -21103,13 +21103,13 @@
         <v>1186</v>
       </c>
       <c r="J431" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="K431" t="s">
-        <v>1388</v>
+        <v>1336</v>
       </c>
       <c r="L431" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -21141,13 +21141,13 @@
         <v>1180</v>
       </c>
       <c r="J432" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K432" t="s">
-        <v>1389</v>
+        <v>1288</v>
       </c>
       <c r="L432" t="s">
-        <v>1421</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -21179,13 +21179,13 @@
         <v>1187</v>
       </c>
       <c r="J433" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="K433" t="s">
-        <v>1390</v>
+        <v>1321</v>
       </c>
       <c r="L433" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -21217,13 +21217,13 @@
         <v>1188</v>
       </c>
       <c r="J434" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K434" t="s">
-        <v>1391</v>
+        <v>1278</v>
       </c>
       <c r="L434" t="s">
-        <v>1413</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -21255,13 +21255,13 @@
         <v>795</v>
       </c>
       <c r="J435" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="K435" t="s">
-        <v>1392</v>
+        <v>1337</v>
       </c>
       <c r="L435" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -21293,13 +21293,13 @@
         <v>1188</v>
       </c>
       <c r="J436" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K436" t="s">
-        <v>1391</v>
+        <v>1278</v>
       </c>
       <c r="L436" t="s">
-        <v>1413</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -21331,13 +21331,13 @@
         <v>795</v>
       </c>
       <c r="J437" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="K437" t="s">
-        <v>1392</v>
+        <v>1337</v>
       </c>
       <c r="L437" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -21369,13 +21369,13 @@
         <v>1189</v>
       </c>
       <c r="J438" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K438" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L438" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -21407,13 +21407,13 @@
         <v>1099</v>
       </c>
       <c r="J439" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K439" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L439" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -21445,13 +21445,13 @@
         <v>1189</v>
       </c>
       <c r="J440" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K440" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L440" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -21483,13 +21483,13 @@
         <v>1190</v>
       </c>
       <c r="J441" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K441" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L441" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -21521,13 +21521,13 @@
         <v>1191</v>
       </c>
       <c r="J442" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K442" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L442" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -21559,13 +21559,13 @@
         <v>1099</v>
       </c>
       <c r="J443" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K443" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L443" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -21597,13 +21597,13 @@
         <v>1152</v>
       </c>
       <c r="J444" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K444" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L444" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -21635,13 +21635,13 @@
         <v>1192</v>
       </c>
       <c r="J445" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K445" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L445" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -21673,13 +21673,13 @@
         <v>1115</v>
       </c>
       <c r="J446" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K446" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L446" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -21711,13 +21711,13 @@
         <v>1193</v>
       </c>
       <c r="J447" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K447" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L447" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -21749,13 +21749,13 @@
         <v>1180</v>
       </c>
       <c r="J448" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K448" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L448" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -21787,13 +21787,13 @@
         <v>1118</v>
       </c>
       <c r="J449" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K449" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L449" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -21825,13 +21825,13 @@
         <v>1193</v>
       </c>
       <c r="J450" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K450" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L450" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -21863,13 +21863,13 @@
         <v>1189</v>
       </c>
       <c r="J451" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="K451" t="s">
-        <v>1393</v>
+        <v>1338</v>
       </c>
       <c r="L451" t="s">
-        <v>1405</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -21901,13 +21901,13 @@
         <v>795</v>
       </c>
       <c r="J452" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="K452" t="s">
-        <v>1394</v>
+        <v>1339</v>
       </c>
       <c r="L452" t="s">
-        <v>1411</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -21939,13 +21939,13 @@
         <v>795</v>
       </c>
       <c r="J453" t="s">
-        <v>1274</v>
+        <v>1217</v>
       </c>
       <c r="K453" t="s">
-        <v>1395</v>
+        <v>1340</v>
       </c>
       <c r="L453" t="s">
-        <v>1419</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -21977,13 +21977,13 @@
         <v>1194</v>
       </c>
       <c r="J454" t="s">
-        <v>1275</v>
+        <v>1217</v>
       </c>
       <c r="K454" t="s">
-        <v>1396</v>
+        <v>1341</v>
       </c>
       <c r="L454" t="s">
-        <v>1419</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -22015,13 +22015,13 @@
         <v>1195</v>
       </c>
       <c r="J455" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K455" t="s">
-        <v>1397</v>
+        <v>1278</v>
       </c>
       <c r="L455" t="s">
-        <v>1413</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -22053,13 +22053,13 @@
         <v>1093</v>
       </c>
       <c r="J456" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K456" t="s">
-        <v>1397</v>
+        <v>1278</v>
       </c>
       <c r="L456" t="s">
-        <v>1413</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -22091,13 +22091,13 @@
         <v>795</v>
       </c>
       <c r="J457" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K457" t="s">
-        <v>1397</v>
+        <v>1278</v>
       </c>
       <c r="L457" t="s">
-        <v>1413</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
